--- a/BackTest/2019-10-15 BackTest GXC.xlsx
+++ b/BackTest/2019-10-15 BackTest GXC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>36</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-2.857142857142857</v>
+      </c>
       <c r="L12" t="n">
         <v>615.9</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>39</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-12.5</v>
+      </c>
       <c r="L13" t="n">
         <v>616.1</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>43</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-22.22222222222222</v>
+      </c>
       <c r="L14" t="n">
         <v>615.3</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>46</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-47.05882352941176</v>
+      </c>
       <c r="L15" t="n">
         <v>614.2</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>47</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-39.39393939393939</v>
+      </c>
       <c r="L16" t="n">
         <v>612.7</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>47</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-37.5</v>
+      </c>
       <c r="L17" t="n">
         <v>611.4</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>48</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-53.33333333333334</v>
+      </c>
       <c r="L18" t="n">
         <v>610.1</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>50</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-37.93103448275862</v>
+      </c>
       <c r="L19" t="n">
         <v>608.7</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>52</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-42.85714285714285</v>
+      </c>
       <c r="L20" t="n">
         <v>607.8</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>53</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>5.88235294117647</v>
+      </c>
       <c r="L21" t="n">
         <v>606.7</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>58</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>15.78947368421053</v>
+      </c>
       <c r="L22" t="n">
         <v>607.3</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>64</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.587301587301587</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L23" t="n">
         <v>607</v>
@@ -1466,7 +1488,7 @@
         <v>67</v>
       </c>
       <c r="K24" t="n">
-        <v>-16.66666666666666</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L24" t="n">
         <v>606.8</v>
@@ -1515,7 +1537,7 @@
         <v>70</v>
       </c>
       <c r="K25" t="n">
-        <v>-11.11111111111111</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L25" t="n">
         <v>607.2</v>
@@ -1564,7 +1586,7 @@
         <v>75</v>
       </c>
       <c r="K26" t="n">
-        <v>-26.98412698412698</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L26" t="n">
         <v>607</v>
@@ -1613,7 +1635,7 @@
         <v>88</v>
       </c>
       <c r="K27" t="n">
-        <v>-37.83783783783784</v>
+        <v>-35</v>
       </c>
       <c r="L27" t="n">
         <v>605.5</v>
@@ -1662,7 +1684,7 @@
         <v>98</v>
       </c>
       <c r="K28" t="n">
-        <v>-20.48192771084337</v>
+        <v>-12.5</v>
       </c>
       <c r="L28" t="n">
         <v>605.1</v>
@@ -1711,7 +1733,7 @@
         <v>98</v>
       </c>
       <c r="K29" t="n">
-        <v>-25</v>
+        <v>-17.39130434782609</v>
       </c>
       <c r="L29" t="n">
         <v>604.5</v>
@@ -1760,7 +1782,7 @@
         <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>-18.9873417721519</v>
+        <v>-14.8936170212766</v>
       </c>
       <c r="L30" t="n">
         <v>603.9</v>
@@ -1809,7 +1831,7 @@
         <v>103</v>
       </c>
       <c r="K31" t="n">
-        <v>-26.58227848101265</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L31" t="n">
         <v>602.9</v>
@@ -1860,7 +1882,7 @@
         <v>104</v>
       </c>
       <c r="K32" t="n">
-        <v>-14.70588235294118</v>
+        <v>-25</v>
       </c>
       <c r="L32" t="n">
         <v>601.3</v>
@@ -1911,7 +1933,7 @@
         <v>105</v>
       </c>
       <c r="K33" t="n">
-        <v>-18.18181818181818</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L33" t="n">
         <v>600.4</v>
@@ -1962,7 +1984,7 @@
         <v>109</v>
       </c>
       <c r="K34" t="n">
-        <v>-6.060606060606061</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L34" t="n">
         <v>600.2</v>
@@ -2013,7 +2035,7 @@
         <v>114</v>
       </c>
       <c r="K35" t="n">
-        <v>5.88235294117647</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L35" t="n">
         <v>600.2</v>
@@ -2064,7 +2086,7 @@
         <v>115</v>
       </c>
       <c r="K36" t="n">
-        <v>2.941176470588235</v>
+        <v>62.96296296296296</v>
       </c>
       <c r="L36" t="n">
         <v>600.6</v>
@@ -2115,7 +2137,7 @@
         <v>115</v>
       </c>
       <c r="K37" t="n">
-        <v>2.941176470588235</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L37" t="n">
         <v>602.3</v>
@@ -2166,7 +2188,7 @@
         <v>118</v>
       </c>
       <c r="K38" t="n">
-        <v>8.571428571428571</v>
+        <v>50</v>
       </c>
       <c r="L38" t="n">
         <v>603.3</v>
@@ -2217,7 +2239,7 @@
         <v>123</v>
       </c>
       <c r="K39" t="n">
-        <v>12.32876712328767</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L39" t="n">
         <v>604.8</v>
@@ -2268,7 +2290,7 @@
         <v>128</v>
       </c>
       <c r="K40" t="n">
-        <v>15.78947368421053</v>
+        <v>84</v>
       </c>
       <c r="L40" t="n">
         <v>606.6</v>
@@ -2319,7 +2341,7 @@
         <v>129</v>
       </c>
       <c r="K41" t="n">
-        <v>15.78947368421053</v>
+        <v>92</v>
       </c>
       <c r="L41" t="n">
         <v>608.8</v>
@@ -2370,7 +2392,7 @@
         <v>157</v>
       </c>
       <c r="K42" t="n">
-        <v>35.35353535353536</v>
+        <v>96.15384615384616</v>
       </c>
       <c r="L42" t="n">
         <v>613.9</v>
@@ -2421,7 +2443,7 @@
         <v>170</v>
       </c>
       <c r="K43" t="n">
-        <v>26.41509433962264</v>
+        <v>54.09836065573771</v>
       </c>
       <c r="L43" t="n">
         <v>617.6</v>
@@ -2472,7 +2494,7 @@
         <v>173</v>
       </c>
       <c r="K44" t="n">
-        <v>32.0754716981132</v>
+        <v>52.54237288135594</v>
       </c>
       <c r="L44" t="n">
         <v>621.2</v>
@@ -2523,7 +2545,7 @@
         <v>174</v>
       </c>
       <c r="K45" t="n">
-        <v>28.84615384615384</v>
+        <v>52.54237288135594</v>
       </c>
       <c r="L45" t="n">
         <v>624.2</v>
@@ -2574,7 +2596,7 @@
         <v>182</v>
       </c>
       <c r="K46" t="n">
-        <v>25.23364485981308</v>
+        <v>34.32835820895522</v>
       </c>
       <c r="L46" t="n">
         <v>626.5</v>
@@ -2625,7 +2647,7 @@
         <v>187</v>
       </c>
       <c r="K47" t="n">
-        <v>45.45454545454545</v>
+        <v>36.23188405797102</v>
       </c>
       <c r="L47" t="n">
         <v>629.3</v>
@@ -2676,7 +2698,7 @@
         <v>190</v>
       </c>
       <c r="K48" t="n">
-        <v>41.30434782608695</v>
+        <v>34.32835820895522</v>
       </c>
       <c r="L48" t="n">
         <v>632.1</v>
@@ -2727,7 +2749,7 @@
         <v>204</v>
       </c>
       <c r="K49" t="n">
-        <v>49.0566037735849</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="L49" t="n">
         <v>635.8</v>
@@ -2778,7 +2800,7 @@
         <v>210</v>
       </c>
       <c r="K50" t="n">
-        <v>50.90909090909091</v>
+        <v>45.67901234567901</v>
       </c>
       <c r="L50" t="n">
         <v>639.6</v>
@@ -2829,7 +2851,7 @@
         <v>211</v>
       </c>
       <c r="K51" t="n">
-        <v>53.70370370370371</v>
+        <v>14.81481481481481</v>
       </c>
       <c r="L51" t="n">
         <v>643.2</v>
@@ -2880,7 +2902,7 @@
         <v>213</v>
       </c>
       <c r="K52" t="n">
-        <v>55.96330275229357</v>
+        <v>53.48837209302325</v>
       </c>
       <c r="L52" t="n">
         <v>644.2</v>
@@ -2931,7 +2953,7 @@
         <v>221</v>
       </c>
       <c r="K53" t="n">
-        <v>58.62068965517241</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L53" t="n">
         <v>647.3</v>
@@ -2982,7 +3004,7 @@
         <v>225</v>
       </c>
       <c r="K54" t="n">
-        <v>58.62068965517241</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L54" t="n">
         <v>650.5</v>
@@ -3033,7 +3055,7 @@
         <v>235</v>
       </c>
       <c r="K55" t="n">
-        <v>60.33057851239669</v>
+        <v>96.22641509433963</v>
       </c>
       <c r="L55" t="n">
         <v>654.8</v>
@@ -3084,7 +3106,7 @@
         <v>237</v>
       </c>
       <c r="K56" t="n">
-        <v>62.29508196721311</v>
+        <v>96</v>
       </c>
       <c r="L56" t="n">
         <v>660.1</v>
@@ -3135,7 +3157,7 @@
         <v>243</v>
       </c>
       <c r="K57" t="n">
-        <v>54.6875</v>
+        <v>73.58490566037736</v>
       </c>
       <c r="L57" t="n">
         <v>664.3</v>
@@ -3186,7 +3208,7 @@
         <v>243</v>
       </c>
       <c r="K58" t="n">
-        <v>53.6</v>
+        <v>64.1025641025641</v>
       </c>
       <c r="L58" t="n">
         <v>668.2</v>
@@ -3237,7 +3259,7 @@
         <v>243</v>
       </c>
       <c r="K59" t="n">
-        <v>51.66666666666667</v>
+        <v>57.57575757575758</v>
       </c>
       <c r="L59" t="n">
         <v>670.7</v>
@@ -3288,7 +3310,7 @@
         <v>244</v>
       </c>
       <c r="K60" t="n">
-        <v>50</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L60" t="n">
         <v>672.7</v>
@@ -3339,7 +3361,7 @@
         <v>247</v>
       </c>
       <c r="K61" t="n">
-        <v>45.76271186440678</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L61" t="n">
         <v>674.5</v>
@@ -3390,7 +3412,7 @@
         <v>263</v>
       </c>
       <c r="K62" t="n">
-        <v>9.433962264150944</v>
+        <v>-19.04761904761905</v>
       </c>
       <c r="L62" t="n">
         <v>674.5</v>
@@ -3441,7 +3463,7 @@
         <v>265</v>
       </c>
       <c r="K63" t="n">
-        <v>26.31578947368421</v>
+        <v>-25</v>
       </c>
       <c r="L63" t="n">
         <v>673.9</v>
@@ -3492,7 +3514,7 @@
         <v>267</v>
       </c>
       <c r="K64" t="n">
-        <v>25.53191489361702</v>
+        <v>-56.25</v>
       </c>
       <c r="L64" t="n">
         <v>673.1</v>
@@ -3543,7 +3565,7 @@
         <v>272</v>
       </c>
       <c r="K65" t="n">
-        <v>30.61224489795918</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L65" t="n">
         <v>671.8</v>
@@ -3594,7 +3616,7 @@
         <v>275</v>
       </c>
       <c r="K66" t="n">
-        <v>37.63440860215054</v>
+        <v>-37.5</v>
       </c>
       <c r="L66" t="n">
         <v>670</v>
@@ -3645,7 +3667,7 @@
         <v>278</v>
       </c>
       <c r="K67" t="n">
-        <v>36.26373626373626</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L67" t="n">
         <v>669.1</v>
@@ -3696,7 +3718,7 @@
         <v>286</v>
       </c>
       <c r="K68" t="n">
-        <v>39.58333333333333</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L68" t="n">
         <v>669</v>
@@ -3747,7 +3769,7 @@
         <v>295</v>
       </c>
       <c r="K69" t="n">
-        <v>16.48351648351648</v>
+        <v>-21.56862745098039</v>
       </c>
       <c r="L69" t="n">
         <v>668</v>
@@ -3798,7 +3820,7 @@
         <v>298</v>
       </c>
       <c r="K70" t="n">
-        <v>13.63636363636363</v>
+        <v>-9.803921568627452</v>
       </c>
       <c r="L70" t="n">
         <v>667.2</v>
@@ -3849,7 +3871,7 @@
         <v>298</v>
       </c>
       <c r="K71" t="n">
-        <v>14.94252873563219</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L71" t="n">
         <v>666.7</v>
@@ -3900,7 +3922,7 @@
         <v>303</v>
       </c>
       <c r="K72" t="n">
-        <v>17.77777777777778</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L72" t="n">
         <v>668.3</v>
@@ -3951,7 +3973,7 @@
         <v>311</v>
       </c>
       <c r="K73" t="n">
-        <v>17.77777777777778</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L73" t="n">
         <v>670.5</v>
@@ -4002,7 +4024,7 @@
         <v>314</v>
       </c>
       <c r="K74" t="n">
-        <v>10.1123595505618</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L74" t="n">
         <v>672.2</v>
@@ -4053,7 +4075,7 @@
         <v>318</v>
       </c>
       <c r="K75" t="n">
-        <v>-6.024096385542169</v>
+        <v>25.58139534883721</v>
       </c>
       <c r="L75" t="n">
         <v>673</v>
@@ -4104,7 +4126,7 @@
         <v>320</v>
       </c>
       <c r="K76" t="n">
-        <v>-10.8433734939759</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L76" t="n">
         <v>673.9</v>
@@ -4155,7 +4177,7 @@
         <v>327</v>
       </c>
       <c r="K77" t="n">
-        <v>4.761904761904762</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L77" t="n">
         <v>675.2</v>
@@ -4206,7 +4228,7 @@
         <v>338</v>
       </c>
       <c r="K78" t="n">
-        <v>-7.368421052631578</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L78" t="n">
         <v>674.6</v>
@@ -4257,7 +4279,7 @@
         <v>339</v>
       </c>
       <c r="K79" t="n">
-        <v>-6.25</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L79" t="n">
         <v>675</v>
@@ -4308,7 +4330,7 @@
         <v>339</v>
       </c>
       <c r="K80" t="n">
-        <v>-7.368421052631578</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L80" t="n">
         <v>675.1</v>
@@ -4359,7 +4381,7 @@
         <v>345</v>
       </c>
       <c r="K81" t="n">
-        <v>2.040816326530612</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L81" t="n">
         <v>675.8</v>
@@ -4410,7 +4432,7 @@
         <v>351</v>
       </c>
       <c r="K82" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>676.6</v>
@@ -4461,7 +4483,7 @@
         <v>355</v>
       </c>
       <c r="K83" t="n">
-        <v>28.88888888888889</v>
+        <v>17.07317073170732</v>
       </c>
       <c r="L83" t="n">
         <v>677</v>
@@ -4512,7 +4534,7 @@
         <v>368</v>
       </c>
       <c r="K84" t="n">
-        <v>36.63366336633663</v>
+        <v>48</v>
       </c>
       <c r="L84" t="n">
         <v>679</v>
@@ -4563,7 +4585,7 @@
         <v>375</v>
       </c>
       <c r="K85" t="n">
-        <v>24.27184466019418</v>
+        <v>34.54545454545455</v>
       </c>
       <c r="L85" t="n">
         <v>680.7</v>
@@ -4614,7 +4636,7 @@
         <v>377</v>
       </c>
       <c r="K86" t="n">
-        <v>29.41176470588236</v>
+        <v>28</v>
       </c>
       <c r="L86" t="n">
         <v>682.8</v>
@@ -4665,7 +4687,7 @@
         <v>378</v>
       </c>
       <c r="K87" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L87" t="n">
         <v>684.1</v>
@@ -4716,7 +4738,7 @@
         <v>383</v>
       </c>
       <c r="K88" t="n">
-        <v>23.71134020618556</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L88" t="n">
         <v>687</v>
@@ -4767,7 +4789,7 @@
         <v>394</v>
       </c>
       <c r="K89" t="n">
-        <v>43.43434343434344</v>
+        <v>70.90909090909091</v>
       </c>
       <c r="L89" t="n">
         <v>690.9</v>
@@ -4818,7 +4840,7 @@
         <v>397</v>
       </c>
       <c r="K90" t="n">
-        <v>43.43434343434344</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L90" t="n">
         <v>695.1</v>
@@ -4869,7 +4891,7 @@
         <v>415</v>
       </c>
       <c r="K91" t="n">
-        <v>21.36752136752137</v>
+        <v>18.75</v>
       </c>
       <c r="L91" t="n">
         <v>696.9</v>
@@ -4920,7 +4942,7 @@
         <v>416</v>
       </c>
       <c r="K92" t="n">
-        <v>16.8141592920354</v>
+        <v>11.47540983606557</v>
       </c>
       <c r="L92" t="n">
         <v>698</v>
@@ -4971,7 +4993,7 @@
         <v>419</v>
       </c>
       <c r="K93" t="n">
-        <v>12.96296296296296</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L93" t="n">
         <v>699</v>
@@ -5022,7 +5044,7 @@
         <v>421</v>
       </c>
       <c r="K94" t="n">
-        <v>14.01869158878505</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L94" t="n">
         <v>698.5</v>
@@ -5073,7 +5095,7 @@
         <v>428</v>
       </c>
       <c r="K95" t="n">
-        <v>10.90909090909091</v>
+        <v>-13.72549019607843</v>
       </c>
       <c r="L95" t="n">
         <v>698</v>
@@ -5124,7 +5146,7 @@
         <v>428</v>
       </c>
       <c r="K96" t="n">
-        <v>12.96296296296296</v>
+        <v>-12</v>
       </c>
       <c r="L96" t="n">
         <v>697.3</v>
@@ -5175,7 +5197,7 @@
         <v>436</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.9174311926605505</v>
+        <v>-35.84905660377358</v>
       </c>
       <c r="L97" t="n">
         <v>695.9</v>
@@ -5226,7 +5248,7 @@
         <v>439</v>
       </c>
       <c r="K98" t="n">
-        <v>6.930693069306932</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>693.7</v>
@@ -5277,7 +5299,7 @@
         <v>441</v>
       </c>
       <c r="K99" t="n">
-        <v>3.92156862745098</v>
+        <v>-86.36363636363636</v>
       </c>
       <c r="L99" t="n">
         <v>690.2</v>
@@ -5328,7 +5350,7 @@
         <v>441</v>
       </c>
       <c r="K100" t="n">
-        <v>3.92156862745098</v>
+        <v>-76.92307692307693</v>
       </c>
       <c r="L100" t="n">
         <v>686.4</v>
@@ -5379,7 +5401,7 @@
         <v>444</v>
       </c>
       <c r="K101" t="n">
-        <v>-5.05050505050505</v>
+        <v>-78.57142857142857</v>
       </c>
       <c r="L101" t="n">
         <v>684.1</v>
@@ -5430,7 +5452,7 @@
         <v>444</v>
       </c>
       <c r="K102" t="n">
-        <v>-11.82795698924731</v>
+        <v>-100</v>
       </c>
       <c r="L102" t="n">
         <v>681.9</v>
@@ -5481,7 +5503,7 @@
         <v>450</v>
       </c>
       <c r="K103" t="n">
-        <v>-9.473684210526317</v>
+        <v>-58.62068965517241</v>
       </c>
       <c r="L103" t="n">
         <v>680</v>
@@ -5532,7 +5554,7 @@
         <v>458</v>
       </c>
       <c r="K104" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L104" t="n">
         <v>677.5</v>
@@ -5583,7 +5605,7 @@
         <v>467</v>
       </c>
       <c r="K105" t="n">
-        <v>-15.21739130434783</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L105" t="n">
         <v>676.6</v>
@@ -5634,7 +5656,7 @@
         <v>468</v>
       </c>
       <c r="K106" t="n">
-        <v>-16.48351648351648</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>675.8</v>
@@ -5685,7 +5707,7 @@
         <v>474</v>
       </c>
       <c r="K107" t="n">
-        <v>-20.83333333333334</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L107" t="n">
         <v>675.2</v>
@@ -5736,7 +5758,7 @@
         <v>475</v>
       </c>
       <c r="K108" t="n">
-        <v>-26.08695652173913</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>675</v>
@@ -5787,7 +5809,7 @@
         <v>480</v>
       </c>
       <c r="K109" t="n">
-        <v>-46.51162790697674</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L109" t="n">
         <v>674.5</v>
@@ -5838,7 +5860,7 @@
         <v>481</v>
       </c>
       <c r="K110" t="n">
-        <v>-50</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L110" t="n">
         <v>674.1</v>
@@ -5889,7 +5911,7 @@
         <v>490</v>
       </c>
       <c r="K111" t="n">
-        <v>-20</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L111" t="n">
         <v>674.9</v>
@@ -5940,7 +5962,7 @@
         <v>496</v>
       </c>
       <c r="K112" t="n">
-        <v>-25</v>
+        <v>-8.695652173913043</v>
       </c>
       <c r="L112" t="n">
         <v>675.1</v>
@@ -5991,7 +6013,7 @@
         <v>497</v>
       </c>
       <c r="K113" t="n">
-        <v>-30.76923076923077</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L113" t="n">
         <v>674.6</v>
@@ -6042,7 +6064,7 @@
         <v>498</v>
       </c>
       <c r="K114" t="n">
-        <v>-27.27272727272727</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L114" t="n">
         <v>675</v>
@@ -6144,7 +6166,7 @@
         <v>501</v>
       </c>
       <c r="K116" t="n">
-        <v>-23.28767123287671</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L116" t="n">
         <v>673.6</v>
@@ -6195,7 +6217,7 @@
         <v>506</v>
       </c>
       <c r="K117" t="n">
-        <v>-5.714285714285714</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L117" t="n">
         <v>673.8</v>
@@ -6246,7 +6268,7 @@
         <v>507</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L118" t="n">
         <v>674</v>
@@ -6297,7 +6319,7 @@
         <v>507</v>
       </c>
       <c r="K119" t="n">
-        <v>3.03030303030303</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L119" t="n">
         <v>674.7</v>
@@ -6348,7 +6370,7 @@
         <v>507</v>
       </c>
       <c r="K120" t="n">
-        <v>3.03030303030303</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L120" t="n">
         <v>675.3</v>
@@ -6399,7 +6421,7 @@
         <v>514</v>
       </c>
       <c r="K121" t="n">
-        <v>-2.857142857142857</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L121" t="n">
         <v>674.3</v>
@@ -6450,7 +6472,7 @@
         <v>520</v>
       </c>
       <c r="K122" t="n">
-        <v>-10.52631578947368</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L122" t="n">
         <v>673.3</v>
@@ -6501,7 +6523,7 @@
         <v>521</v>
       </c>
       <c r="K123" t="n">
-        <v>-18.30985915492958</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L123" t="n">
         <v>672.5</v>
@@ -6552,7 +6574,7 @@
         <v>521</v>
       </c>
       <c r="K124" t="n">
-        <v>-7.936507936507936</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L124" t="n">
         <v>671.6</v>
@@ -6603,7 +6625,7 @@
         <v>526</v>
       </c>
       <c r="K125" t="n">
-        <v>-15.25423728813559</v>
+        <v>-4</v>
       </c>
       <c r="L125" t="n">
         <v>671.2</v>
@@ -6654,7 +6676,7 @@
         <v>529</v>
       </c>
       <c r="K126" t="n">
-        <v>-21.31147540983606</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L126" t="n">
         <v>670.8</v>
@@ -6705,7 +6727,7 @@
         <v>536</v>
       </c>
       <c r="K127" t="n">
-        <v>-22.58064516129032</v>
+        <v>-58.62068965517241</v>
       </c>
       <c r="L127" t="n">
         <v>669.2</v>
@@ -6756,7 +6778,7 @@
         <v>547</v>
       </c>
       <c r="K128" t="n">
-        <v>-5.555555555555555</v>
+        <v>-15</v>
       </c>
       <c r="L128" t="n">
         <v>668.6</v>
@@ -6807,7 +6829,7 @@
         <v>558</v>
       </c>
       <c r="K129" t="n">
-        <v>-12.82051282051282</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L129" t="n">
         <v>666.9</v>
@@ -6858,7 +6880,7 @@
         <v>559</v>
       </c>
       <c r="K130" t="n">
-        <v>-15.38461538461539</v>
+        <v>-24.44444444444444</v>
       </c>
       <c r="L130" t="n">
         <v>665.1</v>
@@ -6909,7 +6931,7 @@
         <v>560</v>
       </c>
       <c r="K131" t="n">
-        <v>-28.57142857142857</v>
+        <v>-10</v>
       </c>
       <c r="L131" t="n">
         <v>664.1</v>
@@ -6960,7 +6982,7 @@
         <v>566</v>
       </c>
       <c r="K132" t="n">
-        <v>-28.57142857142857</v>
+        <v>-24.44444444444444</v>
       </c>
       <c r="L132" t="n">
         <v>663.1</v>
@@ -7011,7 +7033,7 @@
         <v>572</v>
       </c>
       <c r="K133" t="n">
-        <v>-17.33333333333334</v>
+        <v>-9.803921568627452</v>
       </c>
       <c r="L133" t="n">
         <v>662.6</v>
@@ -7062,7 +7084,7 @@
         <v>578</v>
       </c>
       <c r="K134" t="n">
-        <v>-10</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L134" t="n">
         <v>662.7</v>
@@ -7113,7 +7135,7 @@
         <v>579</v>
       </c>
       <c r="K135" t="n">
-        <v>-8.641975308641975</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>662.4</v>
@@ -7164,7 +7186,7 @@
         <v>582</v>
       </c>
       <c r="K136" t="n">
-        <v>-8.641975308641975</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="L136" t="n">
         <v>662.1</v>
@@ -7215,7 +7237,7 @@
         <v>589</v>
       </c>
       <c r="K137" t="n">
-        <v>-22.89156626506024</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L137" t="n">
         <v>661.8</v>
@@ -7266,7 +7288,7 @@
         <v>593</v>
       </c>
       <c r="K138" t="n">
-        <v>-18.6046511627907</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L138" t="n">
         <v>660.8</v>
@@ -7317,7 +7339,7 @@
         <v>594</v>
       </c>
       <c r="K139" t="n">
-        <v>-17.24137931034483</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L139" t="n">
         <v>661</v>
@@ -7368,7 +7390,7 @@
         <v>596</v>
       </c>
       <c r="K140" t="n">
-        <v>-19.10112359550562</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>661.1</v>
@@ -7419,7 +7441,7 @@
         <v>596</v>
       </c>
       <c r="K141" t="n">
-        <v>-12.19512195121951</v>
+        <v>20</v>
       </c>
       <c r="L141" t="n">
         <v>661.1</v>
@@ -7470,7 +7492,7 @@
         <v>599</v>
       </c>
       <c r="K142" t="n">
-        <v>-1.265822784810127</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L142" t="n">
         <v>662</v>
@@ -7521,7 +7543,7 @@
         <v>602</v>
       </c>
       <c r="K143" t="n">
-        <v>-6.172839506172839</v>
+        <v>-25</v>
       </c>
       <c r="L143" t="n">
         <v>662</v>
@@ -7572,7 +7594,7 @@
         <v>602</v>
       </c>
       <c r="K144" t="n">
-        <v>-6.172839506172839</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L144" t="n">
         <v>661.4</v>
@@ -7623,7 +7645,7 @@
         <v>602</v>
       </c>
       <c r="K145" t="n">
-        <v>-13.1578947368421</v>
+        <v>-20</v>
       </c>
       <c r="L145" t="n">
         <v>660.7</v>
@@ -7674,7 +7696,7 @@
         <v>603</v>
       </c>
       <c r="K146" t="n">
-        <v>-8.108108108108109</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L146" t="n">
         <v>660.4</v>
@@ -7725,7 +7747,7 @@
         <v>605</v>
       </c>
       <c r="K147" t="n">
-        <v>4.347826086956522</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L147" t="n">
         <v>661</v>
@@ -7776,7 +7798,7 @@
         <v>612</v>
       </c>
       <c r="K148" t="n">
-        <v>-1.538461538461539</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L148" t="n">
         <v>661.9</v>
@@ -7827,7 +7849,7 @@
         <v>617</v>
       </c>
       <c r="K149" t="n">
-        <v>25.42372881355932</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L149" t="n">
         <v>663.2</v>
@@ -7878,7 +7900,7 @@
         <v>621</v>
       </c>
       <c r="K150" t="n">
-        <v>19.35483870967742</v>
+        <v>44</v>
       </c>
       <c r="L150" t="n">
         <v>664.3</v>
@@ -7929,7 +7951,7 @@
         <v>621</v>
       </c>
       <c r="K151" t="n">
-        <v>18.0327868852459</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L151" t="n">
         <v>665.4</v>
@@ -7980,7 +8002,7 @@
         <v>622</v>
       </c>
       <c r="K152" t="n">
-        <v>32.14285714285715</v>
+        <v>60</v>
       </c>
       <c r="L152" t="n">
         <v>666.3</v>
@@ -8031,7 +8053,7 @@
         <v>624</v>
       </c>
       <c r="K153" t="n">
-        <v>19.23076923076923</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L153" t="n">
         <v>667.3</v>
@@ -8082,7 +8104,7 @@
         <v>627</v>
       </c>
       <c r="K154" t="n">
-        <v>2.040816326530612</v>
+        <v>28</v>
       </c>
       <c r="L154" t="n">
         <v>668</v>
@@ -8133,7 +8155,7 @@
         <v>628</v>
       </c>
       <c r="K155" t="n">
-        <v>-2.040816326530612</v>
+        <v>20</v>
       </c>
       <c r="L155" t="n">
         <v>668.6</v>
@@ -8184,7 +8206,7 @@
         <v>629</v>
       </c>
       <c r="K156" t="n">
-        <v>6.382978723404255</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L156" t="n">
         <v>669.2</v>
@@ -8235,7 +8257,7 @@
         <v>630</v>
       </c>
       <c r="K157" t="n">
-        <v>21.95121951219512</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L157" t="n">
         <v>669.5</v>
@@ -8286,7 +8308,7 @@
         <v>635</v>
       </c>
       <c r="K158" t="n">
-        <v>23.80952380952381</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L158" t="n">
         <v>669.6</v>
@@ -8337,7 +8359,7 @@
         <v>637</v>
       </c>
       <c r="K159" t="n">
-        <v>16.27906976744186</v>
+        <v>-12.5</v>
       </c>
       <c r="L159" t="n">
         <v>669</v>
@@ -8388,7 +8410,7 @@
         <v>646</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="L160" t="n">
         <v>667.9</v>
@@ -8439,7 +8461,7 @@
         <v>651</v>
       </c>
       <c r="K161" t="n">
-        <v>9.090909090909092</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L161" t="n">
         <v>667.3</v>
@@ -8490,7 +8512,7 @@
         <v>656</v>
       </c>
       <c r="K162" t="n">
-        <v>-5.263157894736842</v>
+        <v>-31.25</v>
       </c>
       <c r="L162" t="n">
         <v>666.1</v>
@@ -8541,7 +8563,7 @@
         <v>657</v>
       </c>
       <c r="K163" t="n">
-        <v>-1.818181818181818</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L163" t="n">
         <v>665</v>
@@ -8592,7 +8614,7 @@
         <v>657</v>
       </c>
       <c r="K164" t="n">
-        <v>-1.818181818181818</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L164" t="n">
         <v>664.2</v>
@@ -8643,7 +8665,7 @@
         <v>663</v>
       </c>
       <c r="K165" t="n">
-        <v>8.196721311475409</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L165" t="n">
         <v>664.1</v>
@@ -8694,7 +8716,7 @@
         <v>665</v>
       </c>
       <c r="K166" t="n">
-        <v>3.225806451612903</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L166" t="n">
         <v>663.7</v>
@@ -8745,7 +8767,7 @@
         <v>669</v>
       </c>
       <c r="K167" t="n">
-        <v>-6.25</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L167" t="n">
         <v>663</v>
@@ -8796,7 +8818,7 @@
         <v>680</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L168" t="n">
         <v>662.9</v>
@@ -8847,7 +8869,7 @@
         <v>683</v>
       </c>
       <c r="K169" t="n">
-        <v>-12.12121212121212</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L169" t="n">
         <v>662.7</v>
@@ -8898,7 +8920,7 @@
         <v>685</v>
       </c>
       <c r="K170" t="n">
-        <v>-9.375</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
         <v>663.2</v>
@@ -8949,7 +8971,7 @@
         <v>689</v>
       </c>
       <c r="K171" t="n">
-        <v>-14.70588235294118</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L171" t="n">
         <v>662.8</v>
@@ -9000,7 +9022,7 @@
         <v>689</v>
       </c>
       <c r="K172" t="n">
-        <v>-16.41791044776119</v>
+        <v>6.25</v>
       </c>
       <c r="L172" t="n">
         <v>662.9</v>
@@ -9051,7 +9073,7 @@
         <v>690</v>
       </c>
       <c r="K173" t="n">
-        <v>-15.15151515151515</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L173" t="n">
         <v>663</v>
@@ -9102,7 +9124,7 @@
         <v>692</v>
       </c>
       <c r="K174" t="n">
-        <v>-13.84615384615385</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L174" t="n">
         <v>662.9</v>
@@ -9153,7 +9175,7 @@
         <v>692</v>
       </c>
       <c r="K175" t="n">
-        <v>-12.5</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L175" t="n">
         <v>662.2</v>
@@ -9204,7 +9226,7 @@
         <v>692</v>
       </c>
       <c r="K176" t="n">
-        <v>-14.28571428571428</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L176" t="n">
         <v>661.7</v>
@@ -9255,7 +9277,7 @@
         <v>692</v>
       </c>
       <c r="K177" t="n">
-        <v>-12.90322580645161</v>
+        <v>-100</v>
       </c>
       <c r="L177" t="n">
         <v>661.6</v>
@@ -9306,7 +9328,7 @@
         <v>695</v>
       </c>
       <c r="K178" t="n">
-        <v>-26.66666666666667</v>
+        <v>-100</v>
       </c>
       <c r="L178" t="n">
         <v>660.1</v>
@@ -9357,7 +9379,7 @@
         <v>696</v>
       </c>
       <c r="K179" t="n">
-        <v>-25.42372881355932</v>
+        <v>-100</v>
       </c>
       <c r="L179" t="n">
         <v>658.8</v>
@@ -9408,7 +9430,7 @@
         <v>698</v>
       </c>
       <c r="K180" t="n">
-        <v>-15.38461538461539</v>
+        <v>-100</v>
       </c>
       <c r="L180" t="n">
         <v>657.5</v>
@@ -9459,7 +9481,7 @@
         <v>703</v>
       </c>
       <c r="K181" t="n">
-        <v>-15.38461538461539</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L181" t="n">
         <v>657.1</v>
@@ -9510,7 +9532,7 @@
         <v>703</v>
       </c>
       <c r="K182" t="n">
-        <v>-6.382978723404255</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L182" t="n">
         <v>656.7</v>
@@ -9561,7 +9583,7 @@
         <v>709</v>
       </c>
       <c r="K183" t="n">
-        <v>-15.38461538461539</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L183" t="n">
         <v>655.8</v>
@@ -9612,7 +9634,7 @@
         <v>712</v>
       </c>
       <c r="K184" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L184" t="n">
         <v>654.8</v>
@@ -9663,7 +9685,7 @@
         <v>712</v>
       </c>
       <c r="K185" t="n">
-        <v>-34.69387755102041</v>
+        <v>-50</v>
       </c>
       <c r="L185" t="n">
         <v>653.8</v>
@@ -9714,7 +9736,7 @@
         <v>716</v>
       </c>
       <c r="K186" t="n">
-        <v>-37.25490196078432</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L186" t="n">
         <v>652.4</v>
@@ -9765,7 +9787,7 @@
         <v>717</v>
       </c>
       <c r="K187" t="n">
-        <v>-29.16666666666667</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L187" t="n">
         <v>651.1</v>
@@ -9816,7 +9838,7 @@
         <v>726</v>
       </c>
       <c r="K188" t="n">
-        <v>-73.91304347826086</v>
+        <v>-60</v>
       </c>
       <c r="L188" t="n">
         <v>649.2</v>
@@ -9867,7 +9889,7 @@
         <v>731</v>
       </c>
       <c r="K189" t="n">
-        <v>-54.16666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>647.9</v>
@@ -9918,7 +9940,7 @@
         <v>734</v>
       </c>
       <c r="K190" t="n">
-        <v>-42.85714285714285</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="L190" t="n">
         <v>647.1</v>
@@ -9969,7 +9991,7 @@
         <v>742</v>
       </c>
       <c r="K191" t="n">
-        <v>-47.16981132075472</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L191" t="n">
         <v>645</v>
@@ -10020,7 +10042,7 @@
         <v>749</v>
       </c>
       <c r="K192" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="L192" t="n">
         <v>643.6</v>
@@ -10071,7 +10093,7 @@
         <v>761</v>
       </c>
       <c r="K193" t="n">
-        <v>-7.042253521126761</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L193" t="n">
         <v>644</v>
@@ -10122,7 +10144,7 @@
         <v>765</v>
       </c>
       <c r="K194" t="n">
-        <v>-9.58904109589041</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="L194" t="n">
         <v>644.3</v>
@@ -10173,7 +10195,7 @@
         <v>766</v>
       </c>
       <c r="K195" t="n">
-        <v>-10.81081081081081</v>
+        <v>12</v>
       </c>
       <c r="L195" t="n">
         <v>644.5</v>
@@ -10224,7 +10246,7 @@
         <v>767</v>
       </c>
       <c r="K196" t="n">
-        <v>-9.333333333333334</v>
+        <v>12</v>
       </c>
       <c r="L196" t="n">
         <v>645.2</v>
@@ -10275,7 +10297,7 @@
         <v>769</v>
       </c>
       <c r="K197" t="n">
-        <v>-6.493506493506493</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="L197" t="n">
         <v>646</v>
@@ -10326,7 +10348,7 @@
         <v>773</v>
       </c>
       <c r="K198" t="n">
-        <v>2.564102564102564</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="L198" t="n">
         <v>648.1</v>
@@ -10377,7 +10399,7 @@
         <v>774</v>
       </c>
       <c r="K199" t="n">
-        <v>5.128205128205128</v>
+        <v>35</v>
       </c>
       <c r="L199" t="n">
         <v>649.8</v>
@@ -10428,7 +10450,7 @@
         <v>783</v>
       </c>
       <c r="K200" t="n">
-        <v>-3.529411764705882</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="L200" t="n">
         <v>650.3</v>
@@ -10479,7 +10501,7 @@
         <v>794</v>
       </c>
       <c r="K201" t="n">
-        <v>-20.87912087912088</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L201" t="n">
         <v>650.5</v>
@@ -10530,7 +10552,7 @@
         <v>808</v>
       </c>
       <c r="K202" t="n">
-        <v>-4.761904761904762</v>
+        <v>-6.382978723404255</v>
       </c>
       <c r="L202" t="n">
         <v>651.4</v>
@@ -10581,7 +10603,7 @@
         <v>819</v>
       </c>
       <c r="K203" t="n">
-        <v>-9.090909090909092</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L203" t="n">
         <v>650</v>
@@ -10632,7 +10654,7 @@
         <v>824</v>
       </c>
       <c r="K204" t="n">
-        <v>-1.785714285714286</v>
+        <v>-6.896551724137931</v>
       </c>
       <c r="L204" t="n">
         <v>649.5</v>
@@ -10683,7 +10705,7 @@
         <v>833</v>
       </c>
       <c r="K205" t="n">
-        <v>-9.090909090909092</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L205" t="n">
         <v>648.2</v>
@@ -10734,7 +10756,7 @@
         <v>838</v>
       </c>
       <c r="K206" t="n">
-        <v>-1.639344262295082</v>
+        <v>-15.94202898550724</v>
       </c>
       <c r="L206" t="n">
         <v>647.3</v>
@@ -10785,7 +10807,7 @@
         <v>839</v>
       </c>
       <c r="K207" t="n">
-        <v>-1.639344262295082</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L207" t="n">
         <v>646.3</v>
@@ -10836,7 +10858,7 @@
         <v>844</v>
       </c>
       <c r="K208" t="n">
-        <v>10.16949152542373</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L208" t="n">
         <v>645.4</v>
@@ -10887,7 +10909,7 @@
         <v>857</v>
       </c>
       <c r="K209" t="n">
-        <v>-4.761904761904762</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L209" t="n">
         <v>643.1</v>
@@ -10938,7 +10960,7 @@
         <v>862</v>
       </c>
       <c r="K210" t="n">
-        <v>-10.9375</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L210" t="n">
         <v>641.2</v>
@@ -10989,7 +11011,7 @@
         <v>870</v>
       </c>
       <c r="K211" t="n">
-        <v>1.5625</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L211" t="n">
         <v>641.2</v>
@@ -11040,7 +11062,7 @@
         <v>872</v>
       </c>
       <c r="K212" t="n">
-        <v>-5.691056910569105</v>
+        <v>-9.433962264150944</v>
       </c>
       <c r="L212" t="n">
         <v>639.6</v>
@@ -11091,7 +11113,7 @@
         <v>876</v>
       </c>
       <c r="K213" t="n">
-        <v>-13.04347826086956</v>
+        <v>-11.53846153846154</v>
       </c>
       <c r="L213" t="n">
         <v>639.5</v>
@@ -11142,7 +11164,7 @@
         <v>881</v>
       </c>
       <c r="K214" t="n">
-        <v>-5.172413793103448</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L214" t="n">
         <v>639.4</v>
@@ -11193,7 +11215,7 @@
         <v>886</v>
       </c>
       <c r="K215" t="n">
-        <v>-8.333333333333332</v>
+        <v>-4.166666666666666</v>
       </c>
       <c r="L215" t="n">
         <v>639.7</v>
@@ -11244,7 +11266,7 @@
         <v>893</v>
       </c>
       <c r="K216" t="n">
-        <v>-3.174603174603174</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="L216" t="n">
         <v>640.2</v>
@@ -11295,7 +11317,7 @@
         <v>901</v>
       </c>
       <c r="K217" t="n">
-        <v>-10.60606060606061</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L217" t="n">
         <v>639.8</v>
@@ -11346,7 +11368,7 @@
         <v>902</v>
       </c>
       <c r="K218" t="n">
-        <v>-14.72868217054264</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L218" t="n">
         <v>638.8</v>
@@ -11397,7 +11419,7 @@
         <v>907</v>
       </c>
       <c r="K219" t="n">
-        <v>-18.79699248120301</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L219" t="n">
         <v>638.6</v>
@@ -11448,7 +11470,7 @@
         <v>909</v>
       </c>
       <c r="K220" t="n">
-        <v>-11.11111111111111</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L220" t="n">
         <v>639.1</v>
@@ -11499,7 +11521,7 @@
         <v>914</v>
       </c>
       <c r="K221" t="n">
-        <v>1.666666666666667</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L221" t="n">
         <v>639.3</v>
@@ -11550,7 +11572,7 @@
         <v>916</v>
       </c>
       <c r="K222" t="n">
-        <v>-9.25925925925926</v>
+        <v>5</v>
       </c>
       <c r="L222" t="n">
         <v>639.9</v>
@@ -11601,7 +11623,7 @@
         <v>919</v>
       </c>
       <c r="K223" t="n">
-        <v>-2</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L223" t="n">
         <v>639.8</v>
@@ -11652,7 +11674,7 @@
         <v>926</v>
       </c>
       <c r="K224" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L224" t="n">
         <v>639.9</v>
@@ -11703,7 +11725,7 @@
         <v>927</v>
       </c>
       <c r="K225" t="n">
-        <v>10.63829787234043</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>640.6</v>
@@ -11754,7 +11776,7 @@
         <v>928</v>
       </c>
       <c r="K226" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L226" t="n">
         <v>640.7</v>
@@ -11805,7 +11827,7 @@
         <v>931</v>
       </c>
       <c r="K227" t="n">
-        <v>8.695652173913043</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L227" t="n">
         <v>641.9</v>
@@ -11856,7 +11878,7 @@
         <v>931</v>
       </c>
       <c r="K228" t="n">
-        <v>3.448275862068965</v>
+        <v>75</v>
       </c>
       <c r="L228" t="n">
         <v>643.2</v>
@@ -11907,7 +11929,7 @@
         <v>939</v>
       </c>
       <c r="K229" t="n">
-        <v>9.75609756097561</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L229" t="n">
         <v>644.2</v>
@@ -11958,7 +11980,7 @@
         <v>949</v>
       </c>
       <c r="K230" t="n">
-        <v>26.4367816091954</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="L230" t="n">
         <v>646</v>
@@ -12009,7 +12031,7 @@
         <v>955</v>
       </c>
       <c r="K231" t="n">
-        <v>10.58823529411765</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L231" t="n">
         <v>646.7</v>
@@ -12060,7 +12082,7 @@
         <v>956</v>
       </c>
       <c r="K232" t="n">
-        <v>14.28571428571428</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L232" t="n">
         <v>647.3</v>
@@ -12111,7 +12133,7 @@
         <v>956</v>
       </c>
       <c r="K233" t="n">
-        <v>10</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L233" t="n">
         <v>648.2</v>
@@ -12162,7 +12184,7 @@
         <v>962</v>
       </c>
       <c r="K234" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L234" t="n">
         <v>649</v>
@@ -12213,7 +12235,7 @@
         <v>963</v>
       </c>
       <c r="K235" t="n">
-        <v>19.48051948051948</v>
+        <v>20</v>
       </c>
       <c r="L235" t="n">
         <v>649.8</v>
@@ -12264,7 +12286,7 @@
         <v>976</v>
       </c>
       <c r="K236" t="n">
-        <v>25.30120481927711</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="L236" t="n">
         <v>651.8</v>
@@ -12315,7 +12337,7 @@
         <v>984</v>
       </c>
       <c r="K237" t="n">
-        <v>25.30120481927711</v>
+        <v>16.9811320754717</v>
       </c>
       <c r="L237" t="n">
         <v>652.7</v>

--- a/BackTest/2019-10-15 BackTest GXC.xlsx
+++ b/BackTest/2019-10-15 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S237"/>
+  <dimension ref="A1:M216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,21 @@
         <v>558.1833333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605</v>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +492,21 @@
         <v>559.2666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>608</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,23 +533,21 @@
         <v>560.4666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>609</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,23 +574,21 @@
         <v>561.6666666666666</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>615</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +615,21 @@
         <v>562.95</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>618</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,23 +656,21 @@
         <v>564.2666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>14</v>
+        <v>619</v>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,23 +697,21 @@
         <v>565.4833333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>617</v>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,23 +738,21 @@
         <v>566.7833333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>18</v>
+        <v>617</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +782,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +821,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
-      </c>
-      <c r="J11" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>615.9</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -914,22 +862,14 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>36</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-2.857142857142857</v>
-      </c>
-      <c r="L12" t="n">
-        <v>615.9</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +899,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>39</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>616.1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +938,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>43</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L14" t="n">
-        <v>615.3</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +977,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>46</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-47.05882352941176</v>
-      </c>
-      <c r="L15" t="n">
-        <v>614.2</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1097,27 +1013,21 @@
         <v>574.8</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-39.39393939393939</v>
-      </c>
-      <c r="L16" t="n">
-        <v>612.7</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>600</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,27 +1054,21 @@
         <v>575.85</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>47</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>611.4</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>603</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,27 +1095,21 @@
         <v>576.85</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>48</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-53.33333333333334</v>
-      </c>
-      <c r="L18" t="n">
-        <v>610.1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>605</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,27 +1136,21 @@
         <v>578</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-37.93103448275862</v>
-      </c>
-      <c r="L19" t="n">
-        <v>608.7</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>604</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,27 +1177,21 @@
         <v>579.0833333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>52</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L20" t="n">
-        <v>607.8</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>606</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,29 +1218,21 @@
         <v>580.2166666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>53</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L21" t="n">
-        <v>606.7</v>
+        <v>609</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>611.3</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,29 +1259,21 @@
         <v>581.4166666666666</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58</v>
-      </c>
-      <c r="K22" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L22" t="n">
-        <v>607.3</v>
+        <v>614</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>611.6</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1430,29 +1300,21 @@
         <v>582.5666666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>64</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L23" t="n">
-        <v>607</v>
+        <v>608</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>611.55</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1341,21 @@
         <v>583.65</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>67</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L24" t="n">
-        <v>606.8</v>
+        <v>605</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>611.05</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,29 +1382,21 @@
         <v>584.7666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>70</v>
-      </c>
-      <c r="K25" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="L25" t="n">
-        <v>607.2</v>
+        <v>608</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>610.7</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,29 +1423,21 @@
         <v>585.8</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>75</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-7.142857142857142</v>
-      </c>
-      <c r="L26" t="n">
-        <v>607</v>
+        <v>601</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>609.85</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,29 +1464,21 @@
         <v>586.6166666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-35</v>
-      </c>
-      <c r="L27" t="n">
-        <v>605.5</v>
+        <v>598</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>608.45</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,29 +1505,21 @@
         <v>587.6</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>98</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L28" t="n">
-        <v>605.1</v>
+        <v>590</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>607.6</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,29 +1546,21 @@
         <v>588.6666666666666</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-17.39130434782609</v>
-      </c>
-      <c r="L29" t="n">
-        <v>604.5</v>
+        <v>598</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>606.6</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,29 +1587,21 @@
         <v>589.7833333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-14.8936170212766</v>
-      </c>
-      <c r="L30" t="n">
-        <v>603.9</v>
+        <v>599</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>605.85</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,31 +1628,21 @@
         <v>590.7666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>103</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L31" t="n">
-        <v>602.9</v>
+        <v>599</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>604.8</v>
-      </c>
-      <c r="N31" t="n">
-        <v>608.5</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,31 +1669,21 @@
         <v>591.7333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>104</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L32" t="n">
-        <v>601.3</v>
+        <v>598</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>604.3</v>
-      </c>
-      <c r="N32" t="n">
-        <v>608.1666666666666</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,31 +1710,21 @@
         <v>592.7166666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>105</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L33" t="n">
-        <v>600.4</v>
+        <v>592</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>603.7</v>
-      </c>
-      <c r="N33" t="n">
-        <v>607.8333333333334</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1975,31 +1751,21 @@
         <v>593.7666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>109</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-12.82051282051282</v>
-      </c>
-      <c r="L34" t="n">
-        <v>600.2</v>
+        <v>598</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>603.5</v>
-      </c>
-      <c r="N34" t="n">
-        <v>607.4333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,31 +1792,21 @@
         <v>594.9</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>114</v>
-      </c>
-      <c r="K35" t="n">
-        <v>12.82051282051282</v>
-      </c>
-      <c r="L35" t="n">
-        <v>600.2</v>
+        <v>603</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>603.7</v>
-      </c>
-      <c r="N35" t="n">
-        <v>607.2</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,31 +1833,21 @@
         <v>596.0666666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>115</v>
-      </c>
-      <c r="K36" t="n">
-        <v>62.96296296296296</v>
-      </c>
-      <c r="L36" t="n">
-        <v>600.6</v>
+        <v>607</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>603.8</v>
-      </c>
-      <c r="N36" t="n">
-        <v>606.7666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,31 +1874,21 @@
         <v>597.1166666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>115</v>
-      </c>
-      <c r="K37" t="n">
-        <v>41.17647058823529</v>
-      </c>
-      <c r="L37" t="n">
-        <v>602.3</v>
+        <v>607</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>603.9</v>
-      </c>
-      <c r="N37" t="n">
-        <v>606.4</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,31 +1915,21 @@
         <v>598.2166666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>118</v>
-      </c>
-      <c r="K38" t="n">
-        <v>50</v>
-      </c>
-      <c r="L38" t="n">
-        <v>603.3</v>
+        <v>608</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>604.2</v>
-      </c>
-      <c r="N38" t="n">
-        <v>606.1666666666666</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,31 +1956,21 @@
         <v>599.3833333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>123</v>
-      </c>
-      <c r="K39" t="n">
-        <v>56.52173913043478</v>
-      </c>
-      <c r="L39" t="n">
-        <v>604.8</v>
+        <v>610</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>604.65</v>
-      </c>
-      <c r="N39" t="n">
-        <v>606</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2281,31 +1997,21 @@
         <v>600.4833333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>128</v>
-      </c>
-      <c r="K40" t="n">
-        <v>84</v>
-      </c>
-      <c r="L40" t="n">
-        <v>606.6</v>
+        <v>615</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>605.25</v>
-      </c>
-      <c r="N40" t="n">
-        <v>606.1</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2332,31 +2038,21 @@
         <v>601.4333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>129</v>
-      </c>
-      <c r="K41" t="n">
-        <v>92</v>
-      </c>
-      <c r="L41" t="n">
-        <v>608.8</v>
+        <v>620</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>605.85</v>
-      </c>
-      <c r="N41" t="n">
-        <v>606.1333333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +2082,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>41</v>
-      </c>
-      <c r="J42" t="n">
-        <v>157</v>
-      </c>
-      <c r="K42" t="n">
-        <v>96.15384615384616</v>
-      </c>
-      <c r="L42" t="n">
-        <v>613.9</v>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>607.6</v>
-      </c>
-      <c r="N42" t="n">
-        <v>607.5</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +2121,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>28</v>
-      </c>
-      <c r="J43" t="n">
-        <v>170</v>
-      </c>
-      <c r="K43" t="n">
-        <v>54.09836065573771</v>
-      </c>
-      <c r="L43" t="n">
-        <v>617.6</v>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>609</v>
-      </c>
-      <c r="N43" t="n">
-        <v>608.3333333333334</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2160,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>31</v>
-      </c>
-      <c r="J44" t="n">
-        <v>173</v>
-      </c>
-      <c r="K44" t="n">
-        <v>52.54237288135594</v>
-      </c>
-      <c r="L44" t="n">
-        <v>621.2</v>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>610.7</v>
-      </c>
-      <c r="N44" t="n">
-        <v>609.4</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2199,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>30</v>
-      </c>
-      <c r="J45" t="n">
-        <v>174</v>
-      </c>
-      <c r="K45" t="n">
-        <v>52.54237288135594</v>
-      </c>
-      <c r="L45" t="n">
-        <v>624.2</v>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>612.2</v>
-      </c>
-      <c r="N45" t="n">
-        <v>610.5333333333333</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2238,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>22</v>
-      </c>
-      <c r="J46" t="n">
-        <v>182</v>
-      </c>
-      <c r="K46" t="n">
-        <v>34.32835820895522</v>
-      </c>
-      <c r="L46" t="n">
-        <v>626.5</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>613.55</v>
-      </c>
-      <c r="N46" t="n">
-        <v>611.3666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2277,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>27</v>
-      </c>
-      <c r="J47" t="n">
-        <v>187</v>
-      </c>
-      <c r="K47" t="n">
-        <v>36.23188405797102</v>
-      </c>
-      <c r="L47" t="n">
-        <v>629.3</v>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>615.8</v>
-      </c>
-      <c r="N47" t="n">
-        <v>612.3666666666667</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2316,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>30</v>
-      </c>
-      <c r="J48" t="n">
-        <v>190</v>
-      </c>
-      <c r="K48" t="n">
-        <v>34.32835820895522</v>
-      </c>
-      <c r="L48" t="n">
-        <v>632.1</v>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>617.7</v>
-      </c>
-      <c r="N48" t="n">
-        <v>613.5</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2355,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>44</v>
-      </c>
-      <c r="J49" t="n">
-        <v>204</v>
-      </c>
-      <c r="K49" t="n">
-        <v>42.10526315789473</v>
-      </c>
-      <c r="L49" t="n">
-        <v>635.8</v>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>620.3</v>
-      </c>
-      <c r="N49" t="n">
-        <v>615.0333333333333</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2394,16 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>50</v>
-      </c>
-      <c r="J50" t="n">
-        <v>210</v>
-      </c>
-      <c r="K50" t="n">
-        <v>45.67901234567901</v>
-      </c>
-      <c r="L50" t="n">
-        <v>639.6</v>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>623.1</v>
-      </c>
-      <c r="N50" t="n">
-        <v>616.7</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2433,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>49</v>
-      </c>
-      <c r="J51" t="n">
-        <v>211</v>
-      </c>
-      <c r="K51" t="n">
-        <v>14.81481481481481</v>
-      </c>
-      <c r="L51" t="n">
-        <v>643.2</v>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>626</v>
-      </c>
-      <c r="N51" t="n">
-        <v>618.3</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2472,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>51</v>
-      </c>
-      <c r="J52" t="n">
-        <v>213</v>
-      </c>
-      <c r="K52" t="n">
-        <v>53.48837209302325</v>
-      </c>
-      <c r="L52" t="n">
-        <v>644.2</v>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>629.05</v>
-      </c>
-      <c r="N52" t="n">
-        <v>619.8</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2511,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>59</v>
-      </c>
-      <c r="J53" t="n">
-        <v>221</v>
-      </c>
-      <c r="K53" t="n">
-        <v>58.33333333333334</v>
-      </c>
-      <c r="L53" t="n">
-        <v>647.3</v>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>632.45</v>
-      </c>
-      <c r="N53" t="n">
-        <v>621.7666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2550,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>63</v>
-      </c>
-      <c r="J54" t="n">
-        <v>225</v>
-      </c>
-      <c r="K54" t="n">
-        <v>64.70588235294117</v>
-      </c>
-      <c r="L54" t="n">
-        <v>650.5</v>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>635.85</v>
-      </c>
-      <c r="N54" t="n">
-        <v>623.9666666666667</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2589,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>235</v>
-      </c>
-      <c r="K55" t="n">
-        <v>96.22641509433963</v>
-      </c>
-      <c r="L55" t="n">
-        <v>654.8</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>639.5</v>
-      </c>
-      <c r="N55" t="n">
-        <v>626.4</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2628,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>75</v>
-      </c>
-      <c r="J56" t="n">
-        <v>237</v>
-      </c>
-      <c r="K56" t="n">
-        <v>96</v>
-      </c>
-      <c r="L56" t="n">
-        <v>660.1</v>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>643.3</v>
-      </c>
-      <c r="N56" t="n">
-        <v>629.0666666666667</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,30 +2667,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>69</v>
-      </c>
-      <c r="J57" t="n">
-        <v>243</v>
-      </c>
-      <c r="K57" t="n">
-        <v>73.58490566037736</v>
-      </c>
-      <c r="L57" t="n">
-        <v>664.3</v>
-      </c>
-      <c r="M57" t="n">
-        <v>646.8</v>
-      </c>
-      <c r="N57" t="n">
-        <v>631.9666666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3202,28 +2704,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>69</v>
-      </c>
-      <c r="J58" t="n">
-        <v>243</v>
-      </c>
-      <c r="K58" t="n">
-        <v>64.1025641025641</v>
-      </c>
-      <c r="L58" t="n">
-        <v>668.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>650.15</v>
-      </c>
-      <c r="N58" t="n">
-        <v>634.5333333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2739,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>69</v>
-      </c>
-      <c r="J59" t="n">
-        <v>243</v>
-      </c>
-      <c r="K59" t="n">
-        <v>57.57575757575758</v>
-      </c>
-      <c r="L59" t="n">
-        <v>670.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>653.25</v>
-      </c>
-      <c r="N59" t="n">
-        <v>637.1</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2774,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>70</v>
-      </c>
-      <c r="J60" t="n">
-        <v>244</v>
-      </c>
-      <c r="K60" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L60" t="n">
-        <v>672.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>656.15</v>
-      </c>
-      <c r="N60" t="n">
-        <v>639.6333333333333</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2809,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>67</v>
-      </c>
-      <c r="J61" t="n">
-        <v>247</v>
-      </c>
-      <c r="K61" t="n">
-        <v>47.05882352941176</v>
-      </c>
-      <c r="L61" t="n">
-        <v>674.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>658.85</v>
-      </c>
-      <c r="N61" t="n">
-        <v>642.1666666666666</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2844,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>51</v>
-      </c>
-      <c r="J62" t="n">
-        <v>263</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-19.04761904761905</v>
-      </c>
-      <c r="L62" t="n">
-        <v>674.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>659.35</v>
-      </c>
-      <c r="N62" t="n">
-        <v>644.2</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2879,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>53</v>
-      </c>
-      <c r="J63" t="n">
-        <v>265</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L63" t="n">
-        <v>673.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>660.6</v>
-      </c>
-      <c r="N63" t="n">
-        <v>646.2666666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2914,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>55</v>
-      </c>
-      <c r="J64" t="n">
-        <v>267</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-56.25</v>
-      </c>
-      <c r="L64" t="n">
-        <v>673.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>661.8</v>
-      </c>
-      <c r="N64" t="n">
-        <v>648.2666666666667</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2949,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>60</v>
-      </c>
-      <c r="J65" t="n">
-        <v>272</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L65" t="n">
-        <v>671.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>663.3</v>
-      </c>
-      <c r="N65" t="n">
-        <v>650.2666666666667</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2984,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>57</v>
-      </c>
-      <c r="J66" t="n">
-        <v>275</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L66" t="n">
-        <v>670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>665.05</v>
-      </c>
-      <c r="N66" t="n">
-        <v>652.2</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +3019,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>60</v>
-      </c>
-      <c r="J67" t="n">
-        <v>278</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-25.71428571428571</v>
-      </c>
-      <c r="L67" t="n">
-        <v>669.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>666.7</v>
-      </c>
-      <c r="N67" t="n">
-        <v>654.2333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3054,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>68</v>
-      </c>
-      <c r="J68" t="n">
-        <v>286</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-2.325581395348837</v>
-      </c>
-      <c r="L68" t="n">
-        <v>669</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>668.6</v>
-      </c>
-      <c r="N68" t="n">
-        <v>656.4333333333333</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3089,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>59</v>
-      </c>
-      <c r="J69" t="n">
-        <v>295</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-21.56862745098039</v>
-      </c>
-      <c r="L69" t="n">
-        <v>668</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>669.35</v>
-      </c>
-      <c r="N69" t="n">
-        <v>658.1666666666666</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +3124,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>62</v>
-      </c>
-      <c r="J70" t="n">
-        <v>298</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-9.803921568627452</v>
-      </c>
-      <c r="L70" t="n">
-        <v>667.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>669.95</v>
-      </c>
-      <c r="N70" t="n">
-        <v>659.8333333333334</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3159,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>62</v>
-      </c>
-      <c r="J71" t="n">
-        <v>298</v>
-      </c>
-      <c r="K71" t="n">
-        <v>31.42857142857143</v>
-      </c>
-      <c r="L71" t="n">
-        <v>666.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>670.6</v>
-      </c>
-      <c r="N71" t="n">
-        <v>661.4666666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3194,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>67</v>
-      </c>
-      <c r="J72" t="n">
-        <v>303</v>
-      </c>
-      <c r="K72" t="n">
-        <v>36.84210526315789</v>
-      </c>
-      <c r="L72" t="n">
-        <v>668.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>671.4</v>
-      </c>
-      <c r="N72" t="n">
-        <v>662.3333333333334</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3229,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>75</v>
-      </c>
-      <c r="J73" t="n">
-        <v>311</v>
-      </c>
-      <c r="K73" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L73" t="n">
-        <v>670.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>672.2</v>
-      </c>
-      <c r="N73" t="n">
-        <v>663.9</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3264,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>72</v>
-      </c>
-      <c r="J74" t="n">
-        <v>314</v>
-      </c>
-      <c r="K74" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L74" t="n">
-        <v>672.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>672.65</v>
-      </c>
-      <c r="N74" t="n">
-        <v>665.2666666666667</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3299,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>68</v>
-      </c>
-      <c r="J75" t="n">
-        <v>318</v>
-      </c>
-      <c r="K75" t="n">
-        <v>25.58139534883721</v>
-      </c>
-      <c r="L75" t="n">
-        <v>673</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>672.4</v>
-      </c>
-      <c r="N75" t="n">
-        <v>666.5333333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3334,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>66</v>
-      </c>
-      <c r="J76" t="n">
-        <v>320</v>
-      </c>
-      <c r="K76" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L76" t="n">
-        <v>673.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>671.95</v>
-      </c>
-      <c r="N76" t="n">
-        <v>668</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3369,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>73</v>
-      </c>
-      <c r="J77" t="n">
-        <v>327</v>
-      </c>
-      <c r="K77" t="n">
-        <v>12.19512195121951</v>
-      </c>
-      <c r="L77" t="n">
-        <v>675.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>672.15</v>
-      </c>
-      <c r="N77" t="n">
-        <v>669.5333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3404,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>62</v>
-      </c>
-      <c r="J78" t="n">
-        <v>338</v>
-      </c>
-      <c r="K78" t="n">
-        <v>6.976744186046512</v>
-      </c>
-      <c r="L78" t="n">
-        <v>674.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>671.8</v>
-      </c>
-      <c r="N78" t="n">
-        <v>670.6</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3439,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>63</v>
-      </c>
-      <c r="J79" t="n">
-        <v>339</v>
-      </c>
-      <c r="K79" t="n">
-        <v>2.439024390243902</v>
-      </c>
-      <c r="L79" t="n">
-        <v>675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>671.5</v>
-      </c>
-      <c r="N79" t="n">
-        <v>671.2333333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3474,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>63</v>
-      </c>
-      <c r="J80" t="n">
-        <v>339</v>
-      </c>
-      <c r="K80" t="n">
-        <v>2.439024390243902</v>
-      </c>
-      <c r="L80" t="n">
-        <v>675.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>671.15</v>
-      </c>
-      <c r="N80" t="n">
-        <v>671.6666666666666</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3509,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>69</v>
-      </c>
-      <c r="J81" t="n">
-        <v>345</v>
-      </c>
-      <c r="K81" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L81" t="n">
-        <v>675.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>671.25</v>
-      </c>
-      <c r="N81" t="n">
-        <v>672.3333333333334</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3544,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>75</v>
-      </c>
-      <c r="J82" t="n">
-        <v>351</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>676.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>672.45</v>
-      </c>
-      <c r="N82" t="n">
-        <v>673.1333333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3579,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>79</v>
-      </c>
-      <c r="J83" t="n">
-        <v>355</v>
-      </c>
-      <c r="K83" t="n">
-        <v>17.07317073170732</v>
-      </c>
-      <c r="L83" t="n">
-        <v>677</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>673.75</v>
-      </c>
-      <c r="N83" t="n">
-        <v>673.8</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3614,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>92</v>
-      </c>
-      <c r="J84" t="n">
-        <v>368</v>
-      </c>
-      <c r="K84" t="n">
-        <v>48</v>
-      </c>
-      <c r="L84" t="n">
-        <v>679</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>675.6</v>
-      </c>
-      <c r="N84" t="n">
-        <v>674.7666666666667</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3649,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>85</v>
-      </c>
-      <c r="J85" t="n">
-        <v>375</v>
-      </c>
-      <c r="K85" t="n">
-        <v>34.54545454545455</v>
-      </c>
-      <c r="L85" t="n">
-        <v>680.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>676.85</v>
-      </c>
-      <c r="N85" t="n">
-        <v>675.1666666666666</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3684,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>87</v>
-      </c>
-      <c r="J86" t="n">
-        <v>377</v>
-      </c>
-      <c r="K86" t="n">
-        <v>28</v>
-      </c>
-      <c r="L86" t="n">
-        <v>682.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>678.35</v>
-      </c>
-      <c r="N86" t="n">
-        <v>675.5666666666667</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3719,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>86</v>
-      </c>
-      <c r="J87" t="n">
-        <v>378</v>
-      </c>
-      <c r="K87" t="n">
-        <v>60</v>
-      </c>
-      <c r="L87" t="n">
-        <v>684.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>679.65</v>
-      </c>
-      <c r="N87" t="n">
-        <v>676.1333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3754,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>91</v>
-      </c>
-      <c r="J88" t="n">
-        <v>383</v>
-      </c>
-      <c r="K88" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L88" t="n">
-        <v>687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>680.8</v>
-      </c>
-      <c r="N88" t="n">
-        <v>676.8666666666667</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3789,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>102</v>
-      </c>
-      <c r="J89" t="n">
-        <v>394</v>
-      </c>
-      <c r="K89" t="n">
-        <v>70.90909090909091</v>
-      </c>
-      <c r="L89" t="n">
-        <v>690.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>682.95</v>
-      </c>
-      <c r="N89" t="n">
-        <v>677.9666666666667</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3824,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>105</v>
-      </c>
-      <c r="J90" t="n">
-        <v>397</v>
-      </c>
-      <c r="K90" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L90" t="n">
-        <v>695.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>685.1</v>
-      </c>
-      <c r="N90" t="n">
-        <v>679.1333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3859,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>87</v>
-      </c>
-      <c r="J91" t="n">
-        <v>415</v>
-      </c>
-      <c r="K91" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="L91" t="n">
-        <v>696.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>686.35</v>
-      </c>
-      <c r="N91" t="n">
-        <v>679.8</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3894,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>86</v>
-      </c>
-      <c r="J92" t="n">
-        <v>416</v>
-      </c>
-      <c r="K92" t="n">
-        <v>11.47540983606557</v>
-      </c>
-      <c r="L92" t="n">
-        <v>698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>687.3</v>
-      </c>
-      <c r="N92" t="n">
-        <v>680.9666666666667</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3929,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>89</v>
-      </c>
-      <c r="J93" t="n">
-        <v>419</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L93" t="n">
-        <v>699</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>688</v>
-      </c>
-      <c r="N93" t="n">
-        <v>682.1666666666666</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3964,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>87</v>
-      </c>
-      <c r="J94" t="n">
-        <v>421</v>
-      </c>
-      <c r="K94" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L94" t="n">
-        <v>698.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>688.75</v>
-      </c>
-      <c r="N94" t="n">
-        <v>683.2333333333333</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3999,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>80</v>
-      </c>
-      <c r="J95" t="n">
-        <v>428</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-13.72549019607843</v>
-      </c>
-      <c r="L95" t="n">
-        <v>698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>689.35</v>
-      </c>
-      <c r="N95" t="n">
-        <v>683.9</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4034,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>80</v>
-      </c>
-      <c r="J96" t="n">
-        <v>428</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-12</v>
-      </c>
-      <c r="L96" t="n">
-        <v>697.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>690.05</v>
-      </c>
-      <c r="N96" t="n">
-        <v>684.6666666666666</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4069,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>72</v>
-      </c>
-      <c r="J97" t="n">
-        <v>436</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-35.84905660377358</v>
-      </c>
-      <c r="L97" t="n">
-        <v>695.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>690</v>
-      </c>
-      <c r="N97" t="n">
-        <v>685.0666666666667</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4104,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>69</v>
-      </c>
-      <c r="J98" t="n">
-        <v>439</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-73.33333333333333</v>
-      </c>
-      <c r="L98" t="n">
-        <v>693.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>690.35</v>
-      </c>
-      <c r="N98" t="n">
-        <v>685.1</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4139,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>67</v>
-      </c>
-      <c r="J99" t="n">
-        <v>441</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-86.36363636363636</v>
-      </c>
-      <c r="L99" t="n">
-        <v>690.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>690.55</v>
-      </c>
-      <c r="N99" t="n">
-        <v>685.3666666666667</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4174,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>67</v>
-      </c>
-      <c r="J100" t="n">
-        <v>441</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-76.92307692307693</v>
-      </c>
-      <c r="L100" t="n">
-        <v>686.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>690.75</v>
-      </c>
-      <c r="N100" t="n">
-        <v>685.5333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4209,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>64</v>
-      </c>
-      <c r="J101" t="n">
-        <v>444</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-78.57142857142857</v>
-      </c>
-      <c r="L101" t="n">
-        <v>684.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>690.5</v>
-      </c>
-      <c r="N101" t="n">
-        <v>685.6</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4244,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>64</v>
-      </c>
-      <c r="J102" t="n">
-        <v>444</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L102" t="n">
-        <v>681.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>689.95</v>
-      </c>
-      <c r="N102" t="n">
-        <v>685.5</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4279,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>70</v>
-      </c>
-      <c r="J103" t="n">
-        <v>450</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-58.62068965517241</v>
-      </c>
-      <c r="L103" t="n">
-        <v>680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>689.5</v>
-      </c>
-      <c r="N103" t="n">
-        <v>685.3333333333334</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4314,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>62</v>
-      </c>
-      <c r="J104" t="n">
-        <v>458</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L104" t="n">
-        <v>677.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>688</v>
-      </c>
-      <c r="N104" t="n">
-        <v>685</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4349,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>71</v>
-      </c>
-      <c r="J105" t="n">
-        <v>467</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L105" t="n">
-        <v>676.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>687.3</v>
-      </c>
-      <c r="N105" t="n">
-        <v>685.1</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4384,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>72</v>
-      </c>
-      <c r="J106" t="n">
-        <v>468</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>675.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>686.55</v>
-      </c>
-      <c r="N106" t="n">
-        <v>685.3</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4419,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>66</v>
-      </c>
-      <c r="J107" t="n">
-        <v>474</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-8.571428571428571</v>
-      </c>
-      <c r="L107" t="n">
-        <v>675.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>685.55</v>
-      </c>
-      <c r="N107" t="n">
-        <v>685.0666666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4454,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>67</v>
-      </c>
-      <c r="J108" t="n">
-        <v>475</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>684.35</v>
-      </c>
-      <c r="N108" t="n">
-        <v>685.2333333333333</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4489,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>62</v>
-      </c>
-      <c r="J109" t="n">
-        <v>480</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-12.82051282051282</v>
-      </c>
-      <c r="L109" t="n">
-        <v>674.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>682.35</v>
-      </c>
-      <c r="N109" t="n">
-        <v>685.2</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4524,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>63</v>
-      </c>
-      <c r="J110" t="n">
-        <v>481</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-2.702702702702703</v>
-      </c>
-      <c r="L110" t="n">
-        <v>674.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>680.25</v>
-      </c>
-      <c r="N110" t="n">
-        <v>685.2</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4559,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>72</v>
-      </c>
-      <c r="J111" t="n">
-        <v>490</v>
-      </c>
-      <c r="K111" t="n">
-        <v>17.39130434782609</v>
-      </c>
-      <c r="L111" t="n">
-        <v>674.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>679.5</v>
-      </c>
-      <c r="N111" t="n">
-        <v>685.3</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4594,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>66</v>
-      </c>
-      <c r="J112" t="n">
-        <v>496</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-8.695652173913043</v>
-      </c>
-      <c r="L112" t="n">
-        <v>675.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>678.5</v>
-      </c>
-      <c r="N112" t="n">
-        <v>685</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4629,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>65</v>
-      </c>
-      <c r="J113" t="n">
-        <v>497</v>
-      </c>
-      <c r="K113" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L113" t="n">
-        <v>674.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>677.3</v>
-      </c>
-      <c r="N113" t="n">
-        <v>684.5333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4664,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>66</v>
-      </c>
-      <c r="J114" t="n">
-        <v>498</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-16.12903225806452</v>
-      </c>
-      <c r="L114" t="n">
-        <v>675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>676.25</v>
-      </c>
-      <c r="N114" t="n">
-        <v>683.6666666666666</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4699,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>66</v>
-      </c>
-      <c r="J115" t="n">
-        <v>498</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L115" t="n">
-        <v>674.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>675.55</v>
-      </c>
-      <c r="N115" t="n">
-        <v>683.0333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4734,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>63</v>
-      </c>
-      <c r="J116" t="n">
-        <v>501</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L116" t="n">
-        <v>673.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>674.7</v>
-      </c>
-      <c r="N116" t="n">
-        <v>682.2333333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4769,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>68</v>
-      </c>
-      <c r="J117" t="n">
-        <v>506</v>
-      </c>
-      <c r="K117" t="n">
-        <v>3.225806451612903</v>
-      </c>
-      <c r="L117" t="n">
-        <v>673.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>674.5</v>
-      </c>
-      <c r="N117" t="n">
-        <v>681.6333333333333</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4804,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>69</v>
-      </c>
-      <c r="J118" t="n">
-        <v>507</v>
-      </c>
-      <c r="K118" t="n">
-        <v>25.92592592592592</v>
-      </c>
-      <c r="L118" t="n">
-        <v>674</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>674.5</v>
-      </c>
-      <c r="N118" t="n">
-        <v>680.9</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4839,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>69</v>
-      </c>
-      <c r="J119" t="n">
-        <v>507</v>
-      </c>
-      <c r="K119" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L119" t="n">
-        <v>674.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>674.6</v>
-      </c>
-      <c r="N119" t="n">
-        <v>679.8</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4874,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>69</v>
-      </c>
-      <c r="J120" t="n">
-        <v>507</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L120" t="n">
-        <v>675.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>674.7</v>
-      </c>
-      <c r="N120" t="n">
-        <v>678.6</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4909,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>62</v>
-      </c>
-      <c r="J121" t="n">
-        <v>514</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L121" t="n">
-        <v>674.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>674.6</v>
-      </c>
-      <c r="N121" t="n">
-        <v>677.7666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4944,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>56</v>
-      </c>
-      <c r="J122" t="n">
-        <v>520</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-39.1304347826087</v>
-      </c>
-      <c r="L122" t="n">
-        <v>673.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>674.2</v>
-      </c>
-      <c r="N122" t="n">
-        <v>676.7666666666667</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +4979,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>57</v>
-      </c>
-      <c r="J123" t="n">
-        <v>521</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-39.1304347826087</v>
-      </c>
-      <c r="L123" t="n">
-        <v>672.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>673.55</v>
-      </c>
-      <c r="N123" t="n">
-        <v>675.7</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +5014,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>57</v>
-      </c>
-      <c r="J124" t="n">
-        <v>521</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-39.1304347826087</v>
-      </c>
-      <c r="L124" t="n">
-        <v>671.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>673.3</v>
-      </c>
-      <c r="N124" t="n">
-        <v>674.7</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +5049,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>62</v>
-      </c>
-      <c r="J125" t="n">
-        <v>526</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-4</v>
-      </c>
-      <c r="L125" t="n">
-        <v>671.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>672.85</v>
-      </c>
-      <c r="N125" t="n">
-        <v>674.1</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +5084,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>59</v>
-      </c>
-      <c r="J126" t="n">
-        <v>529</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-39.1304347826087</v>
-      </c>
-      <c r="L126" t="n">
-        <v>670.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>672.2</v>
-      </c>
-      <c r="N126" t="n">
-        <v>673.4</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5119,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>52</v>
-      </c>
-      <c r="J127" t="n">
-        <v>536</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-58.62068965517241</v>
-      </c>
-      <c r="L127" t="n">
-        <v>669.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>671.5</v>
-      </c>
-      <c r="N127" t="n">
-        <v>672.7333333333333</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5154,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>63</v>
-      </c>
-      <c r="J128" t="n">
-        <v>547</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-15</v>
-      </c>
-      <c r="L128" t="n">
-        <v>668.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>671.3</v>
-      </c>
-      <c r="N128" t="n">
-        <v>672.5333333333333</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5189,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>52</v>
-      </c>
-      <c r="J129" t="n">
-        <v>558</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L129" t="n">
-        <v>666.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>670.8</v>
-      </c>
-      <c r="N129" t="n">
-        <v>672.0333333333333</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5224,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>51</v>
-      </c>
-      <c r="J130" t="n">
-        <v>559</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-24.44444444444444</v>
-      </c>
-      <c r="L130" t="n">
-        <v>665.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>670.2</v>
-      </c>
-      <c r="N130" t="n">
-        <v>671.5</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5259,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>52</v>
-      </c>
-      <c r="J131" t="n">
-        <v>560</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L131" t="n">
-        <v>664.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>669.2</v>
-      </c>
-      <c r="N131" t="n">
-        <v>671.1</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5294,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>46</v>
-      </c>
-      <c r="J132" t="n">
-        <v>566</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-24.44444444444444</v>
-      </c>
-      <c r="L132" t="n">
-        <v>663.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>668.2</v>
-      </c>
-      <c r="N132" t="n">
-        <v>670.5</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5329,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>52</v>
-      </c>
-      <c r="J133" t="n">
-        <v>572</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-9.803921568627452</v>
-      </c>
-      <c r="L133" t="n">
-        <v>662.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>667.55</v>
-      </c>
-      <c r="N133" t="n">
-        <v>669.9</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5364,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>58</v>
-      </c>
-      <c r="J134" t="n">
-        <v>578</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L134" t="n">
-        <v>662.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>667.15</v>
-      </c>
-      <c r="N134" t="n">
-        <v>669.7666666666667</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5399,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>59</v>
-      </c>
-      <c r="J135" t="n">
-        <v>579</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0</v>
-      </c>
-      <c r="L135" t="n">
-        <v>662.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>666.8</v>
-      </c>
-      <c r="N135" t="n">
-        <v>669.3666666666667</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5434,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>56</v>
-      </c>
-      <c r="J136" t="n">
-        <v>582</v>
-      </c>
-      <c r="K136" t="n">
-        <v>8.695652173913043</v>
-      </c>
-      <c r="L136" t="n">
-        <v>662.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>666.45</v>
-      </c>
-      <c r="N136" t="n">
-        <v>668.8333333333334</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5469,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>49</v>
-      </c>
-      <c r="J137" t="n">
-        <v>589</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L137" t="n">
-        <v>661.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>665.5</v>
-      </c>
-      <c r="N137" t="n">
-        <v>668.2666666666667</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5504,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>53</v>
-      </c>
-      <c r="J138" t="n">
-        <v>593</v>
-      </c>
-      <c r="K138" t="n">
-        <v>2.857142857142857</v>
-      </c>
-      <c r="L138" t="n">
-        <v>660.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>664.7</v>
-      </c>
-      <c r="N138" t="n">
-        <v>667.8</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5539,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>54</v>
-      </c>
-      <c r="J139" t="n">
-        <v>594</v>
-      </c>
-      <c r="K139" t="n">
-        <v>8.571428571428571</v>
-      </c>
-      <c r="L139" t="n">
-        <v>661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>663.95</v>
-      </c>
-      <c r="N139" t="n">
-        <v>667.5333333333333</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +5574,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>52</v>
-      </c>
-      <c r="J140" t="n">
-        <v>596</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>661.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>663.1</v>
-      </c>
-      <c r="N140" t="n">
-        <v>667.1666666666666</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +5609,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>52</v>
-      </c>
-      <c r="J141" t="n">
-        <v>596</v>
-      </c>
-      <c r="K141" t="n">
-        <v>20</v>
-      </c>
-      <c r="L141" t="n">
-        <v>661.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>662.6</v>
-      </c>
-      <c r="N141" t="n">
-        <v>666.5</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +5644,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>55</v>
-      </c>
-      <c r="J142" t="n">
-        <v>599</v>
-      </c>
-      <c r="K142" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L142" t="n">
-        <v>662</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>662.55</v>
-      </c>
-      <c r="N142" t="n">
-        <v>666.1333333333333</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +5679,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>52</v>
-      </c>
-      <c r="J143" t="n">
-        <v>602</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L143" t="n">
-        <v>662</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>662.3</v>
-      </c>
-      <c r="N143" t="n">
-        <v>665.7</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +5714,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>52</v>
-      </c>
-      <c r="J144" t="n">
-        <v>602</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-30.43478260869566</v>
-      </c>
-      <c r="L144" t="n">
-        <v>661.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>662.05</v>
-      </c>
-      <c r="N144" t="n">
-        <v>665.2333333333333</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +5749,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>52</v>
-      </c>
-      <c r="J145" t="n">
-        <v>602</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L145" t="n">
-        <v>660.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>661.55</v>
-      </c>
-      <c r="N145" t="n">
-        <v>664.7666666666667</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7690,28 +5784,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>53</v>
-      </c>
-      <c r="J146" t="n">
-        <v>603</v>
-      </c>
-      <c r="K146" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L146" t="n">
-        <v>660.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>661.25</v>
-      </c>
-      <c r="N146" t="n">
-        <v>664.4333333333333</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +5819,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>55</v>
-      </c>
-      <c r="J147" t="n">
-        <v>605</v>
-      </c>
-      <c r="K147" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L147" t="n">
-        <v>661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>661.4</v>
-      </c>
-      <c r="N147" t="n">
-        <v>664</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +5854,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>62</v>
-      </c>
-      <c r="J148" t="n">
-        <v>612</v>
-      </c>
-      <c r="K148" t="n">
-        <v>44.44444444444444</v>
-      </c>
-      <c r="L148" t="n">
-        <v>661.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>661.35</v>
-      </c>
-      <c r="N148" t="n">
-        <v>663.7666666666667</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +5889,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>67</v>
-      </c>
-      <c r="J149" t="n">
-        <v>617</v>
-      </c>
-      <c r="K149" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L149" t="n">
-        <v>663.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>662.1</v>
-      </c>
-      <c r="N149" t="n">
-        <v>663.7</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +5924,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>63</v>
-      </c>
-      <c r="J150" t="n">
-        <v>621</v>
-      </c>
-      <c r="K150" t="n">
-        <v>44</v>
-      </c>
-      <c r="L150" t="n">
-        <v>664.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>662.7</v>
-      </c>
-      <c r="N150" t="n">
-        <v>663.5</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,28 +5959,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>63</v>
-      </c>
-      <c r="J151" t="n">
-        <v>621</v>
-      </c>
-      <c r="K151" t="n">
-        <v>36.36363636363637</v>
-      </c>
-      <c r="L151" t="n">
-        <v>665.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>663.25</v>
-      </c>
-      <c r="N151" t="n">
-        <v>663.5333333333333</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,28 +5994,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>64</v>
-      </c>
-      <c r="J152" t="n">
-        <v>622</v>
-      </c>
-      <c r="K152" t="n">
-        <v>60</v>
-      </c>
-      <c r="L152" t="n">
-        <v>666.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>664.15</v>
-      </c>
-      <c r="N152" t="n">
-        <v>663.8</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,28 +6029,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>62</v>
-      </c>
-      <c r="J153" t="n">
-        <v>624</v>
-      </c>
-      <c r="K153" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L153" t="n">
-        <v>667.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>664.65</v>
-      </c>
-      <c r="N153" t="n">
-        <v>663.9666666666667</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,28 +6064,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>59</v>
-      </c>
-      <c r="J154" t="n">
-        <v>627</v>
-      </c>
-      <c r="K154" t="n">
-        <v>28</v>
-      </c>
-      <c r="L154" t="n">
-        <v>668</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>664.7</v>
-      </c>
-      <c r="N154" t="n">
-        <v>664.0333333333333</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,28 +6099,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>58</v>
-      </c>
-      <c r="J155" t="n">
-        <v>628</v>
-      </c>
-      <c r="K155" t="n">
-        <v>20</v>
-      </c>
-      <c r="L155" t="n">
-        <v>668.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>664.65</v>
-      </c>
-      <c r="N155" t="n">
-        <v>663.9</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8200,28 +6134,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>59</v>
-      </c>
-      <c r="J156" t="n">
-        <v>629</v>
-      </c>
-      <c r="K156" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L156" t="n">
-        <v>669.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>664.8</v>
-      </c>
-      <c r="N156" t="n">
-        <v>663.9</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8251,28 +6169,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>58</v>
-      </c>
-      <c r="J157" t="n">
-        <v>630</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L157" t="n">
-        <v>669.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>665.25</v>
-      </c>
-      <c r="N157" t="n">
-        <v>664.1</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8302,28 +6204,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>63</v>
-      </c>
-      <c r="J158" t="n">
-        <v>635</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L158" t="n">
-        <v>669.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>665.75</v>
-      </c>
-      <c r="N158" t="n">
-        <v>664.1</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8353,28 +6239,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>61</v>
-      </c>
-      <c r="J159" t="n">
-        <v>637</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L159" t="n">
-        <v>669</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>666.1</v>
-      </c>
-      <c r="N159" t="n">
-        <v>664.4</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8404,28 +6274,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>52</v>
-      </c>
-      <c r="J160" t="n">
-        <v>646</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-44</v>
-      </c>
-      <c r="L160" t="n">
-        <v>667.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>666.1</v>
-      </c>
-      <c r="N160" t="n">
-        <v>664.4333333333333</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8455,28 +6309,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>57</v>
-      </c>
-      <c r="J161" t="n">
-        <v>651</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-24.13793103448276</v>
-      </c>
-      <c r="L161" t="n">
-        <v>667.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>666.35</v>
-      </c>
-      <c r="N161" t="n">
-        <v>664.6</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8506,28 +6344,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>52</v>
-      </c>
-      <c r="J162" t="n">
-        <v>656</v>
-      </c>
-      <c r="K162" t="n">
-        <v>-31.25</v>
-      </c>
-      <c r="L162" t="n">
-        <v>666.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>666.2</v>
-      </c>
-      <c r="N162" t="n">
-        <v>664.8</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8557,28 +6379,12 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>51</v>
-      </c>
-      <c r="J163" t="n">
-        <v>657</v>
-      </c>
-      <c r="K163" t="n">
-        <v>-26.66666666666667</v>
-      </c>
-      <c r="L163" t="n">
-        <v>665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>666.15</v>
-      </c>
-      <c r="N163" t="n">
-        <v>664.7666666666667</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8608,28 +6414,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>51</v>
-      </c>
-      <c r="J164" t="n">
-        <v>657</v>
-      </c>
-      <c r="K164" t="n">
-        <v>-24.13793103448276</v>
-      </c>
-      <c r="L164" t="n">
-        <v>664.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
-        <v>666.1</v>
-      </c>
-      <c r="N164" t="n">
-        <v>664.5333333333333</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8659,28 +6449,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>57</v>
-      </c>
-      <c r="J165" t="n">
-        <v>663</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L165" t="n">
-        <v>664.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>666.35</v>
-      </c>
-      <c r="N165" t="n">
-        <v>664.4666666666667</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8710,28 +6484,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>55</v>
-      </c>
-      <c r="J166" t="n">
-        <v>665</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-8.571428571428571</v>
-      </c>
-      <c r="L166" t="n">
-        <v>663.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>666.45</v>
-      </c>
-      <c r="N166" t="n">
-        <v>664.4333333333333</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8761,28 +6519,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>51</v>
-      </c>
-      <c r="J167" t="n">
-        <v>669</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-35.29411764705883</v>
-      </c>
-      <c r="L167" t="n">
-        <v>663</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>666.25</v>
-      </c>
-      <c r="N167" t="n">
-        <v>664.5</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8812,28 +6554,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>62</v>
-      </c>
-      <c r="J168" t="n">
-        <v>680</v>
-      </c>
-      <c r="K168" t="n">
-        <v>2.325581395348837</v>
-      </c>
-      <c r="L168" t="n">
-        <v>662.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>666.25</v>
-      </c>
-      <c r="N168" t="n">
-        <v>664.8</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8863,28 +6589,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>59</v>
-      </c>
-      <c r="J169" t="n">
-        <v>683</v>
-      </c>
-      <c r="K169" t="n">
-        <v>18.91891891891892</v>
-      </c>
-      <c r="L169" t="n">
-        <v>662.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>665.85</v>
-      </c>
-      <c r="N169" t="n">
-        <v>664.9666666666667</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8914,28 +6624,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>57</v>
-      </c>
-      <c r="J170" t="n">
-        <v>685</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0</v>
-      </c>
-      <c r="L170" t="n">
-        <v>663.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>665.55</v>
-      </c>
-      <c r="N170" t="n">
-        <v>665.1333333333333</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8965,28 +6659,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>53</v>
-      </c>
-      <c r="J171" t="n">
-        <v>689</v>
-      </c>
-      <c r="K171" t="n">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="L171" t="n">
-        <v>662.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>665.05</v>
-      </c>
-      <c r="N171" t="n">
-        <v>665.1666666666666</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9016,28 +6694,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>53</v>
-      </c>
-      <c r="J172" t="n">
-        <v>689</v>
-      </c>
-      <c r="K172" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="L172" t="n">
-        <v>662.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
-        <v>664.5</v>
-      </c>
-      <c r="N172" t="n">
-        <v>665.1</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9067,28 +6729,12 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>52</v>
-      </c>
-      <c r="J173" t="n">
-        <v>690</v>
-      </c>
-      <c r="K173" t="n">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="L173" t="n">
-        <v>663</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
-        <v>664</v>
-      </c>
-      <c r="N173" t="n">
-        <v>665.1</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9118,28 +6764,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>50</v>
-      </c>
-      <c r="J174" t="n">
-        <v>692</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-24.13793103448276</v>
-      </c>
-      <c r="L174" t="n">
-        <v>662.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>663.55</v>
-      </c>
-      <c r="N174" t="n">
-        <v>665.0333333333333</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9169,28 +6799,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>50</v>
-      </c>
-      <c r="J175" t="n">
-        <v>692</v>
-      </c>
-      <c r="K175" t="n">
-        <v>-18.51851851851852</v>
-      </c>
-      <c r="L175" t="n">
-        <v>662.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>663.15</v>
-      </c>
-      <c r="N175" t="n">
-        <v>664.9666666666667</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9220,28 +6834,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>50</v>
-      </c>
-      <c r="J176" t="n">
-        <v>692</v>
-      </c>
-      <c r="K176" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L176" t="n">
-        <v>661.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>662.7</v>
-      </c>
-      <c r="N176" t="n">
-        <v>664.8666666666667</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9271,28 +6869,12 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>50</v>
-      </c>
-      <c r="J177" t="n">
-        <v>692</v>
-      </c>
-      <c r="K177" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L177" t="n">
-        <v>661.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
-        <v>662.3</v>
-      </c>
-      <c r="N177" t="n">
-        <v>664.7</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9322,28 +6904,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>47</v>
-      </c>
-      <c r="J178" t="n">
-        <v>695</v>
-      </c>
-      <c r="K178" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L178" t="n">
-        <v>660.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="N178" t="n">
-        <v>664.2</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,28 +6939,12 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>46</v>
-      </c>
-      <c r="J179" t="n">
-        <v>696</v>
-      </c>
-      <c r="K179" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L179" t="n">
-        <v>658.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
-        <v>660.75</v>
-      </c>
-      <c r="N179" t="n">
-        <v>663.5</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9424,28 +6974,12 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>44</v>
-      </c>
-      <c r="J180" t="n">
-        <v>698</v>
-      </c>
-      <c r="K180" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L180" t="n">
-        <v>657.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
-        <v>660.35</v>
-      </c>
-      <c r="N180" t="n">
-        <v>662.8666666666667</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9475,28 +7009,12 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>49</v>
-      </c>
-      <c r="J181" t="n">
-        <v>703</v>
-      </c>
-      <c r="K181" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L181" t="n">
-        <v>657.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
-        <v>659.95</v>
-      </c>
-      <c r="N181" t="n">
-        <v>662.4</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9526,28 +7044,12 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>49</v>
-      </c>
-      <c r="J182" t="n">
-        <v>703</v>
-      </c>
-      <c r="K182" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L182" t="n">
-        <v>656.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
-        <v>659.8</v>
-      </c>
-      <c r="N182" t="n">
-        <v>661.9</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9577,28 +7079,12 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>43</v>
-      </c>
-      <c r="J183" t="n">
-        <v>709</v>
-      </c>
-      <c r="K183" t="n">
-        <v>-41.17647058823529</v>
-      </c>
-      <c r="L183" t="n">
-        <v>655.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
-        <v>659.4</v>
-      </c>
-      <c r="N183" t="n">
-        <v>661.2666666666667</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9628,28 +7114,12 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>40</v>
-      </c>
-      <c r="J184" t="n">
-        <v>712</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L184" t="n">
-        <v>654.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
-        <v>658.85</v>
-      </c>
-      <c r="N184" t="n">
-        <v>660.6333333333333</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9679,28 +7149,12 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>40</v>
-      </c>
-      <c r="J185" t="n">
-        <v>712</v>
-      </c>
-      <c r="K185" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L185" t="n">
-        <v>653.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
-        <v>658</v>
-      </c>
-      <c r="N185" t="n">
-        <v>660.0333333333333</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9730,28 +7184,12 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>36</v>
-      </c>
-      <c r="J186" t="n">
-        <v>716</v>
-      </c>
-      <c r="K186" t="n">
-        <v>-58.33333333333334</v>
-      </c>
-      <c r="L186" t="n">
-        <v>652.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
-        <v>657.05</v>
-      </c>
-      <c r="N186" t="n">
-        <v>659.2666666666667</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9781,28 +7219,12 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>37</v>
-      </c>
-      <c r="J187" t="n">
-        <v>717</v>
-      </c>
-      <c r="K187" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L187" t="n">
-        <v>651.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
-        <v>656.35</v>
-      </c>
-      <c r="N187" t="n">
-        <v>658.5666666666667</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9832,28 +7254,12 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>28</v>
-      </c>
-      <c r="J188" t="n">
-        <v>726</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L188" t="n">
-        <v>649.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
-        <v>654.65</v>
-      </c>
-      <c r="N188" t="n">
-        <v>657.4</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9883,28 +7289,12 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>33</v>
-      </c>
-      <c r="J189" t="n">
-        <v>731</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L189" t="n">
-        <v>647.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
-        <v>653.35</v>
-      </c>
-      <c r="N189" t="n">
-        <v>656.4666666666667</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9934,28 +7324,12 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>36</v>
-      </c>
-      <c r="J190" t="n">
-        <v>734</v>
-      </c>
-      <c r="K190" t="n">
-        <v>-41.93548387096774</v>
-      </c>
-      <c r="L190" t="n">
-        <v>647.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
-        <v>652.3</v>
-      </c>
-      <c r="N190" t="n">
-        <v>655.9333333333333</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9985,28 +7359,12 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>28</v>
-      </c>
-      <c r="J191" t="n">
-        <v>742</v>
-      </c>
-      <c r="K191" t="n">
-        <v>-53.84615384615385</v>
-      </c>
-      <c r="L191" t="n">
-        <v>645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
-        <v>651.05</v>
-      </c>
-      <c r="N191" t="n">
-        <v>654.9666666666667</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10036,28 +7394,12 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>35</v>
-      </c>
-      <c r="J192" t="n">
-        <v>749</v>
-      </c>
-      <c r="K192" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L192" t="n">
-        <v>643.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
-        <v>650.15</v>
-      </c>
-      <c r="N192" t="n">
-        <v>654.4</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10087,28 +7429,12 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>47</v>
-      </c>
-      <c r="J193" t="n">
-        <v>761</v>
-      </c>
-      <c r="K193" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L193" t="n">
-        <v>644</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
-        <v>649.9</v>
-      </c>
-      <c r="N193" t="n">
-        <v>654.2666666666667</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10138,28 +7464,12 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>43</v>
-      </c>
-      <c r="J194" t="n">
-        <v>765</v>
-      </c>
-      <c r="K194" t="n">
-        <v>5.660377358490567</v>
-      </c>
-      <c r="L194" t="n">
-        <v>644.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
-        <v>649.55</v>
-      </c>
-      <c r="N194" t="n">
-        <v>654</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10189,28 +7499,12 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>42</v>
-      </c>
-      <c r="J195" t="n">
-        <v>766</v>
-      </c>
-      <c r="K195" t="n">
-        <v>12</v>
-      </c>
-      <c r="L195" t="n">
-        <v>644.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
-        <v>649.15</v>
-      </c>
-      <c r="N195" t="n">
-        <v>653.5</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10240,28 +7534,12 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>43</v>
-      </c>
-      <c r="J196" t="n">
-        <v>767</v>
-      </c>
-      <c r="K196" t="n">
-        <v>12</v>
-      </c>
-      <c r="L196" t="n">
-        <v>645.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
-        <v>648.8</v>
-      </c>
-      <c r="N196" t="n">
-        <v>653.1</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10291,28 +7569,12 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>45</v>
-      </c>
-      <c r="J197" t="n">
-        <v>769</v>
-      </c>
-      <c r="K197" t="n">
-        <v>39.53488372093023</v>
-      </c>
-      <c r="L197" t="n">
-        <v>646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
-        <v>648.55</v>
-      </c>
-      <c r="N197" t="n">
-        <v>652.9</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10342,28 +7604,12 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>49</v>
-      </c>
-      <c r="J198" t="n">
-        <v>773</v>
-      </c>
-      <c r="K198" t="n">
-        <v>38.09523809523809</v>
-      </c>
-      <c r="L198" t="n">
-        <v>648.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
-        <v>648.65</v>
-      </c>
-      <c r="N198" t="n">
-        <v>652.4666666666667</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10393,28 +7639,12 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>50</v>
-      </c>
-      <c r="J199" t="n">
-        <v>774</v>
-      </c>
-      <c r="K199" t="n">
-        <v>35</v>
-      </c>
-      <c r="L199" t="n">
-        <v>649.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
-        <v>648.85</v>
-      </c>
-      <c r="N199" t="n">
-        <v>652.1666666666666</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10444,28 +7674,12 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>41</v>
-      </c>
-      <c r="J200" t="n">
-        <v>783</v>
-      </c>
-      <c r="K200" t="n">
-        <v>31.70731707317073</v>
-      </c>
-      <c r="L200" t="n">
-        <v>650.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
-        <v>648.7</v>
-      </c>
-      <c r="N200" t="n">
-        <v>651.6333333333333</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10495,28 +7709,12 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>30</v>
-      </c>
-      <c r="J201" t="n">
-        <v>794</v>
-      </c>
-      <c r="K201" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L201" t="n">
-        <v>650.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
-        <v>647.75</v>
-      </c>
-      <c r="N201" t="n">
-        <v>650.8666666666667</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10546,28 +7744,12 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>44</v>
-      </c>
-      <c r="J202" t="n">
-        <v>808</v>
-      </c>
-      <c r="K202" t="n">
-        <v>-6.382978723404255</v>
-      </c>
-      <c r="L202" t="n">
-        <v>651.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
-        <v>647.5</v>
-      </c>
-      <c r="N202" t="n">
-        <v>650.5666666666667</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10597,28 +7779,12 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>33</v>
-      </c>
-      <c r="J203" t="n">
-        <v>819</v>
-      </c>
-      <c r="K203" t="n">
-        <v>-18.51851851851852</v>
-      </c>
-      <c r="L203" t="n">
-        <v>650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
-        <v>647</v>
-      </c>
-      <c r="N203" t="n">
-        <v>649.9333333333333</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10648,28 +7814,12 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>38</v>
-      </c>
-      <c r="J204" t="n">
-        <v>824</v>
-      </c>
-      <c r="K204" t="n">
-        <v>-6.896551724137931</v>
-      </c>
-      <c r="L204" t="n">
-        <v>649.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
-        <v>646.9</v>
-      </c>
-      <c r="N204" t="n">
-        <v>649.5333333333333</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10699,28 +7849,12 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>29</v>
-      </c>
-      <c r="J205" t="n">
-        <v>833</v>
-      </c>
-      <c r="K205" t="n">
-        <v>-21.21212121212121</v>
-      </c>
-      <c r="L205" t="n">
-        <v>648.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
-        <v>646.35</v>
-      </c>
-      <c r="N205" t="n">
-        <v>648.8333333333334</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10750,28 +7884,12 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>34</v>
-      </c>
-      <c r="J206" t="n">
-        <v>838</v>
-      </c>
-      <c r="K206" t="n">
-        <v>-15.94202898550724</v>
-      </c>
-      <c r="L206" t="n">
-        <v>647.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
-        <v>646.25</v>
-      </c>
-      <c r="N206" t="n">
-        <v>648.3</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10801,28 +7919,12 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>35</v>
-      </c>
-      <c r="J207" t="n">
-        <v>839</v>
-      </c>
-      <c r="K207" t="n">
-        <v>-21.21212121212121</v>
-      </c>
-      <c r="L207" t="n">
-        <v>646.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
-        <v>646.15</v>
-      </c>
-      <c r="N207" t="n">
-        <v>647.8</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10852,28 +7954,12 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>40</v>
-      </c>
-      <c r="J208" t="n">
-        <v>844</v>
-      </c>
-      <c r="K208" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L208" t="n">
-        <v>645.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
-        <v>646.75</v>
-      </c>
-      <c r="N208" t="n">
-        <v>647.5666666666667</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10903,28 +7989,12 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>27</v>
-      </c>
-      <c r="J209" t="n">
-        <v>857</v>
-      </c>
-      <c r="K209" t="n">
-        <v>-18.91891891891892</v>
-      </c>
-      <c r="L209" t="n">
-        <v>643.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
-        <v>646.45</v>
-      </c>
-      <c r="N209" t="n">
-        <v>646.9333333333333</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10954,28 +8024,12 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>22</v>
-      </c>
-      <c r="J210" t="n">
-        <v>862</v>
-      </c>
-      <c r="K210" t="n">
-        <v>-11.76470588235294</v>
-      </c>
-      <c r="L210" t="n">
-        <v>641.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
-        <v>645.75</v>
-      </c>
-      <c r="N210" t="n">
-        <v>646.2</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11005,28 +8059,12 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>30</v>
-      </c>
-      <c r="J211" t="n">
-        <v>870</v>
-      </c>
-      <c r="K211" t="n">
-        <v>-22.58064516129032</v>
-      </c>
-      <c r="L211" t="n">
-        <v>641.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
-        <v>645.85</v>
-      </c>
-      <c r="N211" t="n">
-        <v>645.5666666666667</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11056,28 +8094,12 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>28</v>
-      </c>
-      <c r="J212" t="n">
-        <v>872</v>
-      </c>
-      <c r="K212" t="n">
-        <v>-9.433962264150944</v>
-      </c>
-      <c r="L212" t="n">
-        <v>639.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
-        <v>645.5</v>
-      </c>
-      <c r="N212" t="n">
-        <v>644.8666666666667</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11107,28 +8129,12 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>32</v>
-      </c>
-      <c r="J213" t="n">
-        <v>876</v>
-      </c>
-      <c r="K213" t="n">
-        <v>-11.53846153846154</v>
-      </c>
-      <c r="L213" t="n">
-        <v>639.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
-        <v>644.75</v>
-      </c>
-      <c r="N213" t="n">
-        <v>644.5</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11158,28 +8164,12 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>37</v>
-      </c>
-      <c r="J214" t="n">
-        <v>881</v>
-      </c>
-      <c r="K214" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L214" t="n">
-        <v>639.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
-        <v>644.45</v>
-      </c>
-      <c r="N214" t="n">
-        <v>644.4</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11209,28 +8199,12 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>32</v>
-      </c>
-      <c r="J215" t="n">
-        <v>886</v>
-      </c>
-      <c r="K215" t="n">
-        <v>-4.166666666666666</v>
-      </c>
-      <c r="L215" t="n">
-        <v>639.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
-        <v>643.95</v>
-      </c>
-      <c r="N215" t="n">
-        <v>644.1333333333333</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11260,1099 +8234,12 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>39</v>
-      </c>
-      <c r="J216" t="n">
-        <v>893</v>
-      </c>
-      <c r="K216" t="n">
-        <v>7.407407407407407</v>
-      </c>
-      <c r="L216" t="n">
-        <v>640.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
-        <v>643.75</v>
-      </c>
-      <c r="N216" t="n">
-        <v>644.2333333333333</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>640</v>
-      </c>
-      <c r="C217" t="n">
-        <v>639</v>
-      </c>
-      <c r="D217" t="n">
-        <v>640</v>
-      </c>
-      <c r="E217" t="n">
-        <v>639</v>
-      </c>
-      <c r="F217" t="n">
-        <v>335.1903</v>
-      </c>
-      <c r="G217" t="n">
-        <v>651.3</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>31</v>
-      </c>
-      <c r="J217" t="n">
-        <v>901</v>
-      </c>
-      <c r="K217" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L217" t="n">
-        <v>639.8</v>
-      </c>
-      <c r="M217" t="n">
-        <v>643.05</v>
-      </c>
-      <c r="N217" t="n">
-        <v>644.0333333333333</v>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>639</v>
-      </c>
-      <c r="C218" t="n">
-        <v>638</v>
-      </c>
-      <c r="D218" t="n">
-        <v>639</v>
-      </c>
-      <c r="E218" t="n">
-        <v>637</v>
-      </c>
-      <c r="F218" t="n">
-        <v>309.4915</v>
-      </c>
-      <c r="G218" t="n">
-        <v>650.75</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>30</v>
-      </c>
-      <c r="J218" t="n">
-        <v>902</v>
-      </c>
-      <c r="K218" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L218" t="n">
-        <v>638.8</v>
-      </c>
-      <c r="M218" t="n">
-        <v>642.1</v>
-      </c>
-      <c r="N218" t="n">
-        <v>644.1</v>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>639</v>
-      </c>
-      <c r="C219" t="n">
-        <v>633</v>
-      </c>
-      <c r="D219" t="n">
-        <v>639</v>
-      </c>
-      <c r="E219" t="n">
-        <v>633</v>
-      </c>
-      <c r="F219" t="n">
-        <v>2560.5125</v>
-      </c>
-      <c r="G219" t="n">
-        <v>650.15</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>25</v>
-      </c>
-      <c r="J219" t="n">
-        <v>907</v>
-      </c>
-      <c r="K219" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L219" t="n">
-        <v>638.6</v>
-      </c>
-      <c r="M219" t="n">
-        <v>640.85</v>
-      </c>
-      <c r="N219" t="n">
-        <v>643.8333333333334</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>641</v>
-      </c>
-      <c r="C220" t="n">
-        <v>635</v>
-      </c>
-      <c r="D220" t="n">
-        <v>641</v>
-      </c>
-      <c r="E220" t="n">
-        <v>635</v>
-      </c>
-      <c r="F220" t="n">
-        <v>550.4402</v>
-      </c>
-      <c r="G220" t="n">
-        <v>649.7333333333333</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>27</v>
-      </c>
-      <c r="J220" t="n">
-        <v>909</v>
-      </c>
-      <c r="K220" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L220" t="n">
-        <v>639.1</v>
-      </c>
-      <c r="M220" t="n">
-        <v>640.15</v>
-      </c>
-      <c r="N220" t="n">
-        <v>643.5333333333333</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>640</v>
-      </c>
-      <c r="C221" t="n">
-        <v>640</v>
-      </c>
-      <c r="D221" t="n">
-        <v>641</v>
-      </c>
-      <c r="E221" t="n">
-        <v>640</v>
-      </c>
-      <c r="F221" t="n">
-        <v>1216.3882</v>
-      </c>
-      <c r="G221" t="n">
-        <v>649.3166666666667</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>32</v>
-      </c>
-      <c r="J221" t="n">
-        <v>914</v>
-      </c>
-      <c r="K221" t="n">
-        <v>9.523809523809524</v>
-      </c>
-      <c r="L221" t="n">
-        <v>639.3</v>
-      </c>
-      <c r="M221" t="n">
-        <v>640.25</v>
-      </c>
-      <c r="N221" t="n">
-        <v>643.6666666666666</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>638</v>
-      </c>
-      <c r="C222" t="n">
-        <v>642</v>
-      </c>
-      <c r="D222" t="n">
-        <v>642</v>
-      </c>
-      <c r="E222" t="n">
-        <v>638</v>
-      </c>
-      <c r="F222" t="n">
-        <v>35.2689</v>
-      </c>
-      <c r="G222" t="n">
-        <v>649.0166666666667</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>34</v>
-      </c>
-      <c r="J222" t="n">
-        <v>916</v>
-      </c>
-      <c r="K222" t="n">
-        <v>5</v>
-      </c>
-      <c r="L222" t="n">
-        <v>639.9</v>
-      </c>
-      <c r="M222" t="n">
-        <v>639.75</v>
-      </c>
-      <c r="N222" t="n">
-        <v>643.6333333333333</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>642</v>
-      </c>
-      <c r="C223" t="n">
-        <v>639</v>
-      </c>
-      <c r="D223" t="n">
-        <v>645</v>
-      </c>
-      <c r="E223" t="n">
-        <v>639</v>
-      </c>
-      <c r="F223" t="n">
-        <v>730.0624</v>
-      </c>
-      <c r="G223" t="n">
-        <v>648.6833333333333</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>31</v>
-      </c>
-      <c r="J223" t="n">
-        <v>919</v>
-      </c>
-      <c r="K223" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L223" t="n">
-        <v>639.8</v>
-      </c>
-      <c r="M223" t="n">
-        <v>639.65</v>
-      </c>
-      <c r="N223" t="n">
-        <v>643.1</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>643</v>
-      </c>
-      <c r="C224" t="n">
-        <v>646</v>
-      </c>
-      <c r="D224" t="n">
-        <v>646</v>
-      </c>
-      <c r="E224" t="n">
-        <v>643</v>
-      </c>
-      <c r="F224" t="n">
-        <v>11</v>
-      </c>
-      <c r="G224" t="n">
-        <v>648.4666666666667</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>38</v>
-      </c>
-      <c r="J224" t="n">
-        <v>926</v>
-      </c>
-      <c r="K224" t="n">
-        <v>15</v>
-      </c>
-      <c r="L224" t="n">
-        <v>639.9</v>
-      </c>
-      <c r="M224" t="n">
-        <v>639.65</v>
-      </c>
-      <c r="N224" t="n">
-        <v>642.9333333333333</v>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>645</v>
-      </c>
-      <c r="C225" t="n">
-        <v>647</v>
-      </c>
-      <c r="D225" t="n">
-        <v>647</v>
-      </c>
-      <c r="E225" t="n">
-        <v>645</v>
-      </c>
-      <c r="F225" t="n">
-        <v>466.0085</v>
-      </c>
-      <c r="G225" t="n">
-        <v>648.1666666666666</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>39</v>
-      </c>
-      <c r="J225" t="n">
-        <v>927</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0</v>
-      </c>
-      <c r="L225" t="n">
-        <v>640.6</v>
-      </c>
-      <c r="M225" t="n">
-        <v>640.15</v>
-      </c>
-      <c r="N225" t="n">
-        <v>642.8333333333334</v>
-      </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>648</v>
-      </c>
-      <c r="C226" t="n">
-        <v>648</v>
-      </c>
-      <c r="D226" t="n">
-        <v>648</v>
-      </c>
-      <c r="E226" t="n">
-        <v>648</v>
-      </c>
-      <c r="F226" t="n">
-        <v>1</v>
-      </c>
-      <c r="G226" t="n">
-        <v>647.9166666666666</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>40</v>
-      </c>
-      <c r="J226" t="n">
-        <v>928</v>
-      </c>
-      <c r="K226" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L226" t="n">
-        <v>640.7</v>
-      </c>
-      <c r="M226" t="n">
-        <v>640.45</v>
-      </c>
-      <c r="N226" t="n">
-        <v>642.7333333333333</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>642</v>
-      </c>
-      <c r="C227" t="n">
-        <v>651</v>
-      </c>
-      <c r="D227" t="n">
-        <v>651</v>
-      </c>
-      <c r="E227" t="n">
-        <v>641</v>
-      </c>
-      <c r="F227" t="n">
-        <v>427.7576</v>
-      </c>
-      <c r="G227" t="n">
-        <v>647.7833333333333</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>43</v>
-      </c>
-      <c r="J227" t="n">
-        <v>931</v>
-      </c>
-      <c r="K227" t="n">
-        <v>44.82758620689656</v>
-      </c>
-      <c r="L227" t="n">
-        <v>641.9</v>
-      </c>
-      <c r="M227" t="n">
-        <v>640.85</v>
-      </c>
-      <c r="N227" t="n">
-        <v>642.6666666666666</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>651</v>
-      </c>
-      <c r="C228" t="n">
-        <v>651</v>
-      </c>
-      <c r="D228" t="n">
-        <v>651</v>
-      </c>
-      <c r="E228" t="n">
-        <v>651</v>
-      </c>
-      <c r="F228" t="n">
-        <v>135.0261</v>
-      </c>
-      <c r="G228" t="n">
-        <v>647.4666666666667</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>43</v>
-      </c>
-      <c r="J228" t="n">
-        <v>931</v>
-      </c>
-      <c r="K228" t="n">
-        <v>75</v>
-      </c>
-      <c r="L228" t="n">
-        <v>643.2</v>
-      </c>
-      <c r="M228" t="n">
-        <v>641</v>
-      </c>
-      <c r="N228" t="n">
-        <v>642.4666666666667</v>
-      </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>651</v>
-      </c>
-      <c r="C229" t="n">
-        <v>643</v>
-      </c>
-      <c r="D229" t="n">
-        <v>651</v>
-      </c>
-      <c r="E229" t="n">
-        <v>643</v>
-      </c>
-      <c r="F229" t="n">
-        <v>644.86349969</v>
-      </c>
-      <c r="G229" t="n">
-        <v>647.0666666666667</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>35</v>
-      </c>
-      <c r="J229" t="n">
-        <v>939</v>
-      </c>
-      <c r="K229" t="n">
-        <v>26.66666666666667</v>
-      </c>
-      <c r="L229" t="n">
-        <v>644.2</v>
-      </c>
-      <c r="M229" t="n">
-        <v>641.4</v>
-      </c>
-      <c r="N229" t="n">
-        <v>641.9666666666667</v>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>643</v>
-      </c>
-      <c r="C230" t="n">
-        <v>653</v>
-      </c>
-      <c r="D230" t="n">
-        <v>653</v>
-      </c>
-      <c r="E230" t="n">
-        <v>640</v>
-      </c>
-      <c r="F230" t="n">
-        <v>4916.8059</v>
-      </c>
-      <c r="G230" t="n">
-        <v>646.8666666666667</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>45</v>
-      </c>
-      <c r="J230" t="n">
-        <v>949</v>
-      </c>
-      <c r="K230" t="n">
-        <v>37.14285714285715</v>
-      </c>
-      <c r="L230" t="n">
-        <v>646</v>
-      </c>
-      <c r="M230" t="n">
-        <v>642.55</v>
-      </c>
-      <c r="N230" t="n">
-        <v>642.1</v>
-      </c>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>649</v>
-      </c>
-      <c r="C231" t="n">
-        <v>647</v>
-      </c>
-      <c r="D231" t="n">
-        <v>650</v>
-      </c>
-      <c r="E231" t="n">
-        <v>647</v>
-      </c>
-      <c r="F231" t="n">
-        <v>5756.5868</v>
-      </c>
-      <c r="G231" t="n">
-        <v>646.6333333333333</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>39</v>
-      </c>
-      <c r="J231" t="n">
-        <v>955</v>
-      </c>
-      <c r="K231" t="n">
-        <v>12.82051282051282</v>
-      </c>
-      <c r="L231" t="n">
-        <v>646.7</v>
-      </c>
-      <c r="M231" t="n">
-        <v>643</v>
-      </c>
-      <c r="N231" t="n">
-        <v>642.4</v>
-      </c>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>648</v>
-      </c>
-      <c r="C232" t="n">
-        <v>648</v>
-      </c>
-      <c r="D232" t="n">
-        <v>649</v>
-      </c>
-      <c r="E232" t="n">
-        <v>648</v>
-      </c>
-      <c r="F232" t="n">
-        <v>2802.2807</v>
-      </c>
-      <c r="G232" t="n">
-        <v>646.4166666666666</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>40</v>
-      </c>
-      <c r="J232" t="n">
-        <v>956</v>
-      </c>
-      <c r="K232" t="n">
-        <v>24.32432432432433</v>
-      </c>
-      <c r="L232" t="n">
-        <v>647.3</v>
-      </c>
-      <c r="M232" t="n">
-        <v>643.6</v>
-      </c>
-      <c r="N232" t="n">
-        <v>642.2666666666667</v>
-      </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
-      <c r="S232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>648</v>
-      </c>
-      <c r="C233" t="n">
-        <v>648</v>
-      </c>
-      <c r="D233" t="n">
-        <v>648</v>
-      </c>
-      <c r="E233" t="n">
-        <v>648</v>
-      </c>
-      <c r="F233" t="n">
-        <v>230.2069</v>
-      </c>
-      <c r="G233" t="n">
-        <v>646.2166666666667</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>40</v>
-      </c>
-      <c r="J233" t="n">
-        <v>956</v>
-      </c>
-      <c r="K233" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L233" t="n">
-        <v>648.2</v>
-      </c>
-      <c r="M233" t="n">
-        <v>644</v>
-      </c>
-      <c r="N233" t="n">
-        <v>642.5</v>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>646</v>
-      </c>
-      <c r="C234" t="n">
-        <v>654</v>
-      </c>
-      <c r="D234" t="n">
-        <v>654</v>
-      </c>
-      <c r="E234" t="n">
-        <v>645</v>
-      </c>
-      <c r="F234" t="n">
-        <v>10455.1253</v>
-      </c>
-      <c r="G234" t="n">
-        <v>646.15</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>46</v>
-      </c>
-      <c r="J234" t="n">
-        <v>962</v>
-      </c>
-      <c r="K234" t="n">
-        <v>20</v>
-      </c>
-      <c r="L234" t="n">
-        <v>649</v>
-      </c>
-      <c r="M234" t="n">
-        <v>644.45</v>
-      </c>
-      <c r="N234" t="n">
-        <v>642.7666666666667</v>
-      </c>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>654</v>
-      </c>
-      <c r="C235" t="n">
-        <v>655</v>
-      </c>
-      <c r="D235" t="n">
-        <v>669</v>
-      </c>
-      <c r="E235" t="n">
-        <v>649</v>
-      </c>
-      <c r="F235" t="n">
-        <v>7825.8752</v>
-      </c>
-      <c r="G235" t="n">
-        <v>646.1</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>47</v>
-      </c>
-      <c r="J235" t="n">
-        <v>963</v>
-      </c>
-      <c r="K235" t="n">
-        <v>20</v>
-      </c>
-      <c r="L235" t="n">
-        <v>649.8</v>
-      </c>
-      <c r="M235" t="n">
-        <v>645.2</v>
-      </c>
-      <c r="N235" t="n">
-        <v>643.3666666666667</v>
-      </c>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
-      <c r="Q235" t="inlineStr"/>
-      <c r="R235" t="inlineStr"/>
-      <c r="S235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>655</v>
-      </c>
-      <c r="C236" t="n">
-        <v>668</v>
-      </c>
-      <c r="D236" t="n">
-        <v>668</v>
-      </c>
-      <c r="E236" t="n">
-        <v>654</v>
-      </c>
-      <c r="F236" t="n">
-        <v>2145.2206</v>
-      </c>
-      <c r="G236" t="n">
-        <v>646.2666666666667</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>60</v>
-      </c>
-      <c r="J236" t="n">
-        <v>976</v>
-      </c>
-      <c r="K236" t="n">
-        <v>37.77777777777778</v>
-      </c>
-      <c r="L236" t="n">
-        <v>651.8</v>
-      </c>
-      <c r="M236" t="n">
-        <v>646.25</v>
-      </c>
-      <c r="N236" t="n">
-        <v>644.2333333333333</v>
-      </c>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
-      <c r="Q236" t="inlineStr"/>
-      <c r="R236" t="inlineStr"/>
-      <c r="S236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>659</v>
-      </c>
-      <c r="C237" t="n">
-        <v>660</v>
-      </c>
-      <c r="D237" t="n">
-        <v>660</v>
-      </c>
-      <c r="E237" t="n">
-        <v>659</v>
-      </c>
-      <c r="F237" t="n">
-        <v>971.3318</v>
-      </c>
-      <c r="G237" t="n">
-        <v>646.3</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>52</v>
-      </c>
-      <c r="J237" t="n">
-        <v>984</v>
-      </c>
-      <c r="K237" t="n">
-        <v>16.9811320754717</v>
-      </c>
-      <c r="L237" t="n">
-        <v>652.7</v>
-      </c>
-      <c r="M237" t="n">
-        <v>647.3</v>
-      </c>
-      <c r="N237" t="n">
-        <v>644.8</v>
-      </c>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
-      <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr"/>
-      <c r="S237" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-15 BackTest GXC.xlsx
+++ b/BackTest/2019-10-15 BackTest GXC.xlsx
@@ -451,20 +451,14 @@
         <v>558.1833333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>605</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>559.2666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>608</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>560.4666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>609</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>561.6666666666666</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>615</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>562.95</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>618</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>564.2666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>619</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>565.4833333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>617</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>566.7833333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>617</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -786,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -825,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -864,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -903,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -942,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -981,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1013,20 +941,14 @@
         <v>574.8</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>600</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1054,20 +976,14 @@
         <v>575.85</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>603</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1095,20 +1011,14 @@
         <v>576.85</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>605</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1136,20 +1046,14 @@
         <v>578</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>604</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1177,20 +1081,14 @@
         <v>579.0833333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>606</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1218,20 +1116,14 @@
         <v>580.2166666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>609</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1259,20 +1151,14 @@
         <v>581.4166666666666</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>614</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1300,20 +1186,14 @@
         <v>582.5666666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>608</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1341,20 +1221,14 @@
         <v>583.65</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>605</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1382,20 +1256,14 @@
         <v>584.7666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>608</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1423,20 +1291,14 @@
         <v>585.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>601</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1464,20 +1326,14 @@
         <v>586.6166666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>598</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1505,20 +1361,14 @@
         <v>587.6</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>590</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1546,20 +1396,14 @@
         <v>588.6666666666666</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>598</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1587,20 +1431,14 @@
         <v>589.7833333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>599</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1628,20 +1466,14 @@
         <v>590.7666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>599</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1669,20 +1501,14 @@
         <v>591.7333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>598</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1710,20 +1536,14 @@
         <v>592.7166666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>592</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1751,20 +1571,14 @@
         <v>593.7666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>598</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1792,20 +1606,14 @@
         <v>594.9</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>603</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1833,20 +1641,14 @@
         <v>596.0666666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>607</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1874,20 +1676,14 @@
         <v>597.1166666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>607</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1915,20 +1711,14 @@
         <v>598.2166666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>608</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1956,20 +1746,14 @@
         <v>599.3833333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>610</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1997,20 +1781,14 @@
         <v>600.4833333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>615</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2038,20 +1816,14 @@
         <v>601.4333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>620</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2086,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2125,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2160,15 +1924,11 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2203,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2242,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2281,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2320,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2359,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2437,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2476,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2515,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2554,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2593,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2632,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2671,12 +2383,10 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2739,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2774,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2809,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2844,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2879,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2914,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -7776,13 +7486,17 @@
         <v>657.5166666666667</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>652</v>
+      </c>
+      <c r="K203" t="n">
+        <v>652</v>
+      </c>
       <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
@@ -7817,8 +7531,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>652</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7852,8 +7572,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>652</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7887,8 +7613,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>652</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7922,8 +7654,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>652</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7957,8 +7695,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>652</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7992,8 +7736,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>652</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8027,8 +7777,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>652</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8062,8 +7818,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>652</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8091,14 +7853,22 @@
         <v>653.3833333333333</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>638</v>
+      </c>
+      <c r="K212" t="n">
+        <v>652</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8126,14 +7896,22 @@
         <v>652.8833333333333</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>636</v>
+      </c>
+      <c r="K213" t="n">
+        <v>652</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8161,14 +7939,22 @@
         <v>652.5166666666667</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>640</v>
+      </c>
+      <c r="K214" t="n">
+        <v>652</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8196,14 +7982,22 @@
         <v>652.0833333333334</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>645</v>
+      </c>
+      <c r="K215" t="n">
+        <v>652</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8231,14 +8025,22 @@
         <v>651.75</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>640</v>
+      </c>
+      <c r="K216" t="n">
+        <v>652</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-15 BackTest GXC.xlsx
+++ b/BackTest/2019-10-15 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M216"/>
+  <dimension ref="A1:M217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C2" t="n">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="D2" t="n">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E2" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F2" t="n">
-        <v>2629.7273</v>
+        <v>424.6488</v>
       </c>
       <c r="G2" t="n">
-        <v>558.1833333333333</v>
+        <v>557.1333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>605</v>
+      </c>
+      <c r="C3" t="n">
         <v>608</v>
       </c>
-      <c r="C3" t="n">
-        <v>609</v>
-      </c>
       <c r="D3" t="n">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="E3" t="n">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F3" t="n">
-        <v>5891.9021</v>
+        <v>2629.7273</v>
       </c>
       <c r="G3" t="n">
-        <v>559.2666666666667</v>
+        <v>558.1833333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>608</v>
+      </c>
+      <c r="C4" t="n">
         <v>609</v>
       </c>
-      <c r="C4" t="n">
-        <v>615</v>
-      </c>
       <c r="D4" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E4" t="n">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F4" t="n">
-        <v>3299.2492</v>
+        <v>5891.9021</v>
       </c>
       <c r="G4" t="n">
-        <v>560.4666666666667</v>
+        <v>559.2666666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C5" t="n">
         <v>615</v>
       </c>
       <c r="D5" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E5" t="n">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F5" t="n">
-        <v>3767.5909</v>
+        <v>3299.2492</v>
       </c>
       <c r="G5" t="n">
-        <v>561.6666666666666</v>
+        <v>560.4666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C6" t="n">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D6" t="n">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E6" t="n">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F6" t="n">
-        <v>2589.5362</v>
+        <v>3767.5909</v>
       </c>
       <c r="G6" t="n">
-        <v>562.95</v>
+        <v>561.6666666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C7" t="n">
+        <v>620</v>
+      </c>
+      <c r="D7" t="n">
+        <v>620</v>
+      </c>
+      <c r="E7" t="n">
         <v>618</v>
       </c>
-      <c r="D7" t="n">
-        <v>619</v>
-      </c>
-      <c r="E7" t="n">
-        <v>615</v>
-      </c>
       <c r="F7" t="n">
-        <v>1830.856</v>
+        <v>2589.5362</v>
       </c>
       <c r="G7" t="n">
-        <v>564.2666666666667</v>
+        <v>562.95</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C8" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D8" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E8" t="n">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F8" t="n">
-        <v>817.7779</v>
+        <v>1830.856</v>
       </c>
       <c r="G8" t="n">
-        <v>565.4833333333333</v>
+        <v>564.2666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>617</v>
       </c>
       <c r="C9" t="n">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D9" t="n">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E9" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F9" t="n">
-        <v>19218.7273</v>
+        <v>817.7779</v>
       </c>
       <c r="G9" t="n">
-        <v>566.7833333333333</v>
+        <v>565.4833333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>617</v>
+      </c>
+      <c r="C10" t="n">
         <v>620</v>
-      </c>
-      <c r="C10" t="n">
-        <v>617</v>
       </c>
       <c r="D10" t="n">
         <v>620</v>
       </c>
       <c r="E10" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F10" t="n">
-        <v>4769.6437</v>
+        <v>19218.7273</v>
       </c>
       <c r="G10" t="n">
-        <v>568</v>
+        <v>566.7833333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="C11" t="n">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D11" t="n">
         <v>620</v>
       </c>
       <c r="E11" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F11" t="n">
-        <v>3529.0292</v>
+        <v>4769.6437</v>
       </c>
       <c r="G11" t="n">
-        <v>569.4666666666667</v>
+        <v>568</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C12" t="n">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="D12" t="n">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E12" t="n">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="F12" t="n">
-        <v>8347.6747</v>
+        <v>3529.0292</v>
       </c>
       <c r="G12" t="n">
-        <v>570.6166666666667</v>
+        <v>569.4666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="C13" t="n">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D13" t="n">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="E13" t="n">
         <v>608</v>
       </c>
       <c r="F13" t="n">
-        <v>3410.8944</v>
+        <v>8347.6747</v>
       </c>
       <c r="G13" t="n">
-        <v>571.8</v>
+        <v>570.6166666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>609</v>
+      </c>
+      <c r="C14" t="n">
         <v>611</v>
-      </c>
-      <c r="C14" t="n">
-        <v>607</v>
       </c>
       <c r="D14" t="n">
         <v>611</v>
       </c>
       <c r="E14" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F14" t="n">
-        <v>8410.894399999999</v>
+        <v>3410.8944</v>
       </c>
       <c r="G14" t="n">
-        <v>572.7666666666667</v>
+        <v>571.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C15" t="n">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D15" t="n">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="E15" t="n">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="F15" t="n">
-        <v>2315.5242</v>
+        <v>8410.894399999999</v>
       </c>
       <c r="G15" t="n">
-        <v>573.6833333333333</v>
+        <v>572.7666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="C16" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D16" t="n">
         <v>605</v>
       </c>
       <c r="E16" t="n">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F16" t="n">
-        <v>2011.7475</v>
+        <v>2315.5242</v>
       </c>
       <c r="G16" t="n">
-        <v>574.8</v>
+        <v>573.6833333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C17" t="n">
         <v>605</v>
@@ -967,13 +967,13 @@
         <v>605</v>
       </c>
       <c r="E17" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F17" t="n">
-        <v>1514.1332</v>
+        <v>2011.7475</v>
       </c>
       <c r="G17" t="n">
-        <v>575.85</v>
+        <v>574.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>603</v>
+      </c>
+      <c r="C18" t="n">
         <v>605</v>
-      </c>
-      <c r="C18" t="n">
-        <v>604</v>
       </c>
       <c r="D18" t="n">
         <v>605</v>
       </c>
       <c r="E18" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F18" t="n">
-        <v>8460.659600000001</v>
+        <v>1514.1332</v>
       </c>
       <c r="G18" t="n">
-        <v>576.85</v>
+        <v>575.85</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>605</v>
+      </c>
+      <c r="C19" t="n">
         <v>604</v>
       </c>
-      <c r="C19" t="n">
-        <v>606</v>
-      </c>
       <c r="D19" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E19" t="n">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F19" t="n">
-        <v>2719.2413</v>
+        <v>8460.659600000001</v>
       </c>
       <c r="G19" t="n">
-        <v>578</v>
+        <v>576.85</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>604</v>
+      </c>
+      <c r="C20" t="n">
         <v>606</v>
       </c>
-      <c r="C20" t="n">
-        <v>608</v>
-      </c>
       <c r="D20" t="n">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E20" t="n">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F20" t="n">
-        <v>933.3222</v>
+        <v>2719.2413</v>
       </c>
       <c r="G20" t="n">
-        <v>579.0833333333334</v>
+        <v>578</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C21" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D21" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E21" t="n">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F21" t="n">
-        <v>924.7673</v>
+        <v>933.3222</v>
       </c>
       <c r="G21" t="n">
-        <v>580.2166666666667</v>
+        <v>579.0833333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C22" t="n">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D22" t="n">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E22" t="n">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>924.7673</v>
       </c>
       <c r="G22" t="n">
-        <v>581.4166666666666</v>
+        <v>580.2166666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C23" t="n">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D23" t="n">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="E23" t="n">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="F23" t="n">
-        <v>14.4194</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>582.5666666666667</v>
+        <v>581.4166666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C24" t="n">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D24" t="n">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="E24" t="n">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="F24" t="n">
-        <v>42.8622</v>
+        <v>14.4194</v>
       </c>
       <c r="G24" t="n">
-        <v>583.65</v>
+        <v>582.5666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C25" t="n">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D25" t="n">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E25" t="n">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F25" t="n">
-        <v>49.9901</v>
+        <v>42.8622</v>
       </c>
       <c r="G25" t="n">
-        <v>584.7666666666667</v>
+        <v>583.65</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="C26" t="n">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="D26" t="n">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="E26" t="n">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="F26" t="n">
-        <v>10717.9999</v>
+        <v>49.9901</v>
       </c>
       <c r="G26" t="n">
-        <v>585.8</v>
+        <v>584.7666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C27" t="n">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="D27" t="n">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="E27" t="n">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="F27" t="n">
-        <v>9632.340899999999</v>
+        <v>10717.9999</v>
       </c>
       <c r="G27" t="n">
-        <v>586.6166666666667</v>
+        <v>585.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>598</v>
+      </c>
+      <c r="C28" t="n">
         <v>590</v>
       </c>
-      <c r="C28" t="n">
-        <v>600</v>
-      </c>
       <c r="D28" t="n">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E28" t="n">
         <v>590</v>
       </c>
       <c r="F28" t="n">
-        <v>514.3833</v>
+        <v>9632.340899999999</v>
       </c>
       <c r="G28" t="n">
-        <v>587.6</v>
+        <v>586.6166666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C29" t="n">
         <v>600</v>
@@ -1387,13 +1387,13 @@
         <v>600</v>
       </c>
       <c r="E29" t="n">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="F29" t="n">
-        <v>113.1244</v>
+        <v>514.3833</v>
       </c>
       <c r="G29" t="n">
-        <v>588.6666666666666</v>
+        <v>587.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C30" t="n">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D30" t="n">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E30" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F30" t="n">
-        <v>752.951</v>
+        <v>113.1244</v>
       </c>
       <c r="G30" t="n">
-        <v>589.7833333333333</v>
+        <v>588.6666666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>599</v>
       </c>
       <c r="C31" t="n">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D31" t="n">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E31" t="n">
         <v>599</v>
       </c>
       <c r="F31" t="n">
-        <v>4095.8509</v>
+        <v>752.951</v>
       </c>
       <c r="G31" t="n">
-        <v>590.7666666666667</v>
+        <v>589.7833333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C32" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D32" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E32" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F32" t="n">
-        <v>787.3244</v>
+        <v>4095.8509</v>
       </c>
       <c r="G32" t="n">
-        <v>591.7333333333333</v>
+        <v>590.7666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C33" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D33" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E33" t="n">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="F33" t="n">
-        <v>131.8971</v>
+        <v>787.3244</v>
       </c>
       <c r="G33" t="n">
-        <v>592.7166666666667</v>
+        <v>591.7333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C34" t="n">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D34" t="n">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E34" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F34" t="n">
-        <v>224.2523</v>
+        <v>131.8971</v>
       </c>
       <c r="G34" t="n">
-        <v>593.7666666666667</v>
+        <v>592.7166666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>598</v>
+      </c>
+      <c r="C35" t="n">
         <v>603</v>
       </c>
-      <c r="C35" t="n">
-        <v>608</v>
-      </c>
       <c r="D35" t="n">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E35" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F35" t="n">
-        <v>167.4844</v>
+        <v>224.2523</v>
       </c>
       <c r="G35" t="n">
-        <v>594.9</v>
+        <v>593.7666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C36" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D36" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E36" t="n">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F36" t="n">
-        <v>717.3344</v>
+        <v>167.4844</v>
       </c>
       <c r="G36" t="n">
-        <v>596.0666666666667</v>
+        <v>594.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>607</v>
       </c>
       <c r="F37" t="n">
-        <v>215.1809</v>
+        <v>717.3344</v>
       </c>
       <c r="G37" t="n">
-        <v>597.1166666666667</v>
+        <v>596.0666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C38" t="n">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D38" t="n">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E38" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F38" t="n">
-        <v>734.0300999999999</v>
+        <v>215.1809</v>
       </c>
       <c r="G38" t="n">
-        <v>598.2166666666667</v>
+        <v>597.1166666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>608</v>
+      </c>
+      <c r="C39" t="n">
         <v>610</v>
       </c>
-      <c r="C39" t="n">
-        <v>615</v>
-      </c>
       <c r="D39" t="n">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E39" t="n">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="F39" t="n">
-        <v>1758.78122173</v>
+        <v>734.0300999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>599.3833333333333</v>
+        <v>598.2166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>610</v>
+      </c>
+      <c r="C40" t="n">
         <v>615</v>
       </c>
-      <c r="C40" t="n">
-        <v>620</v>
-      </c>
       <c r="D40" t="n">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E40" t="n">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="F40" t="n">
-        <v>6947.77660985</v>
+        <v>1758.78122173</v>
       </c>
       <c r="G40" t="n">
-        <v>600.4833333333333</v>
+        <v>599.3833333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>615</v>
+      </c>
+      <c r="C41" t="n">
         <v>620</v>
       </c>
-      <c r="C41" t="n">
-        <v>621</v>
-      </c>
       <c r="D41" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E41" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F41" t="n">
-        <v>14349.88511935</v>
+        <v>6947.77660985</v>
       </c>
       <c r="G41" t="n">
-        <v>601.4333333333333</v>
+        <v>600.4833333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>620</v>
+      </c>
+      <c r="C42" t="n">
         <v>621</v>
       </c>
-      <c r="C42" t="n">
-        <v>649</v>
-      </c>
       <c r="D42" t="n">
-        <v>660</v>
+        <v>621</v>
       </c>
       <c r="E42" t="n">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F42" t="n">
-        <v>34241.69995171</v>
+        <v>14349.88511935</v>
       </c>
       <c r="G42" t="n">
-        <v>602.75</v>
+        <v>601.4333333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>621</v>
+      </c>
+      <c r="C43" t="n">
         <v>649</v>
       </c>
-      <c r="C43" t="n">
-        <v>636</v>
-      </c>
       <c r="D43" t="n">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="E43" t="n">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="F43" t="n">
-        <v>10717.01192449</v>
+        <v>34241.69995171</v>
       </c>
       <c r="G43" t="n">
-        <v>603.8666666666667</v>
+        <v>602.75</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,28 +1903,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>649</v>
+      </c>
+      <c r="C44" t="n">
         <v>636</v>
       </c>
-      <c r="C44" t="n">
-        <v>639</v>
-      </c>
       <c r="D44" t="n">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="E44" t="n">
         <v>635</v>
       </c>
       <c r="F44" t="n">
-        <v>3201.54080506</v>
+        <v>10717.01192449</v>
       </c>
       <c r="G44" t="n">
-        <v>605.0166666666667</v>
+        <v>603.8666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>636</v>
+      </c>
+      <c r="C45" t="n">
         <v>639</v>
       </c>
-      <c r="C45" t="n">
-        <v>638</v>
-      </c>
       <c r="D45" t="n">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="E45" t="n">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F45" t="n">
-        <v>6514.3131</v>
+        <v>3201.54080506</v>
       </c>
       <c r="G45" t="n">
-        <v>606.15</v>
+        <v>605.0166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C46" t="n">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="D46" t="n">
+        <v>644</v>
+      </c>
+      <c r="E46" t="n">
         <v>638</v>
       </c>
-      <c r="E46" t="n">
-        <v>630</v>
-      </c>
       <c r="F46" t="n">
-        <v>18981.297</v>
+        <v>6514.3131</v>
       </c>
       <c r="G46" t="n">
-        <v>607.15</v>
+        <v>606.15</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>635</v>
+      </c>
+      <c r="C47" t="n">
         <v>630</v>
       </c>
-      <c r="C47" t="n">
-        <v>635</v>
-      </c>
       <c r="D47" t="n">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E47" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F47" t="n">
-        <v>9167.1296</v>
+        <v>18981.297</v>
       </c>
       <c r="G47" t="n">
-        <v>608.0666666666667</v>
+        <v>607.15</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>630</v>
+      </c>
+      <c r="C48" t="n">
         <v>635</v>
       </c>
-      <c r="C48" t="n">
-        <v>638</v>
-      </c>
       <c r="D48" t="n">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E48" t="n">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F48" t="n">
-        <v>2691.0131</v>
+        <v>9167.1296</v>
       </c>
       <c r="G48" t="n">
-        <v>609.2</v>
+        <v>608.0666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="C49" t="n">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="D49" t="n">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="E49" t="n">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="F49" t="n">
-        <v>1453.6457</v>
+        <v>2691.0131</v>
       </c>
       <c r="G49" t="n">
-        <v>610.2</v>
+        <v>609.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>644</v>
+      </c>
+      <c r="C50" t="n">
         <v>652</v>
       </c>
-      <c r="C50" t="n">
-        <v>658</v>
-      </c>
       <c r="D50" t="n">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E50" t="n">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="F50" t="n">
-        <v>8041.4994</v>
+        <v>1453.6457</v>
       </c>
       <c r="G50" t="n">
-        <v>611.45</v>
+        <v>610.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C51" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D51" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="E51" t="n">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="F51" t="n">
-        <v>5997.9026</v>
+        <v>8041.4994</v>
       </c>
       <c r="G51" t="n">
-        <v>612.5833333333334</v>
+        <v>611.45</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C52" t="n">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D52" t="n">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E52" t="n">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F52" t="n">
-        <v>2377.2187</v>
+        <v>5997.9026</v>
       </c>
       <c r="G52" t="n">
-        <v>613.7166666666667</v>
+        <v>612.5833333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>654</v>
+      </c>
+      <c r="C53" t="n">
+        <v>659</v>
+      </c>
+      <c r="D53" t="n">
         <v>660</v>
       </c>
-      <c r="C53" t="n">
-        <v>667</v>
-      </c>
-      <c r="D53" t="n">
-        <v>667</v>
-      </c>
       <c r="E53" t="n">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="F53" t="n">
-        <v>667.02480719</v>
+        <v>2377.2187</v>
       </c>
       <c r="G53" t="n">
-        <v>614.7333333333333</v>
+        <v>613.7166666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>660</v>
       </c>
       <c r="C54" t="n">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D54" t="n">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="E54" t="n">
         <v>660</v>
       </c>
       <c r="F54" t="n">
-        <v>12170.31273716</v>
+        <v>667.02480719</v>
       </c>
       <c r="G54" t="n">
-        <v>616</v>
+        <v>614.7333333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>660</v>
+      </c>
+      <c r="C55" t="n">
         <v>671</v>
       </c>
-      <c r="C55" t="n">
-        <v>681</v>
-      </c>
       <c r="D55" t="n">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="E55" t="n">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="F55" t="n">
-        <v>18897.73246289</v>
+        <v>12170.31273716</v>
       </c>
       <c r="G55" t="n">
-        <v>617.3833333333333</v>
+        <v>616</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,28 +2323,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="C56" t="n">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D56" t="n">
         <v>690</v>
       </c>
       <c r="E56" t="n">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="F56" t="n">
-        <v>11410.6456</v>
+        <v>18897.73246289</v>
       </c>
       <c r="G56" t="n">
-        <v>618.8666666666667</v>
+        <v>617.3833333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>682</v>
+      </c>
+      <c r="C57" t="n">
         <v>683</v>
       </c>
-      <c r="C57" t="n">
-        <v>677</v>
-      </c>
       <c r="D57" t="n">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="E57" t="n">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F57" t="n">
-        <v>7297.3793</v>
+        <v>11410.6456</v>
       </c>
       <c r="G57" t="n">
-        <v>620.2166666666667</v>
+        <v>618.8666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="C58" t="n">
         <v>677</v>
       </c>
       <c r="D58" t="n">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E58" t="n">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F58" t="n">
-        <v>6442.812</v>
+        <v>7297.3793</v>
       </c>
       <c r="G58" t="n">
-        <v>621.5333333333333</v>
+        <v>620.2166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2434,22 +2434,22 @@
         <v>677</v>
       </c>
       <c r="D59" t="n">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E59" t="n">
         <v>675</v>
       </c>
       <c r="F59" t="n">
-        <v>14835.5564</v>
+        <v>6442.812</v>
       </c>
       <c r="G59" t="n">
-        <v>622.8166666666667</v>
+        <v>621.5333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C60" t="n">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D60" t="n">
         <v>681</v>
       </c>
       <c r="E60" t="n">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F60" t="n">
-        <v>12794.7056</v>
+        <v>14835.5564</v>
       </c>
       <c r="G60" t="n">
-        <v>624.05</v>
+        <v>622.8166666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C61" t="n">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D61" t="n">
         <v>681</v>
       </c>
       <c r="E61" t="n">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="F61" t="n">
-        <v>25761.428</v>
+        <v>12794.7056</v>
       </c>
       <c r="G61" t="n">
-        <v>625.3333333333334</v>
+        <v>624.05</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="C62" t="n">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="D62" t="n">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="E62" t="n">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="F62" t="n">
-        <v>9119.1522</v>
+        <v>25761.428</v>
       </c>
       <c r="G62" t="n">
-        <v>626.1833333333333</v>
+        <v>625.3333333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="C63" t="n">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D63" t="n">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="E63" t="n">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F63" t="n">
-        <v>5362.9907</v>
+        <v>9119.1522</v>
       </c>
       <c r="G63" t="n">
-        <v>627.05</v>
+        <v>626.1833333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C64" t="n">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D64" t="n">
         <v>669</v>
       </c>
       <c r="E64" t="n">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F64" t="n">
-        <v>1407.4575</v>
+        <v>5362.9907</v>
       </c>
       <c r="G64" t="n">
-        <v>627.85</v>
+        <v>627.05</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="C65" t="n">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D65" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E65" t="n">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F65" t="n">
-        <v>275.4447</v>
+        <v>1407.4575</v>
       </c>
       <c r="G65" t="n">
-        <v>628.7333333333333</v>
+        <v>627.85</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>664</v>
+      </c>
+      <c r="C66" t="n">
         <v>668</v>
       </c>
-      <c r="C66" t="n">
-        <v>665</v>
-      </c>
       <c r="D66" t="n">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E66" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F66" t="n">
-        <v>3443.8495</v>
+        <v>275.4447</v>
       </c>
       <c r="G66" t="n">
-        <v>629.4833333333333</v>
+        <v>628.7333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>668</v>
+      </c>
+      <c r="C67" t="n">
+        <v>665</v>
+      </c>
+      <c r="D67" t="n">
         <v>672</v>
       </c>
-      <c r="C67" t="n">
-        <v>668</v>
-      </c>
-      <c r="D67" t="n">
-        <v>683</v>
-      </c>
       <c r="E67" t="n">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F67" t="n">
-        <v>15974.2847</v>
+        <v>3443.8495</v>
       </c>
       <c r="G67" t="n">
-        <v>630.3166666666667</v>
+        <v>629.4833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>672</v>
+      </c>
+      <c r="C68" t="n">
         <v>668</v>
       </c>
-      <c r="C68" t="n">
-        <v>676</v>
-      </c>
       <c r="D68" t="n">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="E68" t="n">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F68" t="n">
-        <v>5927.0498</v>
+        <v>15974.2847</v>
       </c>
       <c r="G68" t="n">
-        <v>631.3</v>
+        <v>630.3166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C69" t="n">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="D69" t="n">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="E69" t="n">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="F69" t="n">
-        <v>797.1544</v>
+        <v>5927.0498</v>
       </c>
       <c r="G69" t="n">
-        <v>632.0833333333334</v>
+        <v>631.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>670</v>
+      </c>
+      <c r="C70" t="n">
         <v>667</v>
-      </c>
-      <c r="C70" t="n">
-        <v>670</v>
       </c>
       <c r="D70" t="n">
         <v>670</v>
       </c>
       <c r="E70" t="n">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F70" t="n">
-        <v>302.181</v>
+        <v>797.1544</v>
       </c>
       <c r="G70" t="n">
-        <v>632.9666666666667</v>
+        <v>632.0833333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C71" t="n">
         <v>670</v>
@@ -2857,13 +2857,13 @@
         <v>670</v>
       </c>
       <c r="E71" t="n">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F71" t="n">
-        <v>890.6265</v>
+        <v>302.181</v>
       </c>
       <c r="G71" t="n">
-        <v>633.8</v>
+        <v>632.9666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>669</v>
+      </c>
+      <c r="C72" t="n">
         <v>670</v>
       </c>
-      <c r="C72" t="n">
-        <v>675</v>
-      </c>
       <c r="D72" t="n">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E72" t="n">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F72" t="n">
-        <v>3770.8304</v>
+        <v>890.6265</v>
       </c>
       <c r="G72" t="n">
-        <v>634.9166666666666</v>
+        <v>633.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C73" t="n">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="D73" t="n">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="E73" t="n">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F73" t="n">
-        <v>9293.7865</v>
+        <v>3770.8304</v>
       </c>
       <c r="G73" t="n">
-        <v>636.1166666666667</v>
+        <v>634.9166666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>674</v>
+      </c>
+      <c r="C74" t="n">
         <v>683</v>
-      </c>
-      <c r="C74" t="n">
-        <v>680</v>
       </c>
       <c r="D74" t="n">
         <v>683</v>
       </c>
       <c r="E74" t="n">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="F74" t="n">
-        <v>5498.0967</v>
+        <v>9293.7865</v>
       </c>
       <c r="G74" t="n">
-        <v>637.3333333333334</v>
+        <v>636.1166666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>683</v>
+      </c>
+      <c r="C75" t="n">
         <v>680</v>
       </c>
-      <c r="C75" t="n">
-        <v>676</v>
-      </c>
       <c r="D75" t="n">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E75" t="n">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="F75" t="n">
-        <v>8493.1342</v>
+        <v>5498.0967</v>
       </c>
       <c r="G75" t="n">
-        <v>638.5333333333333</v>
+        <v>637.3333333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C76" t="n">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D76" t="n">
         <v>684</v>
       </c>
       <c r="E76" t="n">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F76" t="n">
-        <v>4749.1085</v>
+        <v>8493.1342</v>
       </c>
       <c r="G76" t="n">
-        <v>639.6833333333333</v>
+        <v>638.5333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C77" t="n">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="D77" t="n">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E77" t="n">
         <v>674</v>
       </c>
       <c r="F77" t="n">
-        <v>8955.177</v>
+        <v>4749.1085</v>
       </c>
       <c r="G77" t="n">
-        <v>640.95</v>
+        <v>639.6833333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>683</v>
+      </c>
+      <c r="C78" t="n">
         <v>681</v>
       </c>
-      <c r="C78" t="n">
-        <v>670</v>
-      </c>
       <c r="D78" t="n">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="E78" t="n">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="F78" t="n">
-        <v>14503.481</v>
+        <v>8955.177</v>
       </c>
       <c r="G78" t="n">
-        <v>642.05</v>
+        <v>640.95</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>681</v>
+      </c>
+      <c r="C79" t="n">
         <v>670</v>
       </c>
-      <c r="C79" t="n">
-        <v>671</v>
-      </c>
       <c r="D79" t="n">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="E79" t="n">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="F79" t="n">
-        <v>1716.7951</v>
+        <v>14503.481</v>
       </c>
       <c r="G79" t="n">
-        <v>643.1333333333333</v>
+        <v>642.05</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C80" t="n">
         <v>671</v>
       </c>
       <c r="D80" t="n">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="E80" t="n">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F80" t="n">
-        <v>1534.5096</v>
+        <v>1716.7951</v>
       </c>
       <c r="G80" t="n">
-        <v>644.1833333333333</v>
+        <v>643.1333333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>671</v>
+      </c>
+      <c r="C81" t="n">
+        <v>671</v>
+      </c>
+      <c r="D81" t="n">
         <v>676</v>
       </c>
-      <c r="C81" t="n">
-        <v>677</v>
-      </c>
-      <c r="D81" t="n">
-        <v>677</v>
-      </c>
       <c r="E81" t="n">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F81" t="n">
-        <v>666.1528</v>
+        <v>1534.5096</v>
       </c>
       <c r="G81" t="n">
-        <v>645.3166666666667</v>
+        <v>644.1833333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C82" t="n">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D82" t="n">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E82" t="n">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F82" t="n">
-        <v>4876.4856</v>
+        <v>666.1528</v>
       </c>
       <c r="G82" t="n">
-        <v>646.4666666666667</v>
+        <v>645.3166666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C83" t="n">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D83" t="n">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E83" t="n">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F83" t="n">
-        <v>537.3078</v>
+        <v>4876.4856</v>
       </c>
       <c r="G83" t="n">
-        <v>647.7833333333333</v>
+        <v>646.4666666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>682</v>
+      </c>
+      <c r="C84" t="n">
         <v>687</v>
       </c>
-      <c r="C84" t="n">
-        <v>700</v>
-      </c>
       <c r="D84" t="n">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="E84" t="n">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F84" t="n">
-        <v>31525.81</v>
+        <v>537.3078</v>
       </c>
       <c r="G84" t="n">
-        <v>649.3666666666667</v>
+        <v>647.7833333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,10 +3338,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="C85" t="n">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="D85" t="n">
         <v>700</v>
@@ -3350,10 +3350,10 @@
         <v>687</v>
       </c>
       <c r="F85" t="n">
-        <v>15054.0432</v>
+        <v>31525.81</v>
       </c>
       <c r="G85" t="n">
-        <v>650.7833333333333</v>
+        <v>649.3666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>694</v>
+      </c>
+      <c r="C86" t="n">
         <v>693</v>
       </c>
-      <c r="C86" t="n">
-        <v>695</v>
-      </c>
       <c r="D86" t="n">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="E86" t="n">
         <v>687</v>
       </c>
       <c r="F86" t="n">
-        <v>5781.2672</v>
+        <v>15054.0432</v>
       </c>
       <c r="G86" t="n">
-        <v>652.3166666666667</v>
+        <v>650.7833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>693</v>
+      </c>
+      <c r="C87" t="n">
         <v>695</v>
-      </c>
-      <c r="C87" t="n">
-        <v>694</v>
       </c>
       <c r="D87" t="n">
         <v>695</v>
       </c>
       <c r="E87" t="n">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F87" t="n">
-        <v>5605.9826</v>
+        <v>5781.2672</v>
       </c>
       <c r="G87" t="n">
-        <v>654.05</v>
+        <v>652.3166666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>695</v>
+      </c>
+      <c r="C88" t="n">
         <v>694</v>
       </c>
-      <c r="C88" t="n">
-        <v>699</v>
-      </c>
       <c r="D88" t="n">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E88" t="n">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F88" t="n">
-        <v>21771.9975</v>
+        <v>5605.9826</v>
       </c>
       <c r="G88" t="n">
-        <v>655.7</v>
+        <v>654.05</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C89" t="n">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="D89" t="n">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="E89" t="n">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="F89" t="n">
-        <v>15561.8528</v>
+        <v>21771.9975</v>
       </c>
       <c r="G89" t="n">
-        <v>657.5333333333333</v>
+        <v>655.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="C90" t="n">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D90" t="n">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E90" t="n">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="F90" t="n">
-        <v>12185.3638</v>
+        <v>15561.8528</v>
       </c>
       <c r="G90" t="n">
-        <v>659.3833333333333</v>
+        <v>657.5333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C91" t="n">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="D91" t="n">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E91" t="n">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="F91" t="n">
-        <v>25730.1148</v>
+        <v>12185.3638</v>
       </c>
       <c r="G91" t="n">
-        <v>660.9833333333333</v>
+        <v>659.3833333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>712</v>
+      </c>
+      <c r="C92" t="n">
         <v>695</v>
       </c>
-      <c r="C92" t="n">
-        <v>694</v>
-      </c>
       <c r="D92" t="n">
+        <v>712</v>
+      </c>
+      <c r="E92" t="n">
         <v>695</v>
       </c>
-      <c r="E92" t="n">
-        <v>688</v>
-      </c>
       <c r="F92" t="n">
-        <v>4768.2054</v>
+        <v>25730.1148</v>
       </c>
       <c r="G92" t="n">
-        <v>662.5833333333334</v>
+        <v>660.9833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C93" t="n">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D93" t="n">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="E93" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F93" t="n">
-        <v>3545.2368</v>
+        <v>4768.2054</v>
       </c>
       <c r="G93" t="n">
-        <v>664.2166666666667</v>
+        <v>662.5833333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="C94" t="n">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D94" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E94" t="n">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F94" t="n">
-        <v>3383.1612</v>
+        <v>3545.2368</v>
       </c>
       <c r="G94" t="n">
-        <v>665.75</v>
+        <v>664.2166666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>692</v>
+      </c>
+      <c r="C95" t="n">
         <v>695</v>
       </c>
-      <c r="C95" t="n">
-        <v>688</v>
-      </c>
       <c r="D95" t="n">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E95" t="n">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="F95" t="n">
-        <v>9389.3989</v>
+        <v>3383.1612</v>
       </c>
       <c r="G95" t="n">
-        <v>667.0833333333334</v>
+        <v>665.75</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="C96" t="n">
         <v>688</v>
       </c>
       <c r="D96" t="n">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="E96" t="n">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="F96" t="n">
-        <v>9464.536400000001</v>
+        <v>9389.3989</v>
       </c>
       <c r="G96" t="n">
-        <v>668.4333333333333</v>
+        <v>667.0833333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>687</v>
+      </c>
+      <c r="C97" t="n">
         <v>688</v>
-      </c>
-      <c r="C97" t="n">
-        <v>680</v>
       </c>
       <c r="D97" t="n">
         <v>690</v>
       </c>
       <c r="E97" t="n">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F97" t="n">
-        <v>14784.6805</v>
+        <v>9464.536400000001</v>
       </c>
       <c r="G97" t="n">
-        <v>669.65</v>
+        <v>668.4333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>688</v>
+      </c>
+      <c r="C98" t="n">
         <v>680</v>
       </c>
-      <c r="C98" t="n">
-        <v>677</v>
-      </c>
       <c r="D98" t="n">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="E98" t="n">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="F98" t="n">
-        <v>27318.7007</v>
+        <v>14784.6805</v>
       </c>
       <c r="G98" t="n">
-        <v>670.7666666666667</v>
+        <v>669.65</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>680</v>
+      </c>
+      <c r="C99" t="n">
         <v>677</v>
       </c>
-      <c r="C99" t="n">
-        <v>675</v>
-      </c>
       <c r="D99" t="n">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="E99" t="n">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F99" t="n">
-        <v>11861.5065</v>
+        <v>27318.7007</v>
       </c>
       <c r="G99" t="n">
-        <v>671.7666666666667</v>
+        <v>670.7666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C100" t="n">
         <v>675</v>
       </c>
       <c r="D100" t="n">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E100" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F100" t="n">
-        <v>10387.1726</v>
+        <v>11861.5065</v>
       </c>
       <c r="G100" t="n">
-        <v>672.6833333333333</v>
+        <v>671.7666666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>675</v>
       </c>
       <c r="C101" t="n">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="D101" t="n">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E101" t="n">
         <v>672</v>
       </c>
       <c r="F101" t="n">
-        <v>8587.9998</v>
+        <v>10387.1726</v>
       </c>
       <c r="G101" t="n">
-        <v>673.5333333333333</v>
+        <v>672.6833333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,32 +3933,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C102" t="n">
         <v>672</v>
       </c>
       <c r="D102" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="E102" t="n">
         <v>672</v>
       </c>
       <c r="F102" t="n">
-        <v>1704.6427</v>
+        <v>8587.9998</v>
       </c>
       <c r="G102" t="n">
-        <v>673.9166666666666</v>
+        <v>673.5333333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>675</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,32 +3974,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="C103" t="n">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D103" t="n">
         <v>679</v>
       </c>
       <c r="E103" t="n">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F103" t="n">
-        <v>3814.2823</v>
+        <v>1704.6427</v>
       </c>
       <c r="G103" t="n">
-        <v>674.6166666666667</v>
+        <v>673.9166666666666</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>672</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4006,29 +4018,35 @@
         <v>671</v>
       </c>
       <c r="C104" t="n">
+        <v>678</v>
+      </c>
+      <c r="D104" t="n">
+        <v>679</v>
+      </c>
+      <c r="E104" t="n">
         <v>670</v>
       </c>
-      <c r="D104" t="n">
-        <v>678</v>
-      </c>
-      <c r="E104" t="n">
-        <v>666</v>
-      </c>
       <c r="F104" t="n">
-        <v>3222.9148</v>
+        <v>3814.2823</v>
       </c>
       <c r="G104" t="n">
-        <v>675.1333333333333</v>
+        <v>674.6166666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>672</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,32 +4056,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>671</v>
+      </c>
+      <c r="C105" t="n">
         <v>670</v>
       </c>
-      <c r="C105" t="n">
-        <v>679</v>
-      </c>
       <c r="D105" t="n">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E105" t="n">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F105" t="n">
-        <v>4354.7456</v>
+        <v>3222.9148</v>
       </c>
       <c r="G105" t="n">
-        <v>675.8166666666667</v>
+        <v>675.1333333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>678</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4073,32 +4097,38 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>670</v>
+      </c>
+      <c r="C106" t="n">
         <v>679</v>
       </c>
-      <c r="C106" t="n">
-        <v>680</v>
-      </c>
       <c r="D106" t="n">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E106" t="n">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F106" t="n">
-        <v>4426.7683</v>
+        <v>4354.7456</v>
       </c>
       <c r="G106" t="n">
-        <v>676.65</v>
+        <v>675.8166666666667</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>670</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,32 +4138,38 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="C107" t="n">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="D107" t="n">
+        <v>680</v>
+      </c>
+      <c r="E107" t="n">
+        <v>673</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4426.7683</v>
+      </c>
+      <c r="G107" t="n">
+        <v>676.65</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
         <v>679</v>
       </c>
-      <c r="E107" t="n">
-        <v>674</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1013.4897</v>
-      </c>
-      <c r="G107" t="n">
-        <v>677.3</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4179,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C108" t="n">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D108" t="n">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="E108" t="n">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F108" t="n">
-        <v>1723.7077</v>
+        <v>1013.4897</v>
       </c>
       <c r="G108" t="n">
-        <v>677.9166666666666</v>
+        <v>677.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4168,7 +4204,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4181,19 +4221,19 @@
         <v>675</v>
       </c>
       <c r="C109" t="n">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="D109" t="n">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E109" t="n">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="F109" t="n">
-        <v>2062.2674</v>
+        <v>1723.7077</v>
       </c>
       <c r="G109" t="n">
-        <v>678.2166666666667</v>
+        <v>677.9166666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4203,7 +4243,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,22 +4257,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C110" t="n">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D110" t="n">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="E110" t="n">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F110" t="n">
-        <v>17.7725</v>
+        <v>2062.2674</v>
       </c>
       <c r="G110" t="n">
-        <v>678.4333333333333</v>
+        <v>678.2166666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4238,7 +4282,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4248,22 +4296,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C111" t="n">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="D111" t="n">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="E111" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F111" t="n">
-        <v>1052.3946</v>
+        <v>17.7725</v>
       </c>
       <c r="G111" t="n">
-        <v>678.8166666666667</v>
+        <v>678.4333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4273,7 +4321,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4283,22 +4335,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C112" t="n">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="D112" t="n">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E112" t="n">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F112" t="n">
-        <v>2197.8022</v>
+        <v>1052.3946</v>
       </c>
       <c r="G112" t="n">
-        <v>679.0666666666667</v>
+        <v>678.8166666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4308,7 +4360,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4318,22 +4374,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>672</v>
+      </c>
+      <c r="C113" t="n">
         <v>674</v>
       </c>
-      <c r="C113" t="n">
-        <v>673</v>
-      </c>
       <c r="D113" t="n">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="E113" t="n">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F113" t="n">
-        <v>2626.7703</v>
+        <v>2197.8022</v>
       </c>
       <c r="G113" t="n">
-        <v>679.1666666666666</v>
+        <v>679.0666666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4343,7 +4399,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4353,22 +4413,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C114" t="n">
+        <v>673</v>
+      </c>
+      <c r="D114" t="n">
         <v>674</v>
       </c>
-      <c r="D114" t="n">
-        <v>683</v>
-      </c>
       <c r="E114" t="n">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F114" t="n">
-        <v>179.2</v>
+        <v>2626.7703</v>
       </c>
       <c r="G114" t="n">
-        <v>679.2166666666667</v>
+        <v>679.1666666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4378,7 +4438,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4388,22 +4452,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C115" t="n">
         <v>674</v>
       </c>
       <c r="D115" t="n">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="E115" t="n">
         <v>674</v>
       </c>
       <c r="F115" t="n">
-        <v>40</v>
+        <v>179.2</v>
       </c>
       <c r="G115" t="n">
-        <v>679.1</v>
+        <v>679.2166666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4413,7 +4477,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4426,19 +4494,19 @@
         <v>675</v>
       </c>
       <c r="C116" t="n">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D116" t="n">
         <v>675</v>
       </c>
       <c r="E116" t="n">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="F116" t="n">
-        <v>8285.7952</v>
+        <v>40</v>
       </c>
       <c r="G116" t="n">
-        <v>678.9</v>
+        <v>679.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4448,7 +4516,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4458,22 +4530,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C117" t="n">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D117" t="n">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E117" t="n">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F117" t="n">
-        <v>6322.9836</v>
+        <v>8285.7952</v>
       </c>
       <c r="G117" t="n">
-        <v>678.8833333333333</v>
+        <v>678.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4483,7 +4555,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4493,19 +4569,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>672</v>
+      </c>
+      <c r="C118" t="n">
         <v>676</v>
       </c>
-      <c r="C118" t="n">
-        <v>677</v>
-      </c>
       <c r="D118" t="n">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E118" t="n">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="F118" t="n">
-        <v>873.3677</v>
+        <v>6322.9836</v>
       </c>
       <c r="G118" t="n">
         <v>678.8833333333333</v>
@@ -4518,7 +4594,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4528,7 +4608,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C119" t="n">
         <v>677</v>
@@ -4540,7 +4620,7 @@
         <v>676</v>
       </c>
       <c r="F119" t="n">
-        <v>657.2085</v>
+        <v>873.3677</v>
       </c>
       <c r="G119" t="n">
         <v>678.8833333333333</v>
@@ -4553,7 +4633,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4563,22 +4647,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C120" t="n">
         <v>677</v>
       </c>
       <c r="D120" t="n">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E120" t="n">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="F120" t="n">
-        <v>913.8671806999999</v>
+        <v>657.2085</v>
       </c>
       <c r="G120" t="n">
-        <v>678.8666666666667</v>
+        <v>678.8833333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4588,7 +4672,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4598,22 +4686,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="C121" t="n">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D121" t="n">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="E121" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F121" t="n">
-        <v>136.1611</v>
+        <v>913.8671806999999</v>
       </c>
       <c r="G121" t="n">
-        <v>678.7833333333333</v>
+        <v>678.8666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4623,7 +4711,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4633,22 +4725,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C122" t="n">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="D122" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E122" t="n">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="F122" t="n">
-        <v>8725.1253</v>
+        <v>136.1611</v>
       </c>
       <c r="G122" t="n">
-        <v>678.8666666666667</v>
+        <v>678.7833333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4658,7 +4750,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4668,22 +4764,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C123" t="n">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D123" t="n">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E123" t="n">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F123" t="n">
-        <v>250.9999</v>
+        <v>8725.1253</v>
       </c>
       <c r="G123" t="n">
-        <v>678.9333333333333</v>
+        <v>678.8666666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4693,7 +4789,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4703,22 +4803,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C124" t="n">
         <v>665</v>
       </c>
       <c r="D124" t="n">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E124" t="n">
         <v>665</v>
       </c>
       <c r="F124" t="n">
-        <v>2962.965</v>
+        <v>250.9999</v>
       </c>
       <c r="G124" t="n">
-        <v>678.9666666666667</v>
+        <v>678.9333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4728,7 +4828,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4738,22 +4842,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="C125" t="n">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D125" t="n">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="E125" t="n">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="F125" t="n">
-        <v>1280.9691</v>
+        <v>2962.965</v>
       </c>
       <c r="G125" t="n">
-        <v>679</v>
+        <v>678.9666666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4763,7 +4867,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4773,22 +4881,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C126" t="n">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D126" t="n">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E126" t="n">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F126" t="n">
-        <v>45.7826</v>
+        <v>1280.9691</v>
       </c>
       <c r="G126" t="n">
-        <v>679.0333333333333</v>
+        <v>679</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4798,7 +4906,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4808,22 +4920,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="C127" t="n">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="D127" t="n">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E127" t="n">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="F127" t="n">
-        <v>1314.0454</v>
+        <v>45.7826</v>
       </c>
       <c r="G127" t="n">
-        <v>678.9</v>
+        <v>679.0333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4833,7 +4945,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4843,22 +4959,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C128" t="n">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="D128" t="n">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E128" t="n">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="F128" t="n">
-        <v>2256.6206</v>
+        <v>1314.0454</v>
       </c>
       <c r="G128" t="n">
-        <v>678.8166666666667</v>
+        <v>678.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4868,7 +4984,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4878,22 +4998,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="C129" t="n">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="D129" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E129" t="n">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="F129" t="n">
-        <v>1940.1836</v>
+        <v>2256.6206</v>
       </c>
       <c r="G129" t="n">
-        <v>678.7</v>
+        <v>678.8166666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4903,7 +5023,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4913,22 +5037,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>662</v>
+      </c>
+      <c r="C130" t="n">
         <v>660</v>
       </c>
-      <c r="C130" t="n">
-        <v>659</v>
-      </c>
       <c r="D130" t="n">
+        <v>669</v>
+      </c>
+      <c r="E130" t="n">
         <v>660</v>
       </c>
-      <c r="E130" t="n">
-        <v>659</v>
-      </c>
       <c r="F130" t="n">
-        <v>918.9118</v>
+        <v>1940.1836</v>
       </c>
       <c r="G130" t="n">
-        <v>678.5166666666667</v>
+        <v>678.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4938,7 +5062,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4948,22 +5076,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>660</v>
+      </c>
+      <c r="C131" t="n">
         <v>659</v>
       </c>
-      <c r="C131" t="n">
+      <c r="D131" t="n">
         <v>660</v>
       </c>
-      <c r="D131" t="n">
-        <v>663</v>
-      </c>
       <c r="E131" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="F131" t="n">
-        <v>4512.6752</v>
+        <v>918.9118</v>
       </c>
       <c r="G131" t="n">
-        <v>678.35</v>
+        <v>678.5166666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4973,7 +5101,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4983,22 +5115,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C132" t="n">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="D132" t="n">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="E132" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F132" t="n">
-        <v>7581.6192</v>
+        <v>4512.6752</v>
       </c>
       <c r="G132" t="n">
-        <v>678</v>
+        <v>678.35</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5008,7 +5140,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5018,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="C133" t="n">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D133" t="n">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E133" t="n">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F133" t="n">
-        <v>6000.2059</v>
+        <v>7581.6192</v>
       </c>
       <c r="G133" t="n">
-        <v>677.6166666666667</v>
+        <v>678</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5043,7 +5179,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5053,22 +5193,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>653</v>
+      </c>
+      <c r="C134" t="n">
         <v>660</v>
       </c>
-      <c r="C134" t="n">
-        <v>666</v>
-      </c>
       <c r="D134" t="n">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="E134" t="n">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F134" t="n">
-        <v>3952.7536057</v>
+        <v>6000.2059</v>
       </c>
       <c r="G134" t="n">
-        <v>677.3833333333333</v>
+        <v>677.6166666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5078,7 +5218,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5088,22 +5232,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>660</v>
+      </c>
+      <c r="C135" t="n">
         <v>666</v>
       </c>
-      <c r="C135" t="n">
-        <v>667</v>
-      </c>
       <c r="D135" t="n">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E135" t="n">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="F135" t="n">
-        <v>124.8774</v>
+        <v>3952.7536057</v>
       </c>
       <c r="G135" t="n">
-        <v>677.2333333333333</v>
+        <v>677.3833333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5113,7 +5257,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5123,22 +5271,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>666</v>
+      </c>
+      <c r="C136" t="n">
         <v>667</v>
       </c>
-      <c r="C136" t="n">
-        <v>664</v>
-      </c>
       <c r="D136" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E136" t="n">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F136" t="n">
-        <v>745.4329</v>
+        <v>124.8774</v>
       </c>
       <c r="G136" t="n">
-        <v>677.0666666666667</v>
+        <v>677.2333333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5148,7 +5296,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5158,22 +5310,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C137" t="n">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="D137" t="n">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="E137" t="n">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="F137" t="n">
-        <v>1457.8647</v>
+        <v>745.4329</v>
       </c>
       <c r="G137" t="n">
-        <v>676.6666666666666</v>
+        <v>677.0666666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5183,7 +5335,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5193,22 +5349,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>663</v>
+      </c>
+      <c r="C138" t="n">
         <v>657</v>
       </c>
-      <c r="C138" t="n">
-        <v>661</v>
-      </c>
       <c r="D138" t="n">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E138" t="n">
         <v>657</v>
       </c>
       <c r="F138" t="n">
-        <v>576.928</v>
+        <v>1457.8647</v>
       </c>
       <c r="G138" t="n">
-        <v>676.5166666666667</v>
+        <v>676.6666666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5218,7 +5374,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5228,22 +5388,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C139" t="n">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D139" t="n">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E139" t="n">
-        <v>632</v>
+        <v>657</v>
       </c>
       <c r="F139" t="n">
-        <v>37541.3025</v>
+        <v>576.928</v>
       </c>
       <c r="G139" t="n">
-        <v>676.3666666666667</v>
+        <v>676.5166666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5253,7 +5413,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5263,22 +5427,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C140" t="n">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D140" t="n">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E140" t="n">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="F140" t="n">
-        <v>2047.7256</v>
+        <v>37541.3025</v>
       </c>
       <c r="G140" t="n">
-        <v>676.1833333333333</v>
+        <v>676.3666666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5288,7 +5452,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5298,7 +5466,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C141" t="n">
         <v>660</v>
@@ -5307,13 +5475,13 @@
         <v>660</v>
       </c>
       <c r="E141" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F141" t="n">
-        <v>228.8125</v>
+        <v>2047.7256</v>
       </c>
       <c r="G141" t="n">
-        <v>675.9</v>
+        <v>676.1833333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5323,7 +5491,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5333,22 +5505,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>653</v>
+      </c>
+      <c r="C142" t="n">
         <v>660</v>
       </c>
-      <c r="C142" t="n">
-        <v>663</v>
-      </c>
       <c r="D142" t="n">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E142" t="n">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F142" t="n">
-        <v>7752.7193</v>
+        <v>228.8125</v>
       </c>
       <c r="G142" t="n">
-        <v>675.5666666666667</v>
+        <v>675.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5358,7 +5530,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5368,22 +5544,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C143" t="n">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D143" t="n">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="E143" t="n">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F143" t="n">
-        <v>6.5454</v>
+        <v>7752.7193</v>
       </c>
       <c r="G143" t="n">
-        <v>675.1166666666667</v>
+        <v>675.5666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5393,7 +5569,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5403,7 +5583,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C144" t="n">
         <v>660</v>
@@ -5412,13 +5592,13 @@
         <v>660</v>
       </c>
       <c r="E144" t="n">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F144" t="n">
-        <v>5</v>
+        <v>6.5454</v>
       </c>
       <c r="G144" t="n">
-        <v>674.45</v>
+        <v>675.1166666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5428,7 +5608,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +5622,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C145" t="n">
         <v>660</v>
@@ -5447,13 +5631,13 @@
         <v>660</v>
       </c>
       <c r="E145" t="n">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="F145" t="n">
-        <v>2.0196</v>
+        <v>5</v>
       </c>
       <c r="G145" t="n">
-        <v>673.9</v>
+        <v>674.45</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5463,7 +5647,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5473,22 +5661,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
+        <v>656</v>
+      </c>
+      <c r="C146" t="n">
         <v>660</v>
       </c>
-      <c r="C146" t="n">
-        <v>661</v>
-      </c>
       <c r="D146" t="n">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E146" t="n">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F146" t="n">
-        <v>515.2533</v>
+        <v>2.0196</v>
       </c>
       <c r="G146" t="n">
-        <v>673.3333333333334</v>
+        <v>673.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5498,7 +5686,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5508,22 +5700,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C147" t="n">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D147" t="n">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E147" t="n">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F147" t="n">
-        <v>2421.5544</v>
+        <v>515.2533</v>
       </c>
       <c r="G147" t="n">
-        <v>672.8166666666667</v>
+        <v>673.3333333333334</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5533,7 +5725,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5543,22 +5739,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="C148" t="n">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="D148" t="n">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E148" t="n">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F148" t="n">
-        <v>263.8759</v>
+        <v>2421.5544</v>
       </c>
       <c r="G148" t="n">
-        <v>672.3333333333334</v>
+        <v>672.8166666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5568,7 +5764,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5581,19 +5781,19 @@
         <v>670</v>
       </c>
       <c r="C149" t="n">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D149" t="n">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="E149" t="n">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F149" t="n">
-        <v>6525.7627</v>
+        <v>263.8759</v>
       </c>
       <c r="G149" t="n">
-        <v>671.75</v>
+        <v>672.3333333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5603,7 +5803,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5613,22 +5817,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>670</v>
+      </c>
+      <c r="C150" t="n">
         <v>675</v>
       </c>
-      <c r="C150" t="n">
-        <v>671</v>
-      </c>
       <c r="D150" t="n">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E150" t="n">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F150" t="n">
-        <v>1852.7881</v>
+        <v>6525.7627</v>
       </c>
       <c r="G150" t="n">
-        <v>671.05</v>
+        <v>671.75</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5638,7 +5842,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5648,22 +5856,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C151" t="n">
         <v>671</v>
       </c>
       <c r="D151" t="n">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="E151" t="n">
         <v>671</v>
       </c>
       <c r="F151" t="n">
-        <v>703.0441</v>
+        <v>1852.7881</v>
       </c>
       <c r="G151" t="n">
-        <v>670.65</v>
+        <v>671.05</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5673,7 +5881,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5686,19 +5898,19 @@
         <v>671</v>
       </c>
       <c r="C152" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D152" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E152" t="n">
         <v>671</v>
       </c>
       <c r="F152" t="n">
-        <v>2693.2468</v>
+        <v>703.0441</v>
       </c>
       <c r="G152" t="n">
-        <v>670.2833333333333</v>
+        <v>670.65</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5708,7 +5920,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5718,22 +5934,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C153" t="n">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D153" t="n">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="E153" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F153" t="n">
-        <v>4316.10641811</v>
+        <v>2693.2468</v>
       </c>
       <c r="G153" t="n">
-        <v>669.8333333333334</v>
+        <v>670.2833333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5743,7 +5959,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5756,19 +5976,19 @@
         <v>669</v>
       </c>
       <c r="C154" t="n">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D154" t="n">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="E154" t="n">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F154" t="n">
-        <v>943.9476</v>
+        <v>4316.10641811</v>
       </c>
       <c r="G154" t="n">
-        <v>669.3666666666667</v>
+        <v>669.8333333333334</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5778,7 +5998,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5788,22 +6012,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C155" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D155" t="n">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="E155" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F155" t="n">
-        <v>590</v>
+        <v>943.9476</v>
       </c>
       <c r="G155" t="n">
-        <v>669</v>
+        <v>669.3666666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5813,7 +6037,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5823,22 +6051,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C156" t="n">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D156" t="n">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E156" t="n">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F156" t="n">
-        <v>536.1301</v>
+        <v>590</v>
       </c>
       <c r="G156" t="n">
-        <v>668.65</v>
+        <v>669</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5848,7 +6076,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5858,22 +6090,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C157" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D157" t="n">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E157" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F157" t="n">
-        <v>670.3424</v>
+        <v>536.1301</v>
       </c>
       <c r="G157" t="n">
-        <v>668.4166666666666</v>
+        <v>668.65</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5883,7 +6115,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5893,22 +6129,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C158" t="n">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D158" t="n">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E158" t="n">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F158" t="n">
-        <v>155.6592</v>
+        <v>670.3424</v>
       </c>
       <c r="G158" t="n">
-        <v>668.3166666666667</v>
+        <v>668.4166666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5918,7 +6154,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5928,10 +6168,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>669</v>
+      </c>
+      <c r="C159" t="n">
         <v>671</v>
-      </c>
-      <c r="C159" t="n">
-        <v>669</v>
       </c>
       <c r="D159" t="n">
         <v>671</v>
@@ -5940,10 +6180,10 @@
         <v>669</v>
       </c>
       <c r="F159" t="n">
-        <v>2175.9799</v>
+        <v>155.6592</v>
       </c>
       <c r="G159" t="n">
-        <v>668.2166666666667</v>
+        <v>668.3166666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5953,7 +6193,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5963,22 +6207,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="C160" t="n">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="D160" t="n">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="E160" t="n">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="F160" t="n">
-        <v>3384.363</v>
+        <v>2175.9799</v>
       </c>
       <c r="G160" t="n">
-        <v>667.9666666666667</v>
+        <v>668.2166666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5988,7 +6232,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -5998,22 +6246,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C161" t="n">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D161" t="n">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E161" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="F161" t="n">
-        <v>1030.2133</v>
+        <v>3384.363</v>
       </c>
       <c r="G161" t="n">
-        <v>667.85</v>
+        <v>667.9666666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6023,7 +6271,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6033,22 +6285,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>664</v>
+      </c>
+      <c r="C162" t="n">
         <v>665</v>
       </c>
-      <c r="C162" t="n">
-        <v>660</v>
-      </c>
       <c r="D162" t="n">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E162" t="n">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F162" t="n">
-        <v>2414.2981</v>
+        <v>1030.2133</v>
       </c>
       <c r="G162" t="n">
-        <v>667.65</v>
+        <v>667.85</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6058,7 +6310,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6068,22 +6324,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="C163" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D163" t="n">
+        <v>669</v>
+      </c>
+      <c r="E163" t="n">
         <v>660</v>
       </c>
-      <c r="E163" t="n">
-        <v>657</v>
-      </c>
       <c r="F163" t="n">
-        <v>1027.2177</v>
+        <v>2414.2981</v>
       </c>
       <c r="G163" t="n">
-        <v>667.3333333333334</v>
+        <v>667.65</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6093,7 +6349,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6103,22 +6363,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C164" t="n">
         <v>659</v>
       </c>
       <c r="D164" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E164" t="n">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F164" t="n">
-        <v>211.5</v>
+        <v>1027.2177</v>
       </c>
       <c r="G164" t="n">
-        <v>667.15</v>
+        <v>667.3333333333334</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6128,7 +6388,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6138,22 +6402,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C165" t="n">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D165" t="n">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E165" t="n">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>211.5</v>
       </c>
       <c r="G165" t="n">
-        <v>666.9166666666666</v>
+        <v>667.15</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6163,7 +6427,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6173,22 +6441,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C166" t="n">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D166" t="n">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E166" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="F166" t="n">
-        <v>591.4717000000001</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>666.6333333333333</v>
+        <v>666.9166666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6198,7 +6466,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6208,22 +6480,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
+        <v>661</v>
+      </c>
+      <c r="C167" t="n">
         <v>663</v>
-      </c>
-      <c r="C167" t="n">
-        <v>659</v>
       </c>
       <c r="D167" t="n">
         <v>663</v>
       </c>
       <c r="E167" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F167" t="n">
-        <v>12</v>
+        <v>591.4717000000001</v>
       </c>
       <c r="G167" t="n">
-        <v>666.3833333333333</v>
+        <v>666.6333333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6233,7 +6505,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6243,22 +6519,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
+        <v>663</v>
+      </c>
+      <c r="C168" t="n">
         <v>659</v>
       </c>
-      <c r="C168" t="n">
-        <v>670</v>
-      </c>
       <c r="D168" t="n">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E168" t="n">
         <v>659</v>
       </c>
       <c r="F168" t="n">
-        <v>1755.141</v>
+        <v>12</v>
       </c>
       <c r="G168" t="n">
-        <v>666.3</v>
+        <v>666.3833333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6268,7 +6544,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6278,22 +6558,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C169" t="n">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D169" t="n">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E169" t="n">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F169" t="n">
-        <v>28.9611</v>
+        <v>1755.141</v>
       </c>
       <c r="G169" t="n">
-        <v>666.25</v>
+        <v>666.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6303,7 +6583,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6313,22 +6597,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="C170" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D170" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E170" t="n">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="F170" t="n">
-        <v>612.3262999999999</v>
+        <v>28.9611</v>
       </c>
       <c r="G170" t="n">
-        <v>666.15</v>
+        <v>666.25</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6338,7 +6622,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6348,22 +6636,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C171" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D171" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="E171" t="n">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F171" t="n">
-        <v>68.032</v>
+        <v>612.3262999999999</v>
       </c>
       <c r="G171" t="n">
-        <v>665.8333333333334</v>
+        <v>666.15</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6373,7 +6661,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6383,7 +6675,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C172" t="n">
         <v>661</v>
@@ -6392,13 +6684,13 @@
         <v>661</v>
       </c>
       <c r="E172" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F172" t="n">
-        <v>787.4367999999999</v>
+        <v>68.032</v>
       </c>
       <c r="G172" t="n">
-        <v>665.6166666666667</v>
+        <v>665.8333333333334</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6408,7 +6700,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6418,10 +6714,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>660</v>
+      </c>
+      <c r="C173" t="n">
         <v>661</v>
-      </c>
-      <c r="C173" t="n">
-        <v>660</v>
       </c>
       <c r="D173" t="n">
         <v>661</v>
@@ -6430,10 +6726,10 @@
         <v>660</v>
       </c>
       <c r="F173" t="n">
-        <v>2813.4231</v>
+        <v>787.4367999999999</v>
       </c>
       <c r="G173" t="n">
-        <v>665.4</v>
+        <v>665.6166666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6443,7 +6739,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6453,22 +6753,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C174" t="n">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D174" t="n">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="E174" t="n">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F174" t="n">
-        <v>783.9155</v>
+        <v>2813.4231</v>
       </c>
       <c r="G174" t="n">
-        <v>665.1333333333333</v>
+        <v>665.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6478,7 +6778,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6488,7 +6792,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C175" t="n">
         <v>658</v>
@@ -6497,13 +6801,13 @@
         <v>658</v>
       </c>
       <c r="E175" t="n">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F175" t="n">
-        <v>6163.053</v>
+        <v>783.9155</v>
       </c>
       <c r="G175" t="n">
-        <v>664.8666666666667</v>
+        <v>665.1333333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6513,7 +6817,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6523,7 +6831,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C176" t="n">
         <v>658</v>
@@ -6532,13 +6840,13 @@
         <v>658</v>
       </c>
       <c r="E176" t="n">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F176" t="n">
-        <v>400.3329</v>
+        <v>6163.053</v>
       </c>
       <c r="G176" t="n">
-        <v>664.65</v>
+        <v>664.8666666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6548,7 +6856,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6570,10 +6882,10 @@
         <v>658</v>
       </c>
       <c r="F177" t="n">
-        <v>1008.9331</v>
+        <v>400.3329</v>
       </c>
       <c r="G177" t="n">
-        <v>664.35</v>
+        <v>664.65</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6583,7 +6895,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6593,22 +6909,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C178" t="n">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D178" t="n">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E178" t="n">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="F178" t="n">
-        <v>840.5244</v>
+        <v>1008.9331</v>
       </c>
       <c r="G178" t="n">
-        <v>663.9833333333333</v>
+        <v>664.35</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6618,7 +6934,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6628,22 +6948,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>660</v>
+      </c>
+      <c r="C179" t="n">
         <v>655</v>
       </c>
-      <c r="C179" t="n">
-        <v>654</v>
-      </c>
       <c r="D179" t="n">
+        <v>661</v>
+      </c>
+      <c r="E179" t="n">
         <v>655</v>
       </c>
-      <c r="E179" t="n">
-        <v>654</v>
-      </c>
       <c r="F179" t="n">
-        <v>1033.5088</v>
+        <v>840.5244</v>
       </c>
       <c r="G179" t="n">
-        <v>663.6</v>
+        <v>663.9833333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6653,7 +6973,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6666,19 +6990,19 @@
         <v>655</v>
       </c>
       <c r="C180" t="n">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D180" t="n">
         <v>655</v>
       </c>
       <c r="E180" t="n">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="F180" t="n">
-        <v>14709.0589</v>
+        <v>1033.5088</v>
       </c>
       <c r="G180" t="n">
-        <v>663.1833333333333</v>
+        <v>663.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6688,7 +7012,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6698,22 +7026,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>655</v>
+      </c>
+      <c r="C181" t="n">
         <v>652</v>
       </c>
-      <c r="C181" t="n">
-        <v>657</v>
-      </c>
       <c r="D181" t="n">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E181" t="n">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F181" t="n">
-        <v>225.078</v>
+        <v>14709.0589</v>
       </c>
       <c r="G181" t="n">
-        <v>662.9666666666667</v>
+        <v>663.1833333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6723,7 +7051,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6733,7 +7065,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C182" t="n">
         <v>657</v>
@@ -6742,13 +7074,13 @@
         <v>657</v>
       </c>
       <c r="E182" t="n">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F182" t="n">
-        <v>173.6423</v>
+        <v>225.078</v>
       </c>
       <c r="G182" t="n">
-        <v>662.85</v>
+        <v>662.9666666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6758,7 +7090,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6768,22 +7104,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="C183" t="n">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="D183" t="n">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="E183" t="n">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="F183" t="n">
-        <v>66.0402</v>
+        <v>173.6423</v>
       </c>
       <c r="G183" t="n">
-        <v>662.6166666666667</v>
+        <v>662.85</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6793,7 +7129,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6806,19 +7146,19 @@
         <v>651</v>
       </c>
       <c r="C184" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D184" t="n">
         <v>651</v>
       </c>
       <c r="E184" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F184" t="n">
-        <v>241.1323</v>
+        <v>66.0402</v>
       </c>
       <c r="G184" t="n">
-        <v>662.3333333333334</v>
+        <v>662.6166666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6828,7 +7168,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6838,22 +7182,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C185" t="n">
         <v>648</v>
       </c>
       <c r="D185" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="E185" t="n">
         <v>648</v>
       </c>
       <c r="F185" t="n">
-        <v>207.9135</v>
+        <v>241.1323</v>
       </c>
       <c r="G185" t="n">
-        <v>661.9666666666667</v>
+        <v>662.3333333333334</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6863,7 +7207,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6873,22 +7221,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C186" t="n">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D186" t="n">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E186" t="n">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="F186" t="n">
-        <v>6119.0731</v>
+        <v>207.9135</v>
       </c>
       <c r="G186" t="n">
-        <v>661.5833333333334</v>
+        <v>661.9666666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6898,7 +7246,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6908,22 +7260,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C187" t="n">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D187" t="n">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="E187" t="n">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F187" t="n">
-        <v>103</v>
+        <v>6119.0731</v>
       </c>
       <c r="G187" t="n">
-        <v>661.3333333333334</v>
+        <v>661.5833333333334</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6933,7 +7285,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6946,19 +7302,19 @@
         <v>645</v>
       </c>
       <c r="C188" t="n">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="D188" t="n">
         <v>645</v>
       </c>
       <c r="E188" t="n">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="F188" t="n">
-        <v>13570.7615</v>
+        <v>103</v>
       </c>
       <c r="G188" t="n">
-        <v>660.75</v>
+        <v>661.3333333333334</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6968,7 +7324,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -6978,22 +7338,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C189" t="n">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D189" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E189" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F189" t="n">
-        <v>6707.5613</v>
+        <v>13570.7615</v>
       </c>
       <c r="G189" t="n">
-        <v>660.4333333333333</v>
+        <v>660.75</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7003,7 +7363,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7013,22 +7377,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="C190" t="n">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D190" t="n">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E190" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F190" t="n">
-        <v>2086.4163</v>
+        <v>6707.5613</v>
       </c>
       <c r="G190" t="n">
-        <v>660.1833333333333</v>
+        <v>660.4333333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7038,7 +7402,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7048,22 +7416,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="C191" t="n">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="D191" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E191" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F191" t="n">
-        <v>209.4572</v>
+        <v>2086.4163</v>
       </c>
       <c r="G191" t="n">
-        <v>659.7833333333333</v>
+        <v>660.1833333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7073,7 +7441,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7083,10 +7455,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
+        <v>643</v>
+      </c>
+      <c r="C192" t="n">
         <v>636</v>
-      </c>
-      <c r="C192" t="n">
-        <v>643</v>
       </c>
       <c r="D192" t="n">
         <v>643</v>
@@ -7095,10 +7467,10 @@
         <v>636</v>
       </c>
       <c r="F192" t="n">
-        <v>454.737</v>
+        <v>209.4572</v>
       </c>
       <c r="G192" t="n">
-        <v>659.6</v>
+        <v>659.7833333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7108,7 +7480,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7118,22 +7494,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C193" t="n">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="D193" t="n">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="E193" t="n">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F193" t="n">
-        <v>8068.1277</v>
+        <v>454.737</v>
       </c>
       <c r="G193" t="n">
-        <v>659.5166666666667</v>
+        <v>659.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7143,7 +7519,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7153,22 +7533,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C194" t="n">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D194" t="n">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E194" t="n">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F194" t="n">
-        <v>4937.3735</v>
+        <v>8068.1277</v>
       </c>
       <c r="G194" t="n">
-        <v>659.2666666666667</v>
+        <v>659.5166666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7178,7 +7558,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7188,22 +7572,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
+        <v>646</v>
+      </c>
+      <c r="C195" t="n">
         <v>651</v>
-      </c>
-      <c r="C195" t="n">
-        <v>650</v>
       </c>
       <c r="D195" t="n">
         <v>651</v>
       </c>
       <c r="E195" t="n">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F195" t="n">
-        <v>503.6899</v>
+        <v>4937.3735</v>
       </c>
       <c r="G195" t="n">
-        <v>658.9833333333333</v>
+        <v>659.2666666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7213,7 +7597,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7223,10 +7611,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
+        <v>651</v>
+      </c>
+      <c r="C196" t="n">
         <v>650</v>
-      </c>
-      <c r="C196" t="n">
-        <v>651</v>
       </c>
       <c r="D196" t="n">
         <v>651</v>
@@ -7235,10 +7623,10 @@
         <v>650</v>
       </c>
       <c r="F196" t="n">
-        <v>3821.2304</v>
+        <v>503.6899</v>
       </c>
       <c r="G196" t="n">
-        <v>658.7666666666667</v>
+        <v>658.9833333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7248,7 +7636,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7258,22 +7650,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
+        <v>650</v>
+      </c>
+      <c r="C197" t="n">
         <v>651</v>
       </c>
-      <c r="C197" t="n">
-        <v>653</v>
-      </c>
       <c r="D197" t="n">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E197" t="n">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F197" t="n">
-        <v>3115.9025</v>
+        <v>3821.2304</v>
       </c>
       <c r="G197" t="n">
-        <v>658.7</v>
+        <v>658.7666666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7283,7 +7675,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7293,22 +7689,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>651</v>
+      </c>
+      <c r="C198" t="n">
         <v>653</v>
       </c>
-      <c r="C198" t="n">
-        <v>657</v>
-      </c>
       <c r="D198" t="n">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E198" t="n">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F198" t="n">
-        <v>831.0913</v>
+        <v>3115.9025</v>
       </c>
       <c r="G198" t="n">
-        <v>658.6333333333333</v>
+        <v>658.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7318,7 +7714,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7328,22 +7728,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>653</v>
+      </c>
+      <c r="C199" t="n">
         <v>657</v>
-      </c>
-      <c r="C199" t="n">
-        <v>658</v>
       </c>
       <c r="D199" t="n">
         <v>658</v>
       </c>
       <c r="E199" t="n">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="F199" t="n">
-        <v>959.3489</v>
+        <v>831.0913</v>
       </c>
       <c r="G199" t="n">
-        <v>658.5666666666667</v>
+        <v>658.6333333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7353,7 +7753,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7363,22 +7767,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="C200" t="n">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="D200" t="n">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="E200" t="n">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F200" t="n">
-        <v>17.6476</v>
+        <v>959.3489</v>
       </c>
       <c r="G200" t="n">
-        <v>658.3833333333333</v>
+        <v>658.5666666666667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7388,7 +7792,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7398,22 +7806,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C201" t="n">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="D201" t="n">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E201" t="n">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="F201" t="n">
-        <v>5075.7373</v>
+        <v>17.6476</v>
       </c>
       <c r="G201" t="n">
-        <v>658.0166666666667</v>
+        <v>658.3833333333333</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7423,7 +7831,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7433,22 +7845,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
+        <v>646</v>
+      </c>
+      <c r="C202" t="n">
         <v>638</v>
       </c>
-      <c r="C202" t="n">
-        <v>652</v>
-      </c>
       <c r="D202" t="n">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E202" t="n">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F202" t="n">
-        <v>24.5536</v>
+        <v>5075.7373</v>
       </c>
       <c r="G202" t="n">
-        <v>657.8333333333334</v>
+        <v>658.0166666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7458,7 +7870,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7468,36 +7884,36 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C203" t="n">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="D203" t="n">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="E203" t="n">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F203" t="n">
-        <v>6640.2759</v>
+        <v>24.5536</v>
       </c>
       <c r="G203" t="n">
-        <v>657.5166666666667</v>
+        <v>657.8333333333334</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>652</v>
-      </c>
-      <c r="K203" t="n">
-        <v>652</v>
-      </c>
-      <c r="L203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7507,22 +7923,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C204" t="n">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D204" t="n">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E204" t="n">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F204" t="n">
-        <v>87.94455975</v>
+        <v>6640.2759</v>
       </c>
       <c r="G204" t="n">
-        <v>657.2833333333333</v>
+        <v>657.5166666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7531,12 +7947,10 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>652</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M204" t="n">
@@ -7548,22 +7962,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C205" t="n">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="D205" t="n">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E205" t="n">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="F205" t="n">
-        <v>276.7974</v>
+        <v>87.94455975</v>
       </c>
       <c r="G205" t="n">
-        <v>656.9</v>
+        <v>657.2833333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7572,9 +7986,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>652</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7589,22 +8001,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C206" t="n">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D206" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="E206" t="n">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F206" t="n">
-        <v>139.5793</v>
+        <v>276.7974</v>
       </c>
       <c r="G206" t="n">
-        <v>656.5833333333334</v>
+        <v>656.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7613,9 +8025,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>652</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7630,10 +8040,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
+        <v>643</v>
+      </c>
+      <c r="C207" t="n">
         <v>642</v>
-      </c>
-      <c r="C207" t="n">
-        <v>643</v>
       </c>
       <c r="D207" t="n">
         <v>643</v>
@@ -7642,10 +8052,10 @@
         <v>642</v>
       </c>
       <c r="F207" t="n">
-        <v>515.1423</v>
+        <v>139.5793</v>
       </c>
       <c r="G207" t="n">
-        <v>656.25</v>
+        <v>656.5833333333334</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7654,9 +8064,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>652</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7671,22 +8079,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C208" t="n">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D208" t="n">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E208" t="n">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="F208" t="n">
-        <v>1</v>
+        <v>515.1423</v>
       </c>
       <c r="G208" t="n">
-        <v>655.8833333333333</v>
+        <v>656.25</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7695,9 +8103,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>652</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7712,22 +8118,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C209" t="n">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="D209" t="n">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="E209" t="n">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="F209" t="n">
-        <v>5457.6381</v>
+        <v>1</v>
       </c>
       <c r="G209" t="n">
-        <v>655.2166666666667</v>
+        <v>655.8833333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7736,9 +8142,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>652</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7756,19 +8160,19 @@
         <v>640</v>
       </c>
       <c r="C210" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="D210" t="n">
         <v>640</v>
       </c>
       <c r="E210" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="F210" t="n">
-        <v>13935.1293</v>
+        <v>5457.6381</v>
       </c>
       <c r="G210" t="n">
-        <v>654.5333333333333</v>
+        <v>655.2166666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7777,9 +8181,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>652</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7794,22 +8196,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="C211" t="n">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="D211" t="n">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E211" t="n">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F211" t="n">
-        <v>509.0015</v>
+        <v>13935.1293</v>
       </c>
       <c r="G211" t="n">
-        <v>653.9833333333333</v>
+        <v>654.5333333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7818,9 +8220,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>652</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7835,35 +8235,31 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C212" t="n">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D212" t="n">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E212" t="n">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F212" t="n">
-        <v>339.1004</v>
+        <v>509.0015</v>
       </c>
       <c r="G212" t="n">
-        <v>653.3833333333333</v>
+        <v>653.9833333333333</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>638</v>
-      </c>
-      <c r="K212" t="n">
-        <v>652</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7881,32 +8277,28 @@
         <v>636</v>
       </c>
       <c r="C213" t="n">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D213" t="n">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E213" t="n">
         <v>636</v>
       </c>
       <c r="F213" t="n">
-        <v>1594.3669</v>
+        <v>339.1004</v>
       </c>
       <c r="G213" t="n">
-        <v>652.8833333333333</v>
+        <v>653.3833333333333</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>636</v>
-      </c>
-      <c r="K213" t="n">
-        <v>652</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7921,35 +8313,31 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C214" t="n">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D214" t="n">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E214" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F214" t="n">
-        <v>7410.4963</v>
+        <v>1594.3669</v>
       </c>
       <c r="G214" t="n">
-        <v>652.5166666666667</v>
+        <v>652.8833333333333</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>640</v>
-      </c>
-      <c r="K214" t="n">
-        <v>652</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7964,35 +8352,31 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
+        <v>635</v>
+      </c>
+      <c r="C215" t="n">
         <v>645</v>
       </c>
-      <c r="C215" t="n">
-        <v>640</v>
-      </c>
       <c r="D215" t="n">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="E215" t="n">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F215" t="n">
-        <v>6234.592</v>
+        <v>7410.4963</v>
       </c>
       <c r="G215" t="n">
-        <v>652.0833333333334</v>
+        <v>652.5166666666667</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>645</v>
-      </c>
-      <c r="K215" t="n">
-        <v>652</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8007,41 +8391,76 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
+        <v>645</v>
+      </c>
+      <c r="C216" t="n">
         <v>640</v>
       </c>
-      <c r="C216" t="n">
-        <v>647</v>
-      </c>
       <c r="D216" t="n">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E216" t="n">
         <v>640</v>
       </c>
       <c r="F216" t="n">
+        <v>6234.592</v>
+      </c>
+      <c r="G216" t="n">
+        <v>652.0833333333334</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>640</v>
+      </c>
+      <c r="C217" t="n">
+        <v>647</v>
+      </c>
+      <c r="D217" t="n">
+        <v>647</v>
+      </c>
+      <c r="E217" t="n">
+        <v>640</v>
+      </c>
+      <c r="F217" t="n">
         <v>364.8568</v>
       </c>
-      <c r="G216" t="n">
+      <c r="G217" t="n">
         <v>651.75</v>
       </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>640</v>
-      </c>
-      <c r="K216" t="n">
-        <v>652</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-15 BackTest GXC.xlsx
+++ b/BackTest/2019-10-15 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M217"/>
+  <dimension ref="A1:N227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>424.6488</v>
       </c>
       <c r="G2" t="n">
+        <v>592.9333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>557.1333333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>2629.7273</v>
       </c>
       <c r="G3" t="n">
+        <v>594.8</v>
+      </c>
+      <c r="H3" t="n">
         <v>558.1833333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>598</v>
+      </c>
+      <c r="L3" t="n">
+        <v>598</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>5891.9021</v>
       </c>
       <c r="G4" t="n">
+        <v>597.4</v>
+      </c>
+      <c r="H4" t="n">
         <v>559.2666666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>608</v>
+      </c>
+      <c r="L4" t="n">
+        <v>598</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>3299.2492</v>
       </c>
       <c r="G5" t="n">
+        <v>598.9333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>560.4666666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>609</v>
+      </c>
+      <c r="L5" t="n">
+        <v>598</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,29 @@
         <v>3767.5909</v>
       </c>
       <c r="G6" t="n">
+        <v>601.0666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>561.6666666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>615</v>
+      </c>
+      <c r="L6" t="n">
+        <v>598</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +671,29 @@
         <v>2589.5362</v>
       </c>
       <c r="G7" t="n">
+        <v>603.1333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>562.95</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>615</v>
+      </c>
+      <c r="L7" t="n">
+        <v>598</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +717,27 @@
         <v>1830.856</v>
       </c>
       <c r="G8" t="n">
+        <v>604.9333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>564.2666666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>598</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +761,27 @@
         <v>817.7779</v>
       </c>
       <c r="G9" t="n">
+        <v>605.6666666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>565.4833333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>598</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +805,27 @@
         <v>19218.7273</v>
       </c>
       <c r="G10" t="n">
+        <v>607.3333333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>566.7833333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>598</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +849,27 @@
         <v>4769.6437</v>
       </c>
       <c r="G11" t="n">
+        <v>608.6</v>
+      </c>
+      <c r="H11" t="n">
         <v>568</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>598</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +893,27 @@
         <v>3529.0292</v>
       </c>
       <c r="G12" t="n">
+        <v>610.3333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>569.4666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>598</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +937,27 @@
         <v>8347.6747</v>
       </c>
       <c r="G13" t="n">
+        <v>611.1333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>570.6166666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>598</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +981,27 @@
         <v>3410.8944</v>
       </c>
       <c r="G14" t="n">
+        <v>612</v>
+      </c>
+      <c r="H14" t="n">
         <v>571.8</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>598</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1025,29 @@
         <v>8410.894399999999</v>
       </c>
       <c r="G15" t="n">
+        <v>612.4666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>572.7666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>611</v>
+      </c>
+      <c r="L15" t="n">
+        <v>598</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1071,29 @@
         <v>2315.5242</v>
       </c>
       <c r="G16" t="n">
+        <v>612.4666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>573.6833333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>607</v>
+      </c>
+      <c r="L16" t="n">
+        <v>598</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1117,29 @@
         <v>2011.7475</v>
       </c>
       <c r="G17" t="n">
+        <v>612.9333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>574.8</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>604</v>
+      </c>
+      <c r="L17" t="n">
+        <v>598</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1163,29 @@
         <v>1514.1332</v>
       </c>
       <c r="G18" t="n">
+        <v>612.7333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>575.85</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>605</v>
+      </c>
+      <c r="L18" t="n">
+        <v>598</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1209,29 @@
         <v>8460.659600000001</v>
       </c>
       <c r="G19" t="n">
+        <v>612.4</v>
+      </c>
+      <c r="H19" t="n">
         <v>576.85</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>605</v>
+      </c>
+      <c r="L19" t="n">
+        <v>598</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1255,29 @@
         <v>2719.2413</v>
       </c>
       <c r="G20" t="n">
+        <v>611.8</v>
+      </c>
+      <c r="H20" t="n">
         <v>578</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>604</v>
+      </c>
+      <c r="L20" t="n">
+        <v>598</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1301,29 @@
         <v>933.3222</v>
       </c>
       <c r="G21" t="n">
+        <v>611.3333333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>579.0833333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>606</v>
+      </c>
+      <c r="L21" t="n">
+        <v>598</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1347,29 @@
         <v>924.7673</v>
       </c>
       <c r="G22" t="n">
+        <v>610.6</v>
+      </c>
+      <c r="H22" t="n">
         <v>580.2166666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>608</v>
+      </c>
+      <c r="L22" t="n">
+        <v>598</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1393,29 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
+        <v>610.3333333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>581.4166666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>609</v>
+      </c>
+      <c r="L23" t="n">
+        <v>598</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1439,27 @@
         <v>14.4194</v>
       </c>
       <c r="G24" t="n">
+        <v>609.7333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>582.5666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>598</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1483,27 @@
         <v>42.8622</v>
       </c>
       <c r="G25" t="n">
+        <v>608.7333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>583.65</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>598</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1527,27 @@
         <v>49.9901</v>
       </c>
       <c r="G26" t="n">
+        <v>608.1333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>584.7666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>598</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1571,27 @@
         <v>10717.9999</v>
       </c>
       <c r="G27" t="n">
+        <v>607</v>
+      </c>
+      <c r="H27" t="n">
         <v>585.8</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>598</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1615,27 @@
         <v>9632.340899999999</v>
       </c>
       <c r="G28" t="n">
+        <v>605.8</v>
+      </c>
+      <c r="H28" t="n">
         <v>586.6166666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>598</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1659,29 @@
         <v>514.3833</v>
       </c>
       <c r="G29" t="n">
+        <v>605.0666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>587.6</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>590</v>
+      </c>
+      <c r="L29" t="n">
+        <v>598</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1705,29 @@
         <v>113.1244</v>
       </c>
       <c r="G30" t="n">
+        <v>604.6</v>
+      </c>
+      <c r="H30" t="n">
         <v>588.6666666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>600</v>
+      </c>
+      <c r="L30" t="n">
+        <v>598</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1751,29 @@
         <v>752.951</v>
       </c>
       <c r="G31" t="n">
+        <v>604.4666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>589.7833333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>600</v>
+      </c>
+      <c r="L31" t="n">
+        <v>598</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1797,29 @@
         <v>4095.8509</v>
       </c>
       <c r="G32" t="n">
+        <v>604.0666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>590.7666666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>602</v>
+      </c>
+      <c r="L32" t="n">
+        <v>598</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1843,29 @@
         <v>787.3244</v>
       </c>
       <c r="G33" t="n">
+        <v>603.6</v>
+      </c>
+      <c r="H33" t="n">
         <v>591.7333333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>599</v>
+      </c>
+      <c r="L33" t="n">
+        <v>598</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1889,29 @@
         <v>131.8971</v>
       </c>
       <c r="G34" t="n">
+        <v>603.2666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>592.7166666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>598</v>
+      </c>
+      <c r="L34" t="n">
+        <v>598</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1935,29 @@
         <v>224.2523</v>
       </c>
       <c r="G35" t="n">
+        <v>603.0666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>593.7666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>599</v>
+      </c>
+      <c r="L35" t="n">
+        <v>598</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1981,29 @@
         <v>167.4844</v>
       </c>
       <c r="G36" t="n">
+        <v>603.0666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>594.9</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>603</v>
+      </c>
+      <c r="L36" t="n">
+        <v>598</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +2027,29 @@
         <v>717.3344</v>
       </c>
       <c r="G37" t="n">
+        <v>602.9333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>596.0666666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>608</v>
+      </c>
+      <c r="L37" t="n">
+        <v>598</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2073,27 @@
         <v>215.1809</v>
       </c>
       <c r="G38" t="n">
+        <v>602.4666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>597.1166666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>598</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2117,27 @@
         <v>734.0300999999999</v>
       </c>
       <c r="G39" t="n">
+        <v>602.6</v>
+      </c>
+      <c r="H39" t="n">
         <v>598.2166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>598</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2161,27 @@
         <v>1758.78122173</v>
       </c>
       <c r="G40" t="n">
+        <v>603.2666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>599.3833333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>598</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2205,27 @@
         <v>6947.77660985</v>
       </c>
       <c r="G41" t="n">
+        <v>604.0666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>600.4833333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>598</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2249,27 @@
         <v>14349.88511935</v>
       </c>
       <c r="G42" t="n">
+        <v>605.2666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>601.4333333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>598</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2293,27 @@
         <v>34241.69995171</v>
       </c>
       <c r="G43" t="n">
+        <v>609.2</v>
+      </c>
+      <c r="H43" t="n">
         <v>602.75</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>598</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2337,27 @@
         <v>10717.01192449</v>
       </c>
       <c r="G44" t="n">
+        <v>611.6</v>
+      </c>
+      <c r="H44" t="n">
         <v>603.8666666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>598</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2381,27 @@
         <v>3201.54080506</v>
       </c>
       <c r="G45" t="n">
+        <v>614.2</v>
+      </c>
+      <c r="H45" t="n">
         <v>605.0166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>598</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2425,27 @@
         <v>6514.3131</v>
       </c>
       <c r="G46" t="n">
+        <v>616.6</v>
+      </c>
+      <c r="H46" t="n">
         <v>606.15</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>598</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2469,27 @@
         <v>18981.297</v>
       </c>
       <c r="G47" t="n">
+        <v>618.6666666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>607.15</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>598</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2513,27 @@
         <v>9167.1296</v>
       </c>
       <c r="G48" t="n">
+        <v>621.1333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>608.0666666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>598</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2557,27 @@
         <v>2691.0131</v>
       </c>
       <c r="G49" t="n">
+        <v>623.7333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>609.2</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>598</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2601,27 @@
         <v>1453.6457</v>
       </c>
       <c r="G50" t="n">
+        <v>627</v>
+      </c>
+      <c r="H50" t="n">
         <v>610.2</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>598</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2645,27 @@
         <v>8041.4994</v>
       </c>
       <c r="G51" t="n">
+        <v>630.3333333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>611.45</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>598</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2689,27 @@
         <v>5997.9026</v>
       </c>
       <c r="G52" t="n">
+        <v>633.6666666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>612.5833333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>598</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2733,27 @@
         <v>2377.2187</v>
       </c>
       <c r="G53" t="n">
+        <v>637.1333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>613.7166666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>598</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2777,27 @@
         <v>667.02480719</v>
       </c>
       <c r="G54" t="n">
+        <v>640.9333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>614.7333333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>598</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2821,27 @@
         <v>12170.31273716</v>
       </c>
       <c r="G55" t="n">
+        <v>644.6666666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>616</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>598</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2865,27 @@
         <v>18897.73246289</v>
       </c>
       <c r="G56" t="n">
+        <v>648.7333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>617.3833333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>598</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2909,27 @@
         <v>11410.6456</v>
       </c>
       <c r="G57" t="n">
+        <v>652.8666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>618.8666666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>598</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2953,27 @@
         <v>7297.3793</v>
       </c>
       <c r="G58" t="n">
+        <v>654.7333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>620.2166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>598</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2997,27 @@
         <v>6442.812</v>
       </c>
       <c r="G59" t="n">
+        <v>657.4666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>621.5333333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>598</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +3041,27 @@
         <v>14835.5564</v>
       </c>
       <c r="G60" t="n">
+        <v>660</v>
+      </c>
+      <c r="H60" t="n">
         <v>622.8166666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>598</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +3085,27 @@
         <v>12794.7056</v>
       </c>
       <c r="G61" t="n">
+        <v>662.6666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>624.05</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>598</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3129,27 @@
         <v>25761.428</v>
       </c>
       <c r="G62" t="n">
+        <v>665.6666666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>625.3333333333334</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>598</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3173,27 @@
         <v>9119.1522</v>
       </c>
       <c r="G63" t="n">
+        <v>667.2666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>626.1833333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>598</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3217,27 @@
         <v>5362.9907</v>
       </c>
       <c r="G64" t="n">
+        <v>668.8</v>
+      </c>
+      <c r="H64" t="n">
         <v>627.05</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>598</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3261,27 @@
         <v>1407.4575</v>
       </c>
       <c r="G65" t="n">
+        <v>669.5333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>627.85</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>598</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3305,27 @@
         <v>275.4447</v>
       </c>
       <c r="G66" t="n">
+        <v>670.2</v>
+      </c>
+      <c r="H66" t="n">
         <v>628.7333333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>598</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3349,27 @@
         <v>3443.8495</v>
       </c>
       <c r="G67" t="n">
+        <v>670.7333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>629.4833333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>598</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3393,27 @@
         <v>15974.2847</v>
       </c>
       <c r="G68" t="n">
+        <v>671.3333333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>630.3166666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>598</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,19 +3437,28 @@
         <v>5927.0498</v>
       </c>
       <c r="G69" t="n">
+        <v>671.9333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>631.3</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
+      <c r="L69" t="n">
+        <v>598</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>1.125434782608696</v>
       </c>
     </row>
     <row r="70">
@@ -2828,18 +3481,21 @@
         <v>797.1544</v>
       </c>
       <c r="G70" t="n">
+        <v>671.6666666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>632.0833333333334</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3519,21 @@
         <v>302.181</v>
       </c>
       <c r="G71" t="n">
+        <v>670.9333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>632.9666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3557,21 @@
         <v>890.6265</v>
       </c>
       <c r="G72" t="n">
+        <v>670.0666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>633.8</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3595,21 @@
         <v>3770.8304</v>
       </c>
       <c r="G73" t="n">
+        <v>669.9333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>634.9166666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3633,21 @@
         <v>9293.7865</v>
       </c>
       <c r="G74" t="n">
+        <v>670.3333333333334</v>
+      </c>
+      <c r="H74" t="n">
         <v>636.1166666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3671,21 @@
         <v>5498.0967</v>
       </c>
       <c r="G75" t="n">
+        <v>670.5333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>637.3333333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3709,21 @@
         <v>8493.1342</v>
       </c>
       <c r="G76" t="n">
+        <v>670.4</v>
+      </c>
+      <c r="H76" t="n">
         <v>638.5333333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3747,21 @@
         <v>4749.1085</v>
       </c>
       <c r="G77" t="n">
+        <v>670.3333333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>639.6833333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3785,21 @@
         <v>8955.177</v>
       </c>
       <c r="G78" t="n">
+        <v>671.8</v>
+      </c>
+      <c r="H78" t="n">
         <v>640.95</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3823,21 @@
         <v>14503.481</v>
       </c>
       <c r="G79" t="n">
+        <v>672.4</v>
+      </c>
+      <c r="H79" t="n">
         <v>642.05</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3861,21 @@
         <v>1716.7951</v>
       </c>
       <c r="G80" t="n">
+        <v>672.9333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>643.1333333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3899,21 @@
         <v>1534.5096</v>
       </c>
       <c r="G81" t="n">
+        <v>673.1333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>644.1833333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3937,21 @@
         <v>666.1528</v>
       </c>
       <c r="G82" t="n">
+        <v>673.9333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>645.3166666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3975,21 @@
         <v>4876.4856</v>
       </c>
       <c r="G83" t="n">
+        <v>674.9333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>646.4666666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +4013,21 @@
         <v>537.3078</v>
       </c>
       <c r="G84" t="n">
+        <v>675.6666666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>647.7833333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +4051,21 @@
         <v>31525.81</v>
       </c>
       <c r="G85" t="n">
+        <v>677.8666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>649.3666666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +4089,21 @@
         <v>15054.0432</v>
       </c>
       <c r="G86" t="n">
+        <v>679.4</v>
+      </c>
+      <c r="H86" t="n">
         <v>650.7833333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4127,21 @@
         <v>5781.2672</v>
       </c>
       <c r="G87" t="n">
+        <v>681.0666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>652.3166666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4165,21 @@
         <v>5605.9826</v>
       </c>
       <c r="G88" t="n">
+        <v>682.3333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>654.05</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4203,21 @@
         <v>21771.9975</v>
       </c>
       <c r="G89" t="n">
+        <v>683.4</v>
+      </c>
+      <c r="H89" t="n">
         <v>655.7</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4241,21 @@
         <v>15561.8528</v>
       </c>
       <c r="G90" t="n">
+        <v>685.4</v>
+      </c>
+      <c r="H90" t="n">
         <v>657.5333333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4279,21 @@
         <v>12185.3638</v>
       </c>
       <c r="G91" t="n">
+        <v>687.8666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>659.3833333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4317,21 @@
         <v>25730.1148</v>
       </c>
       <c r="G92" t="n">
+        <v>689.2666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>660.9833333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4355,21 @@
         <v>4768.2054</v>
       </c>
       <c r="G93" t="n">
+        <v>690.1333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>662.5833333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4393,21 @@
         <v>3545.2368</v>
       </c>
       <c r="G94" t="n">
+        <v>691.9333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>664.2166666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4431,21 @@
         <v>3383.1612</v>
       </c>
       <c r="G95" t="n">
+        <v>693.5333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>665.75</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4469,21 @@
         <v>9389.3989</v>
       </c>
       <c r="G96" t="n">
+        <v>694.6666666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>667.0833333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4507,21 @@
         <v>9464.536400000001</v>
       </c>
       <c r="G97" t="n">
+        <v>695.4</v>
+      </c>
+      <c r="H97" t="n">
         <v>668.4333333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4545,21 @@
         <v>14784.6805</v>
       </c>
       <c r="G98" t="n">
+        <v>695.2</v>
+      </c>
+      <c r="H98" t="n">
         <v>669.65</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4583,21 @@
         <v>27318.7007</v>
       </c>
       <c r="G99" t="n">
+        <v>694.5333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>670.7666666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4621,21 @@
         <v>11861.5065</v>
       </c>
       <c r="G100" t="n">
+        <v>692.8666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>671.7666666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4659,21 @@
         <v>10387.1726</v>
       </c>
       <c r="G101" t="n">
+        <v>691.6666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>672.6833333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,24 +4697,21 @@
         <v>8587.9998</v>
       </c>
       <c r="G102" t="n">
+        <v>690.1333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>673.5333333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>675</v>
+        <v>1</v>
       </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3989,24 +4735,21 @@
         <v>1704.6427</v>
       </c>
       <c r="G103" t="n">
+        <v>688.6666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>673.9166666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>672</v>
+        <v>1</v>
       </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4030,24 +4773,21 @@
         <v>3814.2823</v>
       </c>
       <c r="G104" t="n">
+        <v>687.2666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>674.6166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>672</v>
+        <v>1</v>
       </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,24 +4811,21 @@
         <v>3222.9148</v>
       </c>
       <c r="G105" t="n">
+        <v>684.6</v>
+      </c>
+      <c r="H105" t="n">
         <v>675.1333333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>678</v>
+        <v>1</v>
       </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4112,24 +4849,21 @@
         <v>4354.7456</v>
       </c>
       <c r="G106" t="n">
+        <v>682.3333333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>675.8166666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>670</v>
+        <v>1</v>
       </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4153,24 +4887,21 @@
         <v>4426.7683</v>
       </c>
       <c r="G107" t="n">
+        <v>681.3333333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>676.65</v>
       </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>679</v>
+        <v>0</v>
       </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4194,22 +4925,21 @@
         <v>1013.4897</v>
       </c>
       <c r="G108" t="n">
+        <v>680</v>
+      </c>
+      <c r="H108" t="n">
         <v>677.3</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4233,22 +4963,21 @@
         <v>1723.7077</v>
       </c>
       <c r="G109" t="n">
+        <v>678.5333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>677.9166666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4272,22 +5001,21 @@
         <v>2062.2674</v>
       </c>
       <c r="G110" t="n">
+        <v>676.8666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>678.2166666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4311,22 +5039,21 @@
         <v>17.7725</v>
       </c>
       <c r="G111" t="n">
+        <v>675.7333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>678.4333333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4350,22 +5077,21 @@
         <v>1052.3946</v>
       </c>
       <c r="G112" t="n">
+        <v>675.2</v>
+      </c>
+      <c r="H112" t="n">
         <v>678.8166666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4389,22 +5115,21 @@
         <v>2197.8022</v>
       </c>
       <c r="G113" t="n">
+        <v>674.8</v>
+      </c>
+      <c r="H113" t="n">
         <v>679.0666666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,22 +5153,21 @@
         <v>2626.7703</v>
       </c>
       <c r="G114" t="n">
+        <v>674.5333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>679.1666666666666</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4467,22 +5191,21 @@
         <v>179.2</v>
       </c>
       <c r="G115" t="n">
+        <v>674.4666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>679.2166666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4506,22 +5229,21 @@
         <v>40</v>
       </c>
       <c r="G116" t="n">
+        <v>674.4</v>
+      </c>
+      <c r="H116" t="n">
         <v>679.1</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4545,22 +5267,21 @@
         <v>8285.7952</v>
       </c>
       <c r="G117" t="n">
+        <v>674.3333333333334</v>
+      </c>
+      <c r="H117" t="n">
         <v>678.9</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4584,22 +5305,21 @@
         <v>6322.9836</v>
       </c>
       <c r="G118" t="n">
+        <v>674.6</v>
+      </c>
+      <c r="H118" t="n">
         <v>678.8833333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4623,22 +5343,21 @@
         <v>873.3677</v>
       </c>
       <c r="G119" t="n">
+        <v>674.5333333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>678.8833333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4662,22 +5381,21 @@
         <v>657.2085</v>
       </c>
       <c r="G120" t="n">
+        <v>675</v>
+      </c>
+      <c r="H120" t="n">
         <v>678.8833333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,22 +5419,21 @@
         <v>913.8671806999999</v>
       </c>
       <c r="G121" t="n">
+        <v>674.8666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>678.8666666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4740,22 +5457,21 @@
         <v>136.1611</v>
       </c>
       <c r="G122" t="n">
+        <v>674.2</v>
+      </c>
+      <c r="H122" t="n">
         <v>678.7833333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4779,22 +5495,21 @@
         <v>8725.1253</v>
       </c>
       <c r="G123" t="n">
+        <v>673.5333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>678.8666666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4818,22 +5533,21 @@
         <v>250.9999</v>
       </c>
       <c r="G124" t="n">
+        <v>672.8666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>678.9333333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4857,22 +5571,21 @@
         <v>2962.965</v>
       </c>
       <c r="G125" t="n">
+        <v>672.5333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>678.9666666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4896,22 +5609,21 @@
         <v>1280.9691</v>
       </c>
       <c r="G126" t="n">
+        <v>672.4666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>679</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4935,22 +5647,21 @@
         <v>45.7826</v>
       </c>
       <c r="G127" t="n">
+        <v>671.6</v>
+      </c>
+      <c r="H127" t="n">
         <v>679.0333333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4974,22 +5685,21 @@
         <v>1314.0454</v>
       </c>
       <c r="G128" t="n">
+        <v>670.6666666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>678.9</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5013,22 +5723,21 @@
         <v>2256.6206</v>
       </c>
       <c r="G129" t="n">
+        <v>670.5333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>678.8166666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5052,22 +5761,21 @@
         <v>1940.1836</v>
       </c>
       <c r="G130" t="n">
+        <v>669.6</v>
+      </c>
+      <c r="H130" t="n">
         <v>678.7</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5091,22 +5799,21 @@
         <v>918.9118</v>
       </c>
       <c r="G131" t="n">
+        <v>668.6</v>
+      </c>
+      <c r="H131" t="n">
         <v>678.5166666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5130,22 +5837,21 @@
         <v>4512.6752</v>
       </c>
       <c r="G132" t="n">
+        <v>667.8666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>678.35</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5169,22 +5875,21 @@
         <v>7581.6192</v>
       </c>
       <c r="G133" t="n">
+        <v>666.4</v>
+      </c>
+      <c r="H133" t="n">
         <v>678</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,22 +5913,21 @@
         <v>6000.2059</v>
       </c>
       <c r="G134" t="n">
+        <v>665.2666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>677.6166666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5247,22 +5951,21 @@
         <v>3952.7536057</v>
       </c>
       <c r="G135" t="n">
+        <v>664.5333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>677.3833333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5286,22 +5989,21 @@
         <v>124.8774</v>
       </c>
       <c r="G136" t="n">
+        <v>663.8666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>677.2333333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5325,22 +6027,21 @@
         <v>745.4329</v>
       </c>
       <c r="G137" t="n">
+        <v>663.4666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>677.0666666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,22 +6065,21 @@
         <v>1457.8647</v>
       </c>
       <c r="G138" t="n">
+        <v>663</v>
+      </c>
+      <c r="H138" t="n">
         <v>676.6666666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5403,22 +6103,21 @@
         <v>576.928</v>
       </c>
       <c r="G139" t="n">
+        <v>662.7333333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>676.5166666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5442,22 +6141,21 @@
         <v>37541.3025</v>
       </c>
       <c r="G140" t="n">
+        <v>662.5333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>676.3666666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5481,22 +6179,21 @@
         <v>2047.7256</v>
       </c>
       <c r="G141" t="n">
+        <v>661.8666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>676.1833333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5520,22 +6217,21 @@
         <v>228.8125</v>
       </c>
       <c r="G142" t="n">
+        <v>661.4</v>
+      </c>
+      <c r="H142" t="n">
         <v>675.9</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5559,22 +6255,21 @@
         <v>7752.7193</v>
       </c>
       <c r="G143" t="n">
+        <v>661.6</v>
+      </c>
+      <c r="H143" t="n">
         <v>675.5666666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5598,22 +6293,21 @@
         <v>6.5454</v>
       </c>
       <c r="G144" t="n">
+        <v>660.8666666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>675.1166666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5637,22 +6331,21 @@
         <v>5</v>
       </c>
       <c r="G145" t="n">
+        <v>660.8666666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>674.45</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5676,22 +6369,21 @@
         <v>2.0196</v>
       </c>
       <c r="G146" t="n">
+        <v>660.9333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>673.9</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5715,22 +6407,21 @@
         <v>515.2533</v>
       </c>
       <c r="G147" t="n">
+        <v>661</v>
+      </c>
+      <c r="H147" t="n">
         <v>673.3333333333334</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5754,22 +6445,21 @@
         <v>2421.5544</v>
       </c>
       <c r="G148" t="n">
+        <v>661.6</v>
+      </c>
+      <c r="H148" t="n">
         <v>672.8166666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5793,22 +6483,21 @@
         <v>263.8759</v>
       </c>
       <c r="G149" t="n">
+        <v>662.2666666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>672.3333333333334</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5832,22 +6521,21 @@
         <v>6525.7627</v>
       </c>
       <c r="G150" t="n">
+        <v>662.8666666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>671.75</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5871,22 +6559,21 @@
         <v>1852.7881</v>
       </c>
       <c r="G151" t="n">
+        <v>663.1333333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>671.05</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5910,22 +6597,21 @@
         <v>703.0441</v>
       </c>
       <c r="G152" t="n">
+        <v>663.6</v>
+      </c>
+      <c r="H152" t="n">
         <v>670.65</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5949,22 +6635,21 @@
         <v>2693.2468</v>
       </c>
       <c r="G153" t="n">
+        <v>664.6</v>
+      </c>
+      <c r="H153" t="n">
         <v>670.2833333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5988,22 +6673,21 @@
         <v>4316.10641811</v>
       </c>
       <c r="G154" t="n">
+        <v>665.2</v>
+      </c>
+      <c r="H154" t="n">
         <v>669.8333333333334</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6027,22 +6711,21 @@
         <v>943.9476</v>
       </c>
       <c r="G155" t="n">
+        <v>665.5333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>669.3666666666667</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,22 +6749,21 @@
         <v>590</v>
       </c>
       <c r="G156" t="n">
+        <v>665.9333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>669</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6105,22 +6787,21 @@
         <v>536.1301</v>
       </c>
       <c r="G157" t="n">
+        <v>666.4</v>
+      </c>
+      <c r="H157" t="n">
         <v>668.65</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6144,22 +6825,21 @@
         <v>670.3424</v>
       </c>
       <c r="G158" t="n">
+        <v>666.6</v>
+      </c>
+      <c r="H158" t="n">
         <v>668.4166666666666</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6183,22 +6863,21 @@
         <v>155.6592</v>
       </c>
       <c r="G159" t="n">
+        <v>667.3333333333334</v>
+      </c>
+      <c r="H159" t="n">
         <v>668.3166666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6222,22 +6901,21 @@
         <v>2175.9799</v>
       </c>
       <c r="G160" t="n">
+        <v>667.9333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>668.2166666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6261,22 +6939,21 @@
         <v>3384.363</v>
       </c>
       <c r="G161" t="n">
+        <v>667.9333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>667.9666666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6300,22 +6977,21 @@
         <v>1030.2133</v>
       </c>
       <c r="G162" t="n">
+        <v>668.2</v>
+      </c>
+      <c r="H162" t="n">
         <v>667.85</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6339,22 +7015,21 @@
         <v>2414.2981</v>
       </c>
       <c r="G163" t="n">
+        <v>668</v>
+      </c>
+      <c r="H163" t="n">
         <v>667.65</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6378,22 +7053,21 @@
         <v>1027.2177</v>
       </c>
       <c r="G164" t="n">
+        <v>667.2666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>667.3333333333334</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6417,22 +7091,21 @@
         <v>211.5</v>
       </c>
       <c r="G165" t="n">
+        <v>666.2</v>
+      </c>
+      <c r="H165" t="n">
         <v>667.15</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6456,22 +7129,21 @@
         <v>1</v>
       </c>
       <c r="G166" t="n">
+        <v>665.8</v>
+      </c>
+      <c r="H166" t="n">
         <v>666.9166666666666</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6495,22 +7167,21 @@
         <v>591.4717000000001</v>
       </c>
       <c r="G167" t="n">
+        <v>665.2666666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>666.6333333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6534,22 +7205,21 @@
         <v>12</v>
       </c>
       <c r="G168" t="n">
+        <v>664.4</v>
+      </c>
+      <c r="H168" t="n">
         <v>666.3833333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,22 +7243,21 @@
         <v>1755.141</v>
       </c>
       <c r="G169" t="n">
+        <v>664.4</v>
+      </c>
+      <c r="H169" t="n">
         <v>666.3</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6612,22 +7281,21 @@
         <v>28.9611</v>
       </c>
       <c r="G170" t="n">
+        <v>664.4</v>
+      </c>
+      <c r="H170" t="n">
         <v>666.25</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6651,22 +7319,21 @@
         <v>612.3262999999999</v>
       </c>
       <c r="G171" t="n">
+        <v>664.3333333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>666.15</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6690,22 +7357,21 @@
         <v>68.032</v>
       </c>
       <c r="G172" t="n">
+        <v>663.9333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>665.8333333333334</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6729,22 +7395,21 @@
         <v>787.4367999999999</v>
       </c>
       <c r="G173" t="n">
+        <v>663.6</v>
+      </c>
+      <c r="H173" t="n">
         <v>665.6166666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6768,22 +7433,21 @@
         <v>2813.4231</v>
       </c>
       <c r="G174" t="n">
+        <v>662.8666666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>665.4</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6807,22 +7471,21 @@
         <v>783.9155</v>
       </c>
       <c r="G175" t="n">
+        <v>662.1333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>665.1333333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6846,22 +7509,21 @@
         <v>6163.053</v>
       </c>
       <c r="G176" t="n">
+        <v>662</v>
+      </c>
+      <c r="H176" t="n">
         <v>664.8666666666667</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6885,22 +7547,21 @@
         <v>400.3329</v>
       </c>
       <c r="G177" t="n">
+        <v>661.5333333333333</v>
+      </c>
+      <c r="H177" t="n">
         <v>664.65</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6924,22 +7585,21 @@
         <v>1008.9331</v>
       </c>
       <c r="G178" t="n">
+        <v>661.4</v>
+      </c>
+      <c r="H178" t="n">
         <v>664.35</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6963,22 +7623,21 @@
         <v>840.5244</v>
       </c>
       <c r="G179" t="n">
+        <v>661.1333333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>663.9833333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7002,22 +7661,21 @@
         <v>1033.5088</v>
       </c>
       <c r="G180" t="n">
+        <v>660.8</v>
+      </c>
+      <c r="H180" t="n">
         <v>663.6</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7041,22 +7699,21 @@
         <v>14709.0589</v>
       </c>
       <c r="G181" t="n">
+        <v>659.9333333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>663.1833333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7080,22 +7737,21 @@
         <v>225.078</v>
       </c>
       <c r="G182" t="n">
+        <v>659.5333333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>662.9666666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7119,22 +7775,21 @@
         <v>173.6423</v>
       </c>
       <c r="G183" t="n">
+        <v>659.4</v>
+      </c>
+      <c r="H183" t="n">
         <v>662.85</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7158,22 +7813,21 @@
         <v>66.0402</v>
       </c>
       <c r="G184" t="n">
+        <v>658.1333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>662.6166666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7197,22 +7851,21 @@
         <v>241.1323</v>
       </c>
       <c r="G185" t="n">
+        <v>656.8666666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>662.3333333333334</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7236,22 +7889,21 @@
         <v>207.9135</v>
       </c>
       <c r="G186" t="n">
+        <v>655.7333333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>661.9666666666667</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7275,22 +7927,21 @@
         <v>6119.0731</v>
       </c>
       <c r="G187" t="n">
+        <v>654.6</v>
+      </c>
+      <c r="H187" t="n">
         <v>661.5833333333334</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7314,22 +7965,21 @@
         <v>103</v>
       </c>
       <c r="G188" t="n">
+        <v>653.5333333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>661.3333333333334</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7353,22 +8003,21 @@
         <v>13570.7615</v>
       </c>
       <c r="G189" t="n">
+        <v>651.9333333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>660.75</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7392,22 +8041,21 @@
         <v>6707.5613</v>
       </c>
       <c r="G190" t="n">
+        <v>650.8</v>
+      </c>
+      <c r="H190" t="n">
         <v>660.4333333333333</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7431,22 +8079,21 @@
         <v>2086.4163</v>
       </c>
       <c r="G191" t="n">
+        <v>649.8666666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>660.1833333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7470,22 +8117,21 @@
         <v>209.4572</v>
       </c>
       <c r="G192" t="n">
+        <v>648.4</v>
+      </c>
+      <c r="H192" t="n">
         <v>659.7833333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7509,22 +8155,21 @@
         <v>454.737</v>
       </c>
       <c r="G193" t="n">
+        <v>647.4</v>
+      </c>
+      <c r="H193" t="n">
         <v>659.6</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7548,22 +8193,21 @@
         <v>8068.1277</v>
       </c>
       <c r="G194" t="n">
+        <v>647.4</v>
+      </c>
+      <c r="H194" t="n">
         <v>659.5166666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7587,22 +8231,21 @@
         <v>4937.3735</v>
       </c>
       <c r="G195" t="n">
+        <v>647.2</v>
+      </c>
+      <c r="H195" t="n">
         <v>659.2666666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7626,22 +8269,21 @@
         <v>503.6899</v>
       </c>
       <c r="G196" t="n">
+        <v>647.0666666666667</v>
+      </c>
+      <c r="H196" t="n">
         <v>658.9833333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7665,22 +8307,21 @@
         <v>3821.2304</v>
       </c>
       <c r="G197" t="n">
+        <v>646.6666666666666</v>
+      </c>
+      <c r="H197" t="n">
         <v>658.7666666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7704,22 +8345,21 @@
         <v>3115.9025</v>
       </c>
       <c r="G198" t="n">
+        <v>646.4</v>
+      </c>
+      <c r="H198" t="n">
         <v>658.7</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7743,22 +8383,21 @@
         <v>831.0913</v>
       </c>
       <c r="G199" t="n">
+        <v>646.8</v>
+      </c>
+      <c r="H199" t="n">
         <v>658.6333333333333</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7782,22 +8421,21 @@
         <v>959.3489</v>
       </c>
       <c r="G200" t="n">
+        <v>647.4666666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>658.5666666666667</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7821,22 +8459,21 @@
         <v>17.6476</v>
       </c>
       <c r="G201" t="n">
+        <v>647.5333333333333</v>
+      </c>
+      <c r="H201" t="n">
         <v>658.3833333333333</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7860,22 +8497,21 @@
         <v>5075.7373</v>
       </c>
       <c r="G202" t="n">
+        <v>647.1333333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>658.0166666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7899,22 +8535,21 @@
         <v>24.5536</v>
       </c>
       <c r="G203" t="n">
+        <v>647.6</v>
+      </c>
+      <c r="H203" t="n">
         <v>657.8333333333334</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,22 +8573,21 @@
         <v>6640.2759</v>
       </c>
       <c r="G204" t="n">
+        <v>647.9333333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>657.5166666666667</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7977,22 +8611,21 @@
         <v>87.94455975</v>
       </c>
       <c r="G205" t="n">
+        <v>648.2666666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>657.2833333333333</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8016,22 +8649,21 @@
         <v>276.7974</v>
       </c>
       <c r="G206" t="n">
+        <v>647.8</v>
+      </c>
+      <c r="H206" t="n">
         <v>656.9</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8055,22 +8687,21 @@
         <v>139.5793</v>
       </c>
       <c r="G207" t="n">
+        <v>648.2</v>
+      </c>
+      <c r="H207" t="n">
         <v>656.5833333333334</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8094,22 +8725,21 @@
         <v>515.1423</v>
       </c>
       <c r="G208" t="n">
+        <v>648.2</v>
+      </c>
+      <c r="H208" t="n">
         <v>656.25</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8133,22 +8763,21 @@
         <v>1</v>
       </c>
       <c r="G209" t="n">
+        <v>647.7333333333333</v>
+      </c>
+      <c r="H209" t="n">
         <v>655.8833333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8172,22 +8801,21 @@
         <v>5457.6381</v>
       </c>
       <c r="G210" t="n">
+        <v>646.6666666666666</v>
+      </c>
+      <c r="H210" t="n">
         <v>655.2166666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8211,22 +8839,21 @@
         <v>13935.1293</v>
       </c>
       <c r="G211" t="n">
+        <v>645.3333333333334</v>
+      </c>
+      <c r="H211" t="n">
         <v>654.5333333333333</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8250,22 +8877,21 @@
         <v>509.0015</v>
       </c>
       <c r="G212" t="n">
+        <v>644.4666666666667</v>
+      </c>
+      <c r="H212" t="n">
         <v>653.9833333333333</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8289,22 +8915,21 @@
         <v>339.1004</v>
       </c>
       <c r="G213" t="n">
+        <v>643.3333333333334</v>
+      </c>
+      <c r="H213" t="n">
         <v>653.3833333333333</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8328,22 +8953,21 @@
         <v>1594.3669</v>
       </c>
       <c r="G214" t="n">
+        <v>642.2</v>
+      </c>
+      <c r="H214" t="n">
         <v>652.8833333333333</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8367,22 +8991,21 @@
         <v>7410.4963</v>
       </c>
       <c r="G215" t="n">
+        <v>641.3333333333334</v>
+      </c>
+      <c r="H215" t="n">
         <v>652.5166666666667</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8406,22 +9029,21 @@
         <v>6234.592</v>
       </c>
       <c r="G216" t="n">
+        <v>640.7333333333333</v>
+      </c>
+      <c r="H216" t="n">
         <v>652.0833333333334</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8445,22 +9067,401 @@
         <v>364.8568</v>
       </c>
       <c r="G217" t="n">
+        <v>641.3333333333334</v>
+      </c>
+      <c r="H217" t="n">
         <v>651.75</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>640</v>
+      </c>
+      <c r="C218" t="n">
+        <v>639</v>
+      </c>
+      <c r="D218" t="n">
+        <v>640</v>
+      </c>
+      <c r="E218" t="n">
+        <v>639</v>
+      </c>
+      <c r="F218" t="n">
+        <v>335.1903</v>
+      </c>
+      <c r="G218" t="n">
+        <v>640.4666666666667</v>
+      </c>
+      <c r="H218" t="n">
+        <v>651.3</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>639</v>
+      </c>
+      <c r="C219" t="n">
+        <v>638</v>
+      </c>
+      <c r="D219" t="n">
+        <v>639</v>
+      </c>
+      <c r="E219" t="n">
+        <v>637</v>
+      </c>
+      <c r="F219" t="n">
+        <v>309.4915</v>
+      </c>
+      <c r="G219" t="n">
+        <v>640.2666666666667</v>
+      </c>
+      <c r="H219" t="n">
+        <v>650.75</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>639</v>
+      </c>
+      <c r="C220" t="n">
+        <v>633</v>
+      </c>
+      <c r="D220" t="n">
+        <v>639</v>
+      </c>
+      <c r="E220" t="n">
+        <v>633</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2560.5125</v>
+      </c>
+      <c r="G220" t="n">
+        <v>639.4</v>
+      </c>
+      <c r="H220" t="n">
+        <v>650.15</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>641</v>
+      </c>
+      <c r="C221" t="n">
+        <v>635</v>
+      </c>
+      <c r="D221" t="n">
+        <v>641</v>
+      </c>
+      <c r="E221" t="n">
+        <v>635</v>
+      </c>
+      <c r="F221" t="n">
+        <v>550.4402</v>
+      </c>
+      <c r="G221" t="n">
+        <v>639.2666666666667</v>
+      </c>
+      <c r="H221" t="n">
+        <v>649.7333333333333</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>640</v>
+      </c>
+      <c r="C222" t="n">
+        <v>640</v>
+      </c>
+      <c r="D222" t="n">
+        <v>641</v>
+      </c>
+      <c r="E222" t="n">
+        <v>640</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1216.3882</v>
+      </c>
+      <c r="G222" t="n">
+        <v>639.1333333333333</v>
+      </c>
+      <c r="H222" t="n">
+        <v>649.3166666666667</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>638</v>
+      </c>
+      <c r="C223" t="n">
+        <v>642</v>
+      </c>
+      <c r="D223" t="n">
+        <v>642</v>
+      </c>
+      <c r="E223" t="n">
+        <v>638</v>
+      </c>
+      <c r="F223" t="n">
+        <v>35.2689</v>
+      </c>
+      <c r="G223" t="n">
+        <v>639.0666666666667</v>
+      </c>
+      <c r="H223" t="n">
+        <v>649.0166666666667</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>642</v>
+      </c>
+      <c r="C224" t="n">
+        <v>639</v>
+      </c>
+      <c r="D224" t="n">
+        <v>645</v>
+      </c>
+      <c r="E224" t="n">
+        <v>639</v>
+      </c>
+      <c r="F224" t="n">
+        <v>730.0624</v>
+      </c>
+      <c r="G224" t="n">
+        <v>638.4666666666667</v>
+      </c>
+      <c r="H224" t="n">
+        <v>648.6833333333333</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>643</v>
+      </c>
+      <c r="C225" t="n">
+        <v>646</v>
+      </c>
+      <c r="D225" t="n">
+        <v>646</v>
+      </c>
+      <c r="E225" t="n">
+        <v>643</v>
+      </c>
+      <c r="F225" t="n">
+        <v>11</v>
+      </c>
+      <c r="G225" t="n">
+        <v>639.2</v>
+      </c>
+      <c r="H225" t="n">
+        <v>648.4666666666667</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>645</v>
+      </c>
+      <c r="C226" t="n">
+        <v>647</v>
+      </c>
+      <c r="D226" t="n">
+        <v>647</v>
+      </c>
+      <c r="E226" t="n">
+        <v>645</v>
+      </c>
+      <c r="F226" t="n">
+        <v>466.0085</v>
+      </c>
+      <c r="G226" t="n">
+        <v>640.3333333333334</v>
+      </c>
+      <c r="H226" t="n">
+        <v>648.1666666666666</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>648</v>
+      </c>
+      <c r="C227" t="n">
+        <v>648</v>
+      </c>
+      <c r="D227" t="n">
+        <v>648</v>
+      </c>
+      <c r="E227" t="n">
+        <v>648</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" t="n">
+        <v>641</v>
+      </c>
+      <c r="H227" t="n">
+        <v>647.9166666666666</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-15 BackTest GXC.xlsx
+++ b/BackTest/2019-10-15 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N214"/>
+  <dimension ref="A1:N285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>611</v>
+        <v>544</v>
       </c>
       <c r="C2" t="n">
-        <v>607</v>
+        <v>544</v>
       </c>
       <c r="D2" t="n">
-        <v>611</v>
+        <v>544</v>
       </c>
       <c r="E2" t="n">
-        <v>607</v>
+        <v>544</v>
       </c>
       <c r="F2" t="n">
-        <v>8410.894399999999</v>
+        <v>442.5929</v>
       </c>
       <c r="G2" t="n">
-        <v>60865.67191941001</v>
+        <v>2994.586299999999</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>605</v>
+        <v>544</v>
       </c>
       <c r="C3" t="n">
-        <v>604</v>
+        <v>543</v>
       </c>
       <c r="D3" t="n">
-        <v>605</v>
+        <v>544</v>
       </c>
       <c r="E3" t="n">
-        <v>598</v>
+        <v>543</v>
       </c>
       <c r="F3" t="n">
-        <v>2315.5242</v>
+        <v>792.9999</v>
       </c>
       <c r="G3" t="n">
-        <v>58550.14771941001</v>
+        <v>2201.586399999999</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>607</v>
+        <v>544</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
@@ -516,22 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>600</v>
+        <v>543</v>
       </c>
       <c r="C4" t="n">
-        <v>605</v>
+        <v>543</v>
       </c>
       <c r="D4" t="n">
-        <v>605</v>
+        <v>543</v>
       </c>
       <c r="E4" t="n">
-        <v>600</v>
+        <v>543</v>
       </c>
       <c r="F4" t="n">
-        <v>2011.7475</v>
+        <v>715.9999</v>
       </c>
       <c r="G4" t="n">
-        <v>60561.89521941001</v>
+        <v>2201.586399999999</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>604</v>
+        <v>543</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>603</v>
+        <v>543</v>
       </c>
       <c r="C5" t="n">
-        <v>605</v>
+        <v>543</v>
       </c>
       <c r="D5" t="n">
-        <v>605</v>
+        <v>543</v>
       </c>
       <c r="E5" t="n">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="F5" t="n">
-        <v>1514.1332</v>
+        <v>353.6853</v>
       </c>
       <c r="G5" t="n">
-        <v>60561.89521941001</v>
+        <v>2201.586399999999</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>605</v>
+        <v>543</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
@@ -600,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>605</v>
+        <v>539</v>
       </c>
       <c r="C6" t="n">
-        <v>604</v>
+        <v>539</v>
       </c>
       <c r="D6" t="n">
-        <v>605</v>
+        <v>539</v>
       </c>
       <c r="E6" t="n">
-        <v>600</v>
+        <v>539</v>
       </c>
       <c r="F6" t="n">
-        <v>8460.659600000001</v>
+        <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>52101.23561941001</v>
+        <v>2171.586399999999</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>605</v>
+        <v>543</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
@@ -642,22 +642,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>604</v>
+        <v>539</v>
       </c>
       <c r="C7" t="n">
-        <v>606</v>
+        <v>544</v>
       </c>
       <c r="D7" t="n">
-        <v>606</v>
+        <v>544</v>
       </c>
       <c r="E7" t="n">
-        <v>604</v>
+        <v>539</v>
       </c>
       <c r="F7" t="n">
-        <v>2719.2413</v>
+        <v>417.3481</v>
       </c>
       <c r="G7" t="n">
-        <v>54820.47691941001</v>
+        <v>2588.934499999999</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>604</v>
+        <v>539</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
@@ -684,22 +684,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606</v>
+        <v>542</v>
       </c>
       <c r="C8" t="n">
-        <v>608</v>
+        <v>542</v>
       </c>
       <c r="D8" t="n">
-        <v>608</v>
+        <v>542</v>
       </c>
       <c r="E8" t="n">
-        <v>606</v>
+        <v>542</v>
       </c>
       <c r="F8" t="n">
-        <v>933.3222</v>
+        <v>97.70359999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>55753.79911941001</v>
+        <v>2491.2309</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>606</v>
+        <v>544</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
@@ -726,22 +726,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>609</v>
+        <v>541</v>
       </c>
       <c r="C9" t="n">
-        <v>609</v>
+        <v>544</v>
       </c>
       <c r="D9" t="n">
-        <v>609</v>
+        <v>544</v>
       </c>
       <c r="E9" t="n">
-        <v>609</v>
+        <v>540</v>
       </c>
       <c r="F9" t="n">
-        <v>924.7673</v>
+        <v>5420.1932</v>
       </c>
       <c r="G9" t="n">
-        <v>56678.56641941001</v>
+        <v>7911.424099999999</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>608</v>
+        <v>542</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
@@ -768,22 +768,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>614</v>
+        <v>538</v>
       </c>
       <c r="C10" t="n">
-        <v>614</v>
+        <v>532</v>
       </c>
       <c r="D10" t="n">
-        <v>614</v>
+        <v>538</v>
       </c>
       <c r="E10" t="n">
-        <v>614</v>
+        <v>532</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>116.5753</v>
       </c>
       <c r="G10" t="n">
-        <v>56679.56641941001</v>
+        <v>7794.848799999999</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>609</v>
+        <v>544</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
@@ -810,22 +810,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>608</v>
+        <v>539</v>
       </c>
       <c r="C11" t="n">
-        <v>608</v>
+        <v>539</v>
       </c>
       <c r="D11" t="n">
-        <v>608</v>
+        <v>539</v>
       </c>
       <c r="E11" t="n">
-        <v>608</v>
+        <v>537</v>
       </c>
       <c r="F11" t="n">
-        <v>14.4194</v>
+        <v>1260</v>
       </c>
       <c r="G11" t="n">
-        <v>56665.14701941001</v>
+        <v>9054.8488</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>614</v>
+        <v>532</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
@@ -852,22 +852,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>605</v>
+        <v>539</v>
       </c>
       <c r="C12" t="n">
-        <v>605</v>
+        <v>540</v>
       </c>
       <c r="D12" t="n">
-        <v>605</v>
+        <v>540</v>
       </c>
       <c r="E12" t="n">
-        <v>605</v>
+        <v>530</v>
       </c>
       <c r="F12" t="n">
-        <v>42.8622</v>
+        <v>2630.5552</v>
       </c>
       <c r="G12" t="n">
-        <v>56622.28481941001</v>
+        <v>11685.404</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>608</v>
+        <v>539</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
@@ -894,22 +894,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>608</v>
+        <v>549</v>
       </c>
       <c r="C13" t="n">
-        <v>608</v>
+        <v>549</v>
       </c>
       <c r="D13" t="n">
-        <v>608</v>
+        <v>549</v>
       </c>
       <c r="E13" t="n">
-        <v>608</v>
+        <v>549</v>
       </c>
       <c r="F13" t="n">
-        <v>49.9901</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>56672.27491941001</v>
+        <v>11686.404</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>605</v>
+        <v>540</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
@@ -936,22 +936,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>601</v>
+        <v>549</v>
       </c>
       <c r="C14" t="n">
-        <v>603</v>
+        <v>549</v>
       </c>
       <c r="D14" t="n">
-        <v>603</v>
+        <v>549</v>
       </c>
       <c r="E14" t="n">
-        <v>597</v>
+        <v>549</v>
       </c>
       <c r="F14" t="n">
-        <v>10717.9999</v>
+        <v>18.21493624</v>
       </c>
       <c r="G14" t="n">
-        <v>45954.27501941001</v>
+        <v>11686.404</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>608</v>
+        <v>549</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
@@ -978,22 +978,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>598</v>
+        <v>541</v>
       </c>
       <c r="C15" t="n">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="D15" t="n">
-        <v>598</v>
+        <v>541</v>
       </c>
       <c r="E15" t="n">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="F15" t="n">
-        <v>9632.340899999999</v>
+        <v>870.3275</v>
       </c>
       <c r="G15" t="n">
-        <v>36321.93411941001</v>
+        <v>10816.0765</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>603</v>
+        <v>549</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
@@ -1020,22 +1020,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>590</v>
+        <v>542</v>
       </c>
       <c r="C16" t="n">
-        <v>600</v>
+        <v>542</v>
       </c>
       <c r="D16" t="n">
-        <v>600</v>
+        <v>542</v>
       </c>
       <c r="E16" t="n">
-        <v>590</v>
+        <v>542</v>
       </c>
       <c r="F16" t="n">
-        <v>514.3833</v>
+        <v>282.6</v>
       </c>
       <c r="G16" t="n">
-        <v>36836.31741941001</v>
+        <v>11098.6765</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
@@ -1062,22 +1062,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>598</v>
+        <v>544</v>
       </c>
       <c r="C17" t="n">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="D17" t="n">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="E17" t="n">
-        <v>598</v>
+        <v>544</v>
       </c>
       <c r="F17" t="n">
-        <v>113.1244</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>36836.31741941001</v>
+        <v>11099.6765</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>600</v>
+        <v>542</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
@@ -1104,22 +1104,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>599</v>
+        <v>537</v>
       </c>
       <c r="C18" t="n">
-        <v>602</v>
+        <v>537</v>
       </c>
       <c r="D18" t="n">
-        <v>602</v>
+        <v>537</v>
       </c>
       <c r="E18" t="n">
-        <v>599</v>
+        <v>537</v>
       </c>
       <c r="F18" t="n">
-        <v>752.951</v>
+        <v>372.6813</v>
       </c>
       <c r="G18" t="n">
-        <v>37589.26841941001</v>
+        <v>10726.9952</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
@@ -1146,22 +1146,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>599</v>
+        <v>537</v>
       </c>
       <c r="C19" t="n">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="D19" t="n">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="E19" t="n">
-        <v>599</v>
+        <v>537</v>
       </c>
       <c r="F19" t="n">
-        <v>4095.8509</v>
+        <v>28.3187</v>
       </c>
       <c r="G19" t="n">
-        <v>33493.41751941002</v>
+        <v>10755.3139</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>602</v>
+        <v>537</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
@@ -1188,22 +1188,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>598</v>
+        <v>536</v>
       </c>
       <c r="C20" t="n">
-        <v>598</v>
+        <v>541</v>
       </c>
       <c r="D20" t="n">
-        <v>598</v>
+        <v>542</v>
       </c>
       <c r="E20" t="n">
-        <v>598</v>
+        <v>536</v>
       </c>
       <c r="F20" t="n">
-        <v>787.3244</v>
+        <v>743.0958000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>32706.09311941002</v>
+        <v>10012.2181</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
@@ -1230,22 +1230,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>592</v>
+        <v>538</v>
       </c>
       <c r="C21" t="n">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="D21" t="n">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="E21" t="n">
-        <v>592</v>
+        <v>538</v>
       </c>
       <c r="F21" t="n">
-        <v>131.8971</v>
+        <v>340</v>
       </c>
       <c r="G21" t="n">
-        <v>32837.99021941001</v>
+        <v>10352.2181</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>598</v>
+        <v>541</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
@@ -1272,22 +1272,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>598</v>
+        <v>539</v>
       </c>
       <c r="C22" t="n">
-        <v>603</v>
+        <v>539</v>
       </c>
       <c r="D22" t="n">
-        <v>603</v>
+        <v>539</v>
       </c>
       <c r="E22" t="n">
-        <v>598</v>
+        <v>539</v>
       </c>
       <c r="F22" t="n">
-        <v>224.2523</v>
+        <v>592</v>
       </c>
       <c r="G22" t="n">
-        <v>33062.24251941001</v>
+        <v>9760.218099999998</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
@@ -1314,22 +1314,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>603</v>
+        <v>540</v>
       </c>
       <c r="C23" t="n">
-        <v>608</v>
+        <v>540</v>
       </c>
       <c r="D23" t="n">
-        <v>608</v>
+        <v>540</v>
       </c>
       <c r="E23" t="n">
-        <v>603</v>
+        <v>540</v>
       </c>
       <c r="F23" t="n">
-        <v>167.4844</v>
+        <v>126.9969</v>
       </c>
       <c r="G23" t="n">
-        <v>33229.72691941002</v>
+        <v>9887.214999999998</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>603</v>
+        <v>539</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
@@ -1356,22 +1356,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="C24" t="n">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="D24" t="n">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="E24" t="n">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="F24" t="n">
-        <v>717.3344</v>
+        <v>87.2392</v>
       </c>
       <c r="G24" t="n">
-        <v>32512.39251941002</v>
+        <v>9974.454199999998</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>608</v>
+        <v>540</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
@@ -1398,22 +1398,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="C25" t="n">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="D25" t="n">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="E25" t="n">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="F25" t="n">
-        <v>215.1809</v>
+        <v>503</v>
       </c>
       <c r="G25" t="n">
-        <v>32512.39251941002</v>
+        <v>9974.454199999998</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
@@ -1440,22 +1440,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>608</v>
+        <v>537</v>
       </c>
       <c r="C26" t="n">
-        <v>610</v>
+        <v>541</v>
       </c>
       <c r="D26" t="n">
-        <v>610</v>
+        <v>541</v>
       </c>
       <c r="E26" t="n">
-        <v>608</v>
+        <v>537</v>
       </c>
       <c r="F26" t="n">
-        <v>734.0300999999999</v>
+        <v>240</v>
       </c>
       <c r="G26" t="n">
-        <v>33246.42261941002</v>
+        <v>9974.454199999998</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
@@ -1482,22 +1482,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>610</v>
+        <v>536</v>
       </c>
       <c r="C27" t="n">
-        <v>615</v>
+        <v>541</v>
       </c>
       <c r="D27" t="n">
-        <v>615</v>
+        <v>541</v>
       </c>
       <c r="E27" t="n">
-        <v>602</v>
+        <v>536</v>
       </c>
       <c r="F27" t="n">
-        <v>1758.78122173</v>
+        <v>180</v>
       </c>
       <c r="G27" t="n">
-        <v>35005.20384114002</v>
+        <v>9974.454199999998</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>610</v>
+        <v>541</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
@@ -1524,22 +1524,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>615</v>
+        <v>536</v>
       </c>
       <c r="C28" t="n">
-        <v>620</v>
+        <v>536</v>
       </c>
       <c r="D28" t="n">
-        <v>620</v>
+        <v>536</v>
       </c>
       <c r="E28" t="n">
-        <v>615</v>
+        <v>536</v>
       </c>
       <c r="F28" t="n">
-        <v>6947.77660985</v>
+        <v>220.8971</v>
       </c>
       <c r="G28" t="n">
-        <v>41952.98045099002</v>
+        <v>9753.557099999998</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>615</v>
+        <v>541</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
@@ -1566,22 +1566,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>620</v>
+        <v>536</v>
       </c>
       <c r="C29" t="n">
-        <v>621</v>
+        <v>535</v>
       </c>
       <c r="D29" t="n">
-        <v>621</v>
+        <v>536</v>
       </c>
       <c r="E29" t="n">
-        <v>616</v>
+        <v>535</v>
       </c>
       <c r="F29" t="n">
-        <v>14349.88511935</v>
+        <v>497.0185</v>
       </c>
       <c r="G29" t="n">
-        <v>56302.86557034002</v>
+        <v>9256.538599999998</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>620</v>
+        <v>536</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
@@ -1608,22 +1608,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>621</v>
+        <v>536</v>
       </c>
       <c r="C30" t="n">
-        <v>649</v>
+        <v>540</v>
       </c>
       <c r="D30" t="n">
-        <v>660</v>
+        <v>540</v>
       </c>
       <c r="E30" t="n">
-        <v>621</v>
+        <v>536</v>
       </c>
       <c r="F30" t="n">
-        <v>34241.69995171</v>
+        <v>412.7639</v>
       </c>
       <c r="G30" t="n">
-        <v>90544.56552205002</v>
+        <v>9669.302499999998</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>621</v>
+        <v>535</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
@@ -1650,30 +1650,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>649</v>
+        <v>540</v>
       </c>
       <c r="C31" t="n">
-        <v>636</v>
+        <v>540</v>
       </c>
       <c r="D31" t="n">
-        <v>655</v>
+        <v>540</v>
       </c>
       <c r="E31" t="n">
-        <v>635</v>
+        <v>540</v>
       </c>
       <c r="F31" t="n">
-        <v>10717.01192449</v>
+        <v>2377.6942</v>
       </c>
       <c r="G31" t="n">
-        <v>79827.55359756002</v>
+        <v>9669.302499999998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>540</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -1690,30 +1692,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>636</v>
+        <v>540</v>
       </c>
       <c r="C32" t="n">
-        <v>639</v>
+        <v>540</v>
       </c>
       <c r="D32" t="n">
-        <v>652</v>
+        <v>540</v>
       </c>
       <c r="E32" t="n">
-        <v>635</v>
+        <v>540</v>
       </c>
       <c r="F32" t="n">
-        <v>3201.54080506</v>
+        <v>3894.9999</v>
       </c>
       <c r="G32" t="n">
-        <v>83029.09440262002</v>
+        <v>9669.302499999998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>540</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -1730,30 +1734,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>639</v>
+        <v>540</v>
       </c>
       <c r="C33" t="n">
-        <v>638</v>
+        <v>540</v>
       </c>
       <c r="D33" t="n">
-        <v>644</v>
+        <v>540</v>
       </c>
       <c r="E33" t="n">
-        <v>638</v>
+        <v>540</v>
       </c>
       <c r="F33" t="n">
-        <v>6514.3131</v>
+        <v>685.1852</v>
       </c>
       <c r="G33" t="n">
-        <v>76514.78130262002</v>
+        <v>9669.302499999998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>540</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
@@ -1770,30 +1776,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>635</v>
+        <v>540</v>
       </c>
       <c r="C34" t="n">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="D34" t="n">
-        <v>638</v>
+        <v>540</v>
       </c>
       <c r="E34" t="n">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="F34" t="n">
-        <v>18981.297</v>
+        <v>1339.5</v>
       </c>
       <c r="G34" t="n">
-        <v>57533.48430262002</v>
+        <v>9669.302499999998</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>540</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
@@ -1810,30 +1818,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>630</v>
+        <v>538</v>
       </c>
       <c r="C35" t="n">
-        <v>635</v>
+        <v>537</v>
       </c>
       <c r="D35" t="n">
-        <v>636</v>
+        <v>538</v>
       </c>
       <c r="E35" t="n">
-        <v>629</v>
+        <v>537</v>
       </c>
       <c r="F35" t="n">
-        <v>9167.1296</v>
+        <v>924.6321</v>
       </c>
       <c r="G35" t="n">
-        <v>66700.61390262001</v>
+        <v>8744.670399999997</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>540</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
@@ -1850,30 +1860,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>635</v>
+        <v>544</v>
       </c>
       <c r="C36" t="n">
-        <v>638</v>
+        <v>544</v>
       </c>
       <c r="D36" t="n">
-        <v>638</v>
+        <v>544</v>
       </c>
       <c r="E36" t="n">
-        <v>635</v>
+        <v>541</v>
       </c>
       <c r="F36" t="n">
-        <v>2691.0131</v>
+        <v>298.9204</v>
       </c>
       <c r="G36" t="n">
-        <v>69391.62700262001</v>
+        <v>9043.590799999998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>537</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -1890,30 +1902,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>644</v>
+        <v>544</v>
       </c>
       <c r="C37" t="n">
-        <v>652</v>
+        <v>544</v>
       </c>
       <c r="D37" t="n">
-        <v>655</v>
+        <v>544</v>
       </c>
       <c r="E37" t="n">
-        <v>644</v>
+        <v>544</v>
       </c>
       <c r="F37" t="n">
-        <v>1453.6457</v>
+        <v>740.0965</v>
       </c>
       <c r="G37" t="n">
-        <v>70845.27270262</v>
+        <v>9043.590799999998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>544</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -1930,30 +1944,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>652</v>
+        <v>544</v>
       </c>
       <c r="C38" t="n">
-        <v>658</v>
+        <v>545</v>
       </c>
       <c r="D38" t="n">
-        <v>660</v>
+        <v>545</v>
       </c>
       <c r="E38" t="n">
-        <v>650</v>
+        <v>544</v>
       </c>
       <c r="F38" t="n">
-        <v>8041.4994</v>
+        <v>1327.5316</v>
       </c>
       <c r="G38" t="n">
-        <v>78886.77210262</v>
+        <v>10371.1224</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>544</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -1970,30 +1986,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>657</v>
+        <v>551</v>
       </c>
       <c r="C39" t="n">
-        <v>657</v>
+        <v>554</v>
       </c>
       <c r="D39" t="n">
-        <v>657</v>
+        <v>554</v>
       </c>
       <c r="E39" t="n">
-        <v>656</v>
+        <v>551</v>
       </c>
       <c r="F39" t="n">
-        <v>5997.9026</v>
+        <v>3416.15</v>
       </c>
       <c r="G39" t="n">
-        <v>72888.86950262</v>
+        <v>13787.2724</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>545</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -2010,30 +2028,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>654</v>
+        <v>564</v>
       </c>
       <c r="C40" t="n">
-        <v>659</v>
+        <v>564</v>
       </c>
       <c r="D40" t="n">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="E40" t="n">
-        <v>654</v>
+        <v>564</v>
       </c>
       <c r="F40" t="n">
-        <v>2377.2187</v>
+        <v>1112</v>
       </c>
       <c r="G40" t="n">
-        <v>75266.08820262</v>
+        <v>14899.2724</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>554</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -2050,22 +2070,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="C41" t="n">
-        <v>667</v>
+        <v>570</v>
       </c>
       <c r="D41" t="n">
-        <v>667</v>
+        <v>570</v>
       </c>
       <c r="E41" t="n">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="F41" t="n">
-        <v>667.02480719</v>
+        <v>8746.252500000001</v>
       </c>
       <c r="G41" t="n">
-        <v>75933.11300981</v>
+        <v>23645.5249</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2090,22 +2110,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>660</v>
+        <v>570</v>
       </c>
       <c r="C42" t="n">
-        <v>671</v>
+        <v>569</v>
       </c>
       <c r="D42" t="n">
-        <v>678</v>
+        <v>570</v>
       </c>
       <c r="E42" t="n">
-        <v>660</v>
+        <v>569</v>
       </c>
       <c r="F42" t="n">
-        <v>12170.31273716</v>
+        <v>680</v>
       </c>
       <c r="G42" t="n">
-        <v>88103.42574697</v>
+        <v>22965.5249</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2130,22 +2150,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>671</v>
+        <v>569</v>
       </c>
       <c r="C43" t="n">
-        <v>681</v>
+        <v>570</v>
       </c>
       <c r="D43" t="n">
-        <v>690</v>
+        <v>570</v>
       </c>
       <c r="E43" t="n">
-        <v>671</v>
+        <v>569</v>
       </c>
       <c r="F43" t="n">
-        <v>18897.73246289</v>
+        <v>3238</v>
       </c>
       <c r="G43" t="n">
-        <v>107001.15820986</v>
+        <v>26203.5249</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2170,22 +2190,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>682</v>
+        <v>570</v>
       </c>
       <c r="C44" t="n">
-        <v>683</v>
+        <v>570</v>
       </c>
       <c r="D44" t="n">
-        <v>690</v>
+        <v>570</v>
       </c>
       <c r="E44" t="n">
-        <v>667</v>
+        <v>570</v>
       </c>
       <c r="F44" t="n">
-        <v>11410.6456</v>
+        <v>1169</v>
       </c>
       <c r="G44" t="n">
-        <v>118411.80380986</v>
+        <v>26203.5249</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2210,22 +2230,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>683</v>
+        <v>570</v>
       </c>
       <c r="C45" t="n">
-        <v>677</v>
+        <v>570</v>
       </c>
       <c r="D45" t="n">
-        <v>683</v>
+        <v>570</v>
       </c>
       <c r="E45" t="n">
-        <v>670</v>
+        <v>570</v>
       </c>
       <c r="F45" t="n">
-        <v>7297.3793</v>
+        <v>1989.87</v>
       </c>
       <c r="G45" t="n">
-        <v>111114.42450986</v>
+        <v>26203.5249</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2250,22 +2270,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>677</v>
+        <v>570</v>
       </c>
       <c r="C46" t="n">
-        <v>677</v>
+        <v>580</v>
       </c>
       <c r="D46" t="n">
-        <v>680</v>
+        <v>580</v>
       </c>
       <c r="E46" t="n">
-        <v>675</v>
+        <v>570</v>
       </c>
       <c r="F46" t="n">
-        <v>6442.812</v>
+        <v>1991.847</v>
       </c>
       <c r="G46" t="n">
-        <v>111114.42450986</v>
+        <v>28195.3719</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2290,22 +2310,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>677</v>
+        <v>578</v>
       </c>
       <c r="C47" t="n">
-        <v>677</v>
+        <v>570</v>
       </c>
       <c r="D47" t="n">
-        <v>681</v>
+        <v>578</v>
       </c>
       <c r="E47" t="n">
-        <v>675</v>
+        <v>570</v>
       </c>
       <c r="F47" t="n">
-        <v>14835.5564</v>
+        <v>498.8371</v>
       </c>
       <c r="G47" t="n">
-        <v>111114.42450986</v>
+        <v>27696.5348</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2330,22 +2350,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>680</v>
+        <v>578</v>
       </c>
       <c r="C48" t="n">
-        <v>678</v>
+        <v>592</v>
       </c>
       <c r="D48" t="n">
-        <v>681</v>
+        <v>592</v>
       </c>
       <c r="E48" t="n">
-        <v>677</v>
+        <v>578</v>
       </c>
       <c r="F48" t="n">
-        <v>12794.7056</v>
+        <v>3550.76</v>
       </c>
       <c r="G48" t="n">
-        <v>123909.13010986</v>
+        <v>31247.2948</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2370,22 +2390,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>681</v>
+        <v>596</v>
       </c>
       <c r="C49" t="n">
-        <v>675</v>
+        <v>583</v>
       </c>
       <c r="D49" t="n">
-        <v>681</v>
+        <v>600</v>
       </c>
       <c r="E49" t="n">
-        <v>670</v>
+        <v>575</v>
       </c>
       <c r="F49" t="n">
-        <v>25761.428</v>
+        <v>2500.1889</v>
       </c>
       <c r="G49" t="n">
-        <v>98147.70210985999</v>
+        <v>28747.1059</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2410,22 +2430,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>672</v>
+        <v>589</v>
       </c>
       <c r="C50" t="n">
-        <v>659</v>
+        <v>589</v>
       </c>
       <c r="D50" t="n">
-        <v>672</v>
+        <v>589</v>
       </c>
       <c r="E50" t="n">
-        <v>658</v>
+        <v>584</v>
       </c>
       <c r="F50" t="n">
-        <v>9119.1522</v>
+        <v>401</v>
       </c>
       <c r="G50" t="n">
-        <v>89028.54990986</v>
+        <v>29148.1059</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2450,22 +2470,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>666</v>
+        <v>590</v>
       </c>
       <c r="C51" t="n">
-        <v>661</v>
+        <v>591</v>
       </c>
       <c r="D51" t="n">
-        <v>669</v>
+        <v>620</v>
       </c>
       <c r="E51" t="n">
-        <v>661</v>
+        <v>585</v>
       </c>
       <c r="F51" t="n">
-        <v>5362.9907</v>
+        <v>13232.7792</v>
       </c>
       <c r="G51" t="n">
-        <v>94391.54060985999</v>
+        <v>42380.8851</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2490,22 +2510,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>669</v>
+        <v>590</v>
       </c>
       <c r="C52" t="n">
-        <v>663</v>
+        <v>606</v>
       </c>
       <c r="D52" t="n">
-        <v>669</v>
+        <v>606</v>
       </c>
       <c r="E52" t="n">
-        <v>663</v>
+        <v>590</v>
       </c>
       <c r="F52" t="n">
-        <v>1407.4575</v>
+        <v>2777.7508</v>
       </c>
       <c r="G52" t="n">
-        <v>95798.99810986</v>
+        <v>45158.6359</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2530,22 +2550,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>664</v>
+        <v>605</v>
       </c>
       <c r="C53" t="n">
-        <v>668</v>
+        <v>595</v>
       </c>
       <c r="D53" t="n">
-        <v>668</v>
+        <v>607</v>
       </c>
       <c r="E53" t="n">
-        <v>664</v>
+        <v>546</v>
       </c>
       <c r="F53" t="n">
-        <v>275.4447</v>
+        <v>4332.2762</v>
       </c>
       <c r="G53" t="n">
-        <v>96074.44280985999</v>
+        <v>40826.3597</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2570,22 +2590,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>668</v>
+        <v>598</v>
       </c>
       <c r="C54" t="n">
-        <v>665</v>
+        <v>598</v>
       </c>
       <c r="D54" t="n">
-        <v>672</v>
+        <v>598</v>
       </c>
       <c r="E54" t="n">
-        <v>663</v>
+        <v>598</v>
       </c>
       <c r="F54" t="n">
-        <v>3443.8495</v>
+        <v>128.0919</v>
       </c>
       <c r="G54" t="n">
-        <v>92630.59330985999</v>
+        <v>40954.4516</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2610,22 +2630,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>672</v>
+        <v>596</v>
       </c>
       <c r="C55" t="n">
-        <v>668</v>
+        <v>594</v>
       </c>
       <c r="D55" t="n">
-        <v>683</v>
+        <v>597</v>
       </c>
       <c r="E55" t="n">
-        <v>665</v>
+        <v>592</v>
       </c>
       <c r="F55" t="n">
-        <v>15974.2847</v>
+        <v>1199.9539</v>
       </c>
       <c r="G55" t="n">
-        <v>108604.87800986</v>
+        <v>39754.4977</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2650,22 +2670,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>668</v>
+        <v>595</v>
       </c>
       <c r="C56" t="n">
-        <v>676</v>
+        <v>596</v>
       </c>
       <c r="D56" t="n">
-        <v>676</v>
+        <v>596</v>
       </c>
       <c r="E56" t="n">
-        <v>668</v>
+        <v>593</v>
       </c>
       <c r="F56" t="n">
-        <v>5927.0498</v>
+        <v>1568.8589</v>
       </c>
       <c r="G56" t="n">
-        <v>114531.92780986</v>
+        <v>41323.3566</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2690,22 +2710,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>670</v>
+        <v>590</v>
       </c>
       <c r="C57" t="n">
-        <v>667</v>
+        <v>598</v>
       </c>
       <c r="D57" t="n">
-        <v>670</v>
+        <v>598</v>
       </c>
       <c r="E57" t="n">
-        <v>665</v>
+        <v>590</v>
       </c>
       <c r="F57" t="n">
-        <v>797.1544</v>
+        <v>280</v>
       </c>
       <c r="G57" t="n">
-        <v>113734.77340986</v>
+        <v>41603.3566</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2730,22 +2750,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>667</v>
+        <v>598</v>
       </c>
       <c r="C58" t="n">
-        <v>670</v>
+        <v>600</v>
       </c>
       <c r="D58" t="n">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="E58" t="n">
-        <v>667</v>
+        <v>596</v>
       </c>
       <c r="F58" t="n">
-        <v>302.181</v>
+        <v>2371.55191941</v>
       </c>
       <c r="G58" t="n">
-        <v>114036.95440986</v>
+        <v>43974.90851941</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2770,22 +2790,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>669</v>
+        <v>601</v>
       </c>
       <c r="C59" t="n">
-        <v>670</v>
+        <v>604</v>
       </c>
       <c r="D59" t="n">
-        <v>670</v>
+        <v>604</v>
       </c>
       <c r="E59" t="n">
-        <v>669</v>
+        <v>599</v>
       </c>
       <c r="F59" t="n">
-        <v>890.6265</v>
+        <v>923.1932</v>
       </c>
       <c r="G59" t="n">
-        <v>114036.95440986</v>
+        <v>44898.10171941</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2810,22 +2830,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>670</v>
+        <v>606</v>
       </c>
       <c r="C60" t="n">
-        <v>675</v>
+        <v>598</v>
       </c>
       <c r="D60" t="n">
-        <v>675</v>
+        <v>606</v>
       </c>
       <c r="E60" t="n">
-        <v>670</v>
+        <v>598</v>
       </c>
       <c r="F60" t="n">
-        <v>3770.8304</v>
+        <v>424.6488</v>
       </c>
       <c r="G60" t="n">
-        <v>117807.78480986</v>
+        <v>44473.45291941</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2850,22 +2870,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>674</v>
+        <v>605</v>
       </c>
       <c r="C61" t="n">
-        <v>683</v>
+        <v>608</v>
       </c>
       <c r="D61" t="n">
-        <v>683</v>
+        <v>608</v>
       </c>
       <c r="E61" t="n">
-        <v>674</v>
+        <v>603</v>
       </c>
       <c r="F61" t="n">
-        <v>9293.7865</v>
+        <v>2629.7273</v>
       </c>
       <c r="G61" t="n">
-        <v>127101.57130986</v>
+        <v>47103.18021940999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2890,22 +2910,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>683</v>
+        <v>608</v>
       </c>
       <c r="C62" t="n">
-        <v>680</v>
+        <v>609</v>
       </c>
       <c r="D62" t="n">
-        <v>683</v>
+        <v>620</v>
       </c>
       <c r="E62" t="n">
-        <v>680</v>
+        <v>605</v>
       </c>
       <c r="F62" t="n">
-        <v>5498.0967</v>
+        <v>5891.9021</v>
       </c>
       <c r="G62" t="n">
-        <v>121603.47460986</v>
+        <v>52995.08231940999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2930,22 +2950,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>680</v>
+        <v>609</v>
       </c>
       <c r="C63" t="n">
-        <v>676</v>
+        <v>615</v>
       </c>
       <c r="D63" t="n">
-        <v>684</v>
+        <v>618</v>
       </c>
       <c r="E63" t="n">
-        <v>676</v>
+        <v>609</v>
       </c>
       <c r="F63" t="n">
-        <v>8493.1342</v>
+        <v>3299.2492</v>
       </c>
       <c r="G63" t="n">
-        <v>113110.34040986</v>
+        <v>56294.33151940999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2970,22 +2990,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>678</v>
+        <v>615</v>
       </c>
       <c r="C64" t="n">
-        <v>674</v>
+        <v>615</v>
       </c>
       <c r="D64" t="n">
-        <v>684</v>
+        <v>619</v>
       </c>
       <c r="E64" t="n">
-        <v>674</v>
+        <v>615</v>
       </c>
       <c r="F64" t="n">
-        <v>4749.1085</v>
+        <v>3767.5909</v>
       </c>
       <c r="G64" t="n">
-        <v>108361.23190986</v>
+        <v>56294.33151940999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3010,22 +3030,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>683</v>
+        <v>618</v>
       </c>
       <c r="C65" t="n">
-        <v>681</v>
+        <v>620</v>
       </c>
       <c r="D65" t="n">
-        <v>683</v>
+        <v>620</v>
       </c>
       <c r="E65" t="n">
-        <v>674</v>
+        <v>618</v>
       </c>
       <c r="F65" t="n">
-        <v>8955.177</v>
+        <v>2589.5362</v>
       </c>
       <c r="G65" t="n">
-        <v>117316.40890986</v>
+        <v>58883.86771940999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3050,22 +3070,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>681</v>
+        <v>619</v>
       </c>
       <c r="C66" t="n">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="D66" t="n">
-        <v>681</v>
+        <v>619</v>
       </c>
       <c r="E66" t="n">
-        <v>670</v>
+        <v>615</v>
       </c>
       <c r="F66" t="n">
-        <v>14503.481</v>
+        <v>1830.856</v>
       </c>
       <c r="G66" t="n">
-        <v>102812.92790986</v>
+        <v>57053.01171940999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3090,22 +3110,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>670</v>
+        <v>617</v>
       </c>
       <c r="C67" t="n">
-        <v>671</v>
+        <v>617</v>
       </c>
       <c r="D67" t="n">
-        <v>671</v>
+        <v>617</v>
       </c>
       <c r="E67" t="n">
-        <v>665</v>
+        <v>617</v>
       </c>
       <c r="F67" t="n">
-        <v>1716.7951</v>
+        <v>817.7779</v>
       </c>
       <c r="G67" t="n">
-        <v>104529.72300986</v>
+        <v>56235.23381940999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3130,22 +3150,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>671</v>
+        <v>617</v>
       </c>
       <c r="C68" t="n">
-        <v>671</v>
+        <v>620</v>
       </c>
       <c r="D68" t="n">
-        <v>676</v>
+        <v>620</v>
       </c>
       <c r="E68" t="n">
-        <v>671</v>
+        <v>616</v>
       </c>
       <c r="F68" t="n">
-        <v>1534.5096</v>
+        <v>19218.7273</v>
       </c>
       <c r="G68" t="n">
-        <v>104529.72300986</v>
+        <v>75453.96111941</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3170,22 +3190,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>676</v>
+        <v>620</v>
       </c>
       <c r="C69" t="n">
-        <v>677</v>
+        <v>617</v>
       </c>
       <c r="D69" t="n">
-        <v>677</v>
+        <v>620</v>
       </c>
       <c r="E69" t="n">
-        <v>676</v>
+        <v>614</v>
       </c>
       <c r="F69" t="n">
-        <v>666.1528</v>
+        <v>4769.6437</v>
       </c>
       <c r="G69" t="n">
-        <v>105195.87580986</v>
+        <v>70684.31741941</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3210,22 +3230,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>678</v>
+        <v>615</v>
       </c>
       <c r="C70" t="n">
-        <v>683</v>
+        <v>620</v>
       </c>
       <c r="D70" t="n">
-        <v>683</v>
+        <v>620</v>
       </c>
       <c r="E70" t="n">
-        <v>678</v>
+        <v>615</v>
       </c>
       <c r="F70" t="n">
-        <v>4876.4856</v>
+        <v>3529.0292</v>
       </c>
       <c r="G70" t="n">
-        <v>110072.36140986</v>
+        <v>74213.34661941</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3250,22 +3270,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>682</v>
+        <v>616</v>
       </c>
       <c r="C71" t="n">
-        <v>687</v>
+        <v>608</v>
       </c>
       <c r="D71" t="n">
-        <v>687</v>
+        <v>616</v>
       </c>
       <c r="E71" t="n">
-        <v>682</v>
+        <v>608</v>
       </c>
       <c r="F71" t="n">
-        <v>537.3078</v>
+        <v>8347.6747</v>
       </c>
       <c r="G71" t="n">
-        <v>110609.66920986</v>
+        <v>65865.67191941</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3290,22 +3310,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>687</v>
+        <v>609</v>
       </c>
       <c r="C72" t="n">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="D72" t="n">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="E72" t="n">
-        <v>687</v>
+        <v>608</v>
       </c>
       <c r="F72" t="n">
-        <v>31525.81</v>
+        <v>3410.8944</v>
       </c>
       <c r="G72" t="n">
-        <v>142135.47920986</v>
+        <v>69276.56631941001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3330,22 +3350,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>694</v>
+        <v>611</v>
       </c>
       <c r="C73" t="n">
-        <v>693</v>
+        <v>607</v>
       </c>
       <c r="D73" t="n">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="E73" t="n">
-        <v>687</v>
+        <v>607</v>
       </c>
       <c r="F73" t="n">
-        <v>15054.0432</v>
+        <v>8410.894399999999</v>
       </c>
       <c r="G73" t="n">
-        <v>127081.43600986</v>
+        <v>60865.67191941001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3370,22 +3390,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>693</v>
+        <v>605</v>
       </c>
       <c r="C74" t="n">
-        <v>695</v>
+        <v>604</v>
       </c>
       <c r="D74" t="n">
-        <v>695</v>
+        <v>605</v>
       </c>
       <c r="E74" t="n">
-        <v>687</v>
+        <v>598</v>
       </c>
       <c r="F74" t="n">
-        <v>5781.2672</v>
+        <v>2315.5242</v>
       </c>
       <c r="G74" t="n">
-        <v>132862.70320986</v>
+        <v>58550.14771941001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3410,22 +3430,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>695</v>
+        <v>600</v>
       </c>
       <c r="C75" t="n">
-        <v>694</v>
+        <v>605</v>
       </c>
       <c r="D75" t="n">
-        <v>695</v>
+        <v>605</v>
       </c>
       <c r="E75" t="n">
-        <v>690</v>
+        <v>600</v>
       </c>
       <c r="F75" t="n">
-        <v>5605.9826</v>
+        <v>2011.7475</v>
       </c>
       <c r="G75" t="n">
-        <v>127256.72060986</v>
+        <v>60561.89521941001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3450,22 +3470,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>694</v>
+        <v>603</v>
       </c>
       <c r="C76" t="n">
-        <v>699</v>
+        <v>605</v>
       </c>
       <c r="D76" t="n">
-        <v>699</v>
+        <v>605</v>
       </c>
       <c r="E76" t="n">
-        <v>688</v>
+        <v>599</v>
       </c>
       <c r="F76" t="n">
-        <v>21771.9975</v>
+        <v>1514.1332</v>
       </c>
       <c r="G76" t="n">
-        <v>149028.71810986</v>
+        <v>60561.89521941001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3490,22 +3510,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>698</v>
+        <v>605</v>
       </c>
       <c r="C77" t="n">
-        <v>710</v>
+        <v>604</v>
       </c>
       <c r="D77" t="n">
-        <v>710</v>
+        <v>605</v>
       </c>
       <c r="E77" t="n">
-        <v>696</v>
+        <v>600</v>
       </c>
       <c r="F77" t="n">
-        <v>15561.8528</v>
+        <v>8460.659600000001</v>
       </c>
       <c r="G77" t="n">
-        <v>164590.57090986</v>
+        <v>52101.23561941001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3530,37 +3550,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>711</v>
+        <v>604</v>
       </c>
       <c r="C78" t="n">
-        <v>713</v>
+        <v>606</v>
       </c>
       <c r="D78" t="n">
-        <v>714</v>
+        <v>606</v>
       </c>
       <c r="E78" t="n">
-        <v>710</v>
+        <v>604</v>
       </c>
       <c r="F78" t="n">
-        <v>12185.3638</v>
+        <v>2719.2413</v>
       </c>
       <c r="G78" t="n">
-        <v>176775.93470986</v>
+        <v>54820.47691941001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
       <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -3568,32 +3590,36 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>712</v>
+        <v>606</v>
       </c>
       <c r="C79" t="n">
-        <v>695</v>
+        <v>608</v>
       </c>
       <c r="D79" t="n">
-        <v>712</v>
+        <v>608</v>
       </c>
       <c r="E79" t="n">
-        <v>695</v>
+        <v>606</v>
       </c>
       <c r="F79" t="n">
-        <v>25730.1148</v>
+        <v>933.3222</v>
       </c>
       <c r="G79" t="n">
-        <v>151045.81990986</v>
+        <v>55753.79911941001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3604,32 +3630,36 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>695</v>
+        <v>609</v>
       </c>
       <c r="C80" t="n">
-        <v>694</v>
+        <v>609</v>
       </c>
       <c r="D80" t="n">
-        <v>695</v>
+        <v>609</v>
       </c>
       <c r="E80" t="n">
-        <v>688</v>
+        <v>609</v>
       </c>
       <c r="F80" t="n">
-        <v>4768.2054</v>
+        <v>924.7673</v>
       </c>
       <c r="G80" t="n">
-        <v>146277.61450986</v>
+        <v>56678.56641941001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3640,32 +3670,36 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>700</v>
+        <v>614</v>
       </c>
       <c r="C81" t="n">
-        <v>697</v>
+        <v>614</v>
       </c>
       <c r="D81" t="n">
-        <v>700</v>
+        <v>614</v>
       </c>
       <c r="E81" t="n">
-        <v>689</v>
+        <v>614</v>
       </c>
       <c r="F81" t="n">
-        <v>3545.2368</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>149822.85130986</v>
+        <v>56679.56641941001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3676,32 +3710,36 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>692</v>
+        <v>608</v>
       </c>
       <c r="C82" t="n">
-        <v>695</v>
+        <v>608</v>
       </c>
       <c r="D82" t="n">
-        <v>699</v>
+        <v>608</v>
       </c>
       <c r="E82" t="n">
-        <v>692</v>
+        <v>608</v>
       </c>
       <c r="F82" t="n">
-        <v>3383.1612</v>
+        <v>14.4194</v>
       </c>
       <c r="G82" t="n">
-        <v>146439.69010986</v>
+        <v>56665.14701941001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3712,32 +3750,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>695</v>
+        <v>605</v>
       </c>
       <c r="C83" t="n">
-        <v>688</v>
+        <v>605</v>
       </c>
       <c r="D83" t="n">
-        <v>697</v>
+        <v>605</v>
       </c>
       <c r="E83" t="n">
-        <v>688</v>
+        <v>605</v>
       </c>
       <c r="F83" t="n">
-        <v>9389.3989</v>
+        <v>42.8622</v>
       </c>
       <c r="G83" t="n">
-        <v>137050.29120986</v>
+        <v>56622.28481941001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3748,32 +3790,36 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>687</v>
+        <v>608</v>
       </c>
       <c r="C84" t="n">
-        <v>688</v>
+        <v>608</v>
       </c>
       <c r="D84" t="n">
-        <v>690</v>
+        <v>608</v>
       </c>
       <c r="E84" t="n">
-        <v>677</v>
+        <v>608</v>
       </c>
       <c r="F84" t="n">
-        <v>9464.536400000001</v>
+        <v>49.9901</v>
       </c>
       <c r="G84" t="n">
-        <v>137050.29120986</v>
+        <v>56672.27491941001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3784,32 +3830,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>688</v>
+        <v>601</v>
       </c>
       <c r="C85" t="n">
-        <v>680</v>
+        <v>603</v>
       </c>
       <c r="D85" t="n">
-        <v>690</v>
+        <v>603</v>
       </c>
       <c r="E85" t="n">
-        <v>679</v>
+        <v>597</v>
       </c>
       <c r="F85" t="n">
-        <v>14784.6805</v>
+        <v>10717.9999</v>
       </c>
       <c r="G85" t="n">
-        <v>122265.61070986</v>
+        <v>45954.27501941001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3820,32 +3870,36 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>680</v>
+        <v>598</v>
       </c>
       <c r="C86" t="n">
-        <v>677</v>
+        <v>590</v>
       </c>
       <c r="D86" t="n">
-        <v>680</v>
+        <v>598</v>
       </c>
       <c r="E86" t="n">
-        <v>666</v>
+        <v>590</v>
       </c>
       <c r="F86" t="n">
-        <v>27318.7007</v>
+        <v>9632.340899999999</v>
       </c>
       <c r="G86" t="n">
-        <v>94946.91000985997</v>
+        <v>36321.93411941001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3856,32 +3910,36 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>677</v>
+        <v>590</v>
       </c>
       <c r="C87" t="n">
-        <v>675</v>
+        <v>600</v>
       </c>
       <c r="D87" t="n">
-        <v>677</v>
+        <v>600</v>
       </c>
       <c r="E87" t="n">
-        <v>671</v>
+        <v>590</v>
       </c>
       <c r="F87" t="n">
-        <v>11861.5065</v>
+        <v>514.3833</v>
       </c>
       <c r="G87" t="n">
-        <v>83085.40350985997</v>
+        <v>36836.31741941001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3892,32 +3950,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>675</v>
+        <v>598</v>
       </c>
       <c r="C88" t="n">
-        <v>675</v>
+        <v>600</v>
       </c>
       <c r="D88" t="n">
-        <v>678</v>
+        <v>600</v>
       </c>
       <c r="E88" t="n">
-        <v>672</v>
+        <v>598</v>
       </c>
       <c r="F88" t="n">
-        <v>10387.1726</v>
+        <v>113.1244</v>
       </c>
       <c r="G88" t="n">
-        <v>83085.40350985997</v>
+        <v>36836.31741941001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3928,32 +3990,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>675</v>
+        <v>599</v>
       </c>
       <c r="C89" t="n">
-        <v>672</v>
+        <v>602</v>
       </c>
       <c r="D89" t="n">
-        <v>682</v>
+        <v>602</v>
       </c>
       <c r="E89" t="n">
-        <v>672</v>
+        <v>599</v>
       </c>
       <c r="F89" t="n">
-        <v>8587.9998</v>
+        <v>752.951</v>
       </c>
       <c r="G89" t="n">
-        <v>74497.40370985997</v>
+        <v>37589.26841941001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3964,32 +4030,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>679</v>
+        <v>599</v>
       </c>
       <c r="C90" t="n">
-        <v>672</v>
+        <v>599</v>
       </c>
       <c r="D90" t="n">
-        <v>679</v>
+        <v>599</v>
       </c>
       <c r="E90" t="n">
-        <v>672</v>
+        <v>599</v>
       </c>
       <c r="F90" t="n">
-        <v>1704.6427</v>
+        <v>4095.8509</v>
       </c>
       <c r="G90" t="n">
-        <v>74497.40370985997</v>
+        <v>33493.41751941002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4000,32 +4070,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>671</v>
+        <v>598</v>
       </c>
       <c r="C91" t="n">
-        <v>678</v>
+        <v>598</v>
       </c>
       <c r="D91" t="n">
-        <v>679</v>
+        <v>598</v>
       </c>
       <c r="E91" t="n">
-        <v>670</v>
+        <v>598</v>
       </c>
       <c r="F91" t="n">
-        <v>3814.2823</v>
+        <v>787.3244</v>
       </c>
       <c r="G91" t="n">
-        <v>78311.68600985997</v>
+        <v>32706.09311941002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4036,22 +4110,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>671</v>
+        <v>592</v>
       </c>
       <c r="C92" t="n">
-        <v>670</v>
+        <v>599</v>
       </c>
       <c r="D92" t="n">
-        <v>678</v>
+        <v>599</v>
       </c>
       <c r="E92" t="n">
-        <v>666</v>
+        <v>592</v>
       </c>
       <c r="F92" t="n">
-        <v>3222.9148</v>
+        <v>131.8971</v>
       </c>
       <c r="G92" t="n">
-        <v>75088.77120985997</v>
+        <v>32837.99021941001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4061,7 +4135,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4072,22 +4150,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>670</v>
+        <v>598</v>
       </c>
       <c r="C93" t="n">
-        <v>679</v>
+        <v>603</v>
       </c>
       <c r="D93" t="n">
-        <v>679</v>
+        <v>603</v>
       </c>
       <c r="E93" t="n">
-        <v>670</v>
+        <v>598</v>
       </c>
       <c r="F93" t="n">
-        <v>4354.7456</v>
+        <v>224.2523</v>
       </c>
       <c r="G93" t="n">
-        <v>79443.51680985997</v>
+        <v>33062.24251941001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4097,7 +4175,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4190,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>679</v>
+        <v>603</v>
       </c>
       <c r="C94" t="n">
-        <v>680</v>
+        <v>608</v>
       </c>
       <c r="D94" t="n">
-        <v>680</v>
+        <v>608</v>
       </c>
       <c r="E94" t="n">
-        <v>673</v>
+        <v>603</v>
       </c>
       <c r="F94" t="n">
-        <v>4426.7683</v>
+        <v>167.4844</v>
       </c>
       <c r="G94" t="n">
-        <v>83870.28510985996</v>
+        <v>33229.72691941002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4133,7 +4215,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4144,22 +4230,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>674</v>
+        <v>607</v>
       </c>
       <c r="C95" t="n">
-        <v>674</v>
+        <v>607</v>
       </c>
       <c r="D95" t="n">
-        <v>679</v>
+        <v>607</v>
       </c>
       <c r="E95" t="n">
-        <v>674</v>
+        <v>607</v>
       </c>
       <c r="F95" t="n">
-        <v>1013.4897</v>
+        <v>717.3344</v>
       </c>
       <c r="G95" t="n">
-        <v>82856.79540985996</v>
+        <v>32512.39251941002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4169,7 +4255,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4180,22 +4270,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>675</v>
+        <v>607</v>
       </c>
       <c r="C96" t="n">
-        <v>675</v>
+        <v>607</v>
       </c>
       <c r="D96" t="n">
-        <v>675</v>
+        <v>607</v>
       </c>
       <c r="E96" t="n">
-        <v>675</v>
+        <v>607</v>
       </c>
       <c r="F96" t="n">
-        <v>1723.7077</v>
+        <v>215.1809</v>
       </c>
       <c r="G96" t="n">
-        <v>84580.50310985996</v>
+        <v>32512.39251941002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4205,7 +4295,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4216,22 +4310,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>675</v>
+        <v>608</v>
       </c>
       <c r="C97" t="n">
-        <v>670</v>
+        <v>610</v>
       </c>
       <c r="D97" t="n">
-        <v>676</v>
+        <v>610</v>
       </c>
       <c r="E97" t="n">
-        <v>670</v>
+        <v>608</v>
       </c>
       <c r="F97" t="n">
-        <v>2062.2674</v>
+        <v>734.0300999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>82518.23570985996</v>
+        <v>33246.42261941002</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4241,7 +4335,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4252,22 +4350,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>671</v>
+        <v>610</v>
       </c>
       <c r="C98" t="n">
-        <v>671</v>
+        <v>615</v>
       </c>
       <c r="D98" t="n">
-        <v>671</v>
+        <v>615</v>
       </c>
       <c r="E98" t="n">
-        <v>671</v>
+        <v>602</v>
       </c>
       <c r="F98" t="n">
-        <v>17.7725</v>
+        <v>1758.78122173</v>
       </c>
       <c r="G98" t="n">
-        <v>82536.00820985997</v>
+        <v>35005.20384114002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4277,7 +4375,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4288,22 +4390,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>670</v>
+        <v>615</v>
       </c>
       <c r="C99" t="n">
-        <v>680</v>
+        <v>620</v>
       </c>
       <c r="D99" t="n">
-        <v>680</v>
+        <v>620</v>
       </c>
       <c r="E99" t="n">
-        <v>670</v>
+        <v>615</v>
       </c>
       <c r="F99" t="n">
-        <v>1052.3946</v>
+        <v>6947.77660985</v>
       </c>
       <c r="G99" t="n">
-        <v>83588.40280985997</v>
+        <v>41952.98045099002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4313,7 +4415,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4324,22 +4430,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>672</v>
+        <v>620</v>
       </c>
       <c r="C100" t="n">
-        <v>674</v>
+        <v>621</v>
       </c>
       <c r="D100" t="n">
-        <v>682</v>
+        <v>621</v>
       </c>
       <c r="E100" t="n">
-        <v>672</v>
+        <v>616</v>
       </c>
       <c r="F100" t="n">
-        <v>2197.8022</v>
+        <v>14349.88511935</v>
       </c>
       <c r="G100" t="n">
-        <v>81390.60060985996</v>
+        <v>56302.86557034002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4349,7 +4455,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4360,22 +4470,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>674</v>
+        <v>621</v>
       </c>
       <c r="C101" t="n">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="D101" t="n">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="E101" t="n">
-        <v>673</v>
+        <v>621</v>
       </c>
       <c r="F101" t="n">
-        <v>2626.7703</v>
+        <v>34241.69995171</v>
       </c>
       <c r="G101" t="n">
-        <v>78763.83030985996</v>
+        <v>90544.56552205002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4385,7 +4495,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4396,32 +4510,36 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>679</v>
+        <v>649</v>
       </c>
       <c r="C102" t="n">
-        <v>674</v>
+        <v>636</v>
       </c>
       <c r="D102" t="n">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="E102" t="n">
-        <v>674</v>
+        <v>635</v>
       </c>
       <c r="F102" t="n">
-        <v>179.2</v>
+        <v>10717.01192449</v>
       </c>
       <c r="G102" t="n">
-        <v>78943.03030985995</v>
+        <v>79827.55359756002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4432,32 +4550,36 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>675</v>
+        <v>636</v>
       </c>
       <c r="C103" t="n">
-        <v>674</v>
+        <v>639</v>
       </c>
       <c r="D103" t="n">
-        <v>675</v>
+        <v>652</v>
       </c>
       <c r="E103" t="n">
-        <v>674</v>
+        <v>635</v>
       </c>
       <c r="F103" t="n">
-        <v>40</v>
+        <v>3201.54080506</v>
       </c>
       <c r="G103" t="n">
-        <v>78943.03030985995</v>
+        <v>83029.09440262002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4468,32 +4590,36 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>675</v>
+        <v>639</v>
       </c>
       <c r="C104" t="n">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="D104" t="n">
-        <v>675</v>
+        <v>644</v>
       </c>
       <c r="E104" t="n">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="F104" t="n">
-        <v>8285.7952</v>
+        <v>6514.3131</v>
       </c>
       <c r="G104" t="n">
-        <v>70657.23510985996</v>
+        <v>76514.78130262002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4504,32 +4630,36 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>672</v>
+        <v>635</v>
       </c>
       <c r="C105" t="n">
-        <v>676</v>
+        <v>630</v>
       </c>
       <c r="D105" t="n">
-        <v>676</v>
+        <v>638</v>
       </c>
       <c r="E105" t="n">
-        <v>665</v>
+        <v>630</v>
       </c>
       <c r="F105" t="n">
-        <v>6322.9836</v>
+        <v>18981.297</v>
       </c>
       <c r="G105" t="n">
-        <v>76980.21870985997</v>
+        <v>57533.48430262002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4540,32 +4670,36 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>676</v>
+        <v>630</v>
       </c>
       <c r="C106" t="n">
-        <v>677</v>
+        <v>635</v>
       </c>
       <c r="D106" t="n">
-        <v>677</v>
+        <v>636</v>
       </c>
       <c r="E106" t="n">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="F106" t="n">
-        <v>873.3677</v>
+        <v>9167.1296</v>
       </c>
       <c r="G106" t="n">
-        <v>77853.58640985997</v>
+        <v>66700.61390262001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4576,22 +4710,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>677</v>
+        <v>635</v>
       </c>
       <c r="C107" t="n">
-        <v>677</v>
+        <v>638</v>
       </c>
       <c r="D107" t="n">
-        <v>677</v>
+        <v>638</v>
       </c>
       <c r="E107" t="n">
-        <v>676</v>
+        <v>635</v>
       </c>
       <c r="F107" t="n">
-        <v>657.2085</v>
+        <v>2691.0131</v>
       </c>
       <c r="G107" t="n">
-        <v>77853.58640985997</v>
+        <v>69391.62700262001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4601,7 +4735,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4612,22 +4750,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>678</v>
+        <v>644</v>
       </c>
       <c r="C108" t="n">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="D108" t="n">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="E108" t="n">
-        <v>671</v>
+        <v>644</v>
       </c>
       <c r="F108" t="n">
-        <v>913.8671806999999</v>
+        <v>1453.6457</v>
       </c>
       <c r="G108" t="n">
-        <v>77853.58640985997</v>
+        <v>70845.27270262</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4637,7 +4775,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4648,22 +4790,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="C109" t="n">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="D109" t="n">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="E109" t="n">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="F109" t="n">
-        <v>136.1611</v>
+        <v>8041.4994</v>
       </c>
       <c r="G109" t="n">
-        <v>77717.42530985997</v>
+        <v>78886.77210262</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4673,7 +4815,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4684,22 +4830,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="C110" t="n">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="D110" t="n">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="E110" t="n">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="F110" t="n">
-        <v>8725.1253</v>
+        <v>5997.9026</v>
       </c>
       <c r="G110" t="n">
-        <v>68992.30000985997</v>
+        <v>72888.86950262</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4709,7 +4855,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4720,22 +4870,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="C111" t="n">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D111" t="n">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="E111" t="n">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="F111" t="n">
-        <v>250.9999</v>
+        <v>2377.2187</v>
       </c>
       <c r="G111" t="n">
-        <v>69243.29990985997</v>
+        <v>75266.08820262</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4745,7 +4895,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4756,22 +4910,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="C112" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D112" t="n">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="E112" t="n">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F112" t="n">
-        <v>2962.965</v>
+        <v>667.02480719</v>
       </c>
       <c r="G112" t="n">
-        <v>69243.29990985997</v>
+        <v>75933.11300981</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4781,7 +4935,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4792,22 +4950,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C113" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D113" t="n">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="E113" t="n">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F113" t="n">
-        <v>1280.9691</v>
+        <v>12170.31273716</v>
       </c>
       <c r="G113" t="n">
-        <v>70524.26900985997</v>
+        <v>88103.42574697</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4817,7 +4975,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4828,22 +4990,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C114" t="n">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="D114" t="n">
-        <v>667</v>
+        <v>690</v>
       </c>
       <c r="E114" t="n">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="F114" t="n">
-        <v>45.7826</v>
+        <v>18897.73246289</v>
       </c>
       <c r="G114" t="n">
-        <v>70478.48640985996</v>
+        <v>107001.15820986</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4853,7 +5015,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4864,22 +5030,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>662</v>
+        <v>682</v>
       </c>
       <c r="C115" t="n">
-        <v>660</v>
+        <v>683</v>
       </c>
       <c r="D115" t="n">
-        <v>668</v>
+        <v>690</v>
       </c>
       <c r="E115" t="n">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="F115" t="n">
-        <v>1314.0454</v>
+        <v>11410.6456</v>
       </c>
       <c r="G115" t="n">
-        <v>69164.44100985996</v>
+        <v>118411.80380986</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4889,7 +5055,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4900,22 +5070,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="C116" t="n">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="D116" t="n">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="E116" t="n">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="F116" t="n">
-        <v>2256.6206</v>
+        <v>7297.3793</v>
       </c>
       <c r="G116" t="n">
-        <v>71421.06160985996</v>
+        <v>111114.42450986</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4925,7 +5095,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4936,22 +5110,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="C117" t="n">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="D117" t="n">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="E117" t="n">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="F117" t="n">
-        <v>1940.1836</v>
+        <v>6442.812</v>
       </c>
       <c r="G117" t="n">
-        <v>69480.87800985995</v>
+        <v>111114.42450986</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4961,7 +5135,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4972,22 +5150,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="C118" t="n">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="D118" t="n">
-        <v>660</v>
+        <v>681</v>
       </c>
       <c r="E118" t="n">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="F118" t="n">
-        <v>918.9118</v>
+        <v>14835.5564</v>
       </c>
       <c r="G118" t="n">
-        <v>68561.96620985995</v>
+        <v>111114.42450986</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4997,7 +5175,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5008,22 +5190,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>659</v>
+        <v>680</v>
       </c>
       <c r="C119" t="n">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="D119" t="n">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="E119" t="n">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="F119" t="n">
-        <v>4512.6752</v>
+        <v>12794.7056</v>
       </c>
       <c r="G119" t="n">
-        <v>73074.64140985995</v>
+        <v>123909.13010986</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5033,7 +5215,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5044,22 +5230,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>658</v>
+        <v>681</v>
       </c>
       <c r="C120" t="n">
-        <v>654</v>
+        <v>675</v>
       </c>
       <c r="D120" t="n">
-        <v>658</v>
+        <v>681</v>
       </c>
       <c r="E120" t="n">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="F120" t="n">
-        <v>7581.6192</v>
+        <v>25761.428</v>
       </c>
       <c r="G120" t="n">
-        <v>65493.02220985995</v>
+        <v>98147.70210985999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5069,7 +5255,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5080,35 +5270,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="C121" t="n">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D121" t="n">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="E121" t="n">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="F121" t="n">
-        <v>6000.2059</v>
+        <v>9119.1522</v>
       </c>
       <c r="G121" t="n">
-        <v>71493.22810985995</v>
+        <v>89028.54990986</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
@@ -5116,22 +5308,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="C122" t="n">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D122" t="n">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="E122" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F122" t="n">
-        <v>3952.7536057</v>
+        <v>5362.9907</v>
       </c>
       <c r="G122" t="n">
-        <v>75445.98171555994</v>
+        <v>94391.54060985999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5152,22 +5344,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C123" t="n">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D123" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E123" t="n">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F123" t="n">
-        <v>124.8774</v>
+        <v>1407.4575</v>
       </c>
       <c r="G123" t="n">
-        <v>75570.85911555994</v>
+        <v>95798.99810986</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5188,22 +5380,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C124" t="n">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="D124" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E124" t="n">
         <v>664</v>
       </c>
       <c r="F124" t="n">
-        <v>745.4329</v>
+        <v>275.4447</v>
       </c>
       <c r="G124" t="n">
-        <v>74825.42621555994</v>
+        <v>96074.44280985999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5224,22 +5416,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>668</v>
+      </c>
+      <c r="C125" t="n">
+        <v>665</v>
+      </c>
+      <c r="D125" t="n">
+        <v>672</v>
+      </c>
+      <c r="E125" t="n">
         <v>663</v>
       </c>
-      <c r="C125" t="n">
-        <v>657</v>
-      </c>
-      <c r="D125" t="n">
-        <v>663</v>
-      </c>
-      <c r="E125" t="n">
-        <v>657</v>
-      </c>
       <c r="F125" t="n">
-        <v>1457.8647</v>
+        <v>3443.8495</v>
       </c>
       <c r="G125" t="n">
-        <v>73367.56151555994</v>
+        <v>92630.59330985999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5260,22 +5452,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="C126" t="n">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="D126" t="n">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="E126" t="n">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="F126" t="n">
-        <v>576.928</v>
+        <v>15974.2847</v>
       </c>
       <c r="G126" t="n">
-        <v>73944.48951555994</v>
+        <v>108604.87800986</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5296,22 +5488,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="C127" t="n">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="D127" t="n">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="E127" t="n">
-        <v>632</v>
+        <v>668</v>
       </c>
       <c r="F127" t="n">
-        <v>37541.3025</v>
+        <v>5927.0498</v>
       </c>
       <c r="G127" t="n">
-        <v>111485.7920155599</v>
+        <v>114531.92780986</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5332,22 +5524,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="C128" t="n">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="D128" t="n">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="E128" t="n">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="F128" t="n">
-        <v>2047.7256</v>
+        <v>797.1544</v>
       </c>
       <c r="G128" t="n">
-        <v>109438.0664155599</v>
+        <v>113734.77340986</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5368,22 +5560,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="C129" t="n">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="D129" t="n">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="E129" t="n">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="F129" t="n">
-        <v>228.8125</v>
+        <v>302.181</v>
       </c>
       <c r="G129" t="n">
-        <v>109438.0664155599</v>
+        <v>114036.95440986</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5404,22 +5596,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="C130" t="n">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="D130" t="n">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="E130" t="n">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="F130" t="n">
-        <v>7752.7193</v>
+        <v>890.6265</v>
       </c>
       <c r="G130" t="n">
-        <v>117190.7857155599</v>
+        <v>114036.95440986</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5440,22 +5632,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="C131" t="n">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="D131" t="n">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="E131" t="n">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="F131" t="n">
-        <v>6.5454</v>
+        <v>3770.8304</v>
       </c>
       <c r="G131" t="n">
-        <v>117184.2403155599</v>
+        <v>117807.78480986</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5476,22 +5668,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="C132" t="n">
-        <v>660</v>
+        <v>683</v>
       </c>
       <c r="D132" t="n">
-        <v>660</v>
+        <v>683</v>
       </c>
       <c r="E132" t="n">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="F132" t="n">
-        <v>5</v>
+        <v>9293.7865</v>
       </c>
       <c r="G132" t="n">
-        <v>117184.2403155599</v>
+        <v>127101.57130986</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5512,28 +5704,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>656</v>
+        <v>683</v>
       </c>
       <c r="C133" t="n">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="D133" t="n">
-        <v>660</v>
+        <v>683</v>
       </c>
       <c r="E133" t="n">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="F133" t="n">
-        <v>2.0196</v>
+        <v>5498.0967</v>
       </c>
       <c r="G133" t="n">
-        <v>117184.2403155599</v>
+        <v>121603.47460986</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5548,28 +5740,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C134" t="n">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="D134" t="n">
-        <v>661</v>
+        <v>684</v>
       </c>
       <c r="E134" t="n">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="F134" t="n">
-        <v>515.2533</v>
+        <v>8493.1342</v>
       </c>
       <c r="G134" t="n">
-        <v>117699.4936155599</v>
+        <v>113110.34040986</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5584,28 +5776,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="C135" t="n">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="D135" t="n">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="E135" t="n">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="F135" t="n">
-        <v>2421.5544</v>
+        <v>4749.1085</v>
       </c>
       <c r="G135" t="n">
-        <v>120121.0480155599</v>
+        <v>108361.23190986</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5620,28 +5812,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="C136" t="n">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="D136" t="n">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="E136" t="n">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="F136" t="n">
-        <v>263.8759</v>
+        <v>8955.177</v>
       </c>
       <c r="G136" t="n">
-        <v>120384.9239155599</v>
+        <v>117316.40890986</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5656,28 +5848,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>681</v>
+      </c>
+      <c r="C137" t="n">
         <v>670</v>
       </c>
-      <c r="C137" t="n">
-        <v>675</v>
-      </c>
       <c r="D137" t="n">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="E137" t="n">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F137" t="n">
-        <v>6525.7627</v>
+        <v>14503.481</v>
       </c>
       <c r="G137" t="n">
-        <v>126910.6866155599</v>
+        <v>102812.92790986</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5692,28 +5884,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C138" t="n">
         <v>671</v>
       </c>
       <c r="D138" t="n">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="E138" t="n">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F138" t="n">
-        <v>1852.7881</v>
+        <v>1716.7951</v>
       </c>
       <c r="G138" t="n">
-        <v>125057.8985155599</v>
+        <v>104529.72300986</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5734,22 +5926,22 @@
         <v>671</v>
       </c>
       <c r="D139" t="n">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="E139" t="n">
         <v>671</v>
       </c>
       <c r="F139" t="n">
-        <v>703.0441</v>
+        <v>1534.5096</v>
       </c>
       <c r="G139" t="n">
-        <v>125057.8985155599</v>
+        <v>104529.72300986</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5764,22 +5956,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="C140" t="n">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="D140" t="n">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="E140" t="n">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="F140" t="n">
-        <v>2693.2468</v>
+        <v>666.1528</v>
       </c>
       <c r="G140" t="n">
-        <v>127751.1453155599</v>
+        <v>105195.87580986</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5800,22 +5992,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="C141" t="n">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="D141" t="n">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="E141" t="n">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="F141" t="n">
-        <v>4316.10641811</v>
+        <v>4876.4856</v>
       </c>
       <c r="G141" t="n">
-        <v>123435.0388974499</v>
+        <v>110072.36140986</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5836,22 +6028,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="C142" t="n">
-        <v>667</v>
+        <v>687</v>
       </c>
       <c r="D142" t="n">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="E142" t="n">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="F142" t="n">
-        <v>943.9476</v>
+        <v>537.3078</v>
       </c>
       <c r="G142" t="n">
-        <v>122491.0912974499</v>
+        <v>110609.66920986</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5872,22 +6064,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>666</v>
+        <v>687</v>
       </c>
       <c r="C143" t="n">
-        <v>666</v>
+        <v>700</v>
       </c>
       <c r="D143" t="n">
-        <v>666</v>
+        <v>700</v>
       </c>
       <c r="E143" t="n">
-        <v>666</v>
+        <v>687</v>
       </c>
       <c r="F143" t="n">
-        <v>590</v>
+        <v>31525.81</v>
       </c>
       <c r="G143" t="n">
-        <v>121901.0912974499</v>
+        <v>142135.47920986</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5908,28 +6100,28 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="C144" t="n">
-        <v>667</v>
+        <v>693</v>
       </c>
       <c r="D144" t="n">
-        <v>673</v>
+        <v>700</v>
       </c>
       <c r="E144" t="n">
-        <v>667</v>
+        <v>687</v>
       </c>
       <c r="F144" t="n">
-        <v>536.1301</v>
+        <v>15054.0432</v>
       </c>
       <c r="G144" t="n">
-        <v>122437.2213974499</v>
+        <v>127081.43600986</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -5944,28 +6136,28 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>668</v>
+        <v>693</v>
       </c>
       <c r="C145" t="n">
-        <v>666</v>
+        <v>695</v>
       </c>
       <c r="D145" t="n">
-        <v>670</v>
+        <v>695</v>
       </c>
       <c r="E145" t="n">
-        <v>666</v>
+        <v>687</v>
       </c>
       <c r="F145" t="n">
-        <v>670.3424</v>
+        <v>5781.2672</v>
       </c>
       <c r="G145" t="n">
-        <v>121766.8789974499</v>
+        <v>132862.70320986</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -5980,28 +6172,28 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>669</v>
+        <v>695</v>
       </c>
       <c r="C146" t="n">
-        <v>671</v>
+        <v>694</v>
       </c>
       <c r="D146" t="n">
-        <v>671</v>
+        <v>695</v>
       </c>
       <c r="E146" t="n">
-        <v>669</v>
+        <v>690</v>
       </c>
       <c r="F146" t="n">
-        <v>155.6592</v>
+        <v>5605.9826</v>
       </c>
       <c r="G146" t="n">
-        <v>121922.5381974499</v>
+        <v>127256.72060986</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -6016,28 +6208,28 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>671</v>
+        <v>694</v>
       </c>
       <c r="C147" t="n">
-        <v>669</v>
+        <v>699</v>
       </c>
       <c r="D147" t="n">
-        <v>671</v>
+        <v>699</v>
       </c>
       <c r="E147" t="n">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="F147" t="n">
-        <v>2175.9799</v>
+        <v>21771.9975</v>
       </c>
       <c r="G147" t="n">
-        <v>119746.5582974499</v>
+        <v>149028.71810986</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -6052,28 +6244,28 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="C148" t="n">
-        <v>660</v>
+        <v>710</v>
       </c>
       <c r="D148" t="n">
-        <v>666</v>
+        <v>710</v>
       </c>
       <c r="E148" t="n">
-        <v>660</v>
+        <v>696</v>
       </c>
       <c r="F148" t="n">
-        <v>3384.363</v>
+        <v>15561.8528</v>
       </c>
       <c r="G148" t="n">
-        <v>116362.1952974499</v>
+        <v>164590.57090986</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -6088,28 +6280,28 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>664</v>
+        <v>711</v>
       </c>
       <c r="C149" t="n">
-        <v>665</v>
+        <v>713</v>
       </c>
       <c r="D149" t="n">
-        <v>665</v>
+        <v>714</v>
       </c>
       <c r="E149" t="n">
-        <v>657</v>
+        <v>710</v>
       </c>
       <c r="F149" t="n">
-        <v>1030.2133</v>
+        <v>12185.3638</v>
       </c>
       <c r="G149" t="n">
-        <v>117392.4085974499</v>
+        <v>176775.93470986</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -6124,28 +6316,28 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>665</v>
+        <v>712</v>
       </c>
       <c r="C150" t="n">
-        <v>660</v>
+        <v>695</v>
       </c>
       <c r="D150" t="n">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="E150" t="n">
-        <v>660</v>
+        <v>695</v>
       </c>
       <c r="F150" t="n">
-        <v>2414.2981</v>
+        <v>25730.1148</v>
       </c>
       <c r="G150" t="n">
-        <v>114978.1104974499</v>
+        <v>151045.81990986</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -6160,28 +6352,28 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>657</v>
+        <v>695</v>
       </c>
       <c r="C151" t="n">
-        <v>659</v>
+        <v>694</v>
       </c>
       <c r="D151" t="n">
-        <v>660</v>
+        <v>695</v>
       </c>
       <c r="E151" t="n">
-        <v>657</v>
+        <v>688</v>
       </c>
       <c r="F151" t="n">
-        <v>1027.2177</v>
+        <v>4768.2054</v>
       </c>
       <c r="G151" t="n">
-        <v>113950.8927974499</v>
+        <v>146277.61450986</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -6196,28 +6388,28 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>659</v>
+        <v>700</v>
       </c>
       <c r="C152" t="n">
-        <v>659</v>
+        <v>697</v>
       </c>
       <c r="D152" t="n">
-        <v>659</v>
+        <v>700</v>
       </c>
       <c r="E152" t="n">
-        <v>659</v>
+        <v>689</v>
       </c>
       <c r="F152" t="n">
-        <v>211.5</v>
+        <v>3545.2368</v>
       </c>
       <c r="G152" t="n">
-        <v>113950.8927974499</v>
+        <v>149822.85130986</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -6232,28 +6424,28 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="C153" t="n">
-        <v>665</v>
+        <v>695</v>
       </c>
       <c r="D153" t="n">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="E153" t="n">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>3383.1612</v>
       </c>
       <c r="G153" t="n">
-        <v>113951.8927974499</v>
+        <v>146439.69010986</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -6268,28 +6460,28 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>661</v>
+        <v>695</v>
       </c>
       <c r="C154" t="n">
-        <v>663</v>
+        <v>688</v>
       </c>
       <c r="D154" t="n">
-        <v>663</v>
+        <v>697</v>
       </c>
       <c r="E154" t="n">
-        <v>661</v>
+        <v>688</v>
       </c>
       <c r="F154" t="n">
-        <v>591.4717000000001</v>
+        <v>9389.3989</v>
       </c>
       <c r="G154" t="n">
-        <v>113360.4210974499</v>
+        <v>137050.29120986</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -6304,28 +6496,28 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="C155" t="n">
-        <v>659</v>
+        <v>688</v>
       </c>
       <c r="D155" t="n">
-        <v>663</v>
+        <v>690</v>
       </c>
       <c r="E155" t="n">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="F155" t="n">
-        <v>12</v>
+        <v>9464.536400000001</v>
       </c>
       <c r="G155" t="n">
-        <v>113348.4210974499</v>
+        <v>137050.29120986</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -6340,28 +6532,28 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>659</v>
+        <v>688</v>
       </c>
       <c r="C156" t="n">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="D156" t="n">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="E156" t="n">
-        <v>659</v>
+        <v>679</v>
       </c>
       <c r="F156" t="n">
-        <v>1755.141</v>
+        <v>14784.6805</v>
       </c>
       <c r="G156" t="n">
-        <v>115103.5620974499</v>
+        <v>122265.61070986</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -6376,22 +6568,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="C157" t="n">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="D157" t="n">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="E157" t="n">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F157" t="n">
-        <v>28.9611</v>
+        <v>27318.7007</v>
       </c>
       <c r="G157" t="n">
-        <v>115074.6009974499</v>
+        <v>94946.91000985997</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6412,28 +6604,28 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="C158" t="n">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="D158" t="n">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="E158" t="n">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="F158" t="n">
-        <v>612.3262999999999</v>
+        <v>11861.5065</v>
       </c>
       <c r="G158" t="n">
-        <v>114462.2746974499</v>
+        <v>83085.40350985997</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6448,22 +6640,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="C159" t="n">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="D159" t="n">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="E159" t="n">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="F159" t="n">
-        <v>68.032</v>
+        <v>10387.1726</v>
       </c>
       <c r="G159" t="n">
-        <v>114394.2426974499</v>
+        <v>83085.40350985997</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6484,22 +6676,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="C160" t="n">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="D160" t="n">
-        <v>661</v>
+        <v>682</v>
       </c>
       <c r="E160" t="n">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="F160" t="n">
-        <v>787.4367999999999</v>
+        <v>8587.9998</v>
       </c>
       <c r="G160" t="n">
-        <v>114394.2426974499</v>
+        <v>74497.40370985997</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6520,22 +6712,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="C161" t="n">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="D161" t="n">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="E161" t="n">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="F161" t="n">
-        <v>2813.4231</v>
+        <v>1704.6427</v>
       </c>
       <c r="G161" t="n">
-        <v>111580.8195974499</v>
+        <v>74497.40370985997</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6556,22 +6748,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="C162" t="n">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="D162" t="n">
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="E162" t="n">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="F162" t="n">
-        <v>783.9155</v>
+        <v>3814.2823</v>
       </c>
       <c r="G162" t="n">
-        <v>110796.9040974499</v>
+        <v>78311.68600985997</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6592,22 +6784,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="C163" t="n">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="D163" t="n">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="E163" t="n">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="F163" t="n">
-        <v>6163.053</v>
+        <v>3222.9148</v>
       </c>
       <c r="G163" t="n">
-        <v>110796.9040974499</v>
+        <v>75088.77120985997</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6628,22 +6820,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="C164" t="n">
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="D164" t="n">
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="E164" t="n">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="F164" t="n">
-        <v>400.3329</v>
+        <v>4354.7456</v>
       </c>
       <c r="G164" t="n">
-        <v>110796.9040974499</v>
+        <v>79443.51680985997</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6664,22 +6856,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="C165" t="n">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="D165" t="n">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="E165" t="n">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="F165" t="n">
-        <v>1008.9331</v>
+        <v>4426.7683</v>
       </c>
       <c r="G165" t="n">
-        <v>110796.9040974499</v>
+        <v>83870.28510985996</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6700,22 +6892,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="C166" t="n">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="D166" t="n">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="E166" t="n">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="F166" t="n">
-        <v>840.5244</v>
+        <v>1013.4897</v>
       </c>
       <c r="G166" t="n">
-        <v>109956.3796974499</v>
+        <v>82856.79540985996</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6736,22 +6928,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>655</v>
+        <v>675</v>
       </c>
       <c r="C167" t="n">
-        <v>654</v>
+        <v>675</v>
       </c>
       <c r="D167" t="n">
-        <v>655</v>
+        <v>675</v>
       </c>
       <c r="E167" t="n">
-        <v>654</v>
+        <v>675</v>
       </c>
       <c r="F167" t="n">
-        <v>1033.5088</v>
+        <v>1723.7077</v>
       </c>
       <c r="G167" t="n">
-        <v>108922.8708974499</v>
+        <v>84580.50310985996</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6772,22 +6964,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>655</v>
+        <v>675</v>
       </c>
       <c r="C168" t="n">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="D168" t="n">
-        <v>655</v>
+        <v>676</v>
       </c>
       <c r="E168" t="n">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="F168" t="n">
-        <v>14709.0589</v>
+        <v>2062.2674</v>
       </c>
       <c r="G168" t="n">
-        <v>94213.81199744993</v>
+        <v>82518.23570985996</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6808,22 +7000,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="C169" t="n">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="D169" t="n">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="E169" t="n">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="F169" t="n">
-        <v>225.078</v>
+        <v>17.7725</v>
       </c>
       <c r="G169" t="n">
-        <v>94438.88999744992</v>
+        <v>82536.00820985997</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6844,22 +7036,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="C170" t="n">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="D170" t="n">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="E170" t="n">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="F170" t="n">
-        <v>173.6423</v>
+        <v>1052.3946</v>
       </c>
       <c r="G170" t="n">
-        <v>94438.88999744992</v>
+        <v>83588.40280985997</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6880,22 +7072,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>651</v>
+        <v>672</v>
       </c>
       <c r="C171" t="n">
-        <v>651</v>
+        <v>674</v>
       </c>
       <c r="D171" t="n">
-        <v>651</v>
+        <v>682</v>
       </c>
       <c r="E171" t="n">
-        <v>651</v>
+        <v>672</v>
       </c>
       <c r="F171" t="n">
-        <v>66.0402</v>
+        <v>2197.8022</v>
       </c>
       <c r="G171" t="n">
-        <v>94372.84979744992</v>
+        <v>81390.60060985996</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6916,22 +7108,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>651</v>
+        <v>674</v>
       </c>
       <c r="C172" t="n">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="D172" t="n">
-        <v>651</v>
+        <v>674</v>
       </c>
       <c r="E172" t="n">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="F172" t="n">
-        <v>241.1323</v>
+        <v>2626.7703</v>
       </c>
       <c r="G172" t="n">
-        <v>94131.71749744992</v>
+        <v>78763.83030985996</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6952,22 +7144,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>648</v>
+        <v>679</v>
       </c>
       <c r="C173" t="n">
-        <v>648</v>
+        <v>674</v>
       </c>
       <c r="D173" t="n">
-        <v>648</v>
+        <v>683</v>
       </c>
       <c r="E173" t="n">
-        <v>648</v>
+        <v>674</v>
       </c>
       <c r="F173" t="n">
-        <v>207.9135</v>
+        <v>179.2</v>
       </c>
       <c r="G173" t="n">
-        <v>94131.71749744992</v>
+        <v>78943.03030985995</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6988,22 +7180,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>649</v>
+        <v>675</v>
       </c>
       <c r="C174" t="n">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="D174" t="n">
-        <v>649</v>
+        <v>675</v>
       </c>
       <c r="E174" t="n">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="F174" t="n">
-        <v>6119.0731</v>
+        <v>40</v>
       </c>
       <c r="G174" t="n">
-        <v>88012.64439744993</v>
+        <v>78943.03030985995</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7024,22 +7216,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="C175" t="n">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="D175" t="n">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="E175" t="n">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="F175" t="n">
-        <v>103</v>
+        <v>8285.7952</v>
       </c>
       <c r="G175" t="n">
-        <v>88115.64439744993</v>
+        <v>70657.23510985996</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7060,22 +7252,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>645</v>
+        <v>672</v>
       </c>
       <c r="C176" t="n">
-        <v>636</v>
+        <v>676</v>
       </c>
       <c r="D176" t="n">
-        <v>645</v>
+        <v>676</v>
       </c>
       <c r="E176" t="n">
-        <v>636</v>
+        <v>665</v>
       </c>
       <c r="F176" t="n">
-        <v>13570.7615</v>
+        <v>6322.9836</v>
       </c>
       <c r="G176" t="n">
-        <v>74544.88289744992</v>
+        <v>76980.21870985997</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7096,22 +7288,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>641</v>
+        <v>676</v>
       </c>
       <c r="C177" t="n">
-        <v>641</v>
+        <v>677</v>
       </c>
       <c r="D177" t="n">
-        <v>641</v>
+        <v>677</v>
       </c>
       <c r="E177" t="n">
-        <v>637</v>
+        <v>676</v>
       </c>
       <c r="F177" t="n">
-        <v>6707.5613</v>
+        <v>873.3677</v>
       </c>
       <c r="G177" t="n">
-        <v>81252.44419744992</v>
+        <v>77853.58640985997</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7132,22 +7324,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>636</v>
+        <v>677</v>
       </c>
       <c r="C178" t="n">
-        <v>644</v>
+        <v>677</v>
       </c>
       <c r="D178" t="n">
-        <v>644</v>
+        <v>677</v>
       </c>
       <c r="E178" t="n">
-        <v>635</v>
+        <v>676</v>
       </c>
       <c r="F178" t="n">
-        <v>2086.4163</v>
+        <v>657.2085</v>
       </c>
       <c r="G178" t="n">
-        <v>83338.86049744992</v>
+        <v>77853.58640985997</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7168,22 +7360,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>643</v>
+        <v>678</v>
       </c>
       <c r="C179" t="n">
-        <v>636</v>
+        <v>677</v>
       </c>
       <c r="D179" t="n">
-        <v>643</v>
+        <v>679</v>
       </c>
       <c r="E179" t="n">
-        <v>636</v>
+        <v>671</v>
       </c>
       <c r="F179" t="n">
-        <v>209.4572</v>
+        <v>913.8671806999999</v>
       </c>
       <c r="G179" t="n">
-        <v>83129.40329744991</v>
+        <v>77853.58640985997</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7204,22 +7396,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>636</v>
+        <v>670</v>
       </c>
       <c r="C180" t="n">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="D180" t="n">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="E180" t="n">
-        <v>636</v>
+        <v>670</v>
       </c>
       <c r="F180" t="n">
-        <v>454.737</v>
+        <v>136.1611</v>
       </c>
       <c r="G180" t="n">
-        <v>83584.14029744991</v>
+        <v>77717.42530985997</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7240,22 +7432,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>647</v>
+        <v>668</v>
       </c>
       <c r="C181" t="n">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="D181" t="n">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="E181" t="n">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="F181" t="n">
-        <v>8068.1277</v>
+        <v>8725.1253</v>
       </c>
       <c r="G181" t="n">
-        <v>91652.2679974499</v>
+        <v>68992.30000985997</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7276,22 +7468,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="C182" t="n">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="D182" t="n">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="E182" t="n">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="F182" t="n">
-        <v>4937.3735</v>
+        <v>250.9999</v>
       </c>
       <c r="G182" t="n">
-        <v>86714.8944974499</v>
+        <v>69243.29990985997</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7312,22 +7504,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="C183" t="n">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="D183" t="n">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="E183" t="n">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="F183" t="n">
-        <v>503.6899</v>
+        <v>2962.965</v>
       </c>
       <c r="G183" t="n">
-        <v>86211.20459744991</v>
+        <v>69243.29990985997</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7348,22 +7540,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="C184" t="n">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="D184" t="n">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="E184" t="n">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="F184" t="n">
-        <v>3821.2304</v>
+        <v>1280.9691</v>
       </c>
       <c r="G184" t="n">
-        <v>90032.43499744991</v>
+        <v>70524.26900985997</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7384,22 +7576,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="C185" t="n">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="D185" t="n">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="E185" t="n">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="F185" t="n">
-        <v>3115.9025</v>
+        <v>45.7826</v>
       </c>
       <c r="G185" t="n">
-        <v>93148.3374974499</v>
+        <v>70478.48640985996</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7420,22 +7612,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="C186" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D186" t="n">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="E186" t="n">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="F186" t="n">
-        <v>831.0913</v>
+        <v>1314.0454</v>
       </c>
       <c r="G186" t="n">
-        <v>93979.4287974499</v>
+        <v>69164.44100985996</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7456,22 +7648,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="C187" t="n">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="D187" t="n">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="E187" t="n">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="F187" t="n">
-        <v>959.3489</v>
+        <v>2256.6206</v>
       </c>
       <c r="G187" t="n">
-        <v>94938.7776974499</v>
+        <v>71421.06160985996</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7492,22 +7684,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="C188" t="n">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="D188" t="n">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="E188" t="n">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="F188" t="n">
-        <v>17.6476</v>
+        <v>1940.1836</v>
       </c>
       <c r="G188" t="n">
-        <v>94921.1300974499</v>
+        <v>69480.87800985995</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7528,22 +7720,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="C189" t="n">
-        <v>638</v>
+        <v>659</v>
       </c>
       <c r="D189" t="n">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="E189" t="n">
-        <v>638</v>
+        <v>659</v>
       </c>
       <c r="F189" t="n">
-        <v>5075.7373</v>
+        <v>918.9118</v>
       </c>
       <c r="G189" t="n">
-        <v>89845.39279744991</v>
+        <v>68561.96620985995</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7564,22 +7756,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>638</v>
+        <v>659</v>
       </c>
       <c r="C190" t="n">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="D190" t="n">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="E190" t="n">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="F190" t="n">
-        <v>24.5536</v>
+        <v>4512.6752</v>
       </c>
       <c r="G190" t="n">
-        <v>89869.94639744991</v>
+        <v>73074.64140985995</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7600,22 +7792,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="C191" t="n">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="D191" t="n">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="E191" t="n">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="F191" t="n">
-        <v>6640.2759</v>
+        <v>7581.6192</v>
       </c>
       <c r="G191" t="n">
-        <v>83229.67049744992</v>
+        <v>65493.02220985995</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7636,22 +7828,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="C192" t="n">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="D192" t="n">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="E192" t="n">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="F192" t="n">
-        <v>87.94455975</v>
+        <v>6000.2059</v>
       </c>
       <c r="G192" t="n">
-        <v>83317.61505719992</v>
+        <v>71493.22810985995</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7672,22 +7864,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="C193" t="n">
-        <v>637</v>
+        <v>666</v>
       </c>
       <c r="D193" t="n">
-        <v>647</v>
+        <v>666</v>
       </c>
       <c r="E193" t="n">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="F193" t="n">
-        <v>276.7974</v>
+        <v>3952.7536057</v>
       </c>
       <c r="G193" t="n">
-        <v>83040.81765719992</v>
+        <v>75445.98171555994</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7708,22 +7900,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>643</v>
+        <v>666</v>
       </c>
       <c r="C194" t="n">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="D194" t="n">
-        <v>643</v>
+        <v>668</v>
       </c>
       <c r="E194" t="n">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="F194" t="n">
-        <v>139.5793</v>
+        <v>124.8774</v>
       </c>
       <c r="G194" t="n">
-        <v>83180.39695719992</v>
+        <v>75570.85911555994</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7744,22 +7936,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="C195" t="n">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="D195" t="n">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="E195" t="n">
-        <v>642</v>
+        <v>664</v>
       </c>
       <c r="F195" t="n">
-        <v>515.1423</v>
+        <v>745.4329</v>
       </c>
       <c r="G195" t="n">
-        <v>83695.53925719993</v>
+        <v>74825.42621555994</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7780,22 +7972,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="C196" t="n">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="D196" t="n">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="E196" t="n">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="F196" t="n">
-        <v>1</v>
+        <v>1457.8647</v>
       </c>
       <c r="G196" t="n">
-        <v>83696.53925719993</v>
+        <v>73367.56151555994</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7816,22 +8008,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>640</v>
+        <v>657</v>
       </c>
       <c r="C197" t="n">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="D197" t="n">
-        <v>640</v>
+        <v>661</v>
       </c>
       <c r="E197" t="n">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="F197" t="n">
-        <v>5457.6381</v>
+        <v>576.928</v>
       </c>
       <c r="G197" t="n">
-        <v>78238.90115719993</v>
+        <v>73944.48951555994</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7852,22 +8044,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="C198" t="n">
-        <v>630</v>
+        <v>662</v>
       </c>
       <c r="D198" t="n">
-        <v>640</v>
+        <v>662</v>
       </c>
       <c r="E198" t="n">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F198" t="n">
-        <v>13935.1293</v>
+        <v>37541.3025</v>
       </c>
       <c r="G198" t="n">
-        <v>64303.77185719993</v>
+        <v>111485.7920155599</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7888,22 +8080,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>633</v>
+        <v>656</v>
       </c>
       <c r="C199" t="n">
-        <v>638</v>
+        <v>660</v>
       </c>
       <c r="D199" t="n">
-        <v>638</v>
+        <v>660</v>
       </c>
       <c r="E199" t="n">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="F199" t="n">
-        <v>509.0015</v>
+        <v>2047.7256</v>
       </c>
       <c r="G199" t="n">
-        <v>64812.77335719993</v>
+        <v>109438.0664155599</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7924,22 +8116,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>636</v>
+        <v>653</v>
       </c>
       <c r="C200" t="n">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="D200" t="n">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="E200" t="n">
-        <v>636</v>
+        <v>653</v>
       </c>
       <c r="F200" t="n">
-        <v>339.1004</v>
+        <v>228.8125</v>
       </c>
       <c r="G200" t="n">
-        <v>64473.67295719992</v>
+        <v>109438.0664155599</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7960,22 +8152,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="C201" t="n">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="D201" t="n">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="E201" t="n">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="F201" t="n">
-        <v>1594.3669</v>
+        <v>7752.7193</v>
       </c>
       <c r="G201" t="n">
-        <v>66068.03985719992</v>
+        <v>117190.7857155599</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7996,22 +8188,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="C202" t="n">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="D202" t="n">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="E202" t="n">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="F202" t="n">
-        <v>7410.4963</v>
+        <v>6.5454</v>
       </c>
       <c r="G202" t="n">
-        <v>73478.53615719992</v>
+        <v>117184.2403155599</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8032,22 +8224,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="C203" t="n">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="D203" t="n">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="E203" t="n">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="F203" t="n">
-        <v>6234.592</v>
+        <v>5</v>
       </c>
       <c r="G203" t="n">
-        <v>67243.94415719992</v>
+        <v>117184.2403155599</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8068,22 +8260,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="C204" t="n">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="D204" t="n">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="E204" t="n">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="F204" t="n">
-        <v>364.8568</v>
+        <v>2.0196</v>
       </c>
       <c r="G204" t="n">
-        <v>67608.80095719991</v>
+        <v>117184.2403155599</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8104,22 +8296,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C205" t="n">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="D205" t="n">
-        <v>640</v>
+        <v>661</v>
       </c>
       <c r="E205" t="n">
-        <v>639</v>
+        <v>660</v>
       </c>
       <c r="F205" t="n">
-        <v>335.1903</v>
+        <v>515.2533</v>
       </c>
       <c r="G205" t="n">
-        <v>67273.61065719991</v>
+        <v>117699.4936155599</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8140,22 +8332,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>639</v>
+        <v>662</v>
       </c>
       <c r="C206" t="n">
-        <v>638</v>
+        <v>663</v>
       </c>
       <c r="D206" t="n">
-        <v>639</v>
+        <v>668</v>
       </c>
       <c r="E206" t="n">
-        <v>637</v>
+        <v>662</v>
       </c>
       <c r="F206" t="n">
-        <v>309.4915</v>
+        <v>2421.5544</v>
       </c>
       <c r="G206" t="n">
-        <v>66964.11915719991</v>
+        <v>120121.0480155599</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8176,22 +8368,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>639</v>
+        <v>670</v>
       </c>
       <c r="C207" t="n">
-        <v>633</v>
+        <v>670</v>
       </c>
       <c r="D207" t="n">
-        <v>639</v>
+        <v>670</v>
       </c>
       <c r="E207" t="n">
-        <v>633</v>
+        <v>670</v>
       </c>
       <c r="F207" t="n">
-        <v>2560.5125</v>
+        <v>263.8759</v>
       </c>
       <c r="G207" t="n">
-        <v>64403.60665719991</v>
+        <v>120384.9239155599</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8212,22 +8404,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>641</v>
+        <v>670</v>
       </c>
       <c r="C208" t="n">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="D208" t="n">
-        <v>641</v>
+        <v>678</v>
       </c>
       <c r="E208" t="n">
-        <v>635</v>
+        <v>669</v>
       </c>
       <c r="F208" t="n">
-        <v>550.4402</v>
+        <v>6525.7627</v>
       </c>
       <c r="G208" t="n">
-        <v>64954.04685719991</v>
+        <v>126910.6866155599</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8248,22 +8440,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>640</v>
+        <v>675</v>
       </c>
       <c r="C209" t="n">
-        <v>640</v>
+        <v>671</v>
       </c>
       <c r="D209" t="n">
-        <v>641</v>
+        <v>676</v>
       </c>
       <c r="E209" t="n">
-        <v>640</v>
+        <v>671</v>
       </c>
       <c r="F209" t="n">
-        <v>1216.3882</v>
+        <v>1852.7881</v>
       </c>
       <c r="G209" t="n">
-        <v>66170.43505719991</v>
+        <v>125057.8985155599</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8284,22 +8476,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>638</v>
+        <v>671</v>
       </c>
       <c r="C210" t="n">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="D210" t="n">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="E210" t="n">
-        <v>638</v>
+        <v>671</v>
       </c>
       <c r="F210" t="n">
-        <v>35.2689</v>
+        <v>703.0441</v>
       </c>
       <c r="G210" t="n">
-        <v>66205.7039571999</v>
+        <v>125057.8985155599</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8320,22 +8512,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="C211" t="n">
-        <v>639</v>
+        <v>672</v>
       </c>
       <c r="D211" t="n">
-        <v>645</v>
+        <v>672</v>
       </c>
       <c r="E211" t="n">
-        <v>639</v>
+        <v>671</v>
       </c>
       <c r="F211" t="n">
-        <v>730.0624</v>
+        <v>2693.2468</v>
       </c>
       <c r="G211" t="n">
-        <v>65475.6415571999</v>
+        <v>127751.1453155599</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8356,22 +8548,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>643</v>
+        <v>669</v>
       </c>
       <c r="C212" t="n">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="D212" t="n">
-        <v>646</v>
+        <v>679</v>
       </c>
       <c r="E212" t="n">
-        <v>643</v>
+        <v>669</v>
       </c>
       <c r="F212" t="n">
-        <v>11</v>
+        <v>4316.10641811</v>
       </c>
       <c r="G212" t="n">
-        <v>65486.6415571999</v>
+        <v>123435.0388974499</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8392,22 +8584,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>645</v>
+        <v>669</v>
       </c>
       <c r="C213" t="n">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="D213" t="n">
-        <v>647</v>
+        <v>672</v>
       </c>
       <c r="E213" t="n">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="F213" t="n">
-        <v>466.0085</v>
+        <v>943.9476</v>
       </c>
       <c r="G213" t="n">
-        <v>65952.65005719991</v>
+        <v>122491.0912974499</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8428,22 +8620,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="C214" t="n">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="D214" t="n">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="E214" t="n">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="F214" t="n">
-        <v>1</v>
+        <v>590</v>
       </c>
       <c r="G214" t="n">
-        <v>65953.65005719991</v>
+        <v>121901.0912974499</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8459,6 +8651,2562 @@
       </c>
       <c r="N214" t="inlineStr"/>
     </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>667</v>
+      </c>
+      <c r="C215" t="n">
+        <v>667</v>
+      </c>
+      <c r="D215" t="n">
+        <v>673</v>
+      </c>
+      <c r="E215" t="n">
+        <v>667</v>
+      </c>
+      <c r="F215" t="n">
+        <v>536.1301</v>
+      </c>
+      <c r="G215" t="n">
+        <v>122437.2213974499</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>668</v>
+      </c>
+      <c r="C216" t="n">
+        <v>666</v>
+      </c>
+      <c r="D216" t="n">
+        <v>670</v>
+      </c>
+      <c r="E216" t="n">
+        <v>666</v>
+      </c>
+      <c r="F216" t="n">
+        <v>670.3424</v>
+      </c>
+      <c r="G216" t="n">
+        <v>121766.8789974499</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>669</v>
+      </c>
+      <c r="C217" t="n">
+        <v>671</v>
+      </c>
+      <c r="D217" t="n">
+        <v>671</v>
+      </c>
+      <c r="E217" t="n">
+        <v>669</v>
+      </c>
+      <c r="F217" t="n">
+        <v>155.6592</v>
+      </c>
+      <c r="G217" t="n">
+        <v>121922.5381974499</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>671</v>
+      </c>
+      <c r="C218" t="n">
+        <v>669</v>
+      </c>
+      <c r="D218" t="n">
+        <v>671</v>
+      </c>
+      <c r="E218" t="n">
+        <v>669</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2175.9799</v>
+      </c>
+      <c r="G218" t="n">
+        <v>119746.5582974499</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>666</v>
+      </c>
+      <c r="C219" t="n">
+        <v>660</v>
+      </c>
+      <c r="D219" t="n">
+        <v>666</v>
+      </c>
+      <c r="E219" t="n">
+        <v>660</v>
+      </c>
+      <c r="F219" t="n">
+        <v>3384.363</v>
+      </c>
+      <c r="G219" t="n">
+        <v>116362.1952974499</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>664</v>
+      </c>
+      <c r="C220" t="n">
+        <v>665</v>
+      </c>
+      <c r="D220" t="n">
+        <v>665</v>
+      </c>
+      <c r="E220" t="n">
+        <v>657</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1030.2133</v>
+      </c>
+      <c r="G220" t="n">
+        <v>117392.4085974499</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>665</v>
+      </c>
+      <c r="C221" t="n">
+        <v>660</v>
+      </c>
+      <c r="D221" t="n">
+        <v>669</v>
+      </c>
+      <c r="E221" t="n">
+        <v>660</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2414.2981</v>
+      </c>
+      <c r="G221" t="n">
+        <v>114978.1104974499</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>657</v>
+      </c>
+      <c r="C222" t="n">
+        <v>659</v>
+      </c>
+      <c r="D222" t="n">
+        <v>660</v>
+      </c>
+      <c r="E222" t="n">
+        <v>657</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1027.2177</v>
+      </c>
+      <c r="G222" t="n">
+        <v>113950.8927974499</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>659</v>
+      </c>
+      <c r="C223" t="n">
+        <v>659</v>
+      </c>
+      <c r="D223" t="n">
+        <v>659</v>
+      </c>
+      <c r="E223" t="n">
+        <v>659</v>
+      </c>
+      <c r="F223" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="G223" t="n">
+        <v>113950.8927974499</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>665</v>
+      </c>
+      <c r="C224" t="n">
+        <v>665</v>
+      </c>
+      <c r="D224" t="n">
+        <v>665</v>
+      </c>
+      <c r="E224" t="n">
+        <v>665</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1</v>
+      </c>
+      <c r="G224" t="n">
+        <v>113951.8927974499</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>661</v>
+      </c>
+      <c r="C225" t="n">
+        <v>663</v>
+      </c>
+      <c r="D225" t="n">
+        <v>663</v>
+      </c>
+      <c r="E225" t="n">
+        <v>661</v>
+      </c>
+      <c r="F225" t="n">
+        <v>591.4717000000001</v>
+      </c>
+      <c r="G225" t="n">
+        <v>113360.4210974499</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>663</v>
+      </c>
+      <c r="C226" t="n">
+        <v>659</v>
+      </c>
+      <c r="D226" t="n">
+        <v>663</v>
+      </c>
+      <c r="E226" t="n">
+        <v>659</v>
+      </c>
+      <c r="F226" t="n">
+        <v>12</v>
+      </c>
+      <c r="G226" t="n">
+        <v>113348.4210974499</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>659</v>
+      </c>
+      <c r="C227" t="n">
+        <v>670</v>
+      </c>
+      <c r="D227" t="n">
+        <v>670</v>
+      </c>
+      <c r="E227" t="n">
+        <v>659</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1755.141</v>
+      </c>
+      <c r="G227" t="n">
+        <v>115103.5620974499</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>667</v>
+      </c>
+      <c r="C228" t="n">
+        <v>667</v>
+      </c>
+      <c r="D228" t="n">
+        <v>667</v>
+      </c>
+      <c r="E228" t="n">
+        <v>667</v>
+      </c>
+      <c r="F228" t="n">
+        <v>28.9611</v>
+      </c>
+      <c r="G228" t="n">
+        <v>115074.6009974499</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>660</v>
+      </c>
+      <c r="C229" t="n">
+        <v>665</v>
+      </c>
+      <c r="D229" t="n">
+        <v>665</v>
+      </c>
+      <c r="E229" t="n">
+        <v>660</v>
+      </c>
+      <c r="F229" t="n">
+        <v>612.3262999999999</v>
+      </c>
+      <c r="G229" t="n">
+        <v>114462.2746974499</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>661</v>
+      </c>
+      <c r="C230" t="n">
+        <v>661</v>
+      </c>
+      <c r="D230" t="n">
+        <v>661</v>
+      </c>
+      <c r="E230" t="n">
+        <v>661</v>
+      </c>
+      <c r="F230" t="n">
+        <v>68.032</v>
+      </c>
+      <c r="G230" t="n">
+        <v>114394.2426974499</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>660</v>
+      </c>
+      <c r="C231" t="n">
+        <v>661</v>
+      </c>
+      <c r="D231" t="n">
+        <v>661</v>
+      </c>
+      <c r="E231" t="n">
+        <v>660</v>
+      </c>
+      <c r="F231" t="n">
+        <v>787.4367999999999</v>
+      </c>
+      <c r="G231" t="n">
+        <v>114394.2426974499</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>661</v>
+      </c>
+      <c r="C232" t="n">
+        <v>660</v>
+      </c>
+      <c r="D232" t="n">
+        <v>661</v>
+      </c>
+      <c r="E232" t="n">
+        <v>660</v>
+      </c>
+      <c r="F232" t="n">
+        <v>2813.4231</v>
+      </c>
+      <c r="G232" t="n">
+        <v>111580.8195974499</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>658</v>
+      </c>
+      <c r="C233" t="n">
+        <v>658</v>
+      </c>
+      <c r="D233" t="n">
+        <v>658</v>
+      </c>
+      <c r="E233" t="n">
+        <v>658</v>
+      </c>
+      <c r="F233" t="n">
+        <v>783.9155</v>
+      </c>
+      <c r="G233" t="n">
+        <v>110796.9040974499</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>657</v>
+      </c>
+      <c r="C234" t="n">
+        <v>658</v>
+      </c>
+      <c r="D234" t="n">
+        <v>658</v>
+      </c>
+      <c r="E234" t="n">
+        <v>656</v>
+      </c>
+      <c r="F234" t="n">
+        <v>6163.053</v>
+      </c>
+      <c r="G234" t="n">
+        <v>110796.9040974499</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>658</v>
+      </c>
+      <c r="C235" t="n">
+        <v>658</v>
+      </c>
+      <c r="D235" t="n">
+        <v>658</v>
+      </c>
+      <c r="E235" t="n">
+        <v>658</v>
+      </c>
+      <c r="F235" t="n">
+        <v>400.3329</v>
+      </c>
+      <c r="G235" t="n">
+        <v>110796.9040974499</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>658</v>
+      </c>
+      <c r="C236" t="n">
+        <v>658</v>
+      </c>
+      <c r="D236" t="n">
+        <v>658</v>
+      </c>
+      <c r="E236" t="n">
+        <v>658</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1008.9331</v>
+      </c>
+      <c r="G236" t="n">
+        <v>110796.9040974499</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>660</v>
+      </c>
+      <c r="C237" t="n">
+        <v>655</v>
+      </c>
+      <c r="D237" t="n">
+        <v>661</v>
+      </c>
+      <c r="E237" t="n">
+        <v>655</v>
+      </c>
+      <c r="F237" t="n">
+        <v>840.5244</v>
+      </c>
+      <c r="G237" t="n">
+        <v>109956.3796974499</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>655</v>
+      </c>
+      <c r="C238" t="n">
+        <v>654</v>
+      </c>
+      <c r="D238" t="n">
+        <v>655</v>
+      </c>
+      <c r="E238" t="n">
+        <v>654</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1033.5088</v>
+      </c>
+      <c r="G238" t="n">
+        <v>108922.8708974499</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>655</v>
+      </c>
+      <c r="C239" t="n">
+        <v>652</v>
+      </c>
+      <c r="D239" t="n">
+        <v>655</v>
+      </c>
+      <c r="E239" t="n">
+        <v>650</v>
+      </c>
+      <c r="F239" t="n">
+        <v>14709.0589</v>
+      </c>
+      <c r="G239" t="n">
+        <v>94213.81199744993</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>652</v>
+      </c>
+      <c r="C240" t="n">
+        <v>657</v>
+      </c>
+      <c r="D240" t="n">
+        <v>657</v>
+      </c>
+      <c r="E240" t="n">
+        <v>652</v>
+      </c>
+      <c r="F240" t="n">
+        <v>225.078</v>
+      </c>
+      <c r="G240" t="n">
+        <v>94438.88999744992</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>657</v>
+      </c>
+      <c r="C241" t="n">
+        <v>657</v>
+      </c>
+      <c r="D241" t="n">
+        <v>657</v>
+      </c>
+      <c r="E241" t="n">
+        <v>657</v>
+      </c>
+      <c r="F241" t="n">
+        <v>173.6423</v>
+      </c>
+      <c r="G241" t="n">
+        <v>94438.88999744992</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>651</v>
+      </c>
+      <c r="C242" t="n">
+        <v>651</v>
+      </c>
+      <c r="D242" t="n">
+        <v>651</v>
+      </c>
+      <c r="E242" t="n">
+        <v>651</v>
+      </c>
+      <c r="F242" t="n">
+        <v>66.0402</v>
+      </c>
+      <c r="G242" t="n">
+        <v>94372.84979744992</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>651</v>
+      </c>
+      <c r="C243" t="n">
+        <v>648</v>
+      </c>
+      <c r="D243" t="n">
+        <v>651</v>
+      </c>
+      <c r="E243" t="n">
+        <v>648</v>
+      </c>
+      <c r="F243" t="n">
+        <v>241.1323</v>
+      </c>
+      <c r="G243" t="n">
+        <v>94131.71749744992</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>648</v>
+      </c>
+      <c r="C244" t="n">
+        <v>648</v>
+      </c>
+      <c r="D244" t="n">
+        <v>648</v>
+      </c>
+      <c r="E244" t="n">
+        <v>648</v>
+      </c>
+      <c r="F244" t="n">
+        <v>207.9135</v>
+      </c>
+      <c r="G244" t="n">
+        <v>94131.71749744992</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>649</v>
+      </c>
+      <c r="C245" t="n">
+        <v>644</v>
+      </c>
+      <c r="D245" t="n">
+        <v>649</v>
+      </c>
+      <c r="E245" t="n">
+        <v>644</v>
+      </c>
+      <c r="F245" t="n">
+        <v>6119.0731</v>
+      </c>
+      <c r="G245" t="n">
+        <v>88012.64439744993</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>645</v>
+      </c>
+      <c r="C246" t="n">
+        <v>645</v>
+      </c>
+      <c r="D246" t="n">
+        <v>645</v>
+      </c>
+      <c r="E246" t="n">
+        <v>645</v>
+      </c>
+      <c r="F246" t="n">
+        <v>103</v>
+      </c>
+      <c r="G246" t="n">
+        <v>88115.64439744993</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>645</v>
+      </c>
+      <c r="C247" t="n">
+        <v>636</v>
+      </c>
+      <c r="D247" t="n">
+        <v>645</v>
+      </c>
+      <c r="E247" t="n">
+        <v>636</v>
+      </c>
+      <c r="F247" t="n">
+        <v>13570.7615</v>
+      </c>
+      <c r="G247" t="n">
+        <v>74544.88289744992</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>641</v>
+      </c>
+      <c r="C248" t="n">
+        <v>641</v>
+      </c>
+      <c r="D248" t="n">
+        <v>641</v>
+      </c>
+      <c r="E248" t="n">
+        <v>637</v>
+      </c>
+      <c r="F248" t="n">
+        <v>6707.5613</v>
+      </c>
+      <c r="G248" t="n">
+        <v>81252.44419744992</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>636</v>
+      </c>
+      <c r="C249" t="n">
+        <v>644</v>
+      </c>
+      <c r="D249" t="n">
+        <v>644</v>
+      </c>
+      <c r="E249" t="n">
+        <v>635</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2086.4163</v>
+      </c>
+      <c r="G249" t="n">
+        <v>83338.86049744992</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>643</v>
+      </c>
+      <c r="C250" t="n">
+        <v>636</v>
+      </c>
+      <c r="D250" t="n">
+        <v>643</v>
+      </c>
+      <c r="E250" t="n">
+        <v>636</v>
+      </c>
+      <c r="F250" t="n">
+        <v>209.4572</v>
+      </c>
+      <c r="G250" t="n">
+        <v>83129.40329744991</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>636</v>
+      </c>
+      <c r="C251" t="n">
+        <v>643</v>
+      </c>
+      <c r="D251" t="n">
+        <v>643</v>
+      </c>
+      <c r="E251" t="n">
+        <v>636</v>
+      </c>
+      <c r="F251" t="n">
+        <v>454.737</v>
+      </c>
+      <c r="G251" t="n">
+        <v>83584.14029744991</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>647</v>
+      </c>
+      <c r="C252" t="n">
+        <v>655</v>
+      </c>
+      <c r="D252" t="n">
+        <v>655</v>
+      </c>
+      <c r="E252" t="n">
+        <v>643</v>
+      </c>
+      <c r="F252" t="n">
+        <v>8068.1277</v>
+      </c>
+      <c r="G252" t="n">
+        <v>91652.2679974499</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>646</v>
+      </c>
+      <c r="C253" t="n">
+        <v>651</v>
+      </c>
+      <c r="D253" t="n">
+        <v>651</v>
+      </c>
+      <c r="E253" t="n">
+        <v>646</v>
+      </c>
+      <c r="F253" t="n">
+        <v>4937.3735</v>
+      </c>
+      <c r="G253" t="n">
+        <v>86714.8944974499</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>651</v>
+      </c>
+      <c r="C254" t="n">
+        <v>650</v>
+      </c>
+      <c r="D254" t="n">
+        <v>651</v>
+      </c>
+      <c r="E254" t="n">
+        <v>650</v>
+      </c>
+      <c r="F254" t="n">
+        <v>503.6899</v>
+      </c>
+      <c r="G254" t="n">
+        <v>86211.20459744991</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>650</v>
+      </c>
+      <c r="C255" t="n">
+        <v>651</v>
+      </c>
+      <c r="D255" t="n">
+        <v>651</v>
+      </c>
+      <c r="E255" t="n">
+        <v>650</v>
+      </c>
+      <c r="F255" t="n">
+        <v>3821.2304</v>
+      </c>
+      <c r="G255" t="n">
+        <v>90032.43499744991</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>651</v>
+      </c>
+      <c r="C256" t="n">
+        <v>653</v>
+      </c>
+      <c r="D256" t="n">
+        <v>653</v>
+      </c>
+      <c r="E256" t="n">
+        <v>651</v>
+      </c>
+      <c r="F256" t="n">
+        <v>3115.9025</v>
+      </c>
+      <c r="G256" t="n">
+        <v>93148.3374974499</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>653</v>
+      </c>
+      <c r="C257" t="n">
+        <v>657</v>
+      </c>
+      <c r="D257" t="n">
+        <v>658</v>
+      </c>
+      <c r="E257" t="n">
+        <v>653</v>
+      </c>
+      <c r="F257" t="n">
+        <v>831.0913</v>
+      </c>
+      <c r="G257" t="n">
+        <v>93979.4287974499</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>657</v>
+      </c>
+      <c r="C258" t="n">
+        <v>658</v>
+      </c>
+      <c r="D258" t="n">
+        <v>658</v>
+      </c>
+      <c r="E258" t="n">
+        <v>650</v>
+      </c>
+      <c r="F258" t="n">
+        <v>959.3489</v>
+      </c>
+      <c r="G258" t="n">
+        <v>94938.7776974499</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>649</v>
+      </c>
+      <c r="C259" t="n">
+        <v>649</v>
+      </c>
+      <c r="D259" t="n">
+        <v>649</v>
+      </c>
+      <c r="E259" t="n">
+        <v>649</v>
+      </c>
+      <c r="F259" t="n">
+        <v>17.6476</v>
+      </c>
+      <c r="G259" t="n">
+        <v>94921.1300974499</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>646</v>
+      </c>
+      <c r="C260" t="n">
+        <v>638</v>
+      </c>
+      <c r="D260" t="n">
+        <v>654</v>
+      </c>
+      <c r="E260" t="n">
+        <v>638</v>
+      </c>
+      <c r="F260" t="n">
+        <v>5075.7373</v>
+      </c>
+      <c r="G260" t="n">
+        <v>89845.39279744991</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>638</v>
+      </c>
+      <c r="C261" t="n">
+        <v>652</v>
+      </c>
+      <c r="D261" t="n">
+        <v>652</v>
+      </c>
+      <c r="E261" t="n">
+        <v>637</v>
+      </c>
+      <c r="F261" t="n">
+        <v>24.5536</v>
+      </c>
+      <c r="G261" t="n">
+        <v>89869.94639744991</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>641</v>
+      </c>
+      <c r="C262" t="n">
+        <v>641</v>
+      </c>
+      <c r="D262" t="n">
+        <v>641</v>
+      </c>
+      <c r="E262" t="n">
+        <v>641</v>
+      </c>
+      <c r="F262" t="n">
+        <v>6640.2759</v>
+      </c>
+      <c r="G262" t="n">
+        <v>83229.67049744992</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>645</v>
+      </c>
+      <c r="C263" t="n">
+        <v>646</v>
+      </c>
+      <c r="D263" t="n">
+        <v>646</v>
+      </c>
+      <c r="E263" t="n">
+        <v>645</v>
+      </c>
+      <c r="F263" t="n">
+        <v>87.94455975</v>
+      </c>
+      <c r="G263" t="n">
+        <v>83317.61505719992</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>647</v>
+      </c>
+      <c r="C264" t="n">
+        <v>637</v>
+      </c>
+      <c r="D264" t="n">
+        <v>647</v>
+      </c>
+      <c r="E264" t="n">
+        <v>637</v>
+      </c>
+      <c r="F264" t="n">
+        <v>276.7974</v>
+      </c>
+      <c r="G264" t="n">
+        <v>83040.81765719992</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>643</v>
+      </c>
+      <c r="C265" t="n">
+        <v>642</v>
+      </c>
+      <c r="D265" t="n">
+        <v>643</v>
+      </c>
+      <c r="E265" t="n">
+        <v>642</v>
+      </c>
+      <c r="F265" t="n">
+        <v>139.5793</v>
+      </c>
+      <c r="G265" t="n">
+        <v>83180.39695719992</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>642</v>
+      </c>
+      <c r="C266" t="n">
+        <v>643</v>
+      </c>
+      <c r="D266" t="n">
+        <v>643</v>
+      </c>
+      <c r="E266" t="n">
+        <v>642</v>
+      </c>
+      <c r="F266" t="n">
+        <v>515.1423</v>
+      </c>
+      <c r="G266" t="n">
+        <v>83695.53925719993</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+      <c r="N266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>648</v>
+      </c>
+      <c r="C267" t="n">
+        <v>648</v>
+      </c>
+      <c r="D267" t="n">
+        <v>648</v>
+      </c>
+      <c r="E267" t="n">
+        <v>648</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1</v>
+      </c>
+      <c r="G267" t="n">
+        <v>83696.53925719993</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>640</v>
+      </c>
+      <c r="C268" t="n">
+        <v>635</v>
+      </c>
+      <c r="D268" t="n">
+        <v>640</v>
+      </c>
+      <c r="E268" t="n">
+        <v>635</v>
+      </c>
+      <c r="F268" t="n">
+        <v>5457.6381</v>
+      </c>
+      <c r="G268" t="n">
+        <v>78238.90115719993</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+      <c r="N268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>640</v>
+      </c>
+      <c r="C269" t="n">
+        <v>630</v>
+      </c>
+      <c r="D269" t="n">
+        <v>640</v>
+      </c>
+      <c r="E269" t="n">
+        <v>630</v>
+      </c>
+      <c r="F269" t="n">
+        <v>13935.1293</v>
+      </c>
+      <c r="G269" t="n">
+        <v>64303.77185719993</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>633</v>
+      </c>
+      <c r="C270" t="n">
+        <v>638</v>
+      </c>
+      <c r="D270" t="n">
+        <v>638</v>
+      </c>
+      <c r="E270" t="n">
+        <v>633</v>
+      </c>
+      <c r="F270" t="n">
+        <v>509.0015</v>
+      </c>
+      <c r="G270" t="n">
+        <v>64812.77335719993</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>636</v>
+      </c>
+      <c r="C271" t="n">
+        <v>636</v>
+      </c>
+      <c r="D271" t="n">
+        <v>636</v>
+      </c>
+      <c r="E271" t="n">
+        <v>636</v>
+      </c>
+      <c r="F271" t="n">
+        <v>339.1004</v>
+      </c>
+      <c r="G271" t="n">
+        <v>64473.67295719992</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>636</v>
+      </c>
+      <c r="C272" t="n">
+        <v>640</v>
+      </c>
+      <c r="D272" t="n">
+        <v>640</v>
+      </c>
+      <c r="E272" t="n">
+        <v>636</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1594.3669</v>
+      </c>
+      <c r="G272" t="n">
+        <v>66068.03985719992</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>635</v>
+      </c>
+      <c r="C273" t="n">
+        <v>645</v>
+      </c>
+      <c r="D273" t="n">
+        <v>645</v>
+      </c>
+      <c r="E273" t="n">
+        <v>635</v>
+      </c>
+      <c r="F273" t="n">
+        <v>7410.4963</v>
+      </c>
+      <c r="G273" t="n">
+        <v>73478.53615719992</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>645</v>
+      </c>
+      <c r="C274" t="n">
+        <v>640</v>
+      </c>
+      <c r="D274" t="n">
+        <v>651</v>
+      </c>
+      <c r="E274" t="n">
+        <v>640</v>
+      </c>
+      <c r="F274" t="n">
+        <v>6234.592</v>
+      </c>
+      <c r="G274" t="n">
+        <v>67243.94415719992</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+      <c r="N274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>640</v>
+      </c>
+      <c r="C275" t="n">
+        <v>647</v>
+      </c>
+      <c r="D275" t="n">
+        <v>647</v>
+      </c>
+      <c r="E275" t="n">
+        <v>640</v>
+      </c>
+      <c r="F275" t="n">
+        <v>364.8568</v>
+      </c>
+      <c r="G275" t="n">
+        <v>67608.80095719991</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>640</v>
+      </c>
+      <c r="C276" t="n">
+        <v>639</v>
+      </c>
+      <c r="D276" t="n">
+        <v>640</v>
+      </c>
+      <c r="E276" t="n">
+        <v>639</v>
+      </c>
+      <c r="F276" t="n">
+        <v>335.1903</v>
+      </c>
+      <c r="G276" t="n">
+        <v>67273.61065719991</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+      <c r="N276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>639</v>
+      </c>
+      <c r="C277" t="n">
+        <v>638</v>
+      </c>
+      <c r="D277" t="n">
+        <v>639</v>
+      </c>
+      <c r="E277" t="n">
+        <v>637</v>
+      </c>
+      <c r="F277" t="n">
+        <v>309.4915</v>
+      </c>
+      <c r="G277" t="n">
+        <v>66964.11915719991</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>639</v>
+      </c>
+      <c r="C278" t="n">
+        <v>633</v>
+      </c>
+      <c r="D278" t="n">
+        <v>639</v>
+      </c>
+      <c r="E278" t="n">
+        <v>633</v>
+      </c>
+      <c r="F278" t="n">
+        <v>2560.5125</v>
+      </c>
+      <c r="G278" t="n">
+        <v>64403.60665719991</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>641</v>
+      </c>
+      <c r="C279" t="n">
+        <v>635</v>
+      </c>
+      <c r="D279" t="n">
+        <v>641</v>
+      </c>
+      <c r="E279" t="n">
+        <v>635</v>
+      </c>
+      <c r="F279" t="n">
+        <v>550.4402</v>
+      </c>
+      <c r="G279" t="n">
+        <v>64954.04685719991</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="n">
+        <v>1</v>
+      </c>
+      <c r="N279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>640</v>
+      </c>
+      <c r="C280" t="n">
+        <v>640</v>
+      </c>
+      <c r="D280" t="n">
+        <v>641</v>
+      </c>
+      <c r="E280" t="n">
+        <v>640</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1216.3882</v>
+      </c>
+      <c r="G280" t="n">
+        <v>66170.43505719991</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="n">
+        <v>1</v>
+      </c>
+      <c r="N280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>638</v>
+      </c>
+      <c r="C281" t="n">
+        <v>642</v>
+      </c>
+      <c r="D281" t="n">
+        <v>642</v>
+      </c>
+      <c r="E281" t="n">
+        <v>638</v>
+      </c>
+      <c r="F281" t="n">
+        <v>35.2689</v>
+      </c>
+      <c r="G281" t="n">
+        <v>66205.7039571999</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="n">
+        <v>1</v>
+      </c>
+      <c r="N281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>642</v>
+      </c>
+      <c r="C282" t="n">
+        <v>639</v>
+      </c>
+      <c r="D282" t="n">
+        <v>645</v>
+      </c>
+      <c r="E282" t="n">
+        <v>639</v>
+      </c>
+      <c r="F282" t="n">
+        <v>730.0624</v>
+      </c>
+      <c r="G282" t="n">
+        <v>65475.6415571999</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+      <c r="N282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>643</v>
+      </c>
+      <c r="C283" t="n">
+        <v>646</v>
+      </c>
+      <c r="D283" t="n">
+        <v>646</v>
+      </c>
+      <c r="E283" t="n">
+        <v>643</v>
+      </c>
+      <c r="F283" t="n">
+        <v>11</v>
+      </c>
+      <c r="G283" t="n">
+        <v>65486.6415571999</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="n">
+        <v>1</v>
+      </c>
+      <c r="N283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>645</v>
+      </c>
+      <c r="C284" t="n">
+        <v>647</v>
+      </c>
+      <c r="D284" t="n">
+        <v>647</v>
+      </c>
+      <c r="E284" t="n">
+        <v>645</v>
+      </c>
+      <c r="F284" t="n">
+        <v>466.0085</v>
+      </c>
+      <c r="G284" t="n">
+        <v>65952.65005719991</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="n">
+        <v>1</v>
+      </c>
+      <c r="N284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>648</v>
+      </c>
+      <c r="C285" t="n">
+        <v>648</v>
+      </c>
+      <c r="D285" t="n">
+        <v>648</v>
+      </c>
+      <c r="E285" t="n">
+        <v>648</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1</v>
+      </c>
+      <c r="G285" t="n">
+        <v>65953.65005719991</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="n">
+        <v>1</v>
+      </c>
+      <c r="N285" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-15 BackTest GXC.xlsx
+++ b/BackTest/2019-10-15 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N285"/>
+  <dimension ref="A1:M285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>2994.586299999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,15 @@
         <v>2201.586399999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>544</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +517,15 @@
         <v>2201.586399999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +550,15 @@
         <v>2201.586399999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +583,19 @@
         <v>2171.586399999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="J6" t="n">
         <v>543</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +620,23 @@
         <v>2588.934499999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="J7" t="n">
-        <v>539</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>543</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +661,23 @@
         <v>2491.2309</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="J8" t="n">
-        <v>544</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +702,23 @@
         <v>7911.424099999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="J9" t="n">
-        <v>542</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,24 +743,23 @@
         <v>7794.848799999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="J10" t="n">
-        <v>544</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,24 +784,23 @@
         <v>9054.8488</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="J11" t="n">
-        <v>532</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,24 +825,23 @@
         <v>11685.404</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="J12" t="n">
-        <v>539</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,24 +866,23 @@
         <v>11686.404</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J13" t="n">
-        <v>540</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,24 +907,23 @@
         <v>11686.404</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="J14" t="n">
-        <v>549</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -996,24 +948,23 @@
         <v>10816.0765</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="J15" t="n">
-        <v>549</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,24 +989,23 @@
         <v>11098.6765</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="J16" t="n">
-        <v>538</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1080,24 +1030,23 @@
         <v>11099.6765</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="J17" t="n">
-        <v>542</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1122,24 +1071,23 @@
         <v>10726.9952</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="J18" t="n">
-        <v>544</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1164,24 +1112,23 @@
         <v>10755.3139</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="J19" t="n">
-        <v>537</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1206,24 +1153,23 @@
         <v>10012.2181</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="J20" t="n">
         <v>543</v>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1248,24 +1194,23 @@
         <v>10352.2181</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="J21" t="n">
-        <v>541</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1290,24 +1235,23 @@
         <v>9760.218099999998</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="J22" t="n">
-        <v>542</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1332,24 +1276,23 @@
         <v>9887.214999999998</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="J23" t="n">
-        <v>539</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1374,24 +1317,23 @@
         <v>9974.454199999998</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J24" t="n">
-        <v>540</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1416,24 +1358,23 @@
         <v>9974.454199999998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="J25" t="n">
-        <v>541</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1458,24 +1399,23 @@
         <v>9974.454199999998</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="J26" t="n">
-        <v>541</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1500,24 +1440,23 @@
         <v>9974.454199999998</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="J27" t="n">
-        <v>541</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1542,24 +1481,23 @@
         <v>9753.557099999998</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="J28" t="n">
-        <v>541</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1584,24 +1522,23 @@
         <v>9256.538599999998</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="J29" t="n">
-        <v>536</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1626,24 +1563,23 @@
         <v>9669.302499999998</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="J30" t="n">
-        <v>535</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1668,24 +1604,23 @@
         <v>9669.302499999998</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J31" t="n">
-        <v>540</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1710,24 +1645,23 @@
         <v>9669.302499999998</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J32" t="n">
-        <v>540</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1752,24 +1686,23 @@
         <v>9669.302499999998</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J33" t="n">
-        <v>540</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1794,24 +1727,23 @@
         <v>9669.302499999998</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J34" t="n">
-        <v>540</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1836,24 +1768,23 @@
         <v>8744.670399999997</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J35" t="n">
-        <v>540</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1878,24 +1809,23 @@
         <v>9043.590799999998</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="J36" t="n">
-        <v>537</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1920,24 +1850,23 @@
         <v>9043.590799999998</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="J37" t="n">
-        <v>544</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1962,24 +1891,23 @@
         <v>10371.1224</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="J38" t="n">
-        <v>544</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2004,24 +1932,23 @@
         <v>13787.2724</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="J39" t="n">
-        <v>545</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2046,24 +1973,23 @@
         <v>14899.2724</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="J40" t="n">
-        <v>554</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2090,20 +2016,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>543</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2130,20 +2055,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>543</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2170,20 +2094,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>543</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2210,20 +2133,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>543</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2250,20 +2172,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>543</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2290,20 +2211,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>543</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2330,20 +2250,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>543</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2370,20 +2289,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>543</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2410,20 +2328,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>543</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2450,20 +2367,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>543</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2490,20 +2406,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>543</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2530,20 +2445,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>543</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2570,20 +2484,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>543</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2610,20 +2523,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>543</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2650,20 +2562,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>543</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2690,20 +2601,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>543</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2730,20 +2640,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>543</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2770,20 +2679,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>543</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2810,20 +2718,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>543</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2850,20 +2757,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>543</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2890,20 +2796,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>543</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2930,20 +2835,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>543</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2970,20 +2874,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>543</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3010,20 +2913,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>543</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3050,20 +2952,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>543</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3090,20 +2991,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>543</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3130,20 +3030,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>543</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3170,20 +3069,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>543</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3210,20 +3108,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>543</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3250,20 +3147,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>543</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3290,20 +3186,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>543</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3330,20 +3225,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>543</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3370,20 +3264,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>543</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3410,20 +3303,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>543</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3450,20 +3342,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>543</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3490,20 +3381,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>543</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3530,20 +3420,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>543</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3570,20 +3459,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>543</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3610,20 +3498,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>543</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3650,20 +3537,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>543</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3690,20 +3576,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>543</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3730,20 +3615,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>543</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3770,20 +3654,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>543</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3810,20 +3693,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>543</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3850,20 +3732,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>543</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3890,20 +3771,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>543</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3930,20 +3810,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>543</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3970,20 +3849,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>543</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4010,20 +3888,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>543</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4050,20 +3927,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>543</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4090,20 +3966,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>543</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4130,20 +4005,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>543</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4170,20 +4044,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>543</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4210,20 +4083,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>543</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4250,20 +4122,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>543</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4290,20 +4161,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>543</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4330,20 +4200,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>543</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4370,20 +4239,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>543</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4410,20 +4278,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>543</v>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4450,20 +4317,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>543</v>
+      </c>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4490,20 +4356,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>543</v>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4530,20 +4395,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>543</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4568,22 +4432,23 @@
         <v>83029.09440262002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>543</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.171795580110497</v>
       </c>
       <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>1.009276437847866</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4608,22 +4473,15 @@
         <v>76514.78130262002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4648,22 +4506,15 @@
         <v>57533.48430262002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4690,20 +4541,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4730,20 +4574,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4770,20 +4607,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4810,20 +4640,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4848,22 +4671,15 @@
         <v>72888.86950262</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4888,22 +4704,15 @@
         <v>75266.08820262</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4928,22 +4737,15 @@
         <v>75933.11300981</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4968,22 +4770,15 @@
         <v>88103.42574697</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5008,22 +4803,15 @@
         <v>107001.15820986</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5048,22 +4836,15 @@
         <v>118411.80380986</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5088,22 +4869,15 @@
         <v>111114.42450986</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5128,22 +4902,15 @@
         <v>111114.42450986</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5168,22 +4935,15 @@
         <v>111114.42450986</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5208,22 +4968,15 @@
         <v>123909.13010986</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5248,22 +5001,15 @@
         <v>98147.70210985999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5288,20 +5034,15 @@
         <v>89028.54990986</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L121" t="n">
+        <v>1</v>
       </c>
       <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5326,18 +5067,15 @@
         <v>94391.54060985999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5362,18 +5100,15 @@
         <v>95798.99810986</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5398,18 +5133,15 @@
         <v>96074.44280985999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5434,18 +5166,15 @@
         <v>92630.59330985999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5472,16 +5201,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5508,16 +5234,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5544,16 +5267,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5580,16 +5300,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5616,16 +5333,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5652,16 +5366,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5688,16 +5399,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5724,16 +5432,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5760,16 +5465,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5794,18 +5496,15 @@
         <v>108361.23190986</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5832,16 +5531,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5868,16 +5564,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5904,16 +5597,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5940,16 +5630,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5976,16 +5663,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6012,16 +5696,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6048,16 +5729,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6084,16 +5762,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6120,16 +5795,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6156,16 +5828,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6192,16 +5861,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6226,18 +5892,15 @@
         <v>149028.71810986</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6264,16 +5927,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6298,18 +5958,15 @@
         <v>176775.93470986</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6334,18 +5991,15 @@
         <v>151045.81990986</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6370,18 +6024,15 @@
         <v>146277.61450986</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6406,18 +6057,15 @@
         <v>149822.85130986</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6444,16 +6092,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6480,16 +6125,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6516,16 +6158,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6552,16 +6191,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6588,16 +6224,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6624,16 +6257,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6658,18 +6288,15 @@
         <v>83085.40350985997</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6696,16 +6323,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6732,16 +6356,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6768,16 +6389,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6804,16 +6422,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6840,16 +6455,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6876,16 +6488,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6912,16 +6521,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6948,16 +6554,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6984,16 +6587,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7020,16 +6620,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7056,16 +6653,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7092,16 +6686,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7128,16 +6719,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7164,16 +6752,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7200,16 +6785,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7236,16 +6818,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7272,16 +6851,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7308,16 +6884,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7344,16 +6917,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7380,16 +6950,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7416,16 +6983,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7452,16 +7016,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7488,16 +7049,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7524,16 +7082,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7560,16 +7115,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7596,16 +7148,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7632,16 +7181,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7668,16 +7214,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7704,16 +7247,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7740,16 +7280,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7776,16 +7313,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7812,16 +7346,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7848,16 +7379,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7884,16 +7412,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7920,16 +7445,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7956,16 +7478,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7992,16 +7511,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8028,16 +7544,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8064,16 +7577,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8100,16 +7610,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8136,16 +7643,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8172,16 +7676,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8208,16 +7709,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8244,16 +7742,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8280,16 +7775,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8316,16 +7808,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8352,16 +7841,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8388,16 +7874,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8424,16 +7907,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8460,16 +7940,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8496,16 +7973,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8532,16 +8006,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8568,16 +8039,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8604,16 +8072,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8638,18 +8103,15 @@
         <v>121901.0912974499</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8676,16 +8138,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8712,16 +8171,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8746,18 +8202,15 @@
         <v>121922.5381974499</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8784,16 +8237,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8818,18 +8268,15 @@
         <v>116362.1952974499</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8856,16 +8303,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8890,18 +8334,15 @@
         <v>114978.1104974499</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8926,18 +8367,15 @@
         <v>113950.8927974499</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8962,18 +8400,15 @@
         <v>113950.8927974499</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9000,16 +8435,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9036,16 +8468,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9072,16 +8501,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9108,16 +8534,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9144,16 +8567,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9180,16 +8600,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9214,18 +8631,15 @@
         <v>114394.2426974499</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9250,18 +8664,15 @@
         <v>114394.2426974499</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9286,18 +8697,15 @@
         <v>111580.8195974499</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9322,18 +8730,15 @@
         <v>110796.9040974499</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9358,18 +8763,15 @@
         <v>110796.9040974499</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9396,16 +8798,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9432,16 +8831,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9468,16 +8864,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9504,16 +8897,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9540,16 +8930,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9576,16 +8963,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9612,16 +8996,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9648,16 +9029,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9684,16 +9062,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9718,18 +9093,15 @@
         <v>94131.71749744992</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9756,16 +9128,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9790,18 +9159,15 @@
         <v>88115.64439744993</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9828,16 +9194,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9864,16 +9227,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9900,16 +9260,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9936,16 +9293,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9972,16 +9326,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10008,16 +9359,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10044,16 +9392,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10080,16 +9425,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10114,18 +9456,15 @@
         <v>90032.43499744991</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10150,18 +9489,15 @@
         <v>93148.3374974499</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10188,16 +9524,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10224,16 +9557,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10260,16 +9590,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10296,16 +9623,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10332,16 +9656,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10368,16 +9689,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10404,16 +9722,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10440,16 +9755,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10476,16 +9788,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10512,16 +9821,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10548,16 +9854,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10584,16 +9887,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10620,16 +9920,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10656,16 +9953,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10692,16 +9986,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10728,16 +10019,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10764,16 +10052,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10800,16 +10085,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10836,16 +10118,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10872,16 +10151,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10908,16 +10184,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10944,16 +10217,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10980,16 +10250,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11016,16 +10283,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11052,16 +10316,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11088,16 +10349,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11124,16 +10382,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11160,16 +10415,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11196,18 +10448,15 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest GXC.xlsx
+++ b/BackTest/2019-10-15 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2994.586299999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>2201.586399999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>544</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>2201.586399999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>543</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>2201.586399999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>543</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,15 +601,17 @@
         <v>2171.586399999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>543</v>
       </c>
-      <c r="J6" t="n">
-        <v>543</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,17 +640,15 @@
         <v>2588.934499999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>539</v>
       </c>
-      <c r="J7" t="n">
-        <v>543</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -661,14 +679,12 @@
         <v>2491.2309</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>544</v>
       </c>
-      <c r="J8" t="n">
-        <v>543</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -702,14 +718,12 @@
         <v>7911.424099999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>542</v>
       </c>
-      <c r="J9" t="n">
-        <v>543</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -743,14 +757,12 @@
         <v>7794.848799999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>544</v>
       </c>
-      <c r="J10" t="n">
-        <v>543</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -784,14 +796,12 @@
         <v>9054.8488</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>532</v>
       </c>
-      <c r="J11" t="n">
-        <v>543</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -825,14 +835,12 @@
         <v>11685.404</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>539</v>
       </c>
-      <c r="J12" t="n">
-        <v>543</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -866,14 +874,12 @@
         <v>11686.404</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>540</v>
       </c>
-      <c r="J13" t="n">
-        <v>543</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -907,14 +913,12 @@
         <v>11686.404</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>549</v>
       </c>
-      <c r="J14" t="n">
-        <v>543</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -948,14 +952,12 @@
         <v>10816.0765</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>549</v>
       </c>
-      <c r="J15" t="n">
-        <v>543</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -989,14 +991,12 @@
         <v>11098.6765</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>538</v>
       </c>
-      <c r="J16" t="n">
-        <v>543</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1030,14 +1030,12 @@
         <v>11099.6765</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>542</v>
       </c>
-      <c r="J17" t="n">
-        <v>543</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1071,14 +1069,12 @@
         <v>10726.9952</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>544</v>
       </c>
-      <c r="J18" t="n">
-        <v>543</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1112,14 +1108,12 @@
         <v>10755.3139</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>537</v>
       </c>
-      <c r="J19" t="n">
-        <v>543</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1153,14 +1147,12 @@
         <v>10012.2181</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>543</v>
       </c>
-      <c r="J20" t="n">
-        <v>543</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1194,14 +1186,12 @@
         <v>10352.2181</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>541</v>
       </c>
-      <c r="J21" t="n">
-        <v>543</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1235,14 +1225,12 @@
         <v>9760.218099999998</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>542</v>
       </c>
-      <c r="J22" t="n">
-        <v>543</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1276,14 +1264,12 @@
         <v>9887.214999999998</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>539</v>
       </c>
-      <c r="J23" t="n">
-        <v>543</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1317,14 +1303,12 @@
         <v>9974.454199999998</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>540</v>
       </c>
-      <c r="J24" t="n">
-        <v>543</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1358,14 +1342,12 @@
         <v>9974.454199999998</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>541</v>
       </c>
-      <c r="J25" t="n">
-        <v>543</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1399,14 +1381,12 @@
         <v>9974.454199999998</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>541</v>
       </c>
-      <c r="J26" t="n">
-        <v>543</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1440,14 +1420,12 @@
         <v>9974.454199999998</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>541</v>
       </c>
-      <c r="J27" t="n">
-        <v>543</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1481,14 +1459,12 @@
         <v>9753.557099999998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>541</v>
       </c>
-      <c r="J28" t="n">
-        <v>543</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1522,14 +1498,12 @@
         <v>9256.538599999998</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>536</v>
       </c>
-      <c r="J29" t="n">
-        <v>543</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1563,14 +1537,12 @@
         <v>9669.302499999998</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>535</v>
       </c>
-      <c r="J30" t="n">
-        <v>543</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1604,14 +1576,12 @@
         <v>9669.302499999998</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>540</v>
       </c>
-      <c r="J31" t="n">
-        <v>543</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1645,14 +1615,12 @@
         <v>9669.302499999998</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>540</v>
       </c>
-      <c r="J32" t="n">
-        <v>543</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1686,14 +1654,12 @@
         <v>9669.302499999998</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>540</v>
       </c>
-      <c r="J33" t="n">
-        <v>543</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1727,14 +1693,12 @@
         <v>9669.302499999998</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>540</v>
       </c>
-      <c r="J34" t="n">
-        <v>543</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1768,14 +1732,12 @@
         <v>8744.670399999997</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>540</v>
       </c>
-      <c r="J35" t="n">
-        <v>543</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1809,14 +1771,12 @@
         <v>9043.590799999998</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>537</v>
       </c>
-      <c r="J36" t="n">
-        <v>543</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1850,14 +1810,12 @@
         <v>9043.590799999998</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>544</v>
       </c>
-      <c r="J37" t="n">
-        <v>543</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1891,14 +1849,12 @@
         <v>10371.1224</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>544</v>
       </c>
-      <c r="J38" t="n">
-        <v>543</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1932,14 +1888,12 @@
         <v>13787.2724</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>545</v>
       </c>
-      <c r="J39" t="n">
-        <v>543</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1973,14 +1927,12 @@
         <v>14899.2724</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>554</v>
       </c>
-      <c r="J40" t="n">
-        <v>543</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2014,12 +1966,12 @@
         <v>23645.5249</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>543</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>564</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2056,9 +2008,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>543</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2095,9 +2045,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>543</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2134,9 +2082,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>543</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2173,9 +2119,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>543</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2212,9 +2156,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>543</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2251,9 +2193,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>543</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2290,9 +2230,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>543</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2329,9 +2267,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>543</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2368,9 +2304,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>543</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2407,9 +2341,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>543</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2446,9 +2378,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>543</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2485,9 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>543</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2524,9 +2452,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>543</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2563,9 +2489,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>543</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2602,9 +2526,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>543</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2641,9 +2563,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>543</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2680,9 +2600,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>543</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2719,9 +2637,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>543</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2758,9 +2674,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>543</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2797,9 +2711,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>543</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2836,9 +2748,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>543</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2875,9 +2785,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>543</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2914,9 +2822,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>543</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2953,9 +2859,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>543</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2992,9 +2896,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>543</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3031,9 +2933,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>543</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3070,9 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>543</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3109,9 +3007,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>543</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3148,9 +3044,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>543</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3187,9 +3081,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>543</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3226,9 +3118,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>543</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3265,9 +3155,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>543</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3304,9 +3192,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>543</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3343,9 +3229,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>543</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3382,9 +3266,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>543</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3421,9 +3303,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>543</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3460,9 +3340,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>543</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3499,9 +3377,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>543</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3538,9 +3414,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>543</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3577,9 +3451,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>543</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3616,9 +3488,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>543</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3655,9 +3525,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>543</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3694,9 +3562,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>543</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3733,9 +3599,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>543</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3772,9 +3636,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>543</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3811,9 +3673,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>543</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3850,9 +3710,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>543</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3889,9 +3747,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>543</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3928,9 +3784,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>543</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3967,9 +3821,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>543</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4006,9 +3858,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>543</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4045,9 +3895,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>543</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4084,9 +3932,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>543</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4123,9 +3969,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>543</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4162,9 +4006,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>543</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4201,9 +4043,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>543</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4240,9 +4080,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>543</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4279,9 +4117,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>543</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4318,9 +4154,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>543</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4357,9 +4191,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>543</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4396,9 +4228,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>543</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4432,23 +4262,19 @@
         <v>83029.09440262002</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>543</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.171795580110497</v>
-      </c>
-      <c r="M103" t="n">
-        <v>1.009276437847866</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4473,11 +4299,15 @@
         <v>76514.78130262002</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4506,11 +4336,15 @@
         <v>57533.48430262002</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4543,7 +4377,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4576,7 +4414,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4609,7 +4451,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4642,7 +4488,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4671,11 +4521,15 @@
         <v>72888.86950262</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4704,11 +4558,15 @@
         <v>75266.08820262</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4737,11 +4595,15 @@
         <v>75933.11300981</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4770,11 +4632,15 @@
         <v>88103.42574697</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4803,11 +4669,15 @@
         <v>107001.15820986</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4836,11 +4706,15 @@
         <v>118411.80380986</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4869,11 +4743,15 @@
         <v>111114.42450986</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4902,11 +4780,15 @@
         <v>111114.42450986</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4935,11 +4817,15 @@
         <v>111114.42450986</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4968,11 +4854,15 @@
         <v>123909.13010986</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5001,11 +4891,15 @@
         <v>98147.70210985999</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5034,11 +4928,15 @@
         <v>89028.54990986</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5067,11 +4965,15 @@
         <v>94391.54060985999</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5100,11 +5002,15 @@
         <v>95798.99810986</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5133,11 +5039,15 @@
         <v>96074.44280985999</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5166,11 +5076,15 @@
         <v>92630.59330985999</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5203,7 +5117,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5236,7 +5154,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5269,7 +5191,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5302,7 +5228,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5335,7 +5265,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5368,7 +5302,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5401,7 +5339,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5434,7 +5376,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5467,7 +5413,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5496,11 +5446,15 @@
         <v>108361.23190986</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5533,7 +5487,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5566,7 +5524,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5599,7 +5561,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5632,7 +5598,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5665,7 +5635,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5698,7 +5672,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5731,7 +5709,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5764,7 +5746,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5797,7 +5783,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5830,7 +5820,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5859,14 +5853,16 @@
         <v>127256.72060986</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
@@ -5892,7 +5888,7 @@
         <v>149028.71810986</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5925,7 +5921,7 @@
         <v>164590.57090986</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5958,7 +5954,7 @@
         <v>176775.93470986</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5991,7 +5987,7 @@
         <v>151045.81990986</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6024,7 +6020,7 @@
         <v>146277.61450986</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6057,7 +6053,7 @@
         <v>149822.85130986</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6090,7 +6086,7 @@
         <v>146439.69010986</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6123,7 +6119,7 @@
         <v>137050.29120986</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6156,7 +6152,7 @@
         <v>137050.29120986</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6189,7 +6185,7 @@
         <v>122265.61070986</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6222,7 +6218,7 @@
         <v>94946.91000985997</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6255,7 +6251,7 @@
         <v>83085.40350985997</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6288,7 +6284,7 @@
         <v>83085.40350985997</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6321,7 +6317,7 @@
         <v>74497.40370985997</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6354,7 +6350,7 @@
         <v>74497.40370985997</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6387,7 +6383,7 @@
         <v>78311.68600985997</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6420,7 +6416,7 @@
         <v>75088.77120985997</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6453,7 +6449,7 @@
         <v>79443.51680985997</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6486,7 +6482,7 @@
         <v>83870.28510985996</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6519,7 +6515,7 @@
         <v>82856.79540985996</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6552,7 +6548,7 @@
         <v>84580.50310985996</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6585,7 +6581,7 @@
         <v>82518.23570985996</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6618,7 +6614,7 @@
         <v>82536.00820985997</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6651,7 +6647,7 @@
         <v>83588.40280985997</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6684,7 +6680,7 @@
         <v>81390.60060985996</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6717,7 +6713,7 @@
         <v>78763.83030985996</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6750,7 +6746,7 @@
         <v>78943.03030985995</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6783,7 +6779,7 @@
         <v>78943.03030985995</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6816,7 +6812,7 @@
         <v>70657.23510985996</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6849,7 +6845,7 @@
         <v>76980.21870985997</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6882,7 +6878,7 @@
         <v>77853.58640985997</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6915,7 +6911,7 @@
         <v>77853.58640985997</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6981,7 +6977,7 @@
         <v>77717.42530985997</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7080,7 +7076,7 @@
         <v>69243.29990985997</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7113,7 +7109,7 @@
         <v>70524.26900985997</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7146,7 +7142,7 @@
         <v>70478.48640985996</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7179,7 +7175,7 @@
         <v>69164.44100985996</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7212,7 +7208,7 @@
         <v>71421.06160985996</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7245,7 +7241,7 @@
         <v>69480.87800985995</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7278,7 +7274,7 @@
         <v>68561.96620985995</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7311,7 +7307,7 @@
         <v>73074.64140985995</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7344,7 +7340,7 @@
         <v>65493.02220985995</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7377,7 +7373,7 @@
         <v>71493.22810985995</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7410,7 +7406,7 @@
         <v>75445.98171555994</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7443,7 +7439,7 @@
         <v>75570.85911555994</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7476,7 +7472,7 @@
         <v>74825.42621555994</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7509,7 +7505,7 @@
         <v>73367.56151555994</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7542,7 +7538,7 @@
         <v>73944.48951555994</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7575,7 +7571,7 @@
         <v>111485.7920155599</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7608,7 +7604,7 @@
         <v>109438.0664155599</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7839,7 +7835,7 @@
         <v>120121.0480155599</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7938,7 +7934,7 @@
         <v>125057.8985155599</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7971,7 +7967,7 @@
         <v>125057.8985155599</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8004,7 +8000,7 @@
         <v>127751.1453155599</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8103,7 +8099,7 @@
         <v>121901.0912974499</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8202,7 +8198,7 @@
         <v>121922.5381974499</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8235,7 +8231,7 @@
         <v>119746.5582974499</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8268,7 +8264,7 @@
         <v>116362.1952974499</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8301,7 +8297,7 @@
         <v>117392.4085974499</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8334,7 +8330,7 @@
         <v>114978.1104974499</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8367,7 +8363,7 @@
         <v>113950.8927974499</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8400,7 +8396,7 @@
         <v>113950.8927974499</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8532,7 +8528,7 @@
         <v>115103.5620974499</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8598,7 +8594,7 @@
         <v>114462.2746974499</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8631,7 +8627,7 @@
         <v>114394.2426974499</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8664,7 +8660,7 @@
         <v>114394.2426974499</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8697,7 +8693,7 @@
         <v>111580.8195974499</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8730,7 +8726,7 @@
         <v>110796.9040974499</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8763,7 +8759,7 @@
         <v>110796.9040974499</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8796,7 +8792,7 @@
         <v>110796.9040974499</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8829,7 +8825,7 @@
         <v>110796.9040974499</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8862,7 +8858,7 @@
         <v>109956.3796974499</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8895,7 +8891,7 @@
         <v>108922.8708974499</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8928,7 +8924,7 @@
         <v>94213.81199744993</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8961,7 +8957,7 @@
         <v>94438.88999744992</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8994,7 +8990,7 @@
         <v>94438.88999744992</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9027,7 +9023,7 @@
         <v>94372.84979744992</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9060,7 +9056,7 @@
         <v>94131.71749744992</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9093,7 +9089,7 @@
         <v>94131.71749744992</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9126,7 +9122,7 @@
         <v>88012.64439744993</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9159,7 +9155,7 @@
         <v>88115.64439744993</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9192,7 +9188,7 @@
         <v>74544.88289744992</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9258,7 +9254,7 @@
         <v>83338.86049744992</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9291,7 +9287,7 @@
         <v>83129.40329744991</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9357,7 +9353,7 @@
         <v>91652.2679974499</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9390,7 +9386,7 @@
         <v>86714.8944974499</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9423,7 +9419,7 @@
         <v>86211.20459744991</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9456,7 +9452,7 @@
         <v>90032.43499744991</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9489,7 +9485,7 @@
         <v>93148.3374974499</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9522,7 +9518,7 @@
         <v>93979.4287974499</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9555,7 +9551,7 @@
         <v>94938.7776974499</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9687,7 +9683,7 @@
         <v>83229.67049744992</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10457,6 +10453,6 @@
       <c r="M285" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest GXC.xlsx
+++ b/BackTest/2019-10-15 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1927,11 +1927,9 @@
         <v>14899.2724</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>554</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1966,11 +1964,9 @@
         <v>23645.5249</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2819,18 +2815,16 @@
         <v>56294.33151940999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -2860,11 +2854,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2893,15 +2883,11 @@
         <v>57053.01171940999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2930,15 +2916,11 @@
         <v>56235.23381940999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2967,15 +2949,11 @@
         <v>75453.96111941</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3004,15 +2982,11 @@
         <v>70684.31741941</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3041,15 +3015,11 @@
         <v>74213.34661941</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3078,15 +3048,11 @@
         <v>65865.67191941</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3115,15 +3081,11 @@
         <v>69276.56631941001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3152,15 +3114,11 @@
         <v>60865.67191941001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3189,15 +3147,11 @@
         <v>58550.14771941001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3226,15 +3180,11 @@
         <v>60561.89521941001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3263,15 +3213,11 @@
         <v>60561.89521941001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3300,15 +3246,11 @@
         <v>52101.23561941001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3337,15 +3279,11 @@
         <v>54820.47691941001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3374,15 +3312,11 @@
         <v>55753.79911941001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3411,15 +3345,11 @@
         <v>56678.56641941001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3448,15 +3378,11 @@
         <v>56679.56641941001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3485,15 +3411,11 @@
         <v>56665.14701941001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3522,15 +3444,11 @@
         <v>56622.28481941001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3559,15 +3477,11 @@
         <v>56672.27491941001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3596,15 +3510,11 @@
         <v>45954.27501941001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3633,15 +3543,11 @@
         <v>36321.93411941001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3670,15 +3576,11 @@
         <v>36836.31741941001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3711,11 +3613,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3748,11 +3646,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3785,11 +3679,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3822,11 +3712,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3859,11 +3745,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3896,11 +3778,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3933,11 +3811,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3970,11 +3844,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4007,11 +3877,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4044,11 +3910,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +3943,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4118,11 +3976,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4155,11 +4009,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4192,11 +4042,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4225,15 +4071,11 @@
         <v>79827.55359756002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4266,11 +4108,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4303,11 +4141,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4336,15 +4170,11 @@
         <v>57533.48430262002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4377,11 +4207,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4414,11 +4240,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4451,11 +4273,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4484,15 +4302,11 @@
         <v>78886.77210262</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4525,11 +4339,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4562,11 +4372,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4599,11 +4405,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4636,11 +4438,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4673,11 +4471,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4710,11 +4504,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4747,11 +4537,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4784,11 +4570,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4821,11 +4603,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4858,11 +4636,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4895,11 +4669,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4932,11 +4702,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4969,11 +4735,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5006,11 +4768,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5043,11 +4801,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5080,11 +4834,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5117,11 +4867,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5154,11 +4900,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5191,11 +4933,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5228,11 +4966,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5265,11 +4999,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5032,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5339,11 +5065,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5376,11 +5098,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5413,11 +5131,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5450,11 +5164,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5487,11 +5197,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5524,11 +5230,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5561,11 +5263,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5598,11 +5296,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5635,11 +5329,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5672,11 +5362,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5709,11 +5395,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5746,11 +5428,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5783,11 +5461,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5820,11 +5494,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5853,16 +5523,14 @@
         <v>127256.72060986</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
       <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
@@ -5888,7 +5556,7 @@
         <v>149028.71810986</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5921,7 +5589,7 @@
         <v>164590.57090986</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5954,7 +5622,7 @@
         <v>176775.93470986</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5987,7 +5655,7 @@
         <v>151045.81990986</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6020,7 +5688,7 @@
         <v>146277.61450986</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6053,7 +5721,7 @@
         <v>149822.85130986</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6086,7 +5754,7 @@
         <v>146439.69010986</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6119,7 +5787,7 @@
         <v>137050.29120986</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6152,7 +5820,7 @@
         <v>137050.29120986</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6185,7 +5853,7 @@
         <v>122265.61070986</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6218,7 +5886,7 @@
         <v>94946.91000985997</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6251,7 +5919,7 @@
         <v>83085.40350985997</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6284,7 +5952,7 @@
         <v>83085.40350985997</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6317,7 +5985,7 @@
         <v>74497.40370985997</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6350,7 +6018,7 @@
         <v>74497.40370985997</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6383,7 +6051,7 @@
         <v>78311.68600985997</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6416,7 +6084,7 @@
         <v>75088.77120985997</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6449,7 +6117,7 @@
         <v>79443.51680985997</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6482,7 +6150,7 @@
         <v>83870.28510985996</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6515,7 +6183,7 @@
         <v>82856.79540985996</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6548,7 +6216,7 @@
         <v>84580.50310985996</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6581,7 +6249,7 @@
         <v>82518.23570985996</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6614,7 +6282,7 @@
         <v>82536.00820985997</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6647,7 +6315,7 @@
         <v>83588.40280985997</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6680,7 +6348,7 @@
         <v>81390.60060985996</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6713,7 +6381,7 @@
         <v>78763.83030985996</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6746,7 +6414,7 @@
         <v>78943.03030985995</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6779,7 +6447,7 @@
         <v>78943.03030985995</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6812,7 +6480,7 @@
         <v>70657.23510985996</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6845,7 +6513,7 @@
         <v>76980.21870985997</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6878,7 +6546,7 @@
         <v>77853.58640985997</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6911,7 +6579,7 @@
         <v>77853.58640985997</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6977,7 +6645,7 @@
         <v>77717.42530985997</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7076,7 +6744,7 @@
         <v>69243.29990985997</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7109,7 +6777,7 @@
         <v>70524.26900985997</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7142,7 +6810,7 @@
         <v>70478.48640985996</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7175,7 +6843,7 @@
         <v>69164.44100985996</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7208,7 +6876,7 @@
         <v>71421.06160985996</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7241,7 +6909,7 @@
         <v>69480.87800985995</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7274,7 +6942,7 @@
         <v>68561.96620985995</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7307,7 +6975,7 @@
         <v>73074.64140985995</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7340,7 +7008,7 @@
         <v>65493.02220985995</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7373,7 +7041,7 @@
         <v>71493.22810985995</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7406,7 +7074,7 @@
         <v>75445.98171555994</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7439,7 +7107,7 @@
         <v>75570.85911555994</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7472,7 +7140,7 @@
         <v>74825.42621555994</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7505,7 +7173,7 @@
         <v>73367.56151555994</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7538,7 +7206,7 @@
         <v>73944.48951555994</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7571,7 +7239,7 @@
         <v>111485.7920155599</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7604,7 +7272,7 @@
         <v>109438.0664155599</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7835,7 +7503,7 @@
         <v>120121.0480155599</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7934,7 +7602,7 @@
         <v>125057.8985155599</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7967,7 +7635,7 @@
         <v>125057.8985155599</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8000,7 +7668,7 @@
         <v>127751.1453155599</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8198,7 +7866,7 @@
         <v>121922.5381974499</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8231,7 +7899,7 @@
         <v>119746.5582974499</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8264,7 +7932,7 @@
         <v>116362.1952974499</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8297,7 +7965,7 @@
         <v>117392.4085974499</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8330,7 +7998,7 @@
         <v>114978.1104974499</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8363,7 +8031,7 @@
         <v>113950.8927974499</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8396,7 +8064,7 @@
         <v>113950.8927974499</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8528,7 +8196,7 @@
         <v>115103.5620974499</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8594,7 +8262,7 @@
         <v>114462.2746974499</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8726,7 +8394,7 @@
         <v>110796.9040974499</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8759,7 +8427,7 @@
         <v>110796.9040974499</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8792,7 +8460,7 @@
         <v>110796.9040974499</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8825,7 +8493,7 @@
         <v>110796.9040974499</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8858,7 +8526,7 @@
         <v>109956.3796974499</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8891,7 +8559,7 @@
         <v>108922.8708974499</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8924,7 +8592,7 @@
         <v>94213.81199744993</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8957,7 +8625,7 @@
         <v>94438.88999744992</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8990,7 +8658,7 @@
         <v>94438.88999744992</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9023,7 +8691,7 @@
         <v>94372.84979744992</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9056,7 +8724,7 @@
         <v>94131.71749744992</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9089,7 +8757,7 @@
         <v>94131.71749744992</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9122,7 +8790,7 @@
         <v>88012.64439744993</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9155,7 +8823,7 @@
         <v>88115.64439744993</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9188,7 +8856,7 @@
         <v>74544.88289744992</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9254,7 +8922,7 @@
         <v>83338.86049744992</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9287,7 +8955,7 @@
         <v>83129.40329744991</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9353,7 +9021,7 @@
         <v>91652.2679974499</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9386,7 +9054,7 @@
         <v>86714.8944974499</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9419,7 +9087,7 @@
         <v>86211.20459744991</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9452,7 +9120,7 @@
         <v>90032.43499744991</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9485,7 +9153,7 @@
         <v>93148.3374974499</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9518,7 +9186,7 @@
         <v>93979.4287974499</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9551,7 +9219,7 @@
         <v>94938.7776974499</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9683,7 +9351,7 @@
         <v>83229.67049744992</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10453,6 +10121,6 @@
       <c r="M285" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest GXC.xlsx
+++ b/BackTest/2019-10-15 BackTest GXC.xlsx
@@ -1927,9 +1927,11 @@
         <v>14899.2724</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>554</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -2815,16 +2817,18 @@
         <v>56294.33151940999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
       <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -2854,7 +2858,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2883,11 +2891,15 @@
         <v>57053.01171940999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2916,11 +2928,15 @@
         <v>56235.23381940999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2949,11 +2965,15 @@
         <v>75453.96111941</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2982,11 +3002,15 @@
         <v>70684.31741941</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3015,11 +3039,15 @@
         <v>74213.34661941</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3048,11 +3076,15 @@
         <v>65865.67191941</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3081,11 +3113,15 @@
         <v>69276.56631941001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3114,11 +3150,15 @@
         <v>60865.67191941001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3147,11 +3187,15 @@
         <v>58550.14771941001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3180,11 +3224,15 @@
         <v>60561.89521941001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3213,11 +3261,15 @@
         <v>60561.89521941001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3246,11 +3298,15 @@
         <v>52101.23561941001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3279,11 +3335,15 @@
         <v>54820.47691941001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3312,11 +3372,15 @@
         <v>55753.79911941001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3345,11 +3409,15 @@
         <v>56678.56641941001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3378,11 +3446,15 @@
         <v>56679.56641941001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3411,11 +3483,15 @@
         <v>56665.14701941001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3444,11 +3520,15 @@
         <v>56622.28481941001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3477,11 +3557,15 @@
         <v>56672.27491941001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3510,11 +3594,15 @@
         <v>45954.27501941001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3543,11 +3631,15 @@
         <v>36321.93411941001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3576,11 +3668,15 @@
         <v>36836.31741941001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3613,7 +3709,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3646,7 +3746,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3679,7 +3783,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3712,7 +3820,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3745,7 +3857,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3778,7 +3894,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3811,7 +3931,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3844,7 +3968,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3877,7 +4005,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3910,7 +4042,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3943,7 +4079,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3976,7 +4116,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4009,7 +4153,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4042,7 +4190,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4071,11 +4223,15 @@
         <v>79827.55359756002</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4108,7 +4264,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4141,7 +4301,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4170,11 +4334,15 @@
         <v>57533.48430262002</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4207,7 +4375,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4240,7 +4412,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4273,7 +4449,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4302,11 +4482,15 @@
         <v>78886.77210262</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4339,7 +4523,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4372,7 +4560,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4405,7 +4597,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4438,7 +4634,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4471,7 +4671,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4504,7 +4708,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4537,7 +4745,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4570,7 +4782,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4603,7 +4819,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4636,7 +4856,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4669,7 +4893,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4702,7 +4930,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4735,7 +4967,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4768,7 +5004,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4801,7 +5041,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4834,7 +5078,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4867,7 +5115,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4900,7 +5152,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4933,7 +5189,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4966,7 +5226,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4999,7 +5263,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5032,7 +5300,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5065,7 +5337,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5098,7 +5374,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5131,7 +5411,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5164,7 +5448,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5197,7 +5485,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5230,7 +5522,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5263,7 +5559,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5296,7 +5596,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5329,7 +5633,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5362,7 +5670,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5395,7 +5707,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5428,7 +5744,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5457,14 +5777,16 @@
         <v>127081.43600986</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
@@ -5490,7 +5812,7 @@
         <v>132862.70320986</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5589,7 +5911,7 @@
         <v>164590.57090986</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5622,7 +5944,7 @@
         <v>176775.93470986</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5655,7 +5977,7 @@
         <v>151045.81990986</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5688,7 +6010,7 @@
         <v>146277.61450986</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5721,7 +6043,7 @@
         <v>149822.85130986</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5754,7 +6076,7 @@
         <v>146439.69010986</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5787,7 +6109,7 @@
         <v>137050.29120986</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5820,7 +6142,7 @@
         <v>137050.29120986</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5853,7 +6175,7 @@
         <v>122265.61070986</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5886,7 +6208,7 @@
         <v>94946.91000985997</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5919,7 +6241,7 @@
         <v>83085.40350985997</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>

--- a/BackTest/2019-10-15 BackTest GXC.xlsx
+++ b/BackTest/2019-10-15 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M285"/>
+  <dimension ref="A1:L285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>442.5929</v>
       </c>
       <c r="G2" t="n">
-        <v>2994.586299999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,15 @@
         <v>792.9999</v>
       </c>
       <c r="G3" t="n">
-        <v>2201.586399999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>544</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +503,15 @@
         <v>715.9999</v>
       </c>
       <c r="G4" t="n">
-        <v>2201.586399999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +533,15 @@
         <v>353.6853</v>
       </c>
       <c r="G5" t="n">
-        <v>2201.586399999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +563,15 @@
         <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>2171.586399999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +593,15 @@
         <v>417.3481</v>
       </c>
       <c r="G7" t="n">
-        <v>2588.934499999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>539</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +623,15 @@
         <v>97.70359999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>2491.2309</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>544</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,24 +653,15 @@
         <v>5420.1932</v>
       </c>
       <c r="G9" t="n">
-        <v>7911.424099999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -754,24 +683,15 @@
         <v>116.5753</v>
       </c>
       <c r="G10" t="n">
-        <v>7794.848799999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>544</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -793,24 +713,15 @@
         <v>1260</v>
       </c>
       <c r="G11" t="n">
-        <v>9054.8488</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>532</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -832,24 +743,15 @@
         <v>2630.5552</v>
       </c>
       <c r="G12" t="n">
-        <v>11685.404</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>539</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -871,24 +773,15 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>11686.404</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,24 +803,15 @@
         <v>18.21493624</v>
       </c>
       <c r="G14" t="n">
-        <v>11686.404</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>549</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -949,24 +833,15 @@
         <v>870.3275</v>
       </c>
       <c r="G15" t="n">
-        <v>10816.0765</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>549</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -988,24 +863,15 @@
         <v>282.6</v>
       </c>
       <c r="G16" t="n">
-        <v>11098.6765</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>538</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1027,24 +893,15 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>11099.6765</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1066,24 +923,15 @@
         <v>372.6813</v>
       </c>
       <c r="G18" t="n">
-        <v>10726.9952</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>544</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1105,24 +953,15 @@
         <v>28.3187</v>
       </c>
       <c r="G19" t="n">
-        <v>10755.3139</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>537</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1144,24 +983,15 @@
         <v>743.0958000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>10012.2181</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1183,24 +1013,15 @@
         <v>340</v>
       </c>
       <c r="G21" t="n">
-        <v>10352.2181</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>541</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1222,24 +1043,15 @@
         <v>592</v>
       </c>
       <c r="G22" t="n">
-        <v>9760.218099999998</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1261,24 +1073,15 @@
         <v>126.9969</v>
       </c>
       <c r="G23" t="n">
-        <v>9887.214999999998</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>539</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1300,24 +1103,15 @@
         <v>87.2392</v>
       </c>
       <c r="G24" t="n">
-        <v>9974.454199999998</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1339,24 +1133,19 @@
         <v>503</v>
       </c>
       <c r="G25" t="n">
-        <v>9974.454199999998</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>541</v>
       </c>
       <c r="I25" t="n">
         <v>541</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1378,24 +1167,23 @@
         <v>240</v>
       </c>
       <c r="G26" t="n">
-        <v>9974.454199999998</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>541</v>
       </c>
       <c r="I26" t="n">
         <v>541</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1417,24 +1205,23 @@
         <v>180</v>
       </c>
       <c r="G27" t="n">
-        <v>9974.454199999998</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>541</v>
       </c>
       <c r="I27" t="n">
         <v>541</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1456,24 +1243,23 @@
         <v>220.8971</v>
       </c>
       <c r="G28" t="n">
-        <v>9753.557099999998</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>541</v>
       </c>
       <c r="I28" t="n">
         <v>541</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1495,24 +1281,23 @@
         <v>497.0185</v>
       </c>
       <c r="G29" t="n">
-        <v>9256.538599999998</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>536</v>
       </c>
       <c r="I29" t="n">
-        <v>536</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>541</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1534,24 +1319,23 @@
         <v>412.7639</v>
       </c>
       <c r="G30" t="n">
-        <v>9669.302499999998</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="I30" t="n">
-        <v>535</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>541</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1573,24 +1357,23 @@
         <v>2377.6942</v>
       </c>
       <c r="G31" t="n">
-        <v>9669.302499999998</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>540</v>
       </c>
       <c r="I31" t="n">
-        <v>540</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>541</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1612,24 +1395,23 @@
         <v>3894.9999</v>
       </c>
       <c r="G32" t="n">
-        <v>9669.302499999998</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>540</v>
       </c>
       <c r="I32" t="n">
-        <v>540</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>541</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1651,24 +1433,23 @@
         <v>685.1852</v>
       </c>
       <c r="G33" t="n">
-        <v>9669.302499999998</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>540</v>
       </c>
       <c r="I33" t="n">
-        <v>540</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>541</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1690,24 +1471,23 @@
         <v>1339.5</v>
       </c>
       <c r="G34" t="n">
-        <v>9669.302499999998</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>540</v>
       </c>
       <c r="I34" t="n">
-        <v>540</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>541</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1729,24 +1509,23 @@
         <v>924.6321</v>
       </c>
       <c r="G35" t="n">
-        <v>8744.670399999997</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>540</v>
       </c>
       <c r="I35" t="n">
-        <v>540</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>541</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1768,24 +1547,23 @@
         <v>298.9204</v>
       </c>
       <c r="G36" t="n">
-        <v>9043.590799999998</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>537</v>
       </c>
       <c r="I36" t="n">
-        <v>537</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>541</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1807,24 +1585,23 @@
         <v>740.0965</v>
       </c>
       <c r="G37" t="n">
-        <v>9043.590799999998</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>544</v>
       </c>
       <c r="I37" t="n">
-        <v>544</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>541</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1846,24 +1623,23 @@
         <v>1327.5316</v>
       </c>
       <c r="G38" t="n">
-        <v>10371.1224</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>544</v>
       </c>
       <c r="I38" t="n">
-        <v>544</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>541</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1885,24 +1661,23 @@
         <v>3416.15</v>
       </c>
       <c r="G39" t="n">
-        <v>13787.2724</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>545</v>
       </c>
       <c r="I39" t="n">
-        <v>545</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>541</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1924,24 +1699,21 @@
         <v>1112</v>
       </c>
       <c r="G40" t="n">
-        <v>14899.2724</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>554</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>541</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1963,22 +1735,21 @@
         <v>8746.252500000001</v>
       </c>
       <c r="G41" t="n">
-        <v>23645.5249</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>541</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2000,22 +1771,21 @@
         <v>680</v>
       </c>
       <c r="G42" t="n">
-        <v>22965.5249</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>541</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2037,22 +1807,21 @@
         <v>3238</v>
       </c>
       <c r="G43" t="n">
-        <v>26203.5249</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>541</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2074,22 +1843,21 @@
         <v>1169</v>
       </c>
       <c r="G44" t="n">
-        <v>26203.5249</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>541</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2111,22 +1879,21 @@
         <v>1989.87</v>
       </c>
       <c r="G45" t="n">
-        <v>26203.5249</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>541</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2148,22 +1915,21 @@
         <v>1991.847</v>
       </c>
       <c r="G46" t="n">
-        <v>28195.3719</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>541</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2185,22 +1951,21 @@
         <v>498.8371</v>
       </c>
       <c r="G47" t="n">
-        <v>27696.5348</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>541</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2222,22 +1987,21 @@
         <v>3550.76</v>
       </c>
       <c r="G48" t="n">
-        <v>31247.2948</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>541</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2259,22 +2023,21 @@
         <v>2500.1889</v>
       </c>
       <c r="G49" t="n">
-        <v>28747.1059</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>541</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2296,22 +2059,21 @@
         <v>401</v>
       </c>
       <c r="G50" t="n">
-        <v>29148.1059</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>541</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2333,22 +2095,21 @@
         <v>13232.7792</v>
       </c>
       <c r="G51" t="n">
-        <v>42380.8851</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>541</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2370,22 +2131,21 @@
         <v>2777.7508</v>
       </c>
       <c r="G52" t="n">
-        <v>45158.6359</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>541</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2407,22 +2167,21 @@
         <v>4332.2762</v>
       </c>
       <c r="G53" t="n">
-        <v>40826.3597</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>541</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2444,22 +2203,21 @@
         <v>128.0919</v>
       </c>
       <c r="G54" t="n">
-        <v>40954.4516</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>541</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2481,22 +2239,21 @@
         <v>1199.9539</v>
       </c>
       <c r="G55" t="n">
-        <v>39754.4977</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>541</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2518,22 +2275,21 @@
         <v>1568.8589</v>
       </c>
       <c r="G56" t="n">
-        <v>41323.3566</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>541</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2555,22 +2311,21 @@
         <v>280</v>
       </c>
       <c r="G57" t="n">
-        <v>41603.3566</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>541</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2592,22 +2347,21 @@
         <v>2371.55191941</v>
       </c>
       <c r="G58" t="n">
-        <v>43974.90851941</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>541</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2629,22 +2383,21 @@
         <v>923.1932</v>
       </c>
       <c r="G59" t="n">
-        <v>44898.10171941</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>541</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2666,22 +2419,21 @@
         <v>424.6488</v>
       </c>
       <c r="G60" t="n">
-        <v>44473.45291941</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>541</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2703,22 +2455,21 @@
         <v>2629.7273</v>
       </c>
       <c r="G61" t="n">
-        <v>47103.18021940999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>541</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2740,22 +2491,21 @@
         <v>5891.9021</v>
       </c>
       <c r="G62" t="n">
-        <v>52995.08231940999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>541</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2777,22 +2527,21 @@
         <v>3299.2492</v>
       </c>
       <c r="G63" t="n">
-        <v>56294.33151940999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>541</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2814,22 +2563,21 @@
         <v>3767.5909</v>
       </c>
       <c r="G64" t="n">
-        <v>56294.33151940999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>541</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2851,22 +2599,21 @@
         <v>2589.5362</v>
       </c>
       <c r="G65" t="n">
-        <v>58883.86771940999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>541</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2888,22 +2635,21 @@
         <v>1830.856</v>
       </c>
       <c r="G66" t="n">
-        <v>57053.01171940999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>541</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2925,22 +2671,21 @@
         <v>817.7779</v>
       </c>
       <c r="G67" t="n">
-        <v>56235.23381940999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>541</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2962,22 +2707,21 @@
         <v>19218.7273</v>
       </c>
       <c r="G68" t="n">
-        <v>75453.96111941</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>541</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2999,22 +2743,21 @@
         <v>4769.6437</v>
       </c>
       <c r="G69" t="n">
-        <v>70684.31741941</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>541</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3036,22 +2779,21 @@
         <v>3529.0292</v>
       </c>
       <c r="G70" t="n">
-        <v>74213.34661941</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>541</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3073,22 +2815,21 @@
         <v>8347.6747</v>
       </c>
       <c r="G71" t="n">
-        <v>65865.67191941</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>541</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3110,22 +2851,21 @@
         <v>3410.8944</v>
       </c>
       <c r="G72" t="n">
-        <v>69276.56631941001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>541</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3147,22 +2887,21 @@
         <v>8410.894399999999</v>
       </c>
       <c r="G73" t="n">
-        <v>60865.67191941001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>541</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3184,22 +2923,21 @@
         <v>2315.5242</v>
       </c>
       <c r="G74" t="n">
-        <v>58550.14771941001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>541</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3221,22 +2959,21 @@
         <v>2011.7475</v>
       </c>
       <c r="G75" t="n">
-        <v>60561.89521941001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>541</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3258,22 +2995,21 @@
         <v>1514.1332</v>
       </c>
       <c r="G76" t="n">
-        <v>60561.89521941001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>541</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3295,22 +3031,21 @@
         <v>8460.659600000001</v>
       </c>
       <c r="G77" t="n">
-        <v>52101.23561941001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>541</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3332,22 +3067,21 @@
         <v>2719.2413</v>
       </c>
       <c r="G78" t="n">
-        <v>54820.47691941001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>541</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3369,22 +3103,21 @@
         <v>933.3222</v>
       </c>
       <c r="G79" t="n">
-        <v>55753.79911941001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>541</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3406,22 +3139,21 @@
         <v>924.7673</v>
       </c>
       <c r="G80" t="n">
-        <v>56678.56641941001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>541</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3443,22 +3175,21 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>56679.56641941001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>541</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3480,22 +3211,21 @@
         <v>14.4194</v>
       </c>
       <c r="G82" t="n">
-        <v>56665.14701941001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>541</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3517,22 +3247,21 @@
         <v>42.8622</v>
       </c>
       <c r="G83" t="n">
-        <v>56622.28481941001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>541</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3554,22 +3283,21 @@
         <v>49.9901</v>
       </c>
       <c r="G84" t="n">
-        <v>56672.27491941001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>541</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3591,22 +3319,21 @@
         <v>10717.9999</v>
       </c>
       <c r="G85" t="n">
-        <v>45954.27501941001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>541</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3628,22 +3355,21 @@
         <v>9632.340899999999</v>
       </c>
       <c r="G86" t="n">
-        <v>36321.93411941001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>541</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3665,22 +3391,21 @@
         <v>514.3833</v>
       </c>
       <c r="G87" t="n">
-        <v>36836.31741941001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>541</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3702,22 +3427,21 @@
         <v>113.1244</v>
       </c>
       <c r="G88" t="n">
-        <v>36836.31741941001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>541</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3739,22 +3463,21 @@
         <v>752.951</v>
       </c>
       <c r="G89" t="n">
-        <v>37589.26841941001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>541</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3776,22 +3499,21 @@
         <v>4095.8509</v>
       </c>
       <c r="G90" t="n">
-        <v>33493.41751941002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>541</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3813,22 +3535,21 @@
         <v>787.3244</v>
       </c>
       <c r="G91" t="n">
-        <v>32706.09311941002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>541</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3850,22 +3571,21 @@
         <v>131.8971</v>
       </c>
       <c r="G92" t="n">
-        <v>32837.99021941001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>541</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3887,22 +3607,21 @@
         <v>224.2523</v>
       </c>
       <c r="G93" t="n">
-        <v>33062.24251941001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>541</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3924,22 +3643,21 @@
         <v>167.4844</v>
       </c>
       <c r="G94" t="n">
-        <v>33229.72691941002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>541</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3961,22 +3679,21 @@
         <v>717.3344</v>
       </c>
       <c r="G95" t="n">
-        <v>32512.39251941002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>541</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3998,22 +3715,21 @@
         <v>215.1809</v>
       </c>
       <c r="G96" t="n">
-        <v>32512.39251941002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>541</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4035,22 +3751,21 @@
         <v>734.0300999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>33246.42261941002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>541</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4072,22 +3787,21 @@
         <v>1758.78122173</v>
       </c>
       <c r="G98" t="n">
-        <v>35005.20384114002</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>541</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4109,22 +3823,21 @@
         <v>6947.77660985</v>
       </c>
       <c r="G99" t="n">
-        <v>41952.98045099002</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>541</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4146,22 +3859,21 @@
         <v>14349.88511935</v>
       </c>
       <c r="G100" t="n">
-        <v>56302.86557034002</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>541</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4183,22 +3895,21 @@
         <v>34241.69995171</v>
       </c>
       <c r="G101" t="n">
-        <v>90544.56552205002</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>541</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4220,22 +3931,21 @@
         <v>10717.01192449</v>
       </c>
       <c r="G102" t="n">
-        <v>79827.55359756002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>541</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4257,22 +3967,21 @@
         <v>3201.54080506</v>
       </c>
       <c r="G103" t="n">
-        <v>83029.09440262002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>541</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4294,22 +4003,21 @@
         <v>6514.3131</v>
       </c>
       <c r="G104" t="n">
-        <v>76514.78130262002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>541</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4331,22 +4039,21 @@
         <v>18981.297</v>
       </c>
       <c r="G105" t="n">
-        <v>57533.48430262002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>541</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4368,22 +4075,21 @@
         <v>9167.1296</v>
       </c>
       <c r="G106" t="n">
-        <v>66700.61390262001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>541</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4405,22 +4111,21 @@
         <v>2691.0131</v>
       </c>
       <c r="G107" t="n">
-        <v>69391.62700262001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>541</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4442,22 +4147,21 @@
         <v>1453.6457</v>
       </c>
       <c r="G108" t="n">
-        <v>70845.27270262</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>541</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4479,22 +4183,21 @@
         <v>8041.4994</v>
       </c>
       <c r="G109" t="n">
-        <v>78886.77210262</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>541</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4516,22 +4219,21 @@
         <v>5997.9026</v>
       </c>
       <c r="G110" t="n">
-        <v>72888.86950262</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>541</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4553,22 +4255,21 @@
         <v>2377.2187</v>
       </c>
       <c r="G111" t="n">
-        <v>75266.08820262</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>541</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4590,22 +4291,21 @@
         <v>667.02480719</v>
       </c>
       <c r="G112" t="n">
-        <v>75933.11300981</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>541</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4627,22 +4327,21 @@
         <v>12170.31273716</v>
       </c>
       <c r="G113" t="n">
-        <v>88103.42574697</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>541</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4664,22 +4363,21 @@
         <v>18897.73246289</v>
       </c>
       <c r="G114" t="n">
-        <v>107001.15820986</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>541</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4701,22 +4399,21 @@
         <v>11410.6456</v>
       </c>
       <c r="G115" t="n">
-        <v>118411.80380986</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>541</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4738,22 +4435,21 @@
         <v>7297.3793</v>
       </c>
       <c r="G116" t="n">
-        <v>111114.42450986</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>541</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4775,22 +4471,21 @@
         <v>6442.812</v>
       </c>
       <c r="G117" t="n">
-        <v>111114.42450986</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>541</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4812,22 +4507,21 @@
         <v>14835.5564</v>
       </c>
       <c r="G118" t="n">
-        <v>111114.42450986</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>541</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4849,22 +4543,21 @@
         <v>12794.7056</v>
       </c>
       <c r="G119" t="n">
-        <v>123909.13010986</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>541</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4886,22 +4579,21 @@
         <v>25761.428</v>
       </c>
       <c r="G120" t="n">
-        <v>98147.70210985999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>541</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4923,22 +4615,21 @@
         <v>9119.1522</v>
       </c>
       <c r="G121" t="n">
-        <v>89028.54990986</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>541</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4960,22 +4651,21 @@
         <v>5362.9907</v>
       </c>
       <c r="G122" t="n">
-        <v>94391.54060985999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>541</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4997,22 +4687,21 @@
         <v>1407.4575</v>
       </c>
       <c r="G123" t="n">
-        <v>95798.99810986</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>541</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5034,22 +4723,21 @@
         <v>275.4447</v>
       </c>
       <c r="G124" t="n">
-        <v>96074.44280985999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>541</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5071,22 +4759,21 @@
         <v>3443.8495</v>
       </c>
       <c r="G125" t="n">
-        <v>92630.59330985999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>541</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5108,22 +4795,21 @@
         <v>15974.2847</v>
       </c>
       <c r="G126" t="n">
-        <v>108604.87800986</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>541</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5145,22 +4831,21 @@
         <v>5927.0498</v>
       </c>
       <c r="G127" t="n">
-        <v>114531.92780986</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>541</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5182,22 +4867,21 @@
         <v>797.1544</v>
       </c>
       <c r="G128" t="n">
-        <v>113734.77340986</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>541</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5219,22 +4903,21 @@
         <v>302.181</v>
       </c>
       <c r="G129" t="n">
-        <v>114036.95440986</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>541</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5256,22 +4939,21 @@
         <v>890.6265</v>
       </c>
       <c r="G130" t="n">
-        <v>114036.95440986</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>541</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5293,22 +4975,21 @@
         <v>3770.8304</v>
       </c>
       <c r="G131" t="n">
-        <v>117807.78480986</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>541</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5330,22 +5011,21 @@
         <v>9293.7865</v>
       </c>
       <c r="G132" t="n">
-        <v>127101.57130986</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>541</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5367,22 +5047,21 @@
         <v>5498.0967</v>
       </c>
       <c r="G133" t="n">
-        <v>121603.47460986</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>541</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5404,22 +5083,21 @@
         <v>8493.1342</v>
       </c>
       <c r="G134" t="n">
-        <v>113110.34040986</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>541</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5441,22 +5119,21 @@
         <v>4749.1085</v>
       </c>
       <c r="G135" t="n">
-        <v>108361.23190986</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>541</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5478,22 +5155,21 @@
         <v>8955.177</v>
       </c>
       <c r="G136" t="n">
-        <v>117316.40890986</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>541</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5515,22 +5191,21 @@
         <v>14503.481</v>
       </c>
       <c r="G137" t="n">
-        <v>102812.92790986</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>541</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5552,22 +5227,21 @@
         <v>1716.7951</v>
       </c>
       <c r="G138" t="n">
-        <v>104529.72300986</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>541</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5589,22 +5263,21 @@
         <v>1534.5096</v>
       </c>
       <c r="G139" t="n">
-        <v>104529.72300986</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>541</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5626,22 +5299,21 @@
         <v>666.1528</v>
       </c>
       <c r="G140" t="n">
-        <v>105195.87580986</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>541</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5663,22 +5335,21 @@
         <v>4876.4856</v>
       </c>
       <c r="G141" t="n">
-        <v>110072.36140986</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>541</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5700,22 +5371,23 @@
         <v>537.3078</v>
       </c>
       <c r="G142" t="n">
-        <v>110609.66920986</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>541</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1.264870609981516</v>
       </c>
       <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>1.035849056603774</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5737,22 +5409,15 @@
         <v>31525.81</v>
       </c>
       <c r="G143" t="n">
-        <v>142135.47920986</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5774,20 +5439,15 @@
         <v>15054.0432</v>
       </c>
       <c r="G144" t="n">
-        <v>127081.43600986</v>
-      </c>
-      <c r="H144" t="n">
         <v>2</v>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K144" t="n">
+        <v>1</v>
       </c>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5809,18 +5469,15 @@
         <v>5781.2672</v>
       </c>
       <c r="G145" t="n">
-        <v>132862.70320986</v>
-      </c>
-      <c r="H145" t="n">
         <v>2</v>
       </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5842,18 +5499,15 @@
         <v>5605.9826</v>
       </c>
       <c r="G146" t="n">
-        <v>127256.72060986</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5875,18 +5529,15 @@
         <v>21771.9975</v>
       </c>
       <c r="G147" t="n">
-        <v>149028.71810986</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5908,18 +5559,15 @@
         <v>15561.8528</v>
       </c>
       <c r="G148" t="n">
-        <v>164590.57090986</v>
-      </c>
-      <c r="H148" t="n">
         <v>2</v>
       </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5941,18 +5589,15 @@
         <v>12185.3638</v>
       </c>
       <c r="G149" t="n">
-        <v>176775.93470986</v>
-      </c>
-      <c r="H149" t="n">
         <v>2</v>
       </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5974,18 +5619,15 @@
         <v>25730.1148</v>
       </c>
       <c r="G150" t="n">
-        <v>151045.81990986</v>
-      </c>
-      <c r="H150" t="n">
         <v>2</v>
       </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6007,18 +5649,15 @@
         <v>4768.2054</v>
       </c>
       <c r="G151" t="n">
-        <v>146277.61450986</v>
-      </c>
-      <c r="H151" t="n">
         <v>2</v>
       </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6040,18 +5679,15 @@
         <v>3545.2368</v>
       </c>
       <c r="G152" t="n">
-        <v>149822.85130986</v>
-      </c>
-      <c r="H152" t="n">
         <v>2</v>
       </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6073,18 +5709,15 @@
         <v>3383.1612</v>
       </c>
       <c r="G153" t="n">
-        <v>146439.69010986</v>
-      </c>
-      <c r="H153" t="n">
         <v>2</v>
       </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6106,18 +5739,15 @@
         <v>9389.3989</v>
       </c>
       <c r="G154" t="n">
-        <v>137050.29120986</v>
-      </c>
-      <c r="H154" t="n">
         <v>2</v>
       </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6139,18 +5769,15 @@
         <v>9464.536400000001</v>
       </c>
       <c r="G155" t="n">
-        <v>137050.29120986</v>
-      </c>
-      <c r="H155" t="n">
         <v>2</v>
       </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6172,18 +5799,15 @@
         <v>14784.6805</v>
       </c>
       <c r="G156" t="n">
-        <v>122265.61070986</v>
-      </c>
-      <c r="H156" t="n">
         <v>2</v>
       </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6205,18 +5829,15 @@
         <v>27318.7007</v>
       </c>
       <c r="G157" t="n">
-        <v>94946.91000985997</v>
-      </c>
-      <c r="H157" t="n">
         <v>2</v>
       </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6238,18 +5859,15 @@
         <v>11861.5065</v>
       </c>
       <c r="G158" t="n">
-        <v>83085.40350985997</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6271,18 +5889,15 @@
         <v>10387.1726</v>
       </c>
       <c r="G159" t="n">
-        <v>83085.40350985997</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6304,18 +5919,15 @@
         <v>8587.9998</v>
       </c>
       <c r="G160" t="n">
-        <v>74497.40370985997</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6337,18 +5949,15 @@
         <v>1704.6427</v>
       </c>
       <c r="G161" t="n">
-        <v>74497.40370985997</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6370,18 +5979,15 @@
         <v>3814.2823</v>
       </c>
       <c r="G162" t="n">
-        <v>78311.68600985997</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6403,18 +6009,15 @@
         <v>3222.9148</v>
       </c>
       <c r="G163" t="n">
-        <v>75088.77120985997</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6436,18 +6039,15 @@
         <v>4354.7456</v>
       </c>
       <c r="G164" t="n">
-        <v>79443.51680985997</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6469,18 +6069,15 @@
         <v>4426.7683</v>
       </c>
       <c r="G165" t="n">
-        <v>83870.28510985996</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6502,18 +6099,15 @@
         <v>1013.4897</v>
       </c>
       <c r="G166" t="n">
-        <v>82856.79540985996</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6535,18 +6129,15 @@
         <v>1723.7077</v>
       </c>
       <c r="G167" t="n">
-        <v>84580.50310985996</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6568,18 +6159,15 @@
         <v>2062.2674</v>
       </c>
       <c r="G168" t="n">
-        <v>82518.23570985996</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6601,18 +6189,15 @@
         <v>17.7725</v>
       </c>
       <c r="G169" t="n">
-        <v>82536.00820985997</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6634,18 +6219,15 @@
         <v>1052.3946</v>
       </c>
       <c r="G170" t="n">
-        <v>83588.40280985997</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6667,18 +6249,15 @@
         <v>2197.8022</v>
       </c>
       <c r="G171" t="n">
-        <v>81390.60060985996</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6700,18 +6279,15 @@
         <v>2626.7703</v>
       </c>
       <c r="G172" t="n">
-        <v>78763.83030985996</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6733,18 +6309,15 @@
         <v>179.2</v>
       </c>
       <c r="G173" t="n">
-        <v>78943.03030985995</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6766,18 +6339,15 @@
         <v>40</v>
       </c>
       <c r="G174" t="n">
-        <v>78943.03030985995</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6799,18 +6369,15 @@
         <v>8285.7952</v>
       </c>
       <c r="G175" t="n">
-        <v>70657.23510985996</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6832,18 +6399,15 @@
         <v>6322.9836</v>
       </c>
       <c r="G176" t="n">
-        <v>76980.21870985997</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6865,18 +6429,15 @@
         <v>873.3677</v>
       </c>
       <c r="G177" t="n">
-        <v>77853.58640985997</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6898,18 +6459,15 @@
         <v>657.2085</v>
       </c>
       <c r="G178" t="n">
-        <v>77853.58640985997</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6931,18 +6489,15 @@
         <v>913.8671806999999</v>
       </c>
       <c r="G179" t="n">
-        <v>77853.58640985997</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6964,18 +6519,15 @@
         <v>136.1611</v>
       </c>
       <c r="G180" t="n">
-        <v>77717.42530985997</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6997,18 +6549,15 @@
         <v>8725.1253</v>
       </c>
       <c r="G181" t="n">
-        <v>68992.30000985997</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7030,18 +6579,15 @@
         <v>250.9999</v>
       </c>
       <c r="G182" t="n">
-        <v>69243.29990985997</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7063,18 +6609,15 @@
         <v>2962.965</v>
       </c>
       <c r="G183" t="n">
-        <v>69243.29990985997</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7096,18 +6639,15 @@
         <v>1280.9691</v>
       </c>
       <c r="G184" t="n">
-        <v>70524.26900985997</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7129,18 +6669,15 @@
         <v>45.7826</v>
       </c>
       <c r="G185" t="n">
-        <v>70478.48640985996</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7162,18 +6699,15 @@
         <v>1314.0454</v>
       </c>
       <c r="G186" t="n">
-        <v>69164.44100985996</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7195,18 +6729,15 @@
         <v>2256.6206</v>
       </c>
       <c r="G187" t="n">
-        <v>71421.06160985996</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7228,18 +6759,15 @@
         <v>1940.1836</v>
       </c>
       <c r="G188" t="n">
-        <v>69480.87800985995</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7261,18 +6789,15 @@
         <v>918.9118</v>
       </c>
       <c r="G189" t="n">
-        <v>68561.96620985995</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7294,18 +6819,15 @@
         <v>4512.6752</v>
       </c>
       <c r="G190" t="n">
-        <v>73074.64140985995</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7327,18 +6849,15 @@
         <v>7581.6192</v>
       </c>
       <c r="G191" t="n">
-        <v>65493.02220985995</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7360,18 +6879,15 @@
         <v>6000.2059</v>
       </c>
       <c r="G192" t="n">
-        <v>71493.22810985995</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7393,18 +6909,15 @@
         <v>3952.7536057</v>
       </c>
       <c r="G193" t="n">
-        <v>75445.98171555994</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7426,18 +6939,15 @@
         <v>124.8774</v>
       </c>
       <c r="G194" t="n">
-        <v>75570.85911555994</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7459,18 +6969,15 @@
         <v>745.4329</v>
       </c>
       <c r="G195" t="n">
-        <v>74825.42621555994</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7492,18 +6999,15 @@
         <v>1457.8647</v>
       </c>
       <c r="G196" t="n">
-        <v>73367.56151555994</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7525,18 +7029,15 @@
         <v>576.928</v>
       </c>
       <c r="G197" t="n">
-        <v>73944.48951555994</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7558,18 +7059,15 @@
         <v>37541.3025</v>
       </c>
       <c r="G198" t="n">
-        <v>111485.7920155599</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7591,18 +7089,15 @@
         <v>2047.7256</v>
       </c>
       <c r="G199" t="n">
-        <v>109438.0664155599</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7624,18 +7119,15 @@
         <v>228.8125</v>
       </c>
       <c r="G200" t="n">
-        <v>109438.0664155599</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7657,18 +7149,15 @@
         <v>7752.7193</v>
       </c>
       <c r="G201" t="n">
-        <v>117190.7857155599</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7690,18 +7179,15 @@
         <v>6.5454</v>
       </c>
       <c r="G202" t="n">
-        <v>117184.2403155599</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7723,18 +7209,15 @@
         <v>5</v>
       </c>
       <c r="G203" t="n">
-        <v>117184.2403155599</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7756,18 +7239,15 @@
         <v>2.0196</v>
       </c>
       <c r="G204" t="n">
-        <v>117184.2403155599</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7789,18 +7269,15 @@
         <v>515.2533</v>
       </c>
       <c r="G205" t="n">
-        <v>117699.4936155599</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7822,18 +7299,15 @@
         <v>2421.5544</v>
       </c>
       <c r="G206" t="n">
-        <v>120121.0480155599</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7855,18 +7329,15 @@
         <v>263.8759</v>
       </c>
       <c r="G207" t="n">
-        <v>120384.9239155599</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7888,18 +7359,15 @@
         <v>6525.7627</v>
       </c>
       <c r="G208" t="n">
-        <v>126910.6866155599</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7921,18 +7389,15 @@
         <v>1852.7881</v>
       </c>
       <c r="G209" t="n">
-        <v>125057.8985155599</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7954,18 +7419,15 @@
         <v>703.0441</v>
       </c>
       <c r="G210" t="n">
-        <v>125057.8985155599</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7987,18 +7449,15 @@
         <v>2693.2468</v>
       </c>
       <c r="G211" t="n">
-        <v>127751.1453155599</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8020,18 +7479,15 @@
         <v>4316.10641811</v>
       </c>
       <c r="G212" t="n">
-        <v>123435.0388974499</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8053,18 +7509,15 @@
         <v>943.9476</v>
       </c>
       <c r="G213" t="n">
-        <v>122491.0912974499</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8086,18 +7539,15 @@
         <v>590</v>
       </c>
       <c r="G214" t="n">
-        <v>121901.0912974499</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8119,18 +7569,15 @@
         <v>536.1301</v>
       </c>
       <c r="G215" t="n">
-        <v>122437.2213974499</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8152,18 +7599,15 @@
         <v>670.3424</v>
       </c>
       <c r="G216" t="n">
-        <v>121766.8789974499</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8185,18 +7629,15 @@
         <v>155.6592</v>
       </c>
       <c r="G217" t="n">
-        <v>121922.5381974499</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8218,18 +7659,15 @@
         <v>2175.9799</v>
       </c>
       <c r="G218" t="n">
-        <v>119746.5582974499</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8251,18 +7689,15 @@
         <v>3384.363</v>
       </c>
       <c r="G219" t="n">
-        <v>116362.1952974499</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8284,18 +7719,15 @@
         <v>1030.2133</v>
       </c>
       <c r="G220" t="n">
-        <v>117392.4085974499</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8317,18 +7749,15 @@
         <v>2414.2981</v>
       </c>
       <c r="G221" t="n">
-        <v>114978.1104974499</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8350,18 +7779,15 @@
         <v>1027.2177</v>
       </c>
       <c r="G222" t="n">
-        <v>113950.8927974499</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8383,18 +7809,15 @@
         <v>211.5</v>
       </c>
       <c r="G223" t="n">
-        <v>113950.8927974499</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8416,18 +7839,15 @@
         <v>1</v>
       </c>
       <c r="G224" t="n">
-        <v>113951.8927974499</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8449,18 +7869,15 @@
         <v>591.4717000000001</v>
       </c>
       <c r="G225" t="n">
-        <v>113360.4210974499</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8482,18 +7899,15 @@
         <v>12</v>
       </c>
       <c r="G226" t="n">
-        <v>113348.4210974499</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8515,18 +7929,15 @@
         <v>1755.141</v>
       </c>
       <c r="G227" t="n">
-        <v>115103.5620974499</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8548,18 +7959,15 @@
         <v>28.9611</v>
       </c>
       <c r="G228" t="n">
-        <v>115074.6009974499</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8581,18 +7989,15 @@
         <v>612.3262999999999</v>
       </c>
       <c r="G229" t="n">
-        <v>114462.2746974499</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8614,18 +8019,15 @@
         <v>68.032</v>
       </c>
       <c r="G230" t="n">
-        <v>114394.2426974499</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8647,18 +8049,15 @@
         <v>787.4367999999999</v>
       </c>
       <c r="G231" t="n">
-        <v>114394.2426974499</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8680,18 +8079,15 @@
         <v>2813.4231</v>
       </c>
       <c r="G232" t="n">
-        <v>111580.8195974499</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8713,18 +8109,15 @@
         <v>783.9155</v>
       </c>
       <c r="G233" t="n">
-        <v>110796.9040974499</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8746,18 +8139,15 @@
         <v>6163.053</v>
       </c>
       <c r="G234" t="n">
-        <v>110796.9040974499</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8779,18 +8169,15 @@
         <v>400.3329</v>
       </c>
       <c r="G235" t="n">
-        <v>110796.9040974499</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8812,18 +8199,15 @@
         <v>1008.9331</v>
       </c>
       <c r="G236" t="n">
-        <v>110796.9040974499</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8845,18 +8229,15 @@
         <v>840.5244</v>
       </c>
       <c r="G237" t="n">
-        <v>109956.3796974499</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8878,18 +8259,15 @@
         <v>1033.5088</v>
       </c>
       <c r="G238" t="n">
-        <v>108922.8708974499</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8911,18 +8289,15 @@
         <v>14709.0589</v>
       </c>
       <c r="G239" t="n">
-        <v>94213.81199744993</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8944,18 +8319,15 @@
         <v>225.078</v>
       </c>
       <c r="G240" t="n">
-        <v>94438.88999744992</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8977,18 +8349,15 @@
         <v>173.6423</v>
       </c>
       <c r="G241" t="n">
-        <v>94438.88999744992</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9010,18 +8379,15 @@
         <v>66.0402</v>
       </c>
       <c r="G242" t="n">
-        <v>94372.84979744992</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9043,18 +8409,15 @@
         <v>241.1323</v>
       </c>
       <c r="G243" t="n">
-        <v>94131.71749744992</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9076,18 +8439,15 @@
         <v>207.9135</v>
       </c>
       <c r="G244" t="n">
-        <v>94131.71749744992</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9109,18 +8469,15 @@
         <v>6119.0731</v>
       </c>
       <c r="G245" t="n">
-        <v>88012.64439744993</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9142,18 +8499,15 @@
         <v>103</v>
       </c>
       <c r="G246" t="n">
-        <v>88115.64439744993</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9175,18 +8529,15 @@
         <v>13570.7615</v>
       </c>
       <c r="G247" t="n">
-        <v>74544.88289744992</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9208,18 +8559,15 @@
         <v>6707.5613</v>
       </c>
       <c r="G248" t="n">
-        <v>81252.44419744992</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9241,18 +8589,15 @@
         <v>2086.4163</v>
       </c>
       <c r="G249" t="n">
-        <v>83338.86049744992</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9274,18 +8619,15 @@
         <v>209.4572</v>
       </c>
       <c r="G250" t="n">
-        <v>83129.40329744991</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9307,18 +8649,15 @@
         <v>454.737</v>
       </c>
       <c r="G251" t="n">
-        <v>83584.14029744991</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9340,18 +8679,15 @@
         <v>8068.1277</v>
       </c>
       <c r="G252" t="n">
-        <v>91652.2679974499</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9373,18 +8709,15 @@
         <v>4937.3735</v>
       </c>
       <c r="G253" t="n">
-        <v>86714.8944974499</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9406,18 +8739,15 @@
         <v>503.6899</v>
       </c>
       <c r="G254" t="n">
-        <v>86211.20459744991</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9439,18 +8769,15 @@
         <v>3821.2304</v>
       </c>
       <c r="G255" t="n">
-        <v>90032.43499744991</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9472,18 +8799,15 @@
         <v>3115.9025</v>
       </c>
       <c r="G256" t="n">
-        <v>93148.3374974499</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9505,18 +8829,15 @@
         <v>831.0913</v>
       </c>
       <c r="G257" t="n">
-        <v>93979.4287974499</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9538,18 +8859,15 @@
         <v>959.3489</v>
       </c>
       <c r="G258" t="n">
-        <v>94938.7776974499</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9571,18 +8889,15 @@
         <v>17.6476</v>
       </c>
       <c r="G259" t="n">
-        <v>94921.1300974499</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9604,18 +8919,15 @@
         <v>5075.7373</v>
       </c>
       <c r="G260" t="n">
-        <v>89845.39279744991</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9637,18 +8949,15 @@
         <v>24.5536</v>
       </c>
       <c r="G261" t="n">
-        <v>89869.94639744991</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9670,18 +8979,15 @@
         <v>6640.2759</v>
       </c>
       <c r="G262" t="n">
-        <v>83229.67049744992</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9703,18 +9009,15 @@
         <v>87.94455975</v>
       </c>
       <c r="G263" t="n">
-        <v>83317.61505719992</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9736,18 +9039,15 @@
         <v>276.7974</v>
       </c>
       <c r="G264" t="n">
-        <v>83040.81765719992</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9769,18 +9069,15 @@
         <v>139.5793</v>
       </c>
       <c r="G265" t="n">
-        <v>83180.39695719992</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9802,18 +9099,15 @@
         <v>515.1423</v>
       </c>
       <c r="G266" t="n">
-        <v>83695.53925719993</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9835,18 +9129,15 @@
         <v>1</v>
       </c>
       <c r="G267" t="n">
-        <v>83696.53925719993</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9868,18 +9159,15 @@
         <v>5457.6381</v>
       </c>
       <c r="G268" t="n">
-        <v>78238.90115719993</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9901,18 +9189,15 @@
         <v>13935.1293</v>
       </c>
       <c r="G269" t="n">
-        <v>64303.77185719993</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9934,18 +9219,15 @@
         <v>509.0015</v>
       </c>
       <c r="G270" t="n">
-        <v>64812.77335719993</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9967,18 +9249,15 @@
         <v>339.1004</v>
       </c>
       <c r="G271" t="n">
-        <v>64473.67295719992</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10000,18 +9279,15 @@
         <v>1594.3669</v>
       </c>
       <c r="G272" t="n">
-        <v>66068.03985719992</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10033,18 +9309,15 @@
         <v>7410.4963</v>
       </c>
       <c r="G273" t="n">
-        <v>73478.53615719992</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10066,18 +9339,15 @@
         <v>6234.592</v>
       </c>
       <c r="G274" t="n">
-        <v>67243.94415719992</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10099,18 +9369,15 @@
         <v>364.8568</v>
       </c>
       <c r="G275" t="n">
-        <v>67608.80095719991</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10132,18 +9399,15 @@
         <v>335.1903</v>
       </c>
       <c r="G276" t="n">
-        <v>67273.61065719991</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10165,18 +9429,15 @@
         <v>309.4915</v>
       </c>
       <c r="G277" t="n">
-        <v>66964.11915719991</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10198,18 +9459,15 @@
         <v>2560.5125</v>
       </c>
       <c r="G278" t="n">
-        <v>64403.60665719991</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10231,18 +9489,15 @@
         <v>550.4402</v>
       </c>
       <c r="G279" t="n">
-        <v>64954.04685719991</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10264,18 +9519,15 @@
         <v>1216.3882</v>
       </c>
       <c r="G280" t="n">
-        <v>66170.43505719991</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10297,18 +9549,15 @@
         <v>35.2689</v>
       </c>
       <c r="G281" t="n">
-        <v>66205.7039571999</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10330,18 +9579,15 @@
         <v>730.0624</v>
       </c>
       <c r="G282" t="n">
-        <v>65475.6415571999</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10363,18 +9609,15 @@
         <v>11</v>
       </c>
       <c r="G283" t="n">
-        <v>65486.6415571999</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10396,18 +9639,15 @@
         <v>466.0085</v>
       </c>
       <c r="G284" t="n">
-        <v>65952.65005719991</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10429,18 +9669,15 @@
         <v>1</v>
       </c>
       <c r="G285" t="n">
-        <v>65953.65005719991</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
